--- a/结算数据监控平台开发计划.xlsx
+++ b/结算数据监控平台开发计划.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicker/sandbox/settlementMonitoring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28A04CDF-AC4C-E248-85EA-8E03750FB59B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF74B0F0-CAA2-DF42-881E-142BD0EEB423}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="26540" windowHeight="18920" activeTab="3" xr2:uid="{AD2C15C8-2DE4-104B-A764-E65CC8F0AEA6}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="243">
   <si>
     <t>ETX联网结算平台</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1714,6 +1714,147 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="15" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="15" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="23" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="16" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="20" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="20" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="20" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="19" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="21" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="15" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="17" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="17" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1831,6 +1972,9 @@
     <xf numFmtId="0" fontId="9" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1840,78 +1984,24 @@
     <xf numFmtId="0" fontId="11" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1920,6 +2010,12 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1927,6 +2023,9 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1954,6 +2053,72 @@
     <xf numFmtId="0" fontId="11" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1966,176 +2131,11 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="15" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="15" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="23" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="16" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="20" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="20" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="20" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="19" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="21" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="15" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="17" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="17" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2633,16 +2633,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="18" customHeight="1">
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="118" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
     </row>
     <row r="2" spans="2:5">
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
+      <c r="B2" s="119"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
     </row>
     <row r="3" spans="2:5">
       <c r="B3" s="3" t="s">
@@ -2678,7 +2678,7 @@
       <c r="D5" s="2"/>
     </row>
     <row r="6" spans="2:5">
-      <c r="B6" s="73" t="s">
+      <c r="B6" s="120" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -2692,7 +2692,7 @@
       </c>
     </row>
     <row r="7" spans="2:5">
-      <c r="B7" s="73"/>
+      <c r="B7" s="120"/>
       <c r="C7" s="4" t="s">
         <v>39</v>
       </c>
@@ -2702,7 +2702,7 @@
       </c>
     </row>
     <row r="8" spans="2:5">
-      <c r="B8" s="75" t="s">
+      <c r="B8" s="122" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="5" t="s">
@@ -2716,7 +2716,7 @@
       </c>
     </row>
     <row r="9" spans="2:5">
-      <c r="B9" s="75"/>
+      <c r="B9" s="122"/>
       <c r="C9" s="5" t="s">
         <v>43</v>
       </c>
@@ -2752,7 +2752,7 @@
       <c r="D13" s="2"/>
     </row>
     <row r="14" spans="2:5">
-      <c r="B14" s="74" t="s">
+      <c r="B14" s="121" t="s">
         <v>45</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -2766,7 +2766,7 @@
       </c>
     </row>
     <row r="15" spans="2:5">
-      <c r="B15" s="74"/>
+      <c r="B15" s="121"/>
       <c r="C15" s="2" t="s">
         <v>27</v>
       </c>
@@ -2776,7 +2776,7 @@
       <c r="E15" s="11"/>
     </row>
     <row r="16" spans="2:5">
-      <c r="B16" s="74"/>
+      <c r="B16" s="121"/>
       <c r="C16" s="2" t="s">
         <v>28</v>
       </c>
@@ -2786,7 +2786,7 @@
       <c r="E16" s="11"/>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="74"/>
+      <c r="B17" s="121"/>
       <c r="C17" s="2" t="s">
         <v>29</v>
       </c>
@@ -2806,7 +2806,7 @@
       <c r="D19" s="2"/>
     </row>
     <row r="20" spans="2:5">
-      <c r="B20" s="70" t="s">
+      <c r="B20" s="117" t="s">
         <v>51</v>
       </c>
       <c r="C20" s="7" t="s">
@@ -2815,35 +2815,35 @@
       <c r="D20" s="2"/>
     </row>
     <row r="21" spans="2:5">
-      <c r="B21" s="70"/>
+      <c r="B21" s="117"/>
       <c r="C21" s="7" t="s">
         <v>34</v>
       </c>
       <c r="D21" s="2"/>
     </row>
     <row r="22" spans="2:5">
-      <c r="B22" s="70"/>
+      <c r="B22" s="117"/>
       <c r="C22" s="7" t="s">
         <v>53</v>
       </c>
       <c r="D22" s="2"/>
     </row>
     <row r="23" spans="2:5">
-      <c r="B23" s="70"/>
+      <c r="B23" s="117"/>
       <c r="C23" s="7" t="s">
         <v>54</v>
       </c>
       <c r="D23" s="2"/>
     </row>
     <row r="24" spans="2:5">
-      <c r="B24" s="70"/>
+      <c r="B24" s="117"/>
       <c r="C24" s="7" t="s">
         <v>55</v>
       </c>
       <c r="D24" s="2"/>
     </row>
     <row r="25" spans="2:5">
-      <c r="B25" s="70"/>
+      <c r="B25" s="117"/>
       <c r="C25" s="2" t="s">
         <v>56</v>
       </c>
@@ -2947,13 +2947,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="30">
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="126" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="81"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="128"/>
     </row>
     <row r="3" spans="2:8">
       <c r="B3" s="25"/>
@@ -2966,7 +2966,7 @@
       <c r="B4" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="C4" s="85" t="s">
+      <c r="C4" s="132" t="s">
         <v>60</v>
       </c>
       <c r="D4" s="14" t="s">
@@ -2985,7 +2985,7 @@
     </row>
     <row r="5" spans="2:8" ht="18">
       <c r="B5" s="23"/>
-      <c r="C5" s="86"/>
+      <c r="C5" s="133"/>
       <c r="D5" s="15" t="s">
         <v>129</v>
       </c>
@@ -2996,7 +2996,7 @@
     </row>
     <row r="6" spans="2:8" ht="18">
       <c r="B6" s="23"/>
-      <c r="C6" s="86"/>
+      <c r="C6" s="133"/>
       <c r="D6" s="15" t="s">
         <v>130</v>
       </c>
@@ -3005,7 +3005,7 @@
     </row>
     <row r="7" spans="2:8" ht="18">
       <c r="B7" s="23"/>
-      <c r="C7" s="87"/>
+      <c r="C7" s="134"/>
       <c r="D7" s="15" t="s">
         <v>131</v>
       </c>
@@ -3025,7 +3025,7 @@
     </row>
     <row r="9" spans="2:8" ht="17">
       <c r="B9" s="23"/>
-      <c r="C9" s="88" t="s">
+      <c r="C9" s="135" t="s">
         <v>114</v>
       </c>
       <c r="D9" s="15"/>
@@ -3034,7 +3034,7 @@
     </row>
     <row r="10" spans="2:8" ht="16" customHeight="1">
       <c r="B10" s="23"/>
-      <c r="C10" s="89"/>
+      <c r="C10" s="136"/>
       <c r="D10" s="15" t="s">
         <v>62</v>
       </c>
@@ -3043,7 +3043,7 @@
     </row>
     <row r="11" spans="2:8" ht="18" customHeight="1">
       <c r="B11" s="23"/>
-      <c r="C11" s="89"/>
+      <c r="C11" s="136"/>
       <c r="D11" s="15" t="s">
         <v>65</v>
       </c>
@@ -3054,7 +3054,7 @@
     </row>
     <row r="12" spans="2:8" ht="18">
       <c r="B12" s="23"/>
-      <c r="C12" s="89"/>
+      <c r="C12" s="136"/>
       <c r="D12" s="15" t="s">
         <v>66</v>
       </c>
@@ -3065,7 +3065,7 @@
     </row>
     <row r="13" spans="2:8" ht="36">
       <c r="B13" s="23"/>
-      <c r="C13" s="89"/>
+      <c r="C13" s="136"/>
       <c r="D13" s="15" t="s">
         <v>68</v>
       </c>
@@ -3076,7 +3076,7 @@
     </row>
     <row r="14" spans="2:8" ht="18">
       <c r="B14" s="23"/>
-      <c r="C14" s="90"/>
+      <c r="C14" s="137"/>
       <c r="D14" s="16" t="s">
         <v>70</v>
       </c>
@@ -3121,7 +3121,7 @@
     </row>
     <row r="19" spans="2:6" ht="18">
       <c r="B19" s="23"/>
-      <c r="C19" s="91"/>
+      <c r="C19" s="138"/>
       <c r="D19" s="15" t="s">
         <v>132</v>
       </c>
@@ -3130,7 +3130,7 @@
     </row>
     <row r="20" spans="2:6" ht="18">
       <c r="B20" s="23"/>
-      <c r="C20" s="92"/>
+      <c r="C20" s="139"/>
       <c r="D20" s="15" t="s">
         <v>133</v>
       </c>
@@ -3139,28 +3139,28 @@
     </row>
     <row r="21" spans="2:6" ht="17">
       <c r="B21" s="23"/>
-      <c r="C21" s="92"/>
+      <c r="C21" s="139"/>
       <c r="D21" s="15"/>
       <c r="E21" s="15"/>
       <c r="F21" s="2"/>
     </row>
     <row r="22" spans="2:6" ht="17">
       <c r="B22" s="23"/>
-      <c r="C22" s="92"/>
+      <c r="C22" s="139"/>
       <c r="D22" s="15"/>
       <c r="E22" s="15"/>
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="2:6" ht="17">
       <c r="B23" s="23"/>
-      <c r="C23" s="92"/>
+      <c r="C23" s="139"/>
       <c r="D23" s="15"/>
       <c r="E23" s="15"/>
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="2:6" ht="17">
       <c r="B24" s="23"/>
-      <c r="C24" s="93"/>
+      <c r="C24" s="140"/>
       <c r="D24" s="16"/>
       <c r="E24" s="15"/>
       <c r="F24" s="2"/>
@@ -3194,7 +3194,7 @@
     </row>
     <row r="29" spans="2:6" ht="18">
       <c r="B29" s="23"/>
-      <c r="C29" s="94" t="s">
+      <c r="C29" s="141" t="s">
         <v>78</v>
       </c>
       <c r="D29" s="15" t="s">
@@ -3204,7 +3204,7 @@
     </row>
     <row r="30" spans="2:6" ht="16" customHeight="1">
       <c r="B30" s="23"/>
-      <c r="C30" s="95"/>
+      <c r="C30" s="142"/>
       <c r="D30" s="15" t="s">
         <v>79</v>
       </c>
@@ -3220,7 +3220,7 @@
     </row>
     <row r="32" spans="2:6" ht="36">
       <c r="B32" s="23"/>
-      <c r="C32" s="96" t="s">
+      <c r="C32" s="143" t="s">
         <v>80</v>
       </c>
       <c r="D32" s="15" t="s">
@@ -3233,7 +3233,7 @@
     </row>
     <row r="33" spans="2:6" ht="17">
       <c r="B33" s="23"/>
-      <c r="C33" s="97"/>
+      <c r="C33" s="144"/>
       <c r="D33" s="2" t="s">
         <v>116</v>
       </c>
@@ -3253,7 +3253,7 @@
     </row>
     <row r="35" spans="2:6" ht="16" customHeight="1">
       <c r="B35" s="23"/>
-      <c r="C35" s="98" t="s">
+      <c r="C35" s="145" t="s">
         <v>85</v>
       </c>
       <c r="D35" s="15" t="s">
@@ -3263,8 +3263,8 @@
       <c r="F35" s="15"/>
     </row>
     <row r="36" spans="2:6" ht="18">
-      <c r="B36" s="100"/>
-      <c r="C36" s="99"/>
+      <c r="B36" s="147"/>
+      <c r="C36" s="146"/>
       <c r="D36" s="15" t="s">
         <v>87</v>
       </c>
@@ -3272,7 +3272,7 @@
       <c r="F36" s="15"/>
     </row>
     <row r="37" spans="2:6" ht="18">
-      <c r="B37" s="101"/>
+      <c r="B37" s="148"/>
       <c r="C37" s="15"/>
       <c r="D37" s="15" t="s">
         <v>117</v>
@@ -3281,14 +3281,14 @@
       <c r="F37" s="15"/>
     </row>
     <row r="38" spans="2:6">
-      <c r="B38" s="101"/>
+      <c r="B38" s="148"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
     </row>
     <row r="39" spans="2:6" ht="17">
-      <c r="B39" s="101"/>
+      <c r="B39" s="148"/>
       <c r="C39" s="24" t="s">
         <v>88</v>
       </c>
@@ -3299,15 +3299,15 @@
       <c r="F39" s="2"/>
     </row>
     <row r="40" spans="2:6" ht="16" customHeight="1">
-      <c r="B40" s="101"/>
+      <c r="B40" s="148"/>
       <c r="C40" s="13"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
     </row>
     <row r="41" spans="2:6">
-      <c r="B41" s="101"/>
-      <c r="C41" s="103" t="s">
+      <c r="B41" s="148"/>
+      <c r="C41" s="150" t="s">
         <v>102</v>
       </c>
       <c r="D41" s="2" t="s">
@@ -3317,8 +3317,8 @@
       <c r="F41" s="2"/>
     </row>
     <row r="42" spans="2:6">
-      <c r="B42" s="101"/>
-      <c r="C42" s="104"/>
+      <c r="B42" s="148"/>
+      <c r="C42" s="151"/>
       <c r="D42" s="2" t="s">
         <v>104</v>
       </c>
@@ -3326,8 +3326,8 @@
       <c r="F42" s="2"/>
     </row>
     <row r="43" spans="2:6" ht="17" customHeight="1">
-      <c r="B43" s="101"/>
-      <c r="C43" s="104"/>
+      <c r="B43" s="148"/>
+      <c r="C43" s="151"/>
       <c r="D43" s="2" t="s">
         <v>105</v>
       </c>
@@ -3335,8 +3335,8 @@
       <c r="F43" s="2"/>
     </row>
     <row r="44" spans="2:6" ht="17" customHeight="1">
-      <c r="B44" s="101"/>
-      <c r="C44" s="104"/>
+      <c r="B44" s="148"/>
+      <c r="C44" s="151"/>
       <c r="D44" s="2" t="s">
         <v>106</v>
       </c>
@@ -3344,8 +3344,8 @@
       <c r="F44" s="2"/>
     </row>
     <row r="45" spans="2:6" ht="17" customHeight="1">
-      <c r="B45" s="101"/>
-      <c r="C45" s="104"/>
+      <c r="B45" s="148"/>
+      <c r="C45" s="151"/>
       <c r="D45" s="2" t="s">
         <v>107</v>
       </c>
@@ -3353,8 +3353,8 @@
       <c r="F45" s="2"/>
     </row>
     <row r="46" spans="2:6" ht="17" customHeight="1">
-      <c r="B46" s="101"/>
-      <c r="C46" s="104"/>
+      <c r="B46" s="148"/>
+      <c r="C46" s="151"/>
       <c r="D46" s="20" t="s">
         <v>108</v>
       </c>
@@ -3362,8 +3362,8 @@
       <c r="F46" s="2"/>
     </row>
     <row r="47" spans="2:6" ht="17" customHeight="1">
-      <c r="B47" s="101"/>
-      <c r="C47" s="104"/>
+      <c r="B47" s="148"/>
+      <c r="C47" s="151"/>
       <c r="D47" s="2" t="s">
         <v>109</v>
       </c>
@@ -3371,8 +3371,8 @@
       <c r="F47" s="2"/>
     </row>
     <row r="48" spans="2:6" ht="17" customHeight="1">
-      <c r="B48" s="101"/>
-      <c r="C48" s="104"/>
+      <c r="B48" s="148"/>
+      <c r="C48" s="151"/>
       <c r="D48" s="21" t="s">
         <v>110</v>
       </c>
@@ -3380,8 +3380,8 @@
       <c r="F48" s="2"/>
     </row>
     <row r="49" spans="2:6" ht="17" customHeight="1">
-      <c r="B49" s="101"/>
-      <c r="C49" s="105"/>
+      <c r="B49" s="148"/>
+      <c r="C49" s="152"/>
       <c r="D49" s="21" t="s">
         <v>111</v>
       </c>
@@ -3389,13 +3389,13 @@
       <c r="F49" s="2"/>
     </row>
     <row r="50" spans="2:6" ht="17" customHeight="1">
-      <c r="B50" s="101"/>
+      <c r="B50" s="148"/>
       <c r="C50" s="2"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
     </row>
     <row r="51" spans="2:6" ht="17" customHeight="1">
-      <c r="B51" s="102"/>
+      <c r="B51" s="149"/>
       <c r="C51" s="2"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
@@ -3408,10 +3408,10 @@
       <c r="F52" s="2"/>
     </row>
     <row r="53" spans="2:6" ht="17" customHeight="1">
-      <c r="B53" s="82" t="s">
+      <c r="B53" s="129" t="s">
         <v>89</v>
       </c>
-      <c r="C53" s="106" t="s">
+      <c r="C53" s="153" t="s">
         <v>60</v>
       </c>
       <c r="D53" s="14" t="s">
@@ -3423,8 +3423,8 @@
       <c r="F53" s="2"/>
     </row>
     <row r="54" spans="2:6" ht="18">
-      <c r="B54" s="83"/>
-      <c r="C54" s="107"/>
+      <c r="B54" s="130"/>
+      <c r="C54" s="154"/>
       <c r="D54" s="15" t="s">
         <v>91</v>
       </c>
@@ -3434,8 +3434,8 @@
       <c r="F54" s="2"/>
     </row>
     <row r="55" spans="2:6" ht="18">
-      <c r="B55" s="83"/>
-      <c r="C55" s="107"/>
+      <c r="B55" s="130"/>
+      <c r="C55" s="154"/>
       <c r="D55" s="15" t="s">
         <v>121</v>
       </c>
@@ -3445,8 +3445,8 @@
       <c r="F55" s="2"/>
     </row>
     <row r="56" spans="2:6" ht="18">
-      <c r="B56" s="83"/>
-      <c r="C56" s="108"/>
+      <c r="B56" s="130"/>
+      <c r="C56" s="155"/>
       <c r="D56" s="15" t="s">
         <v>119</v>
       </c>
@@ -3456,15 +3456,15 @@
       <c r="F56" s="2"/>
     </row>
     <row r="57" spans="2:6">
-      <c r="B57" s="83"/>
+      <c r="B57" s="130"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
     </row>
     <row r="58" spans="2:6" ht="17">
-      <c r="B58" s="83"/>
-      <c r="C58" s="76" t="s">
+      <c r="B58" s="130"/>
+      <c r="C58" s="123" t="s">
         <v>123</v>
       </c>
       <c r="D58" s="15"/>
@@ -3472,8 +3472,8 @@
       <c r="F58" s="15"/>
     </row>
     <row r="59" spans="2:6" ht="18">
-      <c r="B59" s="83"/>
-      <c r="C59" s="77"/>
+      <c r="B59" s="130"/>
+      <c r="C59" s="124"/>
       <c r="D59" s="15" t="s">
         <v>62</v>
       </c>
@@ -3485,8 +3485,8 @@
       </c>
     </row>
     <row r="60" spans="2:6" ht="18" customHeight="1">
-      <c r="B60" s="83"/>
-      <c r="C60" s="77"/>
+      <c r="B60" s="130"/>
+      <c r="C60" s="124"/>
       <c r="D60" s="15" t="s">
         <v>65</v>
       </c>
@@ -3496,8 +3496,8 @@
       <c r="F60" s="15"/>
     </row>
     <row r="61" spans="2:6" ht="18">
-      <c r="B61" s="83"/>
-      <c r="C61" s="77"/>
+      <c r="B61" s="130"/>
+      <c r="C61" s="124"/>
       <c r="D61" s="15" t="s">
         <v>66</v>
       </c>
@@ -3507,8 +3507,8 @@
       <c r="F61" s="15"/>
     </row>
     <row r="62" spans="2:6" ht="36">
-      <c r="B62" s="83"/>
-      <c r="C62" s="77"/>
+      <c r="B62" s="130"/>
+      <c r="C62" s="124"/>
       <c r="D62" s="15" t="s">
         <v>101</v>
       </c>
@@ -3518,8 +3518,8 @@
       <c r="F62" s="15"/>
     </row>
     <row r="63" spans="2:6" ht="18">
-      <c r="B63" s="83"/>
-      <c r="C63" s="78"/>
+      <c r="B63" s="130"/>
+      <c r="C63" s="125"/>
       <c r="D63" s="15" t="s">
         <v>93</v>
       </c>
@@ -3529,21 +3529,21 @@
       <c r="F63" s="15"/>
     </row>
     <row r="64" spans="2:6" ht="17">
-      <c r="B64" s="83"/>
+      <c r="B64" s="130"/>
       <c r="C64" s="15"/>
       <c r="D64" s="15"/>
       <c r="E64" s="15"/>
       <c r="F64" s="15"/>
     </row>
     <row r="65" spans="2:6">
-      <c r="B65" s="83"/>
+      <c r="B65" s="130"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
     </row>
     <row r="66" spans="2:6" ht="18">
-      <c r="B66" s="83"/>
+      <c r="B66" s="130"/>
       <c r="C66" s="15" t="s">
         <v>100</v>
       </c>
@@ -3554,14 +3554,14 @@
       <c r="F66" s="15"/>
     </row>
     <row r="67" spans="2:6" ht="17">
-      <c r="B67" s="83"/>
+      <c r="B67" s="130"/>
       <c r="C67" s="15"/>
       <c r="D67" s="15"/>
       <c r="E67" s="15"/>
       <c r="F67" s="15"/>
     </row>
     <row r="68" spans="2:6" ht="18">
-      <c r="B68" s="83"/>
+      <c r="B68" s="130"/>
       <c r="C68" s="15" t="s">
         <v>74</v>
       </c>
@@ -3572,7 +3572,7 @@
       <c r="F68" s="15"/>
     </row>
     <row r="69" spans="2:6" ht="18">
-      <c r="B69" s="83"/>
+      <c r="B69" s="130"/>
       <c r="C69" s="15"/>
       <c r="D69" s="15"/>
       <c r="E69" s="15" t="s">
@@ -3581,7 +3581,7 @@
       <c r="F69" s="15"/>
     </row>
     <row r="70" spans="2:6" ht="18">
-      <c r="B70" s="83"/>
+      <c r="B70" s="130"/>
       <c r="C70" s="15"/>
       <c r="D70" s="15"/>
       <c r="E70" s="15" t="s">
@@ -3590,35 +3590,35 @@
       <c r="F70" s="15"/>
     </row>
     <row r="71" spans="2:6" ht="17">
-      <c r="B71" s="83"/>
+      <c r="B71" s="130"/>
       <c r="C71" s="15"/>
       <c r="D71" s="15"/>
       <c r="E71" s="15"/>
       <c r="F71" s="15"/>
     </row>
     <row r="72" spans="2:6" ht="17">
-      <c r="B72" s="83"/>
+      <c r="B72" s="130"/>
       <c r="C72" s="15"/>
       <c r="D72" s="15"/>
       <c r="E72" s="15"/>
       <c r="F72" s="15"/>
     </row>
     <row r="73" spans="2:6" ht="17">
-      <c r="B73" s="83"/>
+      <c r="B73" s="130"/>
       <c r="C73" s="15"/>
       <c r="D73" s="15"/>
       <c r="E73" s="16"/>
       <c r="F73" s="15"/>
     </row>
     <row r="74" spans="2:6" ht="17">
-      <c r="B74" s="83"/>
+      <c r="B74" s="130"/>
       <c r="C74" s="15"/>
       <c r="D74" s="15"/>
       <c r="E74" s="15"/>
       <c r="F74" s="15"/>
     </row>
     <row r="75" spans="2:6" ht="18">
-      <c r="B75" s="83"/>
+      <c r="B75" s="130"/>
       <c r="C75" s="15" t="s">
         <v>77</v>
       </c>
@@ -3627,21 +3627,21 @@
       <c r="F75" s="14"/>
     </row>
     <row r="76" spans="2:6">
-      <c r="B76" s="83"/>
+      <c r="B76" s="130"/>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
     </row>
     <row r="77" spans="2:6">
-      <c r="B77" s="83"/>
+      <c r="B77" s="130"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
     </row>
     <row r="78" spans="2:6" ht="18">
-      <c r="B78" s="83"/>
+      <c r="B78" s="130"/>
       <c r="C78" s="15" t="s">
         <v>95</v>
       </c>
@@ -3650,7 +3650,7 @@
       <c r="F78" s="2"/>
     </row>
     <row r="79" spans="2:6" ht="18">
-      <c r="B79" s="83"/>
+      <c r="B79" s="130"/>
       <c r="C79" s="15"/>
       <c r="D79" s="15" t="s">
         <v>96</v>
@@ -3661,7 +3661,7 @@
       <c r="F79" s="2"/>
     </row>
     <row r="80" spans="2:6" ht="18">
-      <c r="B80" s="83"/>
+      <c r="B80" s="130"/>
       <c r="C80" s="15"/>
       <c r="D80" s="15" t="s">
         <v>97</v>
@@ -3672,14 +3672,14 @@
       <c r="F80" s="2"/>
     </row>
     <row r="81" spans="2:6">
-      <c r="B81" s="83"/>
+      <c r="B81" s="130"/>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
     </row>
     <row r="82" spans="2:6">
-      <c r="B82" s="83"/>
+      <c r="B82" s="130"/>
       <c r="C82" s="2" t="s">
         <v>98</v>
       </c>
@@ -3688,10 +3688,10 @@
       <c r="F82" s="2"/>
     </row>
     <row r="83" spans="2:6">
-      <c r="B83" s="83"/>
+      <c r="B83" s="130"/>
     </row>
     <row r="84" spans="2:6">
-      <c r="B84" s="84"/>
+      <c r="B84" s="131"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -3718,8 +3718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E10E9005-F9D0-4E45-A602-C89B60257518}">
   <dimension ref="B2:G88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
-      <selection activeCell="F75" sqref="F75"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="94" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3733,14 +3733,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="30">
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="126" t="s">
         <v>135</v>
       </c>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="81"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="128"/>
     </row>
     <row r="3" spans="2:7">
       <c r="B3" s="25" t="s">
@@ -3755,7 +3755,7 @@
       <c r="E3" s="53" t="s">
         <v>140</v>
       </c>
-      <c r="F3" s="167" t="s">
+      <c r="F3" s="80" t="s">
         <v>141</v>
       </c>
       <c r="G3" s="26" t="s">
@@ -3763,19 +3763,19 @@
       </c>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="150" t="s">
+      <c r="B4" s="205" t="s">
         <v>172</v>
       </c>
-      <c r="C4" s="153" t="s">
+      <c r="C4" s="208" t="s">
         <v>173</v>
       </c>
-      <c r="D4" s="154" t="s">
+      <c r="D4" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="E4" s="155" t="s">
+      <c r="E4" s="71" t="s">
         <v>177</v>
       </c>
-      <c r="F4" s="168" t="s">
+      <c r="F4" s="81" t="s">
         <v>181</v>
       </c>
       <c r="G4" s="34" t="s">
@@ -3783,15 +3783,15 @@
       </c>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="151"/>
-      <c r="C5" s="156"/>
-      <c r="D5" s="154" t="s">
+      <c r="B5" s="206"/>
+      <c r="C5" s="209"/>
+      <c r="D5" s="70" t="s">
         <v>167</v>
       </c>
-      <c r="E5" s="155" t="s">
+      <c r="E5" s="71" t="s">
         <v>178</v>
       </c>
-      <c r="F5" s="169">
+      <c r="F5" s="82">
         <v>44015</v>
       </c>
       <c r="G5" s="34" t="s">
@@ -3799,15 +3799,15 @@
       </c>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="151"/>
-      <c r="C6" s="157"/>
-      <c r="D6" s="154" t="s">
+      <c r="B6" s="206"/>
+      <c r="C6" s="210"/>
+      <c r="D6" s="70" t="s">
         <v>168</v>
       </c>
-      <c r="E6" s="155" t="s">
+      <c r="E6" s="71" t="s">
         <v>179</v>
       </c>
-      <c r="F6" s="170" t="s">
+      <c r="F6" s="83" t="s">
         <v>182</v>
       </c>
       <c r="G6" s="34" t="s">
@@ -3815,33 +3815,33 @@
       </c>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="151"/>
-      <c r="C7" s="158" t="s">
+      <c r="B7" s="206"/>
+      <c r="C7" s="72" t="s">
         <v>169</v>
       </c>
-      <c r="D7" s="158" t="s">
+      <c r="D7" s="72" t="s">
         <v>169</v>
       </c>
-      <c r="E7" s="159" t="s">
+      <c r="E7" s="73" t="s">
         <v>180</v>
       </c>
-      <c r="F7" s="171">
+      <c r="F7" s="84">
         <v>44020</v>
       </c>
-      <c r="G7" s="160" t="s">
+      <c r="G7" s="74" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="151"/>
-      <c r="C8" s="121" t="s">
+      <c r="B8" s="206"/>
+      <c r="C8" s="192" t="s">
         <v>174</v>
       </c>
-      <c r="D8" s="161" t="s">
+      <c r="D8" s="75" t="s">
         <v>170</v>
       </c>
       <c r="E8" s="67"/>
-      <c r="F8" s="172" t="s">
+      <c r="F8" s="85" t="s">
         <v>176</v>
       </c>
       <c r="G8" s="37" t="s">
@@ -3849,13 +3849,13 @@
       </c>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="152"/>
-      <c r="C9" s="123"/>
-      <c r="D9" s="161" t="s">
+      <c r="B9" s="207"/>
+      <c r="C9" s="194"/>
+      <c r="D9" s="75" t="s">
         <v>171</v>
       </c>
       <c r="E9" s="67"/>
-      <c r="F9" s="173">
+      <c r="F9" s="86">
         <v>44021</v>
       </c>
       <c r="G9" s="37" t="s">
@@ -3863,18 +3863,18 @@
       </c>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="163"/>
+      <c r="B10" s="77"/>
       <c r="C10" s="69"/>
-      <c r="D10" s="161"/>
+      <c r="D10" s="75"/>
       <c r="E10" s="67"/>
-      <c r="F10" s="173"/>
+      <c r="F10" s="86"/>
       <c r="G10" s="37"/>
     </row>
     <row r="11" spans="2:7" ht="36" customHeight="1">
-      <c r="B11" s="109" t="s">
+      <c r="B11" s="157" t="s">
         <v>99</v>
       </c>
-      <c r="C11" s="124" t="s">
+      <c r="C11" s="195" t="s">
         <v>144</v>
       </c>
       <c r="D11" s="27" t="s">
@@ -3883,80 +3883,82 @@
       <c r="E11" s="54" t="s">
         <v>186</v>
       </c>
-      <c r="F11" s="174" t="s">
+      <c r="F11" s="87" t="s">
         <v>157</v>
       </c>
-      <c r="G11" s="162"/>
+      <c r="G11" s="76" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="12" spans="2:7" ht="18">
-      <c r="B12" s="110"/>
-      <c r="C12" s="125"/>
+      <c r="B12" s="158"/>
+      <c r="C12" s="196"/>
       <c r="D12" s="27" t="s">
         <v>188</v>
       </c>
       <c r="E12" s="54"/>
-      <c r="F12" s="175">
+      <c r="F12" s="88">
         <v>44025</v>
       </c>
-      <c r="G12" s="162"/>
+      <c r="G12" s="76"/>
     </row>
     <row r="13" spans="2:7" ht="18">
-      <c r="B13" s="110"/>
-      <c r="C13" s="125"/>
+      <c r="B13" s="158"/>
+      <c r="C13" s="196"/>
       <c r="D13" s="28" t="s">
         <v>189</v>
       </c>
       <c r="E13" s="48" t="s">
         <v>126</v>
       </c>
-      <c r="F13" s="175">
+      <c r="F13" s="88">
         <v>44025</v>
       </c>
       <c r="G13" s="29"/>
     </row>
     <row r="14" spans="2:7" ht="18">
-      <c r="B14" s="110"/>
-      <c r="C14" s="125"/>
+      <c r="B14" s="158"/>
+      <c r="C14" s="196"/>
       <c r="D14" s="28" t="s">
         <v>190</v>
       </c>
       <c r="E14" s="54" t="s">
         <v>184</v>
       </c>
-      <c r="F14" s="176">
+      <c r="F14" s="89">
         <v>44025</v>
       </c>
       <c r="G14" s="29"/>
     </row>
     <row r="15" spans="2:7" ht="36">
-      <c r="B15" s="110"/>
-      <c r="C15" s="125"/>
+      <c r="B15" s="158"/>
+      <c r="C15" s="196"/>
       <c r="D15" s="28" t="s">
         <v>191</v>
       </c>
       <c r="E15" s="54" t="s">
         <v>183</v>
       </c>
-      <c r="F15" s="176">
+      <c r="F15" s="89">
         <v>44026</v>
       </c>
-      <c r="G15" s="162"/>
+      <c r="G15" s="76"/>
     </row>
     <row r="16" spans="2:7" ht="17" customHeight="1">
-      <c r="B16" s="110"/>
-      <c r="C16" s="126"/>
+      <c r="B16" s="158"/>
+      <c r="C16" s="197"/>
       <c r="D16" s="29" t="s">
         <v>185</v>
       </c>
       <c r="E16" s="55"/>
-      <c r="F16" s="176">
+      <c r="F16" s="89">
         <v>44026</v>
       </c>
       <c r="G16" s="29"/>
     </row>
     <row r="17" spans="2:7" ht="18">
-      <c r="B17" s="110"/>
-      <c r="C17" s="96" t="s">
+      <c r="B17" s="158"/>
+      <c r="C17" s="143" t="s">
         <v>114</v>
       </c>
       <c r="D17" s="30" t="s">
@@ -3965,86 +3967,86 @@
       <c r="E17" s="56" t="s">
         <v>187</v>
       </c>
-      <c r="F17" s="177">
+      <c r="F17" s="90">
         <v>44027</v>
       </c>
       <c r="G17" s="4"/>
     </row>
     <row r="18" spans="2:7" ht="18">
-      <c r="B18" s="110"/>
-      <c r="C18" s="127"/>
+      <c r="B18" s="158"/>
+      <c r="C18" s="198"/>
       <c r="D18" s="31" t="s">
         <v>192</v>
       </c>
       <c r="E18" s="56"/>
-      <c r="F18" s="177">
+      <c r="F18" s="90">
         <v>44027</v>
       </c>
       <c r="G18" s="4"/>
     </row>
     <row r="19" spans="2:7" ht="18">
-      <c r="B19" s="110"/>
-      <c r="C19" s="127"/>
+      <c r="B19" s="158"/>
+      <c r="C19" s="198"/>
       <c r="D19" s="31" t="s">
         <v>193</v>
       </c>
       <c r="E19" s="56"/>
-      <c r="F19" s="177">
+      <c r="F19" s="90">
         <v>44027</v>
       </c>
       <c r="G19" s="4"/>
     </row>
     <row r="20" spans="2:7" ht="18">
-      <c r="B20" s="110"/>
-      <c r="C20" s="127"/>
+      <c r="B20" s="158"/>
+      <c r="C20" s="198"/>
       <c r="D20" s="31" t="s">
         <v>194</v>
       </c>
       <c r="E20" s="56"/>
-      <c r="F20" s="177">
+      <c r="F20" s="90">
         <v>44028</v>
       </c>
       <c r="G20" s="4"/>
     </row>
     <row r="21" spans="2:7" ht="18">
-      <c r="B21" s="110"/>
-      <c r="C21" s="127"/>
+      <c r="B21" s="158"/>
+      <c r="C21" s="198"/>
       <c r="D21" s="31" t="s">
         <v>195</v>
       </c>
       <c r="E21" s="56"/>
-      <c r="F21" s="177">
+      <c r="F21" s="90">
         <v>44028</v>
       </c>
       <c r="G21" s="4"/>
     </row>
     <row r="22" spans="2:7" ht="18">
-      <c r="B22" s="110"/>
-      <c r="C22" s="127"/>
+      <c r="B22" s="158"/>
+      <c r="C22" s="198"/>
       <c r="D22" s="31" t="s">
         <v>198</v>
       </c>
       <c r="E22" s="56"/>
-      <c r="F22" s="177">
+      <c r="F22" s="90">
         <v>44029</v>
       </c>
       <c r="G22" s="4"/>
     </row>
     <row r="23" spans="2:7" ht="18">
-      <c r="B23" s="110"/>
-      <c r="C23" s="97"/>
+      <c r="B23" s="158"/>
+      <c r="C23" s="144"/>
       <c r="D23" s="31" t="s">
         <v>197</v>
       </c>
       <c r="E23" s="57"/>
-      <c r="F23" s="177">
+      <c r="F23" s="90">
         <v>44029</v>
       </c>
       <c r="G23" s="4"/>
     </row>
     <row r="24" spans="2:7" ht="18">
-      <c r="B24" s="110"/>
-      <c r="C24" s="128" t="s">
+      <c r="B24" s="158"/>
+      <c r="C24" s="199" t="s">
         <v>145</v>
       </c>
       <c r="D24" s="32" t="s">
@@ -4053,58 +4055,58 @@
       <c r="E24" s="58" t="s">
         <v>202</v>
       </c>
-      <c r="F24" s="178">
+      <c r="F24" s="91">
         <v>44032</v>
       </c>
       <c r="G24" s="5"/>
     </row>
     <row r="25" spans="2:7" ht="18">
-      <c r="B25" s="110"/>
-      <c r="C25" s="129"/>
+      <c r="B25" s="158"/>
+      <c r="C25" s="200"/>
       <c r="D25" s="19" t="s">
         <v>199</v>
       </c>
       <c r="E25" s="58"/>
-      <c r="F25" s="178">
+      <c r="F25" s="91">
         <v>44032</v>
       </c>
       <c r="G25" s="5"/>
     </row>
     <row r="26" spans="2:7" ht="18">
-      <c r="B26" s="110"/>
-      <c r="C26" s="129"/>
+      <c r="B26" s="158"/>
+      <c r="C26" s="200"/>
       <c r="D26" s="19" t="s">
         <v>203</v>
       </c>
       <c r="E26" s="58"/>
-      <c r="F26" s="178">
+      <c r="F26" s="91">
         <v>44032</v>
       </c>
       <c r="G26" s="5"/>
     </row>
     <row r="27" spans="2:7" ht="18">
-      <c r="B27" s="110"/>
-      <c r="C27" s="129"/>
+      <c r="B27" s="158"/>
+      <c r="C27" s="200"/>
       <c r="D27" s="19" t="s">
         <v>204</v>
       </c>
       <c r="E27" s="58"/>
-      <c r="F27" s="179">
+      <c r="F27" s="92">
         <v>44032</v>
       </c>
       <c r="G27" s="5"/>
     </row>
     <row r="28" spans="2:7" ht="17">
-      <c r="B28" s="110"/>
-      <c r="C28" s="130"/>
+      <c r="B28" s="158"/>
+      <c r="C28" s="201"/>
       <c r="D28" s="19"/>
       <c r="E28" s="58"/>
-      <c r="F28" s="180"/>
+      <c r="F28" s="93"/>
       <c r="G28" s="5"/>
     </row>
     <row r="29" spans="2:7" ht="18">
-      <c r="B29" s="110"/>
-      <c r="C29" s="131" t="s">
+      <c r="B29" s="158"/>
+      <c r="C29" s="202" t="s">
         <v>148</v>
       </c>
       <c r="D29" s="36" t="s">
@@ -4113,225 +4115,225 @@
       <c r="E29" s="59" t="s">
         <v>205</v>
       </c>
-      <c r="F29" s="181">
+      <c r="F29" s="94">
         <v>44033</v>
       </c>
       <c r="G29" s="3"/>
     </row>
     <row r="30" spans="2:7" ht="18">
-      <c r="B30" s="110"/>
-      <c r="C30" s="132"/>
+      <c r="B30" s="158"/>
+      <c r="C30" s="203"/>
       <c r="D30" s="36" t="s">
         <v>206</v>
       </c>
       <c r="E30" s="59"/>
-      <c r="F30" s="181">
+      <c r="F30" s="94">
         <v>44033</v>
       </c>
       <c r="G30" s="3"/>
     </row>
     <row r="31" spans="2:7" ht="36" customHeight="1">
-      <c r="B31" s="110"/>
-      <c r="C31" s="132"/>
+      <c r="B31" s="158"/>
+      <c r="C31" s="203"/>
       <c r="D31" s="36" t="s">
         <v>207</v>
       </c>
       <c r="E31" s="59"/>
-      <c r="F31" s="181">
+      <c r="F31" s="94">
         <v>44034</v>
       </c>
       <c r="G31" s="3"/>
     </row>
     <row r="32" spans="2:7" ht="54" customHeight="1">
-      <c r="B32" s="110"/>
-      <c r="C32" s="133"/>
+      <c r="B32" s="158"/>
+      <c r="C32" s="204"/>
       <c r="D32" s="59" t="s">
         <v>208</v>
       </c>
-      <c r="E32" s="164"/>
-      <c r="F32" s="181">
+      <c r="E32" s="78"/>
+      <c r="F32" s="94">
         <v>44034</v>
       </c>
       <c r="G32" s="3"/>
     </row>
     <row r="33" spans="2:7" ht="16" customHeight="1">
-      <c r="B33" s="110"/>
-      <c r="C33" s="103" t="s">
+      <c r="B33" s="158"/>
+      <c r="C33" s="150" t="s">
         <v>88</v>
       </c>
-      <c r="D33" s="121" t="s">
+      <c r="D33" s="192" t="s">
         <v>156</v>
       </c>
-      <c r="E33" s="165" t="s">
+      <c r="E33" s="79" t="s">
         <v>211</v>
       </c>
-      <c r="F33" s="173">
+      <c r="F33" s="86">
         <v>44035</v>
       </c>
       <c r="G33" s="37"/>
     </row>
     <row r="34" spans="2:7" ht="16" customHeight="1">
-      <c r="B34" s="110"/>
-      <c r="C34" s="104"/>
-      <c r="D34" s="122"/>
-      <c r="E34" s="165" t="s">
+      <c r="B34" s="158"/>
+      <c r="C34" s="151"/>
+      <c r="D34" s="193"/>
+      <c r="E34" s="79" t="s">
         <v>210</v>
       </c>
-      <c r="F34" s="173">
+      <c r="F34" s="86">
         <v>44035</v>
       </c>
       <c r="G34" s="37"/>
     </row>
     <row r="35" spans="2:7" ht="17" customHeight="1">
-      <c r="B35" s="110"/>
-      <c r="C35" s="105"/>
-      <c r="D35" s="123"/>
-      <c r="E35" s="165" t="s">
+      <c r="B35" s="158"/>
+      <c r="C35" s="152"/>
+      <c r="D35" s="194"/>
+      <c r="E35" s="79" t="s">
         <v>209</v>
       </c>
-      <c r="F35" s="173">
+      <c r="F35" s="86">
         <v>44035</v>
       </c>
       <c r="G35" s="37"/>
     </row>
     <row r="36" spans="2:7" ht="16" customHeight="1">
-      <c r="B36" s="110"/>
-      <c r="C36" s="112" t="s">
+      <c r="B36" s="158"/>
+      <c r="C36" s="183" t="s">
         <v>149</v>
       </c>
-      <c r="D36" s="115" t="s">
+      <c r="D36" s="186" t="s">
         <v>214</v>
       </c>
       <c r="E36" s="60" t="s">
         <v>212</v>
       </c>
-      <c r="F36" s="182">
+      <c r="F36" s="95">
         <v>44036</v>
       </c>
       <c r="G36" s="3"/>
     </row>
     <row r="37" spans="2:7" ht="16" customHeight="1">
-      <c r="B37" s="110"/>
-      <c r="C37" s="113"/>
-      <c r="D37" s="116"/>
+      <c r="B37" s="158"/>
+      <c r="C37" s="184"/>
+      <c r="D37" s="187"/>
       <c r="E37" s="60" t="s">
         <v>216</v>
       </c>
-      <c r="F37" s="182">
+      <c r="F37" s="95">
         <v>44039</v>
       </c>
       <c r="G37" s="3"/>
     </row>
     <row r="38" spans="2:7" ht="16" customHeight="1">
-      <c r="B38" s="110"/>
-      <c r="C38" s="113"/>
-      <c r="D38" s="116"/>
+      <c r="B38" s="158"/>
+      <c r="C38" s="184"/>
+      <c r="D38" s="187"/>
       <c r="E38" s="60" t="s">
         <v>213</v>
       </c>
-      <c r="F38" s="182">
+      <c r="F38" s="95">
         <v>44039</v>
       </c>
       <c r="G38" s="3"/>
     </row>
     <row r="39" spans="2:7" ht="16" customHeight="1">
-      <c r="B39" s="110"/>
-      <c r="C39" s="113"/>
-      <c r="D39" s="116"/>
+      <c r="B39" s="158"/>
+      <c r="C39" s="184"/>
+      <c r="D39" s="187"/>
       <c r="E39" s="60" t="s">
         <v>215</v>
       </c>
-      <c r="F39" s="183" t="s">
+      <c r="F39" s="96" t="s">
         <v>158</v>
       </c>
       <c r="G39" s="3"/>
     </row>
     <row r="40" spans="2:7" ht="16" customHeight="1">
-      <c r="B40" s="110"/>
-      <c r="C40" s="113"/>
-      <c r="D40" s="117"/>
+      <c r="B40" s="158"/>
+      <c r="C40" s="184"/>
+      <c r="D40" s="188"/>
       <c r="E40" s="60"/>
-      <c r="F40" s="183"/>
+      <c r="F40" s="96"/>
       <c r="G40" s="3"/>
     </row>
     <row r="41" spans="2:7" ht="16" customHeight="1">
-      <c r="B41" s="110"/>
-      <c r="C41" s="114" t="s">
+      <c r="B41" s="158"/>
+      <c r="C41" s="185" t="s">
         <v>150</v>
       </c>
-      <c r="D41" s="118" t="s">
+      <c r="D41" s="189" t="s">
         <v>217</v>
       </c>
       <c r="E41" s="61" t="s">
         <v>218</v>
       </c>
-      <c r="F41" s="184">
+      <c r="F41" s="97">
         <v>44040</v>
       </c>
       <c r="G41" s="40"/>
     </row>
     <row r="42" spans="2:7" ht="16" customHeight="1">
-      <c r="B42" s="110"/>
-      <c r="C42" s="114"/>
-      <c r="D42" s="119"/>
+      <c r="B42" s="158"/>
+      <c r="C42" s="185"/>
+      <c r="D42" s="190"/>
       <c r="E42" s="61" t="s">
         <v>219</v>
       </c>
-      <c r="F42" s="184">
+      <c r="F42" s="97">
         <v>44040</v>
       </c>
       <c r="G42" s="40"/>
     </row>
     <row r="43" spans="2:7" ht="16" customHeight="1">
-      <c r="B43" s="110"/>
-      <c r="C43" s="114"/>
-      <c r="D43" s="119"/>
+      <c r="B43" s="158"/>
+      <c r="C43" s="185"/>
+      <c r="D43" s="190"/>
       <c r="E43" s="61" t="s">
         <v>220</v>
       </c>
-      <c r="F43" s="184">
+      <c r="F43" s="97">
         <v>44040</v>
       </c>
       <c r="G43" s="40"/>
     </row>
     <row r="44" spans="2:7" ht="16" customHeight="1">
-      <c r="B44" s="110"/>
-      <c r="C44" s="114"/>
-      <c r="D44" s="119"/>
+      <c r="B44" s="158"/>
+      <c r="C44" s="185"/>
+      <c r="D44" s="190"/>
       <c r="E44" s="61" t="s">
         <v>216</v>
       </c>
-      <c r="F44" s="184">
+      <c r="F44" s="97">
         <v>44040</v>
       </c>
       <c r="G44" s="40"/>
     </row>
     <row r="45" spans="2:7" ht="16" customHeight="1">
-      <c r="B45" s="110"/>
-      <c r="C45" s="114"/>
-      <c r="D45" s="119"/>
+      <c r="B45" s="158"/>
+      <c r="C45" s="185"/>
+      <c r="D45" s="190"/>
       <c r="E45" s="61" t="s">
         <v>201</v>
       </c>
-      <c r="F45" s="184">
+      <c r="F45" s="97">
         <v>44040</v>
       </c>
       <c r="G45" s="40"/>
     </row>
     <row r="46" spans="2:7" ht="16" customHeight="1">
-      <c r="B46" s="110"/>
-      <c r="C46" s="114"/>
-      <c r="D46" s="120"/>
+      <c r="B46" s="158"/>
+      <c r="C46" s="185"/>
+      <c r="D46" s="191"/>
       <c r="E46" s="61" t="s">
         <v>221</v>
       </c>
-      <c r="F46" s="184">
+      <c r="F46" s="97">
         <v>44040</v>
       </c>
       <c r="G46" s="40"/>
     </row>
     <row r="47" spans="2:7" ht="16" customHeight="1">
-      <c r="B47" s="110"/>
+      <c r="B47" s="158"/>
       <c r="C47" s="46" t="s">
         <v>163</v>
       </c>
@@ -4339,13 +4341,13 @@
       <c r="E47" s="61" t="s">
         <v>222</v>
       </c>
-      <c r="F47" s="184">
+      <c r="F47" s="97">
         <v>44040</v>
       </c>
       <c r="G47" s="40"/>
     </row>
     <row r="48" spans="2:7" ht="16" customHeight="1">
-      <c r="B48" s="111"/>
+      <c r="B48" s="159"/>
       <c r="C48" s="46" t="s">
         <v>165</v>
       </c>
@@ -4353,7 +4355,7 @@
       <c r="E48" s="61" t="s">
         <v>223</v>
       </c>
-      <c r="F48" s="184">
+      <c r="F48" s="97">
         <v>44040</v>
       </c>
       <c r="G48" s="40" t="s">
@@ -4365,14 +4367,14 @@
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="53"/>
-      <c r="F49" s="167"/>
+      <c r="F49" s="80"/>
       <c r="G49" s="2"/>
     </row>
     <row r="50" spans="2:7" ht="18">
-      <c r="B50" s="139" t="s">
+      <c r="B50" s="171" t="s">
         <v>136</v>
       </c>
-      <c r="C50" s="145" t="s">
+      <c r="C50" s="178" t="s">
         <v>147</v>
       </c>
       <c r="D50" s="39" t="s">
@@ -4381,294 +4383,294 @@
       <c r="E50" s="61" t="s">
         <v>120</v>
       </c>
-      <c r="F50" s="184">
+      <c r="F50" s="97">
         <v>44041</v>
       </c>
       <c r="G50" s="40"/>
     </row>
     <row r="51" spans="2:7" ht="18">
-      <c r="B51" s="139"/>
-      <c r="C51" s="146"/>
+      <c r="B51" s="171"/>
+      <c r="C51" s="179"/>
       <c r="D51" s="41" t="s">
         <v>91</v>
       </c>
       <c r="E51" s="61" t="s">
         <v>122</v>
       </c>
-      <c r="F51" s="184">
+      <c r="F51" s="97">
         <v>44041</v>
       </c>
       <c r="G51" s="40"/>
     </row>
     <row r="52" spans="2:7" ht="18">
-      <c r="B52" s="139"/>
-      <c r="C52" s="146"/>
+      <c r="B52" s="171"/>
+      <c r="C52" s="179"/>
       <c r="D52" s="41" t="s">
         <v>121</v>
       </c>
       <c r="E52" s="61" t="s">
         <v>120</v>
       </c>
-      <c r="F52" s="184">
+      <c r="F52" s="97">
         <v>44041</v>
       </c>
       <c r="G52" s="40"/>
     </row>
     <row r="53" spans="2:7" ht="18">
-      <c r="B53" s="139"/>
-      <c r="C53" s="146"/>
+      <c r="B53" s="171"/>
+      <c r="C53" s="179"/>
       <c r="D53" s="41" t="s">
         <v>119</v>
       </c>
       <c r="E53" s="61" t="s">
         <v>122</v>
       </c>
-      <c r="F53" s="184">
+      <c r="F53" s="97">
         <v>44041</v>
       </c>
       <c r="G53" s="40"/>
     </row>
     <row r="54" spans="2:7" ht="18">
-      <c r="B54" s="139"/>
-      <c r="C54" s="147"/>
+      <c r="B54" s="171"/>
+      <c r="C54" s="180"/>
       <c r="D54" s="41" t="s">
         <v>238</v>
       </c>
       <c r="E54" s="61"/>
-      <c r="F54" s="184">
+      <c r="F54" s="97">
         <v>44041</v>
       </c>
       <c r="G54" s="40"/>
     </row>
     <row r="55" spans="2:7" ht="17">
-      <c r="B55" s="139"/>
-      <c r="C55" s="148" t="s">
+      <c r="B55" s="171"/>
+      <c r="C55" s="181" t="s">
         <v>123</v>
       </c>
       <c r="D55" s="42"/>
       <c r="E55" s="62"/>
-      <c r="F55" s="185"/>
+      <c r="F55" s="98"/>
       <c r="G55" s="43"/>
     </row>
     <row r="56" spans="2:7" ht="18">
-      <c r="B56" s="139"/>
-      <c r="C56" s="149"/>
+      <c r="B56" s="171"/>
+      <c r="C56" s="182"/>
       <c r="D56" s="42" t="s">
         <v>229</v>
       </c>
       <c r="E56" s="62" t="s">
         <v>159</v>
       </c>
-      <c r="F56" s="186">
+      <c r="F56" s="99">
         <v>44041</v>
       </c>
       <c r="G56" s="43"/>
     </row>
     <row r="57" spans="2:7" ht="18">
-      <c r="B57" s="139"/>
-      <c r="C57" s="149"/>
+      <c r="B57" s="171"/>
+      <c r="C57" s="182"/>
       <c r="D57" s="42" t="s">
         <v>230</v>
       </c>
       <c r="E57" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="F57" s="186">
+      <c r="F57" s="99">
         <v>44041</v>
       </c>
       <c r="G57" s="43"/>
     </row>
     <row r="58" spans="2:7" ht="18">
-      <c r="B58" s="139"/>
-      <c r="C58" s="149"/>
+      <c r="B58" s="171"/>
+      <c r="C58" s="182"/>
       <c r="D58" s="42" t="s">
         <v>231</v>
       </c>
       <c r="E58" s="62" t="s">
         <v>67</v>
       </c>
-      <c r="F58" s="186">
+      <c r="F58" s="99">
         <v>44041</v>
       </c>
       <c r="G58" s="43"/>
     </row>
     <row r="59" spans="2:7" ht="18">
-      <c r="B59" s="139"/>
-      <c r="C59" s="149"/>
+      <c r="B59" s="171"/>
+      <c r="C59" s="182"/>
       <c r="D59" s="42" t="s">
         <v>238</v>
       </c>
       <c r="E59" s="62"/>
-      <c r="F59" s="186">
+      <c r="F59" s="99">
         <v>44041</v>
       </c>
       <c r="G59" s="43"/>
     </row>
     <row r="60" spans="2:7" ht="18">
-      <c r="B60" s="139"/>
-      <c r="C60" s="199" t="s">
+      <c r="B60" s="171"/>
+      <c r="C60" s="163" t="s">
         <v>151</v>
       </c>
-      <c r="D60" s="200" t="s">
+      <c r="D60" s="110" t="s">
         <v>112</v>
       </c>
-      <c r="E60" s="201"/>
-      <c r="F60" s="202">
+      <c r="E60" s="111"/>
+      <c r="F60" s="112">
         <v>44041</v>
       </c>
-      <c r="G60" s="195"/>
+      <c r="G60" s="107"/>
     </row>
     <row r="61" spans="2:7" ht="18">
-      <c r="B61" s="139"/>
-      <c r="C61" s="203"/>
-      <c r="D61" s="200" t="s">
+      <c r="B61" s="171"/>
+      <c r="C61" s="164"/>
+      <c r="D61" s="110" t="s">
         <v>232</v>
       </c>
-      <c r="E61" s="201"/>
-      <c r="F61" s="202">
+      <c r="E61" s="111"/>
+      <c r="F61" s="112">
         <v>44041</v>
       </c>
-      <c r="G61" s="195"/>
+      <c r="G61" s="107"/>
     </row>
     <row r="62" spans="2:7" ht="18">
-      <c r="B62" s="139"/>
-      <c r="C62" s="203"/>
-      <c r="D62" s="200" t="s">
+      <c r="B62" s="171"/>
+      <c r="C62" s="164"/>
+      <c r="D62" s="110" t="s">
         <v>164</v>
       </c>
-      <c r="E62" s="201"/>
-      <c r="F62" s="202">
+      <c r="E62" s="111"/>
+      <c r="F62" s="112">
         <v>44041</v>
       </c>
-      <c r="G62" s="195"/>
+      <c r="G62" s="107"/>
     </row>
     <row r="63" spans="2:7" ht="18">
-      <c r="B63" s="139"/>
-      <c r="C63" s="204"/>
-      <c r="D63" s="200" t="s">
+      <c r="B63" s="171"/>
+      <c r="C63" s="165"/>
+      <c r="D63" s="110" t="s">
         <v>238</v>
       </c>
-      <c r="E63" s="201"/>
-      <c r="F63" s="202">
+      <c r="E63" s="111"/>
+      <c r="F63" s="112">
         <v>44041</v>
       </c>
-      <c r="G63" s="195"/>
+      <c r="G63" s="107"/>
     </row>
     <row r="64" spans="2:7" ht="16" customHeight="1">
-      <c r="B64" s="139"/>
-      <c r="C64" s="136" t="s">
+      <c r="B64" s="171"/>
+      <c r="C64" s="166" t="s">
         <v>152</v>
       </c>
       <c r="D64" s="38"/>
       <c r="E64" s="63"/>
-      <c r="F64" s="187"/>
+      <c r="F64" s="100"/>
       <c r="G64" s="38"/>
     </row>
     <row r="65" spans="2:7" ht="18">
-      <c r="B65" s="139"/>
-      <c r="C65" s="137"/>
+      <c r="B65" s="171"/>
+      <c r="C65" s="167"/>
       <c r="D65" s="44" t="s">
         <v>233</v>
       </c>
       <c r="E65" s="63" t="s">
         <v>125</v>
       </c>
-      <c r="F65" s="188">
+      <c r="F65" s="101">
         <v>44042</v>
       </c>
       <c r="G65" s="38"/>
     </row>
     <row r="66" spans="2:7" ht="18">
-      <c r="B66" s="139"/>
-      <c r="C66" s="137"/>
+      <c r="B66" s="171"/>
+      <c r="C66" s="167"/>
       <c r="D66" s="44" t="s">
         <v>234</v>
       </c>
       <c r="E66" s="63" t="s">
         <v>124</v>
       </c>
-      <c r="F66" s="188">
+      <c r="F66" s="101">
         <v>44042</v>
       </c>
       <c r="G66" s="38"/>
     </row>
     <row r="67" spans="2:7" ht="17" customHeight="1">
-      <c r="B67" s="139"/>
-      <c r="C67" s="138"/>
+      <c r="B67" s="171"/>
+      <c r="C67" s="168"/>
       <c r="D67" s="45" t="s">
         <v>235</v>
       </c>
       <c r="E67" s="64"/>
-      <c r="F67" s="187"/>
+      <c r="F67" s="100"/>
       <c r="G67" s="38"/>
     </row>
     <row r="68" spans="2:7" ht="16" customHeight="1">
-      <c r="B68" s="139"/>
-      <c r="C68" s="194" t="s">
+      <c r="B68" s="171"/>
+      <c r="C68" s="169" t="s">
         <v>153</v>
       </c>
-      <c r="D68" s="195" t="s">
+      <c r="D68" s="107" t="s">
         <v>236</v>
       </c>
-      <c r="E68" s="196"/>
-      <c r="F68" s="197">
+      <c r="E68" s="108"/>
+      <c r="F68" s="109">
         <v>44043</v>
       </c>
-      <c r="G68" s="195"/>
+      <c r="G68" s="107"/>
     </row>
     <row r="69" spans="2:7" ht="16" customHeight="1">
-      <c r="B69" s="139"/>
-      <c r="C69" s="198"/>
-      <c r="D69" s="195" t="s">
+      <c r="B69" s="171"/>
+      <c r="C69" s="170"/>
+      <c r="D69" s="107" t="s">
         <v>235</v>
       </c>
-      <c r="E69" s="196"/>
-      <c r="F69" s="197">
+      <c r="E69" s="108"/>
+      <c r="F69" s="109">
         <v>44043</v>
       </c>
-      <c r="G69" s="195"/>
+      <c r="G69" s="107"/>
     </row>
     <row r="70" spans="2:7" ht="18">
-      <c r="B70" s="139"/>
-      <c r="C70" s="142" t="s">
+      <c r="B70" s="171"/>
+      <c r="C70" s="175" t="s">
         <v>154</v>
       </c>
       <c r="D70" s="33" t="s">
         <v>115</v>
       </c>
       <c r="E70" s="50"/>
-      <c r="F70" s="189">
+      <c r="F70" s="102">
         <v>44046</v>
       </c>
       <c r="G70" s="34"/>
     </row>
     <row r="71" spans="2:7" ht="18">
-      <c r="B71" s="139"/>
-      <c r="C71" s="143"/>
+      <c r="B71" s="171"/>
+      <c r="C71" s="176"/>
       <c r="D71" s="33" t="s">
         <v>237</v>
       </c>
       <c r="E71" s="49"/>
-      <c r="F71" s="190">
+      <c r="F71" s="103">
         <v>44046</v>
       </c>
       <c r="G71" s="34"/>
     </row>
     <row r="72" spans="2:7" ht="18">
-      <c r="B72" s="139"/>
-      <c r="C72" s="144"/>
+      <c r="B72" s="171"/>
+      <c r="C72" s="177"/>
       <c r="D72" s="33" t="s">
         <v>235</v>
       </c>
       <c r="E72" s="50"/>
-      <c r="F72" s="191">
+      <c r="F72" s="104">
         <v>44046</v>
       </c>
       <c r="G72" s="34"/>
     </row>
     <row r="73" spans="2:7" ht="18">
-      <c r="B73" s="139"/>
-      <c r="C73" s="140" t="s">
+      <c r="B73" s="171"/>
+      <c r="C73" s="172" t="s">
         <v>155</v>
       </c>
       <c r="D73" s="35" t="s">
@@ -4677,37 +4679,37 @@
       <c r="E73" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="F73" s="209">
+      <c r="F73" s="116">
         <v>44047</v>
       </c>
       <c r="G73" s="6"/>
     </row>
     <row r="74" spans="2:7" ht="17">
-      <c r="B74" s="139"/>
-      <c r="C74" s="208"/>
+      <c r="B74" s="171"/>
+      <c r="C74" s="173"/>
       <c r="D74" s="6" t="s">
         <v>116</v>
       </c>
       <c r="E74" s="65"/>
-      <c r="F74" s="192">
+      <c r="F74" s="105">
         <v>44047</v>
       </c>
       <c r="G74" s="6"/>
     </row>
     <row r="75" spans="2:7">
-      <c r="B75" s="139"/>
-      <c r="C75" s="141"/>
+      <c r="B75" s="171"/>
+      <c r="C75" s="174"/>
       <c r="D75" s="6" t="s">
         <v>235</v>
       </c>
       <c r="E75" s="66"/>
-      <c r="F75" s="192">
+      <c r="F75" s="105">
         <v>44047</v>
       </c>
       <c r="G75" s="6"/>
     </row>
     <row r="76" spans="2:7">
-      <c r="B76" s="134" t="s">
+      <c r="B76" s="160" t="s">
         <v>160</v>
       </c>
       <c r="C76" s="37" t="s">
@@ -4717,13 +4719,13 @@
         <v>234</v>
       </c>
       <c r="E76" s="67"/>
-      <c r="F76" s="193">
+      <c r="F76" s="106">
         <v>44048</v>
       </c>
       <c r="G76" s="67"/>
     </row>
     <row r="77" spans="2:7">
-      <c r="B77" s="210"/>
+      <c r="B77" s="161"/>
       <c r="C77" s="37" t="s">
         <v>162</v>
       </c>
@@ -4731,83 +4733,83 @@
         <v>234</v>
       </c>
       <c r="E77" s="67"/>
-      <c r="F77" s="193">
+      <c r="F77" s="106">
         <v>44048</v>
       </c>
       <c r="G77" s="67"/>
     </row>
     <row r="78" spans="2:7">
-      <c r="B78" s="135"/>
+      <c r="B78" s="162"/>
       <c r="C78" s="37"/>
       <c r="D78" s="37" t="s">
         <v>235</v>
       </c>
       <c r="E78" s="67"/>
-      <c r="F78" s="193">
+      <c r="F78" s="106">
         <v>44048</v>
       </c>
       <c r="G78" s="67"/>
     </row>
     <row r="79" spans="2:7">
-      <c r="B79" s="166" t="s">
+      <c r="B79" s="156" t="s">
         <v>224</v>
       </c>
       <c r="C79" s="5"/>
       <c r="D79" s="68" t="s">
         <v>239</v>
       </c>
-      <c r="E79" s="205" t="s">
+      <c r="E79" s="113" t="s">
         <v>228</v>
       </c>
       <c r="F79" s="68"/>
       <c r="G79" s="5"/>
     </row>
     <row r="80" spans="2:7">
-      <c r="B80" s="166"/>
+      <c r="B80" s="156"/>
       <c r="C80" s="5" t="s">
         <v>225</v>
       </c>
       <c r="D80" s="68" t="s">
         <v>240</v>
       </c>
-      <c r="E80" s="205"/>
-      <c r="F80" s="206" t="s">
+      <c r="E80" s="113"/>
+      <c r="F80" s="114" t="s">
         <v>242</v>
       </c>
       <c r="G80" s="5"/>
     </row>
     <row r="81" spans="2:7">
-      <c r="B81" s="166"/>
+      <c r="B81" s="156"/>
       <c r="C81" s="5" t="s">
         <v>226</v>
       </c>
       <c r="D81" s="68" t="s">
         <v>241</v>
       </c>
-      <c r="E81" s="205"/>
-      <c r="F81" s="206">
+      <c r="E81" s="113"/>
+      <c r="F81" s="114">
         <v>44053</v>
       </c>
       <c r="G81" s="5"/>
     </row>
     <row r="82" spans="2:7">
-      <c r="B82" s="166"/>
-      <c r="C82" s="207" t="s">
+      <c r="B82" s="156"/>
+      <c r="C82" s="115" t="s">
         <v>227</v>
       </c>
       <c r="D82" s="68"/>
-      <c r="E82" s="205"/>
-      <c r="F82" s="206">
+      <c r="E82" s="113"/>
+      <c r="F82" s="114">
         <v>44053</v>
       </c>
       <c r="G82" s="5"/>
     </row>
     <row r="83" spans="2:7">
-      <c r="B83" s="166"/>
+      <c r="B83" s="156"/>
       <c r="C83" s="5"/>
       <c r="D83" s="68"/>
-      <c r="E83" s="205"/>
-      <c r="F83" s="206"/>
+      <c r="E83" s="113"/>
+      <c r="F83" s="114"/>
       <c r="G83" s="5"/>
     </row>
     <row r="84" spans="2:7">
@@ -4832,17 +4834,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B79:B83"/>
-    <mergeCell ref="B11:B48"/>
-    <mergeCell ref="B76:B78"/>
-    <mergeCell ref="C60:C63"/>
-    <mergeCell ref="C64:C67"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="B50:B75"/>
-    <mergeCell ref="C73:C75"/>
-    <mergeCell ref="C70:C72"/>
-    <mergeCell ref="C50:C54"/>
-    <mergeCell ref="C55:C59"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="C36:C40"/>
     <mergeCell ref="C41:C46"/>
@@ -4857,6 +4848,17 @@
     <mergeCell ref="B4:B9"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="C8:C9"/>
+    <mergeCell ref="B79:B83"/>
+    <mergeCell ref="B11:B48"/>
+    <mergeCell ref="B76:B78"/>
+    <mergeCell ref="C60:C63"/>
+    <mergeCell ref="C64:C67"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="B50:B75"/>
+    <mergeCell ref="C73:C75"/>
+    <mergeCell ref="C70:C72"/>
+    <mergeCell ref="C50:C54"/>
+    <mergeCell ref="C55:C59"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/结算数据监控平台开发计划.xlsx
+++ b/结算数据监控平台开发计划.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicker/sandbox/settlementMonitoring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF74B0F0-CAA2-DF42-881E-142BD0EEB423}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70216E2C-94F7-4948-83AC-3D83DBA6A350}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="26540" windowHeight="18920" activeTab="3" xr2:uid="{AD2C15C8-2DE4-104B-A764-E65CC8F0AEA6}"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="26540" windowHeight="18920" activeTab="3" xr2:uid="{AD2C15C8-2DE4-104B-A764-E65CC8F0AEA6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="247">
   <si>
     <t>ETX联网结算平台</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1140,6 +1140,21 @@
   </si>
   <si>
     <t>2020/8/6-8/7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加：省外坏账</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wc</t>
+  </si>
+  <si>
+    <t>wc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加注册接口</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1503,7 +1518,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="211">
+  <cellXfs count="213">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1854,6 +1869,12 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2633,16 +2654,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="18" customHeight="1">
-      <c r="B1" s="118" t="s">
+      <c r="B1" s="120" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
     </row>
     <row r="2" spans="2:5">
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
+      <c r="B2" s="121"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
     </row>
     <row r="3" spans="2:5">
       <c r="B3" s="3" t="s">
@@ -2678,7 +2699,7 @@
       <c r="D5" s="2"/>
     </row>
     <row r="6" spans="2:5">
-      <c r="B6" s="120" t="s">
+      <c r="B6" s="122" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -2692,7 +2713,7 @@
       </c>
     </row>
     <row r="7" spans="2:5">
-      <c r="B7" s="120"/>
+      <c r="B7" s="122"/>
       <c r="C7" s="4" t="s">
         <v>39</v>
       </c>
@@ -2702,7 +2723,7 @@
       </c>
     </row>
     <row r="8" spans="2:5">
-      <c r="B8" s="122" t="s">
+      <c r="B8" s="124" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="5" t="s">
@@ -2716,7 +2737,7 @@
       </c>
     </row>
     <row r="9" spans="2:5">
-      <c r="B9" s="122"/>
+      <c r="B9" s="124"/>
       <c r="C9" s="5" t="s">
         <v>43</v>
       </c>
@@ -2752,7 +2773,7 @@
       <c r="D13" s="2"/>
     </row>
     <row r="14" spans="2:5">
-      <c r="B14" s="121" t="s">
+      <c r="B14" s="123" t="s">
         <v>45</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -2766,7 +2787,7 @@
       </c>
     </row>
     <row r="15" spans="2:5">
-      <c r="B15" s="121"/>
+      <c r="B15" s="123"/>
       <c r="C15" s="2" t="s">
         <v>27</v>
       </c>
@@ -2776,7 +2797,7 @@
       <c r="E15" s="11"/>
     </row>
     <row r="16" spans="2:5">
-      <c r="B16" s="121"/>
+      <c r="B16" s="123"/>
       <c r="C16" s="2" t="s">
         <v>28</v>
       </c>
@@ -2786,7 +2807,7 @@
       <c r="E16" s="11"/>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="121"/>
+      <c r="B17" s="123"/>
       <c r="C17" s="2" t="s">
         <v>29</v>
       </c>
@@ -2806,7 +2827,7 @@
       <c r="D19" s="2"/>
     </row>
     <row r="20" spans="2:5">
-      <c r="B20" s="117" t="s">
+      <c r="B20" s="119" t="s">
         <v>51</v>
       </c>
       <c r="C20" s="7" t="s">
@@ -2815,35 +2836,35 @@
       <c r="D20" s="2"/>
     </row>
     <row r="21" spans="2:5">
-      <c r="B21" s="117"/>
+      <c r="B21" s="119"/>
       <c r="C21" s="7" t="s">
         <v>34</v>
       </c>
       <c r="D21" s="2"/>
     </row>
     <row r="22" spans="2:5">
-      <c r="B22" s="117"/>
+      <c r="B22" s="119"/>
       <c r="C22" s="7" t="s">
         <v>53</v>
       </c>
       <c r="D22" s="2"/>
     </row>
     <row r="23" spans="2:5">
-      <c r="B23" s="117"/>
+      <c r="B23" s="119"/>
       <c r="C23" s="7" t="s">
         <v>54</v>
       </c>
       <c r="D23" s="2"/>
     </row>
     <row r="24" spans="2:5">
-      <c r="B24" s="117"/>
+      <c r="B24" s="119"/>
       <c r="C24" s="7" t="s">
         <v>55</v>
       </c>
       <c r="D24" s="2"/>
     </row>
     <row r="25" spans="2:5">
-      <c r="B25" s="117"/>
+      <c r="B25" s="119"/>
       <c r="C25" s="2" t="s">
         <v>56</v>
       </c>
@@ -2947,13 +2968,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="30">
-      <c r="B2" s="126" t="s">
+      <c r="B2" s="128" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="128"/>
+      <c r="C2" s="129"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
+      <c r="F2" s="130"/>
     </row>
     <row r="3" spans="2:8">
       <c r="B3" s="25"/>
@@ -2966,7 +2987,7 @@
       <c r="B4" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="C4" s="132" t="s">
+      <c r="C4" s="134" t="s">
         <v>60</v>
       </c>
       <c r="D4" s="14" t="s">
@@ -2985,7 +3006,7 @@
     </row>
     <row r="5" spans="2:8" ht="18">
       <c r="B5" s="23"/>
-      <c r="C5" s="133"/>
+      <c r="C5" s="135"/>
       <c r="D5" s="15" t="s">
         <v>129</v>
       </c>
@@ -2996,7 +3017,7 @@
     </row>
     <row r="6" spans="2:8" ht="18">
       <c r="B6" s="23"/>
-      <c r="C6" s="133"/>
+      <c r="C6" s="135"/>
       <c r="D6" s="15" t="s">
         <v>130</v>
       </c>
@@ -3005,7 +3026,7 @@
     </row>
     <row r="7" spans="2:8" ht="18">
       <c r="B7" s="23"/>
-      <c r="C7" s="134"/>
+      <c r="C7" s="136"/>
       <c r="D7" s="15" t="s">
         <v>131</v>
       </c>
@@ -3025,7 +3046,7 @@
     </row>
     <row r="9" spans="2:8" ht="17">
       <c r="B9" s="23"/>
-      <c r="C9" s="135" t="s">
+      <c r="C9" s="137" t="s">
         <v>114</v>
       </c>
       <c r="D9" s="15"/>
@@ -3034,7 +3055,7 @@
     </row>
     <row r="10" spans="2:8" ht="16" customHeight="1">
       <c r="B10" s="23"/>
-      <c r="C10" s="136"/>
+      <c r="C10" s="138"/>
       <c r="D10" s="15" t="s">
         <v>62</v>
       </c>
@@ -3043,7 +3064,7 @@
     </row>
     <row r="11" spans="2:8" ht="18" customHeight="1">
       <c r="B11" s="23"/>
-      <c r="C11" s="136"/>
+      <c r="C11" s="138"/>
       <c r="D11" s="15" t="s">
         <v>65</v>
       </c>
@@ -3054,7 +3075,7 @@
     </row>
     <row r="12" spans="2:8" ht="18">
       <c r="B12" s="23"/>
-      <c r="C12" s="136"/>
+      <c r="C12" s="138"/>
       <c r="D12" s="15" t="s">
         <v>66</v>
       </c>
@@ -3065,7 +3086,7 @@
     </row>
     <row r="13" spans="2:8" ht="36">
       <c r="B13" s="23"/>
-      <c r="C13" s="136"/>
+      <c r="C13" s="138"/>
       <c r="D13" s="15" t="s">
         <v>68</v>
       </c>
@@ -3076,7 +3097,7 @@
     </row>
     <row r="14" spans="2:8" ht="18">
       <c r="B14" s="23"/>
-      <c r="C14" s="137"/>
+      <c r="C14" s="139"/>
       <c r="D14" s="16" t="s">
         <v>70</v>
       </c>
@@ -3121,7 +3142,7 @@
     </row>
     <row r="19" spans="2:6" ht="18">
       <c r="B19" s="23"/>
-      <c r="C19" s="138"/>
+      <c r="C19" s="140"/>
       <c r="D19" s="15" t="s">
         <v>132</v>
       </c>
@@ -3130,7 +3151,7 @@
     </row>
     <row r="20" spans="2:6" ht="18">
       <c r="B20" s="23"/>
-      <c r="C20" s="139"/>
+      <c r="C20" s="141"/>
       <c r="D20" s="15" t="s">
         <v>133</v>
       </c>
@@ -3139,28 +3160,28 @@
     </row>
     <row r="21" spans="2:6" ht="17">
       <c r="B21" s="23"/>
-      <c r="C21" s="139"/>
+      <c r="C21" s="141"/>
       <c r="D21" s="15"/>
       <c r="E21" s="15"/>
       <c r="F21" s="2"/>
     </row>
     <row r="22" spans="2:6" ht="17">
       <c r="B22" s="23"/>
-      <c r="C22" s="139"/>
+      <c r="C22" s="141"/>
       <c r="D22" s="15"/>
       <c r="E22" s="15"/>
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="2:6" ht="17">
       <c r="B23" s="23"/>
-      <c r="C23" s="139"/>
+      <c r="C23" s="141"/>
       <c r="D23" s="15"/>
       <c r="E23" s="15"/>
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="2:6" ht="17">
       <c r="B24" s="23"/>
-      <c r="C24" s="140"/>
+      <c r="C24" s="142"/>
       <c r="D24" s="16"/>
       <c r="E24" s="15"/>
       <c r="F24" s="2"/>
@@ -3194,7 +3215,7 @@
     </row>
     <row r="29" spans="2:6" ht="18">
       <c r="B29" s="23"/>
-      <c r="C29" s="141" t="s">
+      <c r="C29" s="143" t="s">
         <v>78</v>
       </c>
       <c r="D29" s="15" t="s">
@@ -3204,7 +3225,7 @@
     </row>
     <row r="30" spans="2:6" ht="16" customHeight="1">
       <c r="B30" s="23"/>
-      <c r="C30" s="142"/>
+      <c r="C30" s="144"/>
       <c r="D30" s="15" t="s">
         <v>79</v>
       </c>
@@ -3220,7 +3241,7 @@
     </row>
     <row r="32" spans="2:6" ht="36">
       <c r="B32" s="23"/>
-      <c r="C32" s="143" t="s">
+      <c r="C32" s="145" t="s">
         <v>80</v>
       </c>
       <c r="D32" s="15" t="s">
@@ -3233,7 +3254,7 @@
     </row>
     <row r="33" spans="2:6" ht="17">
       <c r="B33" s="23"/>
-      <c r="C33" s="144"/>
+      <c r="C33" s="146"/>
       <c r="D33" s="2" t="s">
         <v>116</v>
       </c>
@@ -3253,7 +3274,7 @@
     </row>
     <row r="35" spans="2:6" ht="16" customHeight="1">
       <c r="B35" s="23"/>
-      <c r="C35" s="145" t="s">
+      <c r="C35" s="147" t="s">
         <v>85</v>
       </c>
       <c r="D35" s="15" t="s">
@@ -3263,8 +3284,8 @@
       <c r="F35" s="15"/>
     </row>
     <row r="36" spans="2:6" ht="18">
-      <c r="B36" s="147"/>
-      <c r="C36" s="146"/>
+      <c r="B36" s="149"/>
+      <c r="C36" s="148"/>
       <c r="D36" s="15" t="s">
         <v>87</v>
       </c>
@@ -3272,7 +3293,7 @@
       <c r="F36" s="15"/>
     </row>
     <row r="37" spans="2:6" ht="18">
-      <c r="B37" s="148"/>
+      <c r="B37" s="150"/>
       <c r="C37" s="15"/>
       <c r="D37" s="15" t="s">
         <v>117</v>
@@ -3281,14 +3302,14 @@
       <c r="F37" s="15"/>
     </row>
     <row r="38" spans="2:6">
-      <c r="B38" s="148"/>
+      <c r="B38" s="150"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
     </row>
     <row r="39" spans="2:6" ht="17">
-      <c r="B39" s="148"/>
+      <c r="B39" s="150"/>
       <c r="C39" s="24" t="s">
         <v>88</v>
       </c>
@@ -3299,15 +3320,15 @@
       <c r="F39" s="2"/>
     </row>
     <row r="40" spans="2:6" ht="16" customHeight="1">
-      <c r="B40" s="148"/>
+      <c r="B40" s="150"/>
       <c r="C40" s="13"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
     </row>
     <row r="41" spans="2:6">
-      <c r="B41" s="148"/>
-      <c r="C41" s="150" t="s">
+      <c r="B41" s="150"/>
+      <c r="C41" s="152" t="s">
         <v>102</v>
       </c>
       <c r="D41" s="2" t="s">
@@ -3317,8 +3338,8 @@
       <c r="F41" s="2"/>
     </row>
     <row r="42" spans="2:6">
-      <c r="B42" s="148"/>
-      <c r="C42" s="151"/>
+      <c r="B42" s="150"/>
+      <c r="C42" s="153"/>
       <c r="D42" s="2" t="s">
         <v>104</v>
       </c>
@@ -3326,8 +3347,8 @@
       <c r="F42" s="2"/>
     </row>
     <row r="43" spans="2:6" ht="17" customHeight="1">
-      <c r="B43" s="148"/>
-      <c r="C43" s="151"/>
+      <c r="B43" s="150"/>
+      <c r="C43" s="153"/>
       <c r="D43" s="2" t="s">
         <v>105</v>
       </c>
@@ -3335,8 +3356,8 @@
       <c r="F43" s="2"/>
     </row>
     <row r="44" spans="2:6" ht="17" customHeight="1">
-      <c r="B44" s="148"/>
-      <c r="C44" s="151"/>
+      <c r="B44" s="150"/>
+      <c r="C44" s="153"/>
       <c r="D44" s="2" t="s">
         <v>106</v>
       </c>
@@ -3344,8 +3365,8 @@
       <c r="F44" s="2"/>
     </row>
     <row r="45" spans="2:6" ht="17" customHeight="1">
-      <c r="B45" s="148"/>
-      <c r="C45" s="151"/>
+      <c r="B45" s="150"/>
+      <c r="C45" s="153"/>
       <c r="D45" s="2" t="s">
         <v>107</v>
       </c>
@@ -3353,8 +3374,8 @@
       <c r="F45" s="2"/>
     </row>
     <row r="46" spans="2:6" ht="17" customHeight="1">
-      <c r="B46" s="148"/>
-      <c r="C46" s="151"/>
+      <c r="B46" s="150"/>
+      <c r="C46" s="153"/>
       <c r="D46" s="20" t="s">
         <v>108</v>
       </c>
@@ -3362,8 +3383,8 @@
       <c r="F46" s="2"/>
     </row>
     <row r="47" spans="2:6" ht="17" customHeight="1">
-      <c r="B47" s="148"/>
-      <c r="C47" s="151"/>
+      <c r="B47" s="150"/>
+      <c r="C47" s="153"/>
       <c r="D47" s="2" t="s">
         <v>109</v>
       </c>
@@ -3371,8 +3392,8 @@
       <c r="F47" s="2"/>
     </row>
     <row r="48" spans="2:6" ht="17" customHeight="1">
-      <c r="B48" s="148"/>
-      <c r="C48" s="151"/>
+      <c r="B48" s="150"/>
+      <c r="C48" s="153"/>
       <c r="D48" s="21" t="s">
         <v>110</v>
       </c>
@@ -3380,8 +3401,8 @@
       <c r="F48" s="2"/>
     </row>
     <row r="49" spans="2:6" ht="17" customHeight="1">
-      <c r="B49" s="148"/>
-      <c r="C49" s="152"/>
+      <c r="B49" s="150"/>
+      <c r="C49" s="154"/>
       <c r="D49" s="21" t="s">
         <v>111</v>
       </c>
@@ -3389,13 +3410,13 @@
       <c r="F49" s="2"/>
     </row>
     <row r="50" spans="2:6" ht="17" customHeight="1">
-      <c r="B50" s="148"/>
+      <c r="B50" s="150"/>
       <c r="C50" s="2"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
     </row>
     <row r="51" spans="2:6" ht="17" customHeight="1">
-      <c r="B51" s="149"/>
+      <c r="B51" s="151"/>
       <c r="C51" s="2"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
@@ -3408,10 +3429,10 @@
       <c r="F52" s="2"/>
     </row>
     <row r="53" spans="2:6" ht="17" customHeight="1">
-      <c r="B53" s="129" t="s">
+      <c r="B53" s="131" t="s">
         <v>89</v>
       </c>
-      <c r="C53" s="153" t="s">
+      <c r="C53" s="155" t="s">
         <v>60</v>
       </c>
       <c r="D53" s="14" t="s">
@@ -3423,8 +3444,8 @@
       <c r="F53" s="2"/>
     </row>
     <row r="54" spans="2:6" ht="18">
-      <c r="B54" s="130"/>
-      <c r="C54" s="154"/>
+      <c r="B54" s="132"/>
+      <c r="C54" s="156"/>
       <c r="D54" s="15" t="s">
         <v>91</v>
       </c>
@@ -3434,8 +3455,8 @@
       <c r="F54" s="2"/>
     </row>
     <row r="55" spans="2:6" ht="18">
-      <c r="B55" s="130"/>
-      <c r="C55" s="154"/>
+      <c r="B55" s="132"/>
+      <c r="C55" s="156"/>
       <c r="D55" s="15" t="s">
         <v>121</v>
       </c>
@@ -3445,8 +3466,8 @@
       <c r="F55" s="2"/>
     </row>
     <row r="56" spans="2:6" ht="18">
-      <c r="B56" s="130"/>
-      <c r="C56" s="155"/>
+      <c r="B56" s="132"/>
+      <c r="C56" s="157"/>
       <c r="D56" s="15" t="s">
         <v>119</v>
       </c>
@@ -3456,15 +3477,15 @@
       <c r="F56" s="2"/>
     </row>
     <row r="57" spans="2:6">
-      <c r="B57" s="130"/>
+      <c r="B57" s="132"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
     </row>
     <row r="58" spans="2:6" ht="17">
-      <c r="B58" s="130"/>
-      <c r="C58" s="123" t="s">
+      <c r="B58" s="132"/>
+      <c r="C58" s="125" t="s">
         <v>123</v>
       </c>
       <c r="D58" s="15"/>
@@ -3472,8 +3493,8 @@
       <c r="F58" s="15"/>
     </row>
     <row r="59" spans="2:6" ht="18">
-      <c r="B59" s="130"/>
-      <c r="C59" s="124"/>
+      <c r="B59" s="132"/>
+      <c r="C59" s="126"/>
       <c r="D59" s="15" t="s">
         <v>62</v>
       </c>
@@ -3485,8 +3506,8 @@
       </c>
     </row>
     <row r="60" spans="2:6" ht="18" customHeight="1">
-      <c r="B60" s="130"/>
-      <c r="C60" s="124"/>
+      <c r="B60" s="132"/>
+      <c r="C60" s="126"/>
       <c r="D60" s="15" t="s">
         <v>65</v>
       </c>
@@ -3496,8 +3517,8 @@
       <c r="F60" s="15"/>
     </row>
     <row r="61" spans="2:6" ht="18">
-      <c r="B61" s="130"/>
-      <c r="C61" s="124"/>
+      <c r="B61" s="132"/>
+      <c r="C61" s="126"/>
       <c r="D61" s="15" t="s">
         <v>66</v>
       </c>
@@ -3507,8 +3528,8 @@
       <c r="F61" s="15"/>
     </row>
     <row r="62" spans="2:6" ht="36">
-      <c r="B62" s="130"/>
-      <c r="C62" s="124"/>
+      <c r="B62" s="132"/>
+      <c r="C62" s="126"/>
       <c r="D62" s="15" t="s">
         <v>101</v>
       </c>
@@ -3518,8 +3539,8 @@
       <c r="F62" s="15"/>
     </row>
     <row r="63" spans="2:6" ht="18">
-      <c r="B63" s="130"/>
-      <c r="C63" s="125"/>
+      <c r="B63" s="132"/>
+      <c r="C63" s="127"/>
       <c r="D63" s="15" t="s">
         <v>93</v>
       </c>
@@ -3529,21 +3550,21 @@
       <c r="F63" s="15"/>
     </row>
     <row r="64" spans="2:6" ht="17">
-      <c r="B64" s="130"/>
+      <c r="B64" s="132"/>
       <c r="C64" s="15"/>
       <c r="D64" s="15"/>
       <c r="E64" s="15"/>
       <c r="F64" s="15"/>
     </row>
     <row r="65" spans="2:6">
-      <c r="B65" s="130"/>
+      <c r="B65" s="132"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
     </row>
     <row r="66" spans="2:6" ht="18">
-      <c r="B66" s="130"/>
+      <c r="B66" s="132"/>
       <c r="C66" s="15" t="s">
         <v>100</v>
       </c>
@@ -3554,14 +3575,14 @@
       <c r="F66" s="15"/>
     </row>
     <row r="67" spans="2:6" ht="17">
-      <c r="B67" s="130"/>
+      <c r="B67" s="132"/>
       <c r="C67" s="15"/>
       <c r="D67" s="15"/>
       <c r="E67" s="15"/>
       <c r="F67" s="15"/>
     </row>
     <row r="68" spans="2:6" ht="18">
-      <c r="B68" s="130"/>
+      <c r="B68" s="132"/>
       <c r="C68" s="15" t="s">
         <v>74</v>
       </c>
@@ -3572,7 +3593,7 @@
       <c r="F68" s="15"/>
     </row>
     <row r="69" spans="2:6" ht="18">
-      <c r="B69" s="130"/>
+      <c r="B69" s="132"/>
       <c r="C69" s="15"/>
       <c r="D69" s="15"/>
       <c r="E69" s="15" t="s">
@@ -3581,7 +3602,7 @@
       <c r="F69" s="15"/>
     </row>
     <row r="70" spans="2:6" ht="18">
-      <c r="B70" s="130"/>
+      <c r="B70" s="132"/>
       <c r="C70" s="15"/>
       <c r="D70" s="15"/>
       <c r="E70" s="15" t="s">
@@ -3590,35 +3611,35 @@
       <c r="F70" s="15"/>
     </row>
     <row r="71" spans="2:6" ht="17">
-      <c r="B71" s="130"/>
+      <c r="B71" s="132"/>
       <c r="C71" s="15"/>
       <c r="D71" s="15"/>
       <c r="E71" s="15"/>
       <c r="F71" s="15"/>
     </row>
     <row r="72" spans="2:6" ht="17">
-      <c r="B72" s="130"/>
+      <c r="B72" s="132"/>
       <c r="C72" s="15"/>
       <c r="D72" s="15"/>
       <c r="E72" s="15"/>
       <c r="F72" s="15"/>
     </row>
     <row r="73" spans="2:6" ht="17">
-      <c r="B73" s="130"/>
+      <c r="B73" s="132"/>
       <c r="C73" s="15"/>
       <c r="D73" s="15"/>
       <c r="E73" s="16"/>
       <c r="F73" s="15"/>
     </row>
     <row r="74" spans="2:6" ht="17">
-      <c r="B74" s="130"/>
+      <c r="B74" s="132"/>
       <c r="C74" s="15"/>
       <c r="D74" s="15"/>
       <c r="E74" s="15"/>
       <c r="F74" s="15"/>
     </row>
     <row r="75" spans="2:6" ht="18">
-      <c r="B75" s="130"/>
+      <c r="B75" s="132"/>
       <c r="C75" s="15" t="s">
         <v>77</v>
       </c>
@@ -3627,21 +3648,21 @@
       <c r="F75" s="14"/>
     </row>
     <row r="76" spans="2:6">
-      <c r="B76" s="130"/>
+      <c r="B76" s="132"/>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
     </row>
     <row r="77" spans="2:6">
-      <c r="B77" s="130"/>
+      <c r="B77" s="132"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
     </row>
     <row r="78" spans="2:6" ht="18">
-      <c r="B78" s="130"/>
+      <c r="B78" s="132"/>
       <c r="C78" s="15" t="s">
         <v>95</v>
       </c>
@@ -3650,7 +3671,7 @@
       <c r="F78" s="2"/>
     </row>
     <row r="79" spans="2:6" ht="18">
-      <c r="B79" s="130"/>
+      <c r="B79" s="132"/>
       <c r="C79" s="15"/>
       <c r="D79" s="15" t="s">
         <v>96</v>
@@ -3661,7 +3682,7 @@
       <c r="F79" s="2"/>
     </row>
     <row r="80" spans="2:6" ht="18">
-      <c r="B80" s="130"/>
+      <c r="B80" s="132"/>
       <c r="C80" s="15"/>
       <c r="D80" s="15" t="s">
         <v>97</v>
@@ -3672,14 +3693,14 @@
       <c r="F80" s="2"/>
     </row>
     <row r="81" spans="2:6">
-      <c r="B81" s="130"/>
+      <c r="B81" s="132"/>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
     </row>
     <row r="82" spans="2:6">
-      <c r="B82" s="130"/>
+      <c r="B82" s="132"/>
       <c r="C82" s="2" t="s">
         <v>98</v>
       </c>
@@ -3688,10 +3709,10 @@
       <c r="F82" s="2"/>
     </row>
     <row r="83" spans="2:6">
-      <c r="B83" s="130"/>
+      <c r="B83" s="132"/>
     </row>
     <row r="84" spans="2:6">
-      <c r="B84" s="131"/>
+      <c r="B84" s="133"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -3716,10 +3737,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E10E9005-F9D0-4E45-A602-C89B60257518}">
-  <dimension ref="B2:G88"/>
+  <dimension ref="B2:H88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="94" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3732,17 +3753,17 @@
     <col min="6" max="6" width="21" style="51" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="30">
-      <c r="B2" s="126" t="s">
+    <row r="2" spans="2:8" ht="30">
+      <c r="B2" s="128" t="s">
         <v>135</v>
       </c>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="127"/>
-      <c r="G2" s="128"/>
-    </row>
-    <row r="3" spans="2:7">
+      <c r="C2" s="129"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
+      <c r="F2" s="129"/>
+      <c r="G2" s="130"/>
+    </row>
+    <row r="3" spans="2:8">
       <c r="B3" s="25" t="s">
         <v>137</v>
       </c>
@@ -3761,12 +3782,13 @@
       <c r="G3" s="26" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="4" spans="2:7">
-      <c r="B4" s="205" t="s">
+      <c r="H3" s="117"/>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" s="207" t="s">
         <v>172</v>
       </c>
-      <c r="C4" s="208" t="s">
+      <c r="C4" s="210" t="s">
         <v>173</v>
       </c>
       <c r="D4" s="70" t="s">
@@ -3781,10 +3803,11 @@
       <c r="G4" s="34" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="5" spans="2:7">
-      <c r="B5" s="206"/>
-      <c r="C5" s="209"/>
+      <c r="H4" s="117"/>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" s="208"/>
+      <c r="C5" s="211"/>
       <c r="D5" s="70" t="s">
         <v>167</v>
       </c>
@@ -3797,10 +3820,11 @@
       <c r="G5" s="34" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="6" spans="2:7">
-      <c r="B6" s="206"/>
-      <c r="C6" s="210"/>
+      <c r="H5" s="117"/>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" s="208"/>
+      <c r="C6" s="212"/>
       <c r="D6" s="70" t="s">
         <v>168</v>
       </c>
@@ -3813,9 +3837,10 @@
       <c r="G6" s="34" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="7" spans="2:7">
-      <c r="B7" s="206"/>
+      <c r="H6" s="117"/>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" s="208"/>
       <c r="C7" s="72" t="s">
         <v>169</v>
       </c>
@@ -3831,10 +3856,11 @@
       <c r="G7" s="74" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="8" spans="2:7">
-      <c r="B8" s="206"/>
-      <c r="C8" s="192" t="s">
+      <c r="H7" s="117"/>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" s="208"/>
+      <c r="C8" s="194" t="s">
         <v>174</v>
       </c>
       <c r="D8" s="75" t="s">
@@ -3847,10 +3873,11 @@
       <c r="G8" s="37" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="9" spans="2:7">
-      <c r="B9" s="207"/>
-      <c r="C9" s="194"/>
+      <c r="H8" s="117"/>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" s="209"/>
+      <c r="C9" s="196"/>
       <c r="D9" s="75" t="s">
         <v>171</v>
       </c>
@@ -3861,20 +3888,22 @@
       <c r="G9" s="37" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="10" spans="2:7">
+      <c r="H9" s="117"/>
+    </row>
+    <row r="10" spans="2:8">
       <c r="B10" s="77"/>
       <c r="C10" s="69"/>
       <c r="D10" s="75"/>
       <c r="E10" s="67"/>
       <c r="F10" s="86"/>
       <c r="G10" s="37"/>
-    </row>
-    <row r="11" spans="2:7" ht="36" customHeight="1">
-      <c r="B11" s="157" t="s">
+      <c r="H10" s="117"/>
+    </row>
+    <row r="11" spans="2:8" ht="36" customHeight="1">
+      <c r="B11" s="159" t="s">
         <v>99</v>
       </c>
-      <c r="C11" s="195" t="s">
+      <c r="C11" s="197" t="s">
         <v>144</v>
       </c>
       <c r="D11" s="27" t="s">
@@ -3889,10 +3918,11 @@
       <c r="G11" s="76" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="12" spans="2:7" ht="18">
-      <c r="B12" s="158"/>
-      <c r="C12" s="196"/>
+      <c r="H11" s="117"/>
+    </row>
+    <row r="12" spans="2:8" ht="18">
+      <c r="B12" s="160"/>
+      <c r="C12" s="198"/>
       <c r="D12" s="27" t="s">
         <v>188</v>
       </c>
@@ -3900,11 +3930,14 @@
       <c r="F12" s="88">
         <v>44025</v>
       </c>
-      <c r="G12" s="76"/>
-    </row>
-    <row r="13" spans="2:7" ht="18">
-      <c r="B13" s="158"/>
-      <c r="C13" s="196"/>
+      <c r="G12" s="76" t="s">
+        <v>175</v>
+      </c>
+      <c r="H12" s="117"/>
+    </row>
+    <row r="13" spans="2:8" ht="18">
+      <c r="B13" s="160"/>
+      <c r="C13" s="198"/>
       <c r="D13" s="28" t="s">
         <v>189</v>
       </c>
@@ -3914,11 +3947,14 @@
       <c r="F13" s="88">
         <v>44025</v>
       </c>
-      <c r="G13" s="29"/>
-    </row>
-    <row r="14" spans="2:7" ht="18">
-      <c r="B14" s="158"/>
-      <c r="C14" s="196"/>
+      <c r="G13" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="H13" s="117"/>
+    </row>
+    <row r="14" spans="2:8" ht="18">
+      <c r="B14" s="160"/>
+      <c r="C14" s="198"/>
       <c r="D14" s="28" t="s">
         <v>190</v>
       </c>
@@ -3928,11 +3964,14 @@
       <c r="F14" s="89">
         <v>44025</v>
       </c>
-      <c r="G14" s="29"/>
-    </row>
-    <row r="15" spans="2:7" ht="36">
-      <c r="B15" s="158"/>
-      <c r="C15" s="196"/>
+      <c r="G14" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="H14" s="117"/>
+    </row>
+    <row r="15" spans="2:8" ht="36">
+      <c r="B15" s="160"/>
+      <c r="C15" s="198"/>
       <c r="D15" s="28" t="s">
         <v>191</v>
       </c>
@@ -3942,11 +3981,14 @@
       <c r="F15" s="89">
         <v>44026</v>
       </c>
-      <c r="G15" s="76"/>
-    </row>
-    <row r="16" spans="2:7" ht="17" customHeight="1">
-      <c r="B16" s="158"/>
-      <c r="C16" s="197"/>
+      <c r="G15" s="76" t="s">
+        <v>175</v>
+      </c>
+      <c r="H15" s="117"/>
+    </row>
+    <row r="16" spans="2:8" ht="17" customHeight="1">
+      <c r="B16" s="160"/>
+      <c r="C16" s="199"/>
       <c r="D16" s="29" t="s">
         <v>185</v>
       </c>
@@ -3954,11 +3996,14 @@
       <c r="F16" s="89">
         <v>44026</v>
       </c>
-      <c r="G16" s="29"/>
-    </row>
-    <row r="17" spans="2:7" ht="18">
-      <c r="B17" s="158"/>
-      <c r="C17" s="143" t="s">
+      <c r="G16" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="H16" s="117"/>
+    </row>
+    <row r="17" spans="2:8" ht="18">
+      <c r="B17" s="160"/>
+      <c r="C17" s="145" t="s">
         <v>114</v>
       </c>
       <c r="D17" s="30" t="s">
@@ -3970,11 +4015,14 @@
       <c r="F17" s="90">
         <v>44027</v>
       </c>
-      <c r="G17" s="4"/>
-    </row>
-    <row r="18" spans="2:7" ht="18">
-      <c r="B18" s="158"/>
-      <c r="C18" s="198"/>
+      <c r="G17" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="H17" s="117"/>
+    </row>
+    <row r="18" spans="2:8" ht="18">
+      <c r="B18" s="160"/>
+      <c r="C18" s="200"/>
       <c r="D18" s="31" t="s">
         <v>192</v>
       </c>
@@ -3982,11 +4030,14 @@
       <c r="F18" s="90">
         <v>44027</v>
       </c>
-      <c r="G18" s="4"/>
-    </row>
-    <row r="19" spans="2:7" ht="18">
-      <c r="B19" s="158"/>
-      <c r="C19" s="198"/>
+      <c r="G18" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="H18" s="117"/>
+    </row>
+    <row r="19" spans="2:8" ht="18">
+      <c r="B19" s="160"/>
+      <c r="C19" s="200"/>
       <c r="D19" s="31" t="s">
         <v>193</v>
       </c>
@@ -3994,11 +4045,14 @@
       <c r="F19" s="90">
         <v>44027</v>
       </c>
-      <c r="G19" s="4"/>
-    </row>
-    <row r="20" spans="2:7" ht="18">
-      <c r="B20" s="158"/>
-      <c r="C20" s="198"/>
+      <c r="G19" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="H19" s="117"/>
+    </row>
+    <row r="20" spans="2:8" ht="18">
+      <c r="B20" s="160"/>
+      <c r="C20" s="200"/>
       <c r="D20" s="31" t="s">
         <v>194</v>
       </c>
@@ -4006,11 +4060,14 @@
       <c r="F20" s="90">
         <v>44028</v>
       </c>
-      <c r="G20" s="4"/>
-    </row>
-    <row r="21" spans="2:7" ht="18">
-      <c r="B21" s="158"/>
-      <c r="C21" s="198"/>
+      <c r="G20" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="H20" s="117"/>
+    </row>
+    <row r="21" spans="2:8" ht="18">
+      <c r="B21" s="160"/>
+      <c r="C21" s="200"/>
       <c r="D21" s="31" t="s">
         <v>195</v>
       </c>
@@ -4018,11 +4075,14 @@
       <c r="F21" s="90">
         <v>44028</v>
       </c>
-      <c r="G21" s="4"/>
-    </row>
-    <row r="22" spans="2:7" ht="18">
-      <c r="B22" s="158"/>
-      <c r="C22" s="198"/>
+      <c r="G21" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="H21" s="117"/>
+    </row>
+    <row r="22" spans="2:8" ht="18">
+      <c r="B22" s="160"/>
+      <c r="C22" s="200"/>
       <c r="D22" s="31" t="s">
         <v>198</v>
       </c>
@@ -4030,11 +4090,14 @@
       <c r="F22" s="90">
         <v>44029</v>
       </c>
-      <c r="G22" s="4"/>
-    </row>
-    <row r="23" spans="2:7" ht="18">
-      <c r="B23" s="158"/>
-      <c r="C23" s="144"/>
+      <c r="G22" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="H22" s="117"/>
+    </row>
+    <row r="23" spans="2:8" ht="18">
+      <c r="B23" s="160"/>
+      <c r="C23" s="146"/>
       <c r="D23" s="31" t="s">
         <v>197</v>
       </c>
@@ -4042,11 +4105,14 @@
       <c r="F23" s="90">
         <v>44029</v>
       </c>
-      <c r="G23" s="4"/>
-    </row>
-    <row r="24" spans="2:7" ht="18">
-      <c r="B24" s="158"/>
-      <c r="C24" s="199" t="s">
+      <c r="G23" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="H23" s="117"/>
+    </row>
+    <row r="24" spans="2:8" ht="18">
+      <c r="B24" s="160"/>
+      <c r="C24" s="201" t="s">
         <v>145</v>
       </c>
       <c r="D24" s="32" t="s">
@@ -4058,11 +4124,14 @@
       <c r="F24" s="91">
         <v>44032</v>
       </c>
-      <c r="G24" s="5"/>
-    </row>
-    <row r="25" spans="2:7" ht="18">
-      <c r="B25" s="158"/>
-      <c r="C25" s="200"/>
+      <c r="G24" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="H24" s="117"/>
+    </row>
+    <row r="25" spans="2:8" ht="18">
+      <c r="B25" s="160"/>
+      <c r="C25" s="202"/>
       <c r="D25" s="19" t="s">
         <v>199</v>
       </c>
@@ -4070,11 +4139,14 @@
       <c r="F25" s="91">
         <v>44032</v>
       </c>
-      <c r="G25" s="5"/>
-    </row>
-    <row r="26" spans="2:7" ht="18">
-      <c r="B26" s="158"/>
-      <c r="C26" s="200"/>
+      <c r="G25" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="H25" s="117"/>
+    </row>
+    <row r="26" spans="2:8" ht="18">
+      <c r="B26" s="160"/>
+      <c r="C26" s="202"/>
       <c r="D26" s="19" t="s">
         <v>203</v>
       </c>
@@ -4082,11 +4154,14 @@
       <c r="F26" s="91">
         <v>44032</v>
       </c>
-      <c r="G26" s="5"/>
-    </row>
-    <row r="27" spans="2:7" ht="18">
-      <c r="B27" s="158"/>
-      <c r="C27" s="200"/>
+      <c r="G26" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="H26" s="117"/>
+    </row>
+    <row r="27" spans="2:8" ht="18">
+      <c r="B27" s="160"/>
+      <c r="C27" s="202"/>
       <c r="D27" s="19" t="s">
         <v>204</v>
       </c>
@@ -4094,19 +4169,23 @@
       <c r="F27" s="92">
         <v>44032</v>
       </c>
-      <c r="G27" s="5"/>
-    </row>
-    <row r="28" spans="2:7" ht="17">
-      <c r="B28" s="158"/>
-      <c r="C28" s="201"/>
+      <c r="G27" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="H27" s="117"/>
+    </row>
+    <row r="28" spans="2:8" ht="17">
+      <c r="B28" s="160"/>
+      <c r="C28" s="203"/>
       <c r="D28" s="19"/>
       <c r="E28" s="58"/>
       <c r="F28" s="93"/>
       <c r="G28" s="5"/>
-    </row>
-    <row r="29" spans="2:7" ht="18">
-      <c r="B29" s="158"/>
-      <c r="C29" s="202" t="s">
+      <c r="H28" s="117"/>
+    </row>
+    <row r="29" spans="2:8" ht="18">
+      <c r="B29" s="160"/>
+      <c r="C29" s="204" t="s">
         <v>148</v>
       </c>
       <c r="D29" s="36" t="s">
@@ -4118,11 +4197,14 @@
       <c r="F29" s="94">
         <v>44033</v>
       </c>
-      <c r="G29" s="3"/>
-    </row>
-    <row r="30" spans="2:7" ht="18">
-      <c r="B30" s="158"/>
-      <c r="C30" s="203"/>
+      <c r="G29" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="H29" s="117"/>
+    </row>
+    <row r="30" spans="2:8" ht="18">
+      <c r="B30" s="160"/>
+      <c r="C30" s="205"/>
       <c r="D30" s="36" t="s">
         <v>206</v>
       </c>
@@ -4130,11 +4212,14 @@
       <c r="F30" s="94">
         <v>44033</v>
       </c>
-      <c r="G30" s="3"/>
-    </row>
-    <row r="31" spans="2:7" ht="36" customHeight="1">
-      <c r="B31" s="158"/>
-      <c r="C31" s="203"/>
+      <c r="G30" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="H30" s="117"/>
+    </row>
+    <row r="31" spans="2:8" ht="36" customHeight="1">
+      <c r="B31" s="160"/>
+      <c r="C31" s="205"/>
       <c r="D31" s="36" t="s">
         <v>207</v>
       </c>
@@ -4142,11 +4227,14 @@
       <c r="F31" s="94">
         <v>44034</v>
       </c>
-      <c r="G31" s="3"/>
-    </row>
-    <row r="32" spans="2:7" ht="54" customHeight="1">
-      <c r="B32" s="158"/>
-      <c r="C32" s="204"/>
+      <c r="G31" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="H31" s="117"/>
+    </row>
+    <row r="32" spans="2:8" ht="54" customHeight="1">
+      <c r="B32" s="160"/>
+      <c r="C32" s="206"/>
       <c r="D32" s="59" t="s">
         <v>208</v>
       </c>
@@ -4154,14 +4242,17 @@
       <c r="F32" s="94">
         <v>44034</v>
       </c>
-      <c r="G32" s="3"/>
-    </row>
-    <row r="33" spans="2:7" ht="16" customHeight="1">
-      <c r="B33" s="158"/>
-      <c r="C33" s="150" t="s">
+      <c r="G32" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="H32" s="117"/>
+    </row>
+    <row r="33" spans="2:8" ht="16" customHeight="1">
+      <c r="B33" s="160"/>
+      <c r="C33" s="152" t="s">
         <v>88</v>
       </c>
-      <c r="D33" s="192" t="s">
+      <c r="D33" s="194" t="s">
         <v>156</v>
       </c>
       <c r="E33" s="79" t="s">
@@ -4170,12 +4261,15 @@
       <c r="F33" s="86">
         <v>44035</v>
       </c>
-      <c r="G33" s="37"/>
-    </row>
-    <row r="34" spans="2:7" ht="16" customHeight="1">
-      <c r="B34" s="158"/>
-      <c r="C34" s="151"/>
-      <c r="D34" s="193"/>
+      <c r="G33" s="37" t="s">
+        <v>244</v>
+      </c>
+      <c r="H33" s="117"/>
+    </row>
+    <row r="34" spans="2:8" ht="16" customHeight="1">
+      <c r="B34" s="160"/>
+      <c r="C34" s="153"/>
+      <c r="D34" s="195"/>
       <c r="E34" s="79" t="s">
         <v>210</v>
       </c>
@@ -4183,11 +4277,12 @@
         <v>44035</v>
       </c>
       <c r="G34" s="37"/>
-    </row>
-    <row r="35" spans="2:7" ht="17" customHeight="1">
-      <c r="B35" s="158"/>
-      <c r="C35" s="152"/>
-      <c r="D35" s="194"/>
+      <c r="H34" s="117"/>
+    </row>
+    <row r="35" spans="2:8" ht="17" customHeight="1">
+      <c r="B35" s="160"/>
+      <c r="C35" s="154"/>
+      <c r="D35" s="196"/>
       <c r="E35" s="79" t="s">
         <v>209</v>
       </c>
@@ -4195,13 +4290,14 @@
         <v>44035</v>
       </c>
       <c r="G35" s="37"/>
-    </row>
-    <row r="36" spans="2:7" ht="16" customHeight="1">
-      <c r="B36" s="158"/>
-      <c r="C36" s="183" t="s">
+      <c r="H35" s="117"/>
+    </row>
+    <row r="36" spans="2:8" ht="16" customHeight="1">
+      <c r="B36" s="160"/>
+      <c r="C36" s="185" t="s">
         <v>149</v>
       </c>
-      <c r="D36" s="186" t="s">
+      <c r="D36" s="188" t="s">
         <v>214</v>
       </c>
       <c r="E36" s="60" t="s">
@@ -4211,11 +4307,12 @@
         <v>44036</v>
       </c>
       <c r="G36" s="3"/>
-    </row>
-    <row r="37" spans="2:7" ht="16" customHeight="1">
-      <c r="B37" s="158"/>
-      <c r="C37" s="184"/>
-      <c r="D37" s="187"/>
+      <c r="H36" s="117"/>
+    </row>
+    <row r="37" spans="2:8" ht="16" customHeight="1">
+      <c r="B37" s="160"/>
+      <c r="C37" s="186"/>
+      <c r="D37" s="189"/>
       <c r="E37" s="60" t="s">
         <v>216</v>
       </c>
@@ -4224,10 +4321,10 @@
       </c>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="2:7" ht="16" customHeight="1">
-      <c r="B38" s="158"/>
-      <c r="C38" s="184"/>
-      <c r="D38" s="187"/>
+    <row r="38" spans="2:8" ht="16" customHeight="1">
+      <c r="B38" s="160"/>
+      <c r="C38" s="186"/>
+      <c r="D38" s="189"/>
       <c r="E38" s="60" t="s">
         <v>213</v>
       </c>
@@ -4236,10 +4333,10 @@
       </c>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="2:7" ht="16" customHeight="1">
-      <c r="B39" s="158"/>
-      <c r="C39" s="184"/>
-      <c r="D39" s="187"/>
+    <row r="39" spans="2:8" ht="16" customHeight="1">
+      <c r="B39" s="160"/>
+      <c r="C39" s="186"/>
+      <c r="D39" s="189"/>
       <c r="E39" s="60" t="s">
         <v>215</v>
       </c>
@@ -4248,20 +4345,20 @@
       </c>
       <c r="G39" s="3"/>
     </row>
-    <row r="40" spans="2:7" ht="16" customHeight="1">
-      <c r="B40" s="158"/>
-      <c r="C40" s="184"/>
-      <c r="D40" s="188"/>
+    <row r="40" spans="2:8" ht="16" customHeight="1">
+      <c r="B40" s="160"/>
+      <c r="C40" s="186"/>
+      <c r="D40" s="190"/>
       <c r="E40" s="60"/>
       <c r="F40" s="96"/>
       <c r="G40" s="3"/>
     </row>
-    <row r="41" spans="2:7" ht="16" customHeight="1">
-      <c r="B41" s="158"/>
-      <c r="C41" s="185" t="s">
+    <row r="41" spans="2:8" ht="16" customHeight="1">
+      <c r="B41" s="160"/>
+      <c r="C41" s="187" t="s">
         <v>150</v>
       </c>
-      <c r="D41" s="189" t="s">
+      <c r="D41" s="191" t="s">
         <v>217</v>
       </c>
       <c r="E41" s="61" t="s">
@@ -4272,10 +4369,10 @@
       </c>
       <c r="G41" s="40"/>
     </row>
-    <row r="42" spans="2:7" ht="16" customHeight="1">
-      <c r="B42" s="158"/>
-      <c r="C42" s="185"/>
-      <c r="D42" s="190"/>
+    <row r="42" spans="2:8" ht="16" customHeight="1">
+      <c r="B42" s="160"/>
+      <c r="C42" s="187"/>
+      <c r="D42" s="192"/>
       <c r="E42" s="61" t="s">
         <v>219</v>
       </c>
@@ -4284,10 +4381,10 @@
       </c>
       <c r="G42" s="40"/>
     </row>
-    <row r="43" spans="2:7" ht="16" customHeight="1">
-      <c r="B43" s="158"/>
-      <c r="C43" s="185"/>
-      <c r="D43" s="190"/>
+    <row r="43" spans="2:8" ht="16" customHeight="1">
+      <c r="B43" s="160"/>
+      <c r="C43" s="187"/>
+      <c r="D43" s="192"/>
       <c r="E43" s="61" t="s">
         <v>220</v>
       </c>
@@ -4296,10 +4393,10 @@
       </c>
       <c r="G43" s="40"/>
     </row>
-    <row r="44" spans="2:7" ht="16" customHeight="1">
-      <c r="B44" s="158"/>
-      <c r="C44" s="185"/>
-      <c r="D44" s="190"/>
+    <row r="44" spans="2:8" ht="16" customHeight="1">
+      <c r="B44" s="160"/>
+      <c r="C44" s="187"/>
+      <c r="D44" s="192"/>
       <c r="E44" s="61" t="s">
         <v>216</v>
       </c>
@@ -4308,10 +4405,10 @@
       </c>
       <c r="G44" s="40"/>
     </row>
-    <row r="45" spans="2:7" ht="16" customHeight="1">
-      <c r="B45" s="158"/>
-      <c r="C45" s="185"/>
-      <c r="D45" s="190"/>
+    <row r="45" spans="2:8" ht="16" customHeight="1">
+      <c r="B45" s="160"/>
+      <c r="C45" s="187"/>
+      <c r="D45" s="192"/>
       <c r="E45" s="61" t="s">
         <v>201</v>
       </c>
@@ -4320,10 +4417,10 @@
       </c>
       <c r="G45" s="40"/>
     </row>
-    <row r="46" spans="2:7" ht="16" customHeight="1">
-      <c r="B46" s="158"/>
-      <c r="C46" s="185"/>
-      <c r="D46" s="191"/>
+    <row r="46" spans="2:8" ht="16" customHeight="1">
+      <c r="B46" s="160"/>
+      <c r="C46" s="187"/>
+      <c r="D46" s="193"/>
       <c r="E46" s="61" t="s">
         <v>221</v>
       </c>
@@ -4332,8 +4429,8 @@
       </c>
       <c r="G46" s="40"/>
     </row>
-    <row r="47" spans="2:7" ht="16" customHeight="1">
-      <c r="B47" s="158"/>
+    <row r="47" spans="2:8" ht="16" customHeight="1">
+      <c r="B47" s="160"/>
       <c r="C47" s="46" t="s">
         <v>163</v>
       </c>
@@ -4346,8 +4443,8 @@
       </c>
       <c r="G47" s="40"/>
     </row>
-    <row r="48" spans="2:7" ht="16" customHeight="1">
-      <c r="B48" s="159"/>
+    <row r="48" spans="2:8" ht="16" customHeight="1">
+      <c r="B48" s="161"/>
       <c r="C48" s="46" t="s">
         <v>165</v>
       </c>
@@ -4361,20 +4458,22 @@
       <c r="G48" s="40" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="49" spans="2:7">
+      <c r="H48" s="117"/>
+    </row>
+    <row r="49" spans="2:8">
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="53"/>
       <c r="F49" s="80"/>
       <c r="G49" s="2"/>
-    </row>
-    <row r="50" spans="2:7" ht="18">
-      <c r="B50" s="171" t="s">
+      <c r="H49" s="117"/>
+    </row>
+    <row r="50" spans="2:8" ht="18">
+      <c r="B50" s="173" t="s">
         <v>136</v>
       </c>
-      <c r="C50" s="178" t="s">
+      <c r="C50" s="180" t="s">
         <v>147</v>
       </c>
       <c r="D50" s="39" t="s">
@@ -4386,11 +4485,14 @@
       <c r="F50" s="97">
         <v>44041</v>
       </c>
-      <c r="G50" s="40"/>
-    </row>
-    <row r="51" spans="2:7" ht="18">
-      <c r="B51" s="171"/>
-      <c r="C51" s="179"/>
+      <c r="G50" s="40" t="s">
+        <v>175</v>
+      </c>
+      <c r="H50" s="117"/>
+    </row>
+    <row r="51" spans="2:8" ht="18">
+      <c r="B51" s="173"/>
+      <c r="C51" s="181"/>
       <c r="D51" s="41" t="s">
         <v>91</v>
       </c>
@@ -4402,9 +4504,9 @@
       </c>
       <c r="G51" s="40"/>
     </row>
-    <row r="52" spans="2:7" ht="18">
-      <c r="B52" s="171"/>
-      <c r="C52" s="179"/>
+    <row r="52" spans="2:8" ht="18">
+      <c r="B52" s="173"/>
+      <c r="C52" s="181"/>
       <c r="D52" s="41" t="s">
         <v>121</v>
       </c>
@@ -4416,9 +4518,9 @@
       </c>
       <c r="G52" s="40"/>
     </row>
-    <row r="53" spans="2:7" ht="18">
-      <c r="B53" s="171"/>
-      <c r="C53" s="179"/>
+    <row r="53" spans="2:8" ht="18">
+      <c r="B53" s="173"/>
+      <c r="C53" s="181"/>
       <c r="D53" s="41" t="s">
         <v>119</v>
       </c>
@@ -4430,9 +4532,9 @@
       </c>
       <c r="G53" s="40"/>
     </row>
-    <row r="54" spans="2:7" ht="18">
-      <c r="B54" s="171"/>
-      <c r="C54" s="180"/>
+    <row r="54" spans="2:8" ht="18">
+      <c r="B54" s="173"/>
+      <c r="C54" s="182"/>
       <c r="D54" s="41" t="s">
         <v>238</v>
       </c>
@@ -4442,9 +4544,9 @@
       </c>
       <c r="G54" s="40"/>
     </row>
-    <row r="55" spans="2:7" ht="17">
-      <c r="B55" s="171"/>
-      <c r="C55" s="181" t="s">
+    <row r="55" spans="2:8" ht="17">
+      <c r="B55" s="173"/>
+      <c r="C55" s="183" t="s">
         <v>123</v>
       </c>
       <c r="D55" s="42"/>
@@ -4452,9 +4554,9 @@
       <c r="F55" s="98"/>
       <c r="G55" s="43"/>
     </row>
-    <row r="56" spans="2:7" ht="18">
-      <c r="B56" s="171"/>
-      <c r="C56" s="182"/>
+    <row r="56" spans="2:8" ht="18">
+      <c r="B56" s="173"/>
+      <c r="C56" s="184"/>
       <c r="D56" s="42" t="s">
         <v>229</v>
       </c>
@@ -4466,9 +4568,9 @@
       </c>
       <c r="G56" s="43"/>
     </row>
-    <row r="57" spans="2:7" ht="18">
-      <c r="B57" s="171"/>
-      <c r="C57" s="182"/>
+    <row r="57" spans="2:8" ht="18">
+      <c r="B57" s="173"/>
+      <c r="C57" s="184"/>
       <c r="D57" s="42" t="s">
         <v>230</v>
       </c>
@@ -4480,9 +4582,9 @@
       </c>
       <c r="G57" s="43"/>
     </row>
-    <row r="58" spans="2:7" ht="18">
-      <c r="B58" s="171"/>
-      <c r="C58" s="182"/>
+    <row r="58" spans="2:8" ht="18">
+      <c r="B58" s="173"/>
+      <c r="C58" s="184"/>
       <c r="D58" s="42" t="s">
         <v>231</v>
       </c>
@@ -4494,9 +4596,9 @@
       </c>
       <c r="G58" s="43"/>
     </row>
-    <row r="59" spans="2:7" ht="18">
-      <c r="B59" s="171"/>
-      <c r="C59" s="182"/>
+    <row r="59" spans="2:8" ht="18">
+      <c r="B59" s="173"/>
+      <c r="C59" s="184"/>
       <c r="D59" s="42" t="s">
         <v>238</v>
       </c>
@@ -4506,9 +4608,9 @@
       </c>
       <c r="G59" s="43"/>
     </row>
-    <row r="60" spans="2:7" ht="18">
-      <c r="B60" s="171"/>
-      <c r="C60" s="163" t="s">
+    <row r="60" spans="2:8" ht="18">
+      <c r="B60" s="173"/>
+      <c r="C60" s="165" t="s">
         <v>151</v>
       </c>
       <c r="D60" s="110" t="s">
@@ -4520,9 +4622,9 @@
       </c>
       <c r="G60" s="107"/>
     </row>
-    <row r="61" spans="2:7" ht="18">
-      <c r="B61" s="171"/>
-      <c r="C61" s="164"/>
+    <row r="61" spans="2:8" ht="18">
+      <c r="B61" s="173"/>
+      <c r="C61" s="166"/>
       <c r="D61" s="110" t="s">
         <v>232</v>
       </c>
@@ -4532,9 +4634,9 @@
       </c>
       <c r="G61" s="107"/>
     </row>
-    <row r="62" spans="2:7" ht="18">
-      <c r="B62" s="171"/>
-      <c r="C62" s="164"/>
+    <row r="62" spans="2:8" ht="18">
+      <c r="B62" s="173"/>
+      <c r="C62" s="166"/>
       <c r="D62" s="110" t="s">
         <v>164</v>
       </c>
@@ -4544,9 +4646,9 @@
       </c>
       <c r="G62" s="107"/>
     </row>
-    <row r="63" spans="2:7" ht="18">
-      <c r="B63" s="171"/>
-      <c r="C63" s="165"/>
+    <row r="63" spans="2:8" ht="18">
+      <c r="B63" s="173"/>
+      <c r="C63" s="167"/>
       <c r="D63" s="110" t="s">
         <v>238</v>
       </c>
@@ -4556,9 +4658,9 @@
       </c>
       <c r="G63" s="107"/>
     </row>
-    <row r="64" spans="2:7" ht="16" customHeight="1">
-      <c r="B64" s="171"/>
-      <c r="C64" s="166" t="s">
+    <row r="64" spans="2:8" ht="16" customHeight="1">
+      <c r="B64" s="173"/>
+      <c r="C64" s="168" t="s">
         <v>152</v>
       </c>
       <c r="D64" s="38"/>
@@ -4567,8 +4669,8 @@
       <c r="G64" s="38"/>
     </row>
     <row r="65" spans="2:7" ht="18">
-      <c r="B65" s="171"/>
-      <c r="C65" s="167"/>
+      <c r="B65" s="173"/>
+      <c r="C65" s="169"/>
       <c r="D65" s="44" t="s">
         <v>233</v>
       </c>
@@ -4581,8 +4683,8 @@
       <c r="G65" s="38"/>
     </row>
     <row r="66" spans="2:7" ht="18">
-      <c r="B66" s="171"/>
-      <c r="C66" s="167"/>
+      <c r="B66" s="173"/>
+      <c r="C66" s="169"/>
       <c r="D66" s="44" t="s">
         <v>234</v>
       </c>
@@ -4595,8 +4697,8 @@
       <c r="G66" s="38"/>
     </row>
     <row r="67" spans="2:7" ht="17" customHeight="1">
-      <c r="B67" s="171"/>
-      <c r="C67" s="168"/>
+      <c r="B67" s="173"/>
+      <c r="C67" s="170"/>
       <c r="D67" s="45" t="s">
         <v>235</v>
       </c>
@@ -4605,8 +4707,8 @@
       <c r="G67" s="38"/>
     </row>
     <row r="68" spans="2:7" ht="16" customHeight="1">
-      <c r="B68" s="171"/>
-      <c r="C68" s="169" t="s">
+      <c r="B68" s="173"/>
+      <c r="C68" s="171" t="s">
         <v>153</v>
       </c>
       <c r="D68" s="107" t="s">
@@ -4619,8 +4721,8 @@
       <c r="G68" s="107"/>
     </row>
     <row r="69" spans="2:7" ht="16" customHeight="1">
-      <c r="B69" s="171"/>
-      <c r="C69" s="170"/>
+      <c r="B69" s="173"/>
+      <c r="C69" s="172"/>
       <c r="D69" s="107" t="s">
         <v>235</v>
       </c>
@@ -4631,8 +4733,8 @@
       <c r="G69" s="107"/>
     </row>
     <row r="70" spans="2:7" ht="18">
-      <c r="B70" s="171"/>
-      <c r="C70" s="175" t="s">
+      <c r="B70" s="173"/>
+      <c r="C70" s="177" t="s">
         <v>154</v>
       </c>
       <c r="D70" s="33" t="s">
@@ -4645,8 +4747,8 @@
       <c r="G70" s="34"/>
     </row>
     <row r="71" spans="2:7" ht="18">
-      <c r="B71" s="171"/>
-      <c r="C71" s="176"/>
+      <c r="B71" s="173"/>
+      <c r="C71" s="178"/>
       <c r="D71" s="33" t="s">
         <v>237</v>
       </c>
@@ -4657,8 +4759,8 @@
       <c r="G71" s="34"/>
     </row>
     <row r="72" spans="2:7" ht="18">
-      <c r="B72" s="171"/>
-      <c r="C72" s="177"/>
+      <c r="B72" s="173"/>
+      <c r="C72" s="179"/>
       <c r="D72" s="33" t="s">
         <v>235</v>
       </c>
@@ -4669,8 +4771,8 @@
       <c r="G72" s="34"/>
     </row>
     <row r="73" spans="2:7" ht="18">
-      <c r="B73" s="171"/>
-      <c r="C73" s="172" t="s">
+      <c r="B73" s="173"/>
+      <c r="C73" s="174" t="s">
         <v>155</v>
       </c>
       <c r="D73" s="35" t="s">
@@ -4685,8 +4787,8 @@
       <c r="G73" s="6"/>
     </row>
     <row r="74" spans="2:7" ht="17">
-      <c r="B74" s="171"/>
-      <c r="C74" s="173"/>
+      <c r="B74" s="173"/>
+      <c r="C74" s="175"/>
       <c r="D74" s="6" t="s">
         <v>116</v>
       </c>
@@ -4697,8 +4799,8 @@
       <c r="G74" s="6"/>
     </row>
     <row r="75" spans="2:7">
-      <c r="B75" s="171"/>
-      <c r="C75" s="174"/>
+      <c r="B75" s="173"/>
+      <c r="C75" s="176"/>
       <c r="D75" s="6" t="s">
         <v>235</v>
       </c>
@@ -4709,7 +4811,7 @@
       <c r="G75" s="6"/>
     </row>
     <row r="76" spans="2:7">
-      <c r="B76" s="160" t="s">
+      <c r="B76" s="162" t="s">
         <v>160</v>
       </c>
       <c r="C76" s="37" t="s">
@@ -4725,7 +4827,7 @@
       <c r="G76" s="67"/>
     </row>
     <row r="77" spans="2:7">
-      <c r="B77" s="161"/>
+      <c r="B77" s="163"/>
       <c r="C77" s="37" t="s">
         <v>162</v>
       </c>
@@ -4739,7 +4841,7 @@
       <c r="G77" s="67"/>
     </row>
     <row r="78" spans="2:7">
-      <c r="B78" s="162"/>
+      <c r="B78" s="164"/>
       <c r="C78" s="37"/>
       <c r="D78" s="37" t="s">
         <v>235</v>
@@ -4751,7 +4853,7 @@
       <c r="G78" s="67"/>
     </row>
     <row r="79" spans="2:7">
-      <c r="B79" s="156" t="s">
+      <c r="B79" s="158" t="s">
         <v>224</v>
       </c>
       <c r="C79" s="5"/>
@@ -4765,7 +4867,7 @@
       <c r="G79" s="5"/>
     </row>
     <row r="80" spans="2:7">
-      <c r="B80" s="156"/>
+      <c r="B80" s="158"/>
       <c r="C80" s="5" t="s">
         <v>225</v>
       </c>
@@ -4779,7 +4881,7 @@
       <c r="G80" s="5"/>
     </row>
     <row r="81" spans="2:7">
-      <c r="B81" s="156"/>
+      <c r="B81" s="158"/>
       <c r="C81" s="5" t="s">
         <v>226</v>
       </c>
@@ -4793,7 +4895,7 @@
       <c r="G81" s="5"/>
     </row>
     <row r="82" spans="2:7">
-      <c r="B82" s="156"/>
+      <c r="B82" s="158"/>
       <c r="C82" s="115" t="s">
         <v>227</v>
       </c>
@@ -4805,7 +4907,7 @@
       <c r="G82" s="5"/>
     </row>
     <row r="83" spans="2:7">
-      <c r="B83" s="156"/>
+      <c r="B83" s="158"/>
       <c r="C83" s="5"/>
       <c r="D83" s="68"/>
       <c r="E83" s="113"/>
@@ -4813,12 +4915,32 @@
       <c r="G83" s="5"/>
     </row>
     <row r="84" spans="2:7">
-      <c r="D84" s="51"/>
-      <c r="E84" s="52"/>
+      <c r="B84" s="2">
+        <v>7.21</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="D84" s="53"/>
+      <c r="E84" s="118"/>
+      <c r="F84" s="53"/>
+      <c r="G84" s="2" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="85" spans="2:7">
-      <c r="D85" s="51"/>
-      <c r="E85" s="52"/>
+      <c r="B85" s="2">
+        <v>7.23</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="D85" s="53"/>
+      <c r="E85" s="118"/>
+      <c r="F85" s="53"/>
+      <c r="G85" s="2" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="86" spans="2:7">
       <c r="D86" s="51"/>

--- a/结算数据监控平台开发计划.xlsx
+++ b/结算数据监控平台开发计划.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicker/sandbox/settlementMonitoring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70216E2C-94F7-4948-83AC-3D83DBA6A350}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F461DBF-BD5F-1B4D-9115-D016608E0291}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="480" windowWidth="26540" windowHeight="18920" activeTab="3" xr2:uid="{AD2C15C8-2DE4-104B-A764-E65CC8F0AEA6}"/>
+    <workbookView xWindow="2880" yWindow="460" windowWidth="26540" windowHeight="18920" activeTab="3" xr2:uid="{AD2C15C8-2DE4-104B-A764-E65CC8F0AEA6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="246">
   <si>
     <t>ETX联网结算平台</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1036,10 +1036,6 @@
   </si>
   <si>
     <t>组织数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>统计接收时间和包号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1518,7 +1514,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="213">
+  <cellXfs count="214">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1875,6 +1871,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2654,16 +2653,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="18" customHeight="1">
-      <c r="B1" s="120" t="s">
+      <c r="B1" s="121" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
     </row>
     <row r="2" spans="2:5">
-      <c r="B2" s="121"/>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
+      <c r="B2" s="122"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
     </row>
     <row r="3" spans="2:5">
       <c r="B3" s="3" t="s">
@@ -2699,7 +2698,7 @@
       <c r="D5" s="2"/>
     </row>
     <row r="6" spans="2:5">
-      <c r="B6" s="122" t="s">
+      <c r="B6" s="123" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -2713,7 +2712,7 @@
       </c>
     </row>
     <row r="7" spans="2:5">
-      <c r="B7" s="122"/>
+      <c r="B7" s="123"/>
       <c r="C7" s="4" t="s">
         <v>39</v>
       </c>
@@ -2723,7 +2722,7 @@
       </c>
     </row>
     <row r="8" spans="2:5">
-      <c r="B8" s="124" t="s">
+      <c r="B8" s="125" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="5" t="s">
@@ -2737,7 +2736,7 @@
       </c>
     </row>
     <row r="9" spans="2:5">
-      <c r="B9" s="124"/>
+      <c r="B9" s="125"/>
       <c r="C9" s="5" t="s">
         <v>43</v>
       </c>
@@ -2773,7 +2772,7 @@
       <c r="D13" s="2"/>
     </row>
     <row r="14" spans="2:5">
-      <c r="B14" s="123" t="s">
+      <c r="B14" s="124" t="s">
         <v>45</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -2787,7 +2786,7 @@
       </c>
     </row>
     <row r="15" spans="2:5">
-      <c r="B15" s="123"/>
+      <c r="B15" s="124"/>
       <c r="C15" s="2" t="s">
         <v>27</v>
       </c>
@@ -2797,7 +2796,7 @@
       <c r="E15" s="11"/>
     </row>
     <row r="16" spans="2:5">
-      <c r="B16" s="123"/>
+      <c r="B16" s="124"/>
       <c r="C16" s="2" t="s">
         <v>28</v>
       </c>
@@ -2807,7 +2806,7 @@
       <c r="E16" s="11"/>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="123"/>
+      <c r="B17" s="124"/>
       <c r="C17" s="2" t="s">
         <v>29</v>
       </c>
@@ -2827,7 +2826,7 @@
       <c r="D19" s="2"/>
     </row>
     <row r="20" spans="2:5">
-      <c r="B20" s="119" t="s">
+      <c r="B20" s="120" t="s">
         <v>51</v>
       </c>
       <c r="C20" s="7" t="s">
@@ -2836,35 +2835,35 @@
       <c r="D20" s="2"/>
     </row>
     <row r="21" spans="2:5">
-      <c r="B21" s="119"/>
+      <c r="B21" s="120"/>
       <c r="C21" s="7" t="s">
         <v>34</v>
       </c>
       <c r="D21" s="2"/>
     </row>
     <row r="22" spans="2:5">
-      <c r="B22" s="119"/>
+      <c r="B22" s="120"/>
       <c r="C22" s="7" t="s">
         <v>53</v>
       </c>
       <c r="D22" s="2"/>
     </row>
     <row r="23" spans="2:5">
-      <c r="B23" s="119"/>
+      <c r="B23" s="120"/>
       <c r="C23" s="7" t="s">
         <v>54</v>
       </c>
       <c r="D23" s="2"/>
     </row>
     <row r="24" spans="2:5">
-      <c r="B24" s="119"/>
+      <c r="B24" s="120"/>
       <c r="C24" s="7" t="s">
         <v>55</v>
       </c>
       <c r="D24" s="2"/>
     </row>
     <row r="25" spans="2:5">
-      <c r="B25" s="119"/>
+      <c r="B25" s="120"/>
       <c r="C25" s="2" t="s">
         <v>56</v>
       </c>
@@ -2968,13 +2967,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="30">
-      <c r="B2" s="128" t="s">
+      <c r="B2" s="129" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="129"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="129"/>
-      <c r="F2" s="130"/>
+      <c r="C2" s="130"/>
+      <c r="D2" s="130"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="131"/>
     </row>
     <row r="3" spans="2:8">
       <c r="B3" s="25"/>
@@ -2987,7 +2986,7 @@
       <c r="B4" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="C4" s="134" t="s">
+      <c r="C4" s="135" t="s">
         <v>60</v>
       </c>
       <c r="D4" s="14" t="s">
@@ -3006,7 +3005,7 @@
     </row>
     <row r="5" spans="2:8" ht="18">
       <c r="B5" s="23"/>
-      <c r="C5" s="135"/>
+      <c r="C5" s="136"/>
       <c r="D5" s="15" t="s">
         <v>129</v>
       </c>
@@ -3017,7 +3016,7 @@
     </row>
     <row r="6" spans="2:8" ht="18">
       <c r="B6" s="23"/>
-      <c r="C6" s="135"/>
+      <c r="C6" s="136"/>
       <c r="D6" s="15" t="s">
         <v>130</v>
       </c>
@@ -3026,7 +3025,7 @@
     </row>
     <row r="7" spans="2:8" ht="18">
       <c r="B7" s="23"/>
-      <c r="C7" s="136"/>
+      <c r="C7" s="137"/>
       <c r="D7" s="15" t="s">
         <v>131</v>
       </c>
@@ -3046,7 +3045,7 @@
     </row>
     <row r="9" spans="2:8" ht="17">
       <c r="B9" s="23"/>
-      <c r="C9" s="137" t="s">
+      <c r="C9" s="138" t="s">
         <v>114</v>
       </c>
       <c r="D9" s="15"/>
@@ -3055,7 +3054,7 @@
     </row>
     <row r="10" spans="2:8" ht="16" customHeight="1">
       <c r="B10" s="23"/>
-      <c r="C10" s="138"/>
+      <c r="C10" s="139"/>
       <c r="D10" s="15" t="s">
         <v>62</v>
       </c>
@@ -3064,7 +3063,7 @@
     </row>
     <row r="11" spans="2:8" ht="18" customHeight="1">
       <c r="B11" s="23"/>
-      <c r="C11" s="138"/>
+      <c r="C11" s="139"/>
       <c r="D11" s="15" t="s">
         <v>65</v>
       </c>
@@ -3075,7 +3074,7 @@
     </row>
     <row r="12" spans="2:8" ht="18">
       <c r="B12" s="23"/>
-      <c r="C12" s="138"/>
+      <c r="C12" s="139"/>
       <c r="D12" s="15" t="s">
         <v>66</v>
       </c>
@@ -3086,7 +3085,7 @@
     </row>
     <row r="13" spans="2:8" ht="36">
       <c r="B13" s="23"/>
-      <c r="C13" s="138"/>
+      <c r="C13" s="139"/>
       <c r="D13" s="15" t="s">
         <v>68</v>
       </c>
@@ -3097,7 +3096,7 @@
     </row>
     <row r="14" spans="2:8" ht="18">
       <c r="B14" s="23"/>
-      <c r="C14" s="139"/>
+      <c r="C14" s="140"/>
       <c r="D14" s="16" t="s">
         <v>70</v>
       </c>
@@ -3142,7 +3141,7 @@
     </row>
     <row r="19" spans="2:6" ht="18">
       <c r="B19" s="23"/>
-      <c r="C19" s="140"/>
+      <c r="C19" s="141"/>
       <c r="D19" s="15" t="s">
         <v>132</v>
       </c>
@@ -3151,7 +3150,7 @@
     </row>
     <row r="20" spans="2:6" ht="18">
       <c r="B20" s="23"/>
-      <c r="C20" s="141"/>
+      <c r="C20" s="142"/>
       <c r="D20" s="15" t="s">
         <v>133</v>
       </c>
@@ -3160,28 +3159,28 @@
     </row>
     <row r="21" spans="2:6" ht="17">
       <c r="B21" s="23"/>
-      <c r="C21" s="141"/>
+      <c r="C21" s="142"/>
       <c r="D21" s="15"/>
       <c r="E21" s="15"/>
       <c r="F21" s="2"/>
     </row>
     <row r="22" spans="2:6" ht="17">
       <c r="B22" s="23"/>
-      <c r="C22" s="141"/>
+      <c r="C22" s="142"/>
       <c r="D22" s="15"/>
       <c r="E22" s="15"/>
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="2:6" ht="17">
       <c r="B23" s="23"/>
-      <c r="C23" s="141"/>
+      <c r="C23" s="142"/>
       <c r="D23" s="15"/>
       <c r="E23" s="15"/>
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="2:6" ht="17">
       <c r="B24" s="23"/>
-      <c r="C24" s="142"/>
+      <c r="C24" s="143"/>
       <c r="D24" s="16"/>
       <c r="E24" s="15"/>
       <c r="F24" s="2"/>
@@ -3215,7 +3214,7 @@
     </row>
     <row r="29" spans="2:6" ht="18">
       <c r="B29" s="23"/>
-      <c r="C29" s="143" t="s">
+      <c r="C29" s="144" t="s">
         <v>78</v>
       </c>
       <c r="D29" s="15" t="s">
@@ -3225,7 +3224,7 @@
     </row>
     <row r="30" spans="2:6" ht="16" customHeight="1">
       <c r="B30" s="23"/>
-      <c r="C30" s="144"/>
+      <c r="C30" s="145"/>
       <c r="D30" s="15" t="s">
         <v>79</v>
       </c>
@@ -3241,7 +3240,7 @@
     </row>
     <row r="32" spans="2:6" ht="36">
       <c r="B32" s="23"/>
-      <c r="C32" s="145" t="s">
+      <c r="C32" s="146" t="s">
         <v>80</v>
       </c>
       <c r="D32" s="15" t="s">
@@ -3254,7 +3253,7 @@
     </row>
     <row r="33" spans="2:6" ht="17">
       <c r="B33" s="23"/>
-      <c r="C33" s="146"/>
+      <c r="C33" s="147"/>
       <c r="D33" s="2" t="s">
         <v>116</v>
       </c>
@@ -3274,7 +3273,7 @@
     </row>
     <row r="35" spans="2:6" ht="16" customHeight="1">
       <c r="B35" s="23"/>
-      <c r="C35" s="147" t="s">
+      <c r="C35" s="148" t="s">
         <v>85</v>
       </c>
       <c r="D35" s="15" t="s">
@@ -3284,8 +3283,8 @@
       <c r="F35" s="15"/>
     </row>
     <row r="36" spans="2:6" ht="18">
-      <c r="B36" s="149"/>
-      <c r="C36" s="148"/>
+      <c r="B36" s="150"/>
+      <c r="C36" s="149"/>
       <c r="D36" s="15" t="s">
         <v>87</v>
       </c>
@@ -3293,7 +3292,7 @@
       <c r="F36" s="15"/>
     </row>
     <row r="37" spans="2:6" ht="18">
-      <c r="B37" s="150"/>
+      <c r="B37" s="151"/>
       <c r="C37" s="15"/>
       <c r="D37" s="15" t="s">
         <v>117</v>
@@ -3302,14 +3301,14 @@
       <c r="F37" s="15"/>
     </row>
     <row r="38" spans="2:6">
-      <c r="B38" s="150"/>
+      <c r="B38" s="151"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
     </row>
     <row r="39" spans="2:6" ht="17">
-      <c r="B39" s="150"/>
+      <c r="B39" s="151"/>
       <c r="C39" s="24" t="s">
         <v>88</v>
       </c>
@@ -3320,15 +3319,15 @@
       <c r="F39" s="2"/>
     </row>
     <row r="40" spans="2:6" ht="16" customHeight="1">
-      <c r="B40" s="150"/>
+      <c r="B40" s="151"/>
       <c r="C40" s="13"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
     </row>
     <row r="41" spans="2:6">
-      <c r="B41" s="150"/>
-      <c r="C41" s="152" t="s">
+      <c r="B41" s="151"/>
+      <c r="C41" s="153" t="s">
         <v>102</v>
       </c>
       <c r="D41" s="2" t="s">
@@ -3338,8 +3337,8 @@
       <c r="F41" s="2"/>
     </row>
     <row r="42" spans="2:6">
-      <c r="B42" s="150"/>
-      <c r="C42" s="153"/>
+      <c r="B42" s="151"/>
+      <c r="C42" s="154"/>
       <c r="D42" s="2" t="s">
         <v>104</v>
       </c>
@@ -3347,8 +3346,8 @@
       <c r="F42" s="2"/>
     </row>
     <row r="43" spans="2:6" ht="17" customHeight="1">
-      <c r="B43" s="150"/>
-      <c r="C43" s="153"/>
+      <c r="B43" s="151"/>
+      <c r="C43" s="154"/>
       <c r="D43" s="2" t="s">
         <v>105</v>
       </c>
@@ -3356,8 +3355,8 @@
       <c r="F43" s="2"/>
     </row>
     <row r="44" spans="2:6" ht="17" customHeight="1">
-      <c r="B44" s="150"/>
-      <c r="C44" s="153"/>
+      <c r="B44" s="151"/>
+      <c r="C44" s="154"/>
       <c r="D44" s="2" t="s">
         <v>106</v>
       </c>
@@ -3365,8 +3364,8 @@
       <c r="F44" s="2"/>
     </row>
     <row r="45" spans="2:6" ht="17" customHeight="1">
-      <c r="B45" s="150"/>
-      <c r="C45" s="153"/>
+      <c r="B45" s="151"/>
+      <c r="C45" s="154"/>
       <c r="D45" s="2" t="s">
         <v>107</v>
       </c>
@@ -3374,8 +3373,8 @@
       <c r="F45" s="2"/>
     </row>
     <row r="46" spans="2:6" ht="17" customHeight="1">
-      <c r="B46" s="150"/>
-      <c r="C46" s="153"/>
+      <c r="B46" s="151"/>
+      <c r="C46" s="154"/>
       <c r="D46" s="20" t="s">
         <v>108</v>
       </c>
@@ -3383,8 +3382,8 @@
       <c r="F46" s="2"/>
     </row>
     <row r="47" spans="2:6" ht="17" customHeight="1">
-      <c r="B47" s="150"/>
-      <c r="C47" s="153"/>
+      <c r="B47" s="151"/>
+      <c r="C47" s="154"/>
       <c r="D47" s="2" t="s">
         <v>109</v>
       </c>
@@ -3392,8 +3391,8 @@
       <c r="F47" s="2"/>
     </row>
     <row r="48" spans="2:6" ht="17" customHeight="1">
-      <c r="B48" s="150"/>
-      <c r="C48" s="153"/>
+      <c r="B48" s="151"/>
+      <c r="C48" s="154"/>
       <c r="D48" s="21" t="s">
         <v>110</v>
       </c>
@@ -3401,8 +3400,8 @@
       <c r="F48" s="2"/>
     </row>
     <row r="49" spans="2:6" ht="17" customHeight="1">
-      <c r="B49" s="150"/>
-      <c r="C49" s="154"/>
+      <c r="B49" s="151"/>
+      <c r="C49" s="155"/>
       <c r="D49" s="21" t="s">
         <v>111</v>
       </c>
@@ -3410,13 +3409,13 @@
       <c r="F49" s="2"/>
     </row>
     <row r="50" spans="2:6" ht="17" customHeight="1">
-      <c r="B50" s="150"/>
+      <c r="B50" s="151"/>
       <c r="C50" s="2"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
     </row>
     <row r="51" spans="2:6" ht="17" customHeight="1">
-      <c r="B51" s="151"/>
+      <c r="B51" s="152"/>
       <c r="C51" s="2"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
@@ -3429,10 +3428,10 @@
       <c r="F52" s="2"/>
     </row>
     <row r="53" spans="2:6" ht="17" customHeight="1">
-      <c r="B53" s="131" t="s">
+      <c r="B53" s="132" t="s">
         <v>89</v>
       </c>
-      <c r="C53" s="155" t="s">
+      <c r="C53" s="156" t="s">
         <v>60</v>
       </c>
       <c r="D53" s="14" t="s">
@@ -3444,8 +3443,8 @@
       <c r="F53" s="2"/>
     </row>
     <row r="54" spans="2:6" ht="18">
-      <c r="B54" s="132"/>
-      <c r="C54" s="156"/>
+      <c r="B54" s="133"/>
+      <c r="C54" s="157"/>
       <c r="D54" s="15" t="s">
         <v>91</v>
       </c>
@@ -3455,8 +3454,8 @@
       <c r="F54" s="2"/>
     </row>
     <row r="55" spans="2:6" ht="18">
-      <c r="B55" s="132"/>
-      <c r="C55" s="156"/>
+      <c r="B55" s="133"/>
+      <c r="C55" s="157"/>
       <c r="D55" s="15" t="s">
         <v>121</v>
       </c>
@@ -3466,8 +3465,8 @@
       <c r="F55" s="2"/>
     </row>
     <row r="56" spans="2:6" ht="18">
-      <c r="B56" s="132"/>
-      <c r="C56" s="157"/>
+      <c r="B56" s="133"/>
+      <c r="C56" s="158"/>
       <c r="D56" s="15" t="s">
         <v>119</v>
       </c>
@@ -3477,15 +3476,15 @@
       <c r="F56" s="2"/>
     </row>
     <row r="57" spans="2:6">
-      <c r="B57" s="132"/>
+      <c r="B57" s="133"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
     </row>
     <row r="58" spans="2:6" ht="17">
-      <c r="B58" s="132"/>
-      <c r="C58" s="125" t="s">
+      <c r="B58" s="133"/>
+      <c r="C58" s="126" t="s">
         <v>123</v>
       </c>
       <c r="D58" s="15"/>
@@ -3493,8 +3492,8 @@
       <c r="F58" s="15"/>
     </row>
     <row r="59" spans="2:6" ht="18">
-      <c r="B59" s="132"/>
-      <c r="C59" s="126"/>
+      <c r="B59" s="133"/>
+      <c r="C59" s="127"/>
       <c r="D59" s="15" t="s">
         <v>62</v>
       </c>
@@ -3506,8 +3505,8 @@
       </c>
     </row>
     <row r="60" spans="2:6" ht="18" customHeight="1">
-      <c r="B60" s="132"/>
-      <c r="C60" s="126"/>
+      <c r="B60" s="133"/>
+      <c r="C60" s="127"/>
       <c r="D60" s="15" t="s">
         <v>65</v>
       </c>
@@ -3517,8 +3516,8 @@
       <c r="F60" s="15"/>
     </row>
     <row r="61" spans="2:6" ht="18">
-      <c r="B61" s="132"/>
-      <c r="C61" s="126"/>
+      <c r="B61" s="133"/>
+      <c r="C61" s="127"/>
       <c r="D61" s="15" t="s">
         <v>66</v>
       </c>
@@ -3528,8 +3527,8 @@
       <c r="F61" s="15"/>
     </row>
     <row r="62" spans="2:6" ht="36">
-      <c r="B62" s="132"/>
-      <c r="C62" s="126"/>
+      <c r="B62" s="133"/>
+      <c r="C62" s="127"/>
       <c r="D62" s="15" t="s">
         <v>101</v>
       </c>
@@ -3539,8 +3538,8 @@
       <c r="F62" s="15"/>
     </row>
     <row r="63" spans="2:6" ht="18">
-      <c r="B63" s="132"/>
-      <c r="C63" s="127"/>
+      <c r="B63" s="133"/>
+      <c r="C63" s="128"/>
       <c r="D63" s="15" t="s">
         <v>93</v>
       </c>
@@ -3550,21 +3549,21 @@
       <c r="F63" s="15"/>
     </row>
     <row r="64" spans="2:6" ht="17">
-      <c r="B64" s="132"/>
+      <c r="B64" s="133"/>
       <c r="C64" s="15"/>
       <c r="D64" s="15"/>
       <c r="E64" s="15"/>
       <c r="F64" s="15"/>
     </row>
     <row r="65" spans="2:6">
-      <c r="B65" s="132"/>
+      <c r="B65" s="133"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
     </row>
     <row r="66" spans="2:6" ht="18">
-      <c r="B66" s="132"/>
+      <c r="B66" s="133"/>
       <c r="C66" s="15" t="s">
         <v>100</v>
       </c>
@@ -3575,14 +3574,14 @@
       <c r="F66" s="15"/>
     </row>
     <row r="67" spans="2:6" ht="17">
-      <c r="B67" s="132"/>
+      <c r="B67" s="133"/>
       <c r="C67" s="15"/>
       <c r="D67" s="15"/>
       <c r="E67" s="15"/>
       <c r="F67" s="15"/>
     </row>
     <row r="68" spans="2:6" ht="18">
-      <c r="B68" s="132"/>
+      <c r="B68" s="133"/>
       <c r="C68" s="15" t="s">
         <v>74</v>
       </c>
@@ -3593,7 +3592,7 @@
       <c r="F68" s="15"/>
     </row>
     <row r="69" spans="2:6" ht="18">
-      <c r="B69" s="132"/>
+      <c r="B69" s="133"/>
       <c r="C69" s="15"/>
       <c r="D69" s="15"/>
       <c r="E69" s="15" t="s">
@@ -3602,7 +3601,7 @@
       <c r="F69" s="15"/>
     </row>
     <row r="70" spans="2:6" ht="18">
-      <c r="B70" s="132"/>
+      <c r="B70" s="133"/>
       <c r="C70" s="15"/>
       <c r="D70" s="15"/>
       <c r="E70" s="15" t="s">
@@ -3611,35 +3610,35 @@
       <c r="F70" s="15"/>
     </row>
     <row r="71" spans="2:6" ht="17">
-      <c r="B71" s="132"/>
+      <c r="B71" s="133"/>
       <c r="C71" s="15"/>
       <c r="D71" s="15"/>
       <c r="E71" s="15"/>
       <c r="F71" s="15"/>
     </row>
     <row r="72" spans="2:6" ht="17">
-      <c r="B72" s="132"/>
+      <c r="B72" s="133"/>
       <c r="C72" s="15"/>
       <c r="D72" s="15"/>
       <c r="E72" s="15"/>
       <c r="F72" s="15"/>
     </row>
     <row r="73" spans="2:6" ht="17">
-      <c r="B73" s="132"/>
+      <c r="B73" s="133"/>
       <c r="C73" s="15"/>
       <c r="D73" s="15"/>
       <c r="E73" s="16"/>
       <c r="F73" s="15"/>
     </row>
     <row r="74" spans="2:6" ht="17">
-      <c r="B74" s="132"/>
+      <c r="B74" s="133"/>
       <c r="C74" s="15"/>
       <c r="D74" s="15"/>
       <c r="E74" s="15"/>
       <c r="F74" s="15"/>
     </row>
     <row r="75" spans="2:6" ht="18">
-      <c r="B75" s="132"/>
+      <c r="B75" s="133"/>
       <c r="C75" s="15" t="s">
         <v>77</v>
       </c>
@@ -3648,21 +3647,21 @@
       <c r="F75" s="14"/>
     </row>
     <row r="76" spans="2:6">
-      <c r="B76" s="132"/>
+      <c r="B76" s="133"/>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
     </row>
     <row r="77" spans="2:6">
-      <c r="B77" s="132"/>
+      <c r="B77" s="133"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
     </row>
     <row r="78" spans="2:6" ht="18">
-      <c r="B78" s="132"/>
+      <c r="B78" s="133"/>
       <c r="C78" s="15" t="s">
         <v>95</v>
       </c>
@@ -3671,7 +3670,7 @@
       <c r="F78" s="2"/>
     </row>
     <row r="79" spans="2:6" ht="18">
-      <c r="B79" s="132"/>
+      <c r="B79" s="133"/>
       <c r="C79" s="15"/>
       <c r="D79" s="15" t="s">
         <v>96</v>
@@ -3682,7 +3681,7 @@
       <c r="F79" s="2"/>
     </row>
     <row r="80" spans="2:6" ht="18">
-      <c r="B80" s="132"/>
+      <c r="B80" s="133"/>
       <c r="C80" s="15"/>
       <c r="D80" s="15" t="s">
         <v>97</v>
@@ -3693,14 +3692,14 @@
       <c r="F80" s="2"/>
     </row>
     <row r="81" spans="2:6">
-      <c r="B81" s="132"/>
+      <c r="B81" s="133"/>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
     </row>
     <row r="82" spans="2:6">
-      <c r="B82" s="132"/>
+      <c r="B82" s="133"/>
       <c r="C82" s="2" t="s">
         <v>98</v>
       </c>
@@ -3709,10 +3708,10 @@
       <c r="F82" s="2"/>
     </row>
     <row r="83" spans="2:6">
-      <c r="B83" s="132"/>
+      <c r="B83" s="133"/>
     </row>
     <row r="84" spans="2:6">
-      <c r="B84" s="133"/>
+      <c r="B84" s="134"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -3739,8 +3738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E10E9005-F9D0-4E45-A602-C89B60257518}">
   <dimension ref="B2:H88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="94" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41:D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3754,14 +3753,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="30">
-      <c r="B2" s="128" t="s">
+      <c r="B2" s="129" t="s">
         <v>135</v>
       </c>
-      <c r="C2" s="129"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="129"/>
-      <c r="F2" s="129"/>
-      <c r="G2" s="130"/>
+      <c r="C2" s="130"/>
+      <c r="D2" s="130"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="130"/>
+      <c r="G2" s="131"/>
     </row>
     <row r="3" spans="2:8">
       <c r="B3" s="25" t="s">
@@ -3785,10 +3784,10 @@
       <c r="H3" s="117"/>
     </row>
     <row r="4" spans="2:8">
-      <c r="B4" s="207" t="s">
+      <c r="B4" s="208" t="s">
         <v>172</v>
       </c>
-      <c r="C4" s="210" t="s">
+      <c r="C4" s="211" t="s">
         <v>173</v>
       </c>
       <c r="D4" s="70" t="s">
@@ -3806,8 +3805,8 @@
       <c r="H4" s="117"/>
     </row>
     <row r="5" spans="2:8">
-      <c r="B5" s="208"/>
-      <c r="C5" s="211"/>
+      <c r="B5" s="209"/>
+      <c r="C5" s="212"/>
       <c r="D5" s="70" t="s">
         <v>167</v>
       </c>
@@ -3823,8 +3822,8 @@
       <c r="H5" s="117"/>
     </row>
     <row r="6" spans="2:8">
-      <c r="B6" s="208"/>
-      <c r="C6" s="212"/>
+      <c r="B6" s="209"/>
+      <c r="C6" s="213"/>
       <c r="D6" s="70" t="s">
         <v>168</v>
       </c>
@@ -3840,7 +3839,7 @@
       <c r="H6" s="117"/>
     </row>
     <row r="7" spans="2:8">
-      <c r="B7" s="208"/>
+      <c r="B7" s="209"/>
       <c r="C7" s="72" t="s">
         <v>169</v>
       </c>
@@ -3859,8 +3858,8 @@
       <c r="H7" s="117"/>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="208"/>
-      <c r="C8" s="194" t="s">
+      <c r="B8" s="209"/>
+      <c r="C8" s="195" t="s">
         <v>174</v>
       </c>
       <c r="D8" s="75" t="s">
@@ -3876,8 +3875,8 @@
       <c r="H8" s="117"/>
     </row>
     <row r="9" spans="2:8">
-      <c r="B9" s="209"/>
-      <c r="C9" s="196"/>
+      <c r="B9" s="210"/>
+      <c r="C9" s="197"/>
       <c r="D9" s="75" t="s">
         <v>171</v>
       </c>
@@ -3900,10 +3899,10 @@
       <c r="H10" s="117"/>
     </row>
     <row r="11" spans="2:8" ht="36" customHeight="1">
-      <c r="B11" s="159" t="s">
+      <c r="B11" s="160" t="s">
         <v>99</v>
       </c>
-      <c r="C11" s="197" t="s">
+      <c r="C11" s="198" t="s">
         <v>144</v>
       </c>
       <c r="D11" s="27" t="s">
@@ -3921,8 +3920,8 @@
       <c r="H11" s="117"/>
     </row>
     <row r="12" spans="2:8" ht="18">
-      <c r="B12" s="160"/>
-      <c r="C12" s="198"/>
+      <c r="B12" s="161"/>
+      <c r="C12" s="199"/>
       <c r="D12" s="27" t="s">
         <v>188</v>
       </c>
@@ -3936,8 +3935,8 @@
       <c r="H12" s="117"/>
     </row>
     <row r="13" spans="2:8" ht="18">
-      <c r="B13" s="160"/>
-      <c r="C13" s="198"/>
+      <c r="B13" s="161"/>
+      <c r="C13" s="199"/>
       <c r="D13" s="28" t="s">
         <v>189</v>
       </c>
@@ -3953,8 +3952,8 @@
       <c r="H13" s="117"/>
     </row>
     <row r="14" spans="2:8" ht="18">
-      <c r="B14" s="160"/>
-      <c r="C14" s="198"/>
+      <c r="B14" s="161"/>
+      <c r="C14" s="199"/>
       <c r="D14" s="28" t="s">
         <v>190</v>
       </c>
@@ -3970,8 +3969,8 @@
       <c r="H14" s="117"/>
     </row>
     <row r="15" spans="2:8" ht="36">
-      <c r="B15" s="160"/>
-      <c r="C15" s="198"/>
+      <c r="B15" s="161"/>
+      <c r="C15" s="199"/>
       <c r="D15" s="28" t="s">
         <v>191</v>
       </c>
@@ -3987,8 +3986,8 @@
       <c r="H15" s="117"/>
     </row>
     <row r="16" spans="2:8" ht="17" customHeight="1">
-      <c r="B16" s="160"/>
-      <c r="C16" s="199"/>
+      <c r="B16" s="161"/>
+      <c r="C16" s="200"/>
       <c r="D16" s="29" t="s">
         <v>185</v>
       </c>
@@ -4002,8 +4001,8 @@
       <c r="H16" s="117"/>
     </row>
     <row r="17" spans="2:8" ht="18">
-      <c r="B17" s="160"/>
-      <c r="C17" s="145" t="s">
+      <c r="B17" s="161"/>
+      <c r="C17" s="146" t="s">
         <v>114</v>
       </c>
       <c r="D17" s="30" t="s">
@@ -4021,8 +4020,8 @@
       <c r="H17" s="117"/>
     </row>
     <row r="18" spans="2:8" ht="18">
-      <c r="B18" s="160"/>
-      <c r="C18" s="200"/>
+      <c r="B18" s="161"/>
+      <c r="C18" s="201"/>
       <c r="D18" s="31" t="s">
         <v>192</v>
       </c>
@@ -4031,13 +4030,13 @@
         <v>44027</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H18" s="117"/>
     </row>
     <row r="19" spans="2:8" ht="18">
-      <c r="B19" s="160"/>
-      <c r="C19" s="200"/>
+      <c r="B19" s="161"/>
+      <c r="C19" s="201"/>
       <c r="D19" s="31" t="s">
         <v>193</v>
       </c>
@@ -4046,13 +4045,13 @@
         <v>44027</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H19" s="117"/>
     </row>
     <row r="20" spans="2:8" ht="18">
-      <c r="B20" s="160"/>
-      <c r="C20" s="200"/>
+      <c r="B20" s="161"/>
+      <c r="C20" s="201"/>
       <c r="D20" s="31" t="s">
         <v>194</v>
       </c>
@@ -4061,13 +4060,13 @@
         <v>44028</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H20" s="117"/>
     </row>
     <row r="21" spans="2:8" ht="18">
-      <c r="B21" s="160"/>
-      <c r="C21" s="200"/>
+      <c r="B21" s="161"/>
+      <c r="C21" s="201"/>
       <c r="D21" s="31" t="s">
         <v>195</v>
       </c>
@@ -4076,13 +4075,13 @@
         <v>44028</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H21" s="117"/>
     </row>
     <row r="22" spans="2:8" ht="18">
-      <c r="B22" s="160"/>
-      <c r="C22" s="200"/>
+      <c r="B22" s="161"/>
+      <c r="C22" s="201"/>
       <c r="D22" s="31" t="s">
         <v>198</v>
       </c>
@@ -4091,13 +4090,13 @@
         <v>44029</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H22" s="117"/>
     </row>
     <row r="23" spans="2:8" ht="18">
-      <c r="B23" s="160"/>
-      <c r="C23" s="146"/>
+      <c r="B23" s="161"/>
+      <c r="C23" s="147"/>
       <c r="D23" s="31" t="s">
         <v>197</v>
       </c>
@@ -4106,13 +4105,13 @@
         <v>44029</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H23" s="117"/>
     </row>
     <row r="24" spans="2:8" ht="18">
-      <c r="B24" s="160"/>
-      <c r="C24" s="201" t="s">
+      <c r="B24" s="161"/>
+      <c r="C24" s="202" t="s">
         <v>145</v>
       </c>
       <c r="D24" s="32" t="s">
@@ -4125,13 +4124,13 @@
         <v>44032</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H24" s="117"/>
     </row>
     <row r="25" spans="2:8" ht="18">
-      <c r="B25" s="160"/>
-      <c r="C25" s="202"/>
+      <c r="B25" s="161"/>
+      <c r="C25" s="203"/>
       <c r="D25" s="19" t="s">
         <v>199</v>
       </c>
@@ -4140,13 +4139,13 @@
         <v>44032</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H25" s="117"/>
     </row>
     <row r="26" spans="2:8" ht="18">
-      <c r="B26" s="160"/>
-      <c r="C26" s="202"/>
+      <c r="B26" s="161"/>
+      <c r="C26" s="203"/>
       <c r="D26" s="19" t="s">
         <v>203</v>
       </c>
@@ -4155,13 +4154,13 @@
         <v>44032</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H26" s="117"/>
     </row>
     <row r="27" spans="2:8" ht="18">
-      <c r="B27" s="160"/>
-      <c r="C27" s="202"/>
+      <c r="B27" s="161"/>
+      <c r="C27" s="203"/>
       <c r="D27" s="19" t="s">
         <v>204</v>
       </c>
@@ -4170,13 +4169,13 @@
         <v>44032</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H27" s="117"/>
     </row>
     <row r="28" spans="2:8" ht="17">
-      <c r="B28" s="160"/>
-      <c r="C28" s="203"/>
+      <c r="B28" s="161"/>
+      <c r="C28" s="204"/>
       <c r="D28" s="19"/>
       <c r="E28" s="58"/>
       <c r="F28" s="93"/>
@@ -4184,8 +4183,8 @@
       <c r="H28" s="117"/>
     </row>
     <row r="29" spans="2:8" ht="18">
-      <c r="B29" s="160"/>
-      <c r="C29" s="204" t="s">
+      <c r="B29" s="161"/>
+      <c r="C29" s="205" t="s">
         <v>148</v>
       </c>
       <c r="D29" s="36" t="s">
@@ -4198,13 +4197,13 @@
         <v>44033</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>244</v>
+        <v>175</v>
       </c>
       <c r="H29" s="117"/>
     </row>
     <row r="30" spans="2:8" ht="18">
-      <c r="B30" s="160"/>
-      <c r="C30" s="205"/>
+      <c r="B30" s="161"/>
+      <c r="C30" s="206"/>
       <c r="D30" s="36" t="s">
         <v>206</v>
       </c>
@@ -4213,13 +4212,13 @@
         <v>44033</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>244</v>
+        <v>175</v>
       </c>
       <c r="H30" s="117"/>
     </row>
     <row r="31" spans="2:8" ht="36" customHeight="1">
-      <c r="B31" s="160"/>
-      <c r="C31" s="205"/>
+      <c r="B31" s="161"/>
+      <c r="C31" s="206"/>
       <c r="D31" s="36" t="s">
         <v>207</v>
       </c>
@@ -4228,13 +4227,13 @@
         <v>44034</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>244</v>
+        <v>175</v>
       </c>
       <c r="H31" s="117"/>
     </row>
     <row r="32" spans="2:8" ht="54" customHeight="1">
-      <c r="B32" s="160"/>
-      <c r="C32" s="206"/>
+      <c r="B32" s="161"/>
+      <c r="C32" s="207"/>
       <c r="D32" s="59" t="s">
         <v>208</v>
       </c>
@@ -4243,16 +4242,16 @@
         <v>44034</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>244</v>
+        <v>175</v>
       </c>
       <c r="H32" s="117"/>
     </row>
     <row r="33" spans="2:8" ht="16" customHeight="1">
-      <c r="B33" s="160"/>
-      <c r="C33" s="152" t="s">
+      <c r="B33" s="161"/>
+      <c r="C33" s="153" t="s">
         <v>88</v>
       </c>
-      <c r="D33" s="194" t="s">
+      <c r="D33" s="195" t="s">
         <v>156</v>
       </c>
       <c r="E33" s="79" t="s">
@@ -4262,14 +4261,14 @@
         <v>44035</v>
       </c>
       <c r="G33" s="37" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H33" s="117"/>
     </row>
     <row r="34" spans="2:8" ht="16" customHeight="1">
-      <c r="B34" s="160"/>
-      <c r="C34" s="153"/>
-      <c r="D34" s="195"/>
+      <c r="B34" s="161"/>
+      <c r="C34" s="154"/>
+      <c r="D34" s="196"/>
       <c r="E34" s="79" t="s">
         <v>210</v>
       </c>
@@ -4280,9 +4279,9 @@
       <c r="H34" s="117"/>
     </row>
     <row r="35" spans="2:8" ht="17" customHeight="1">
-      <c r="B35" s="160"/>
-      <c r="C35" s="154"/>
-      <c r="D35" s="196"/>
+      <c r="B35" s="161"/>
+      <c r="C35" s="155"/>
+      <c r="D35" s="197"/>
       <c r="E35" s="79" t="s">
         <v>209</v>
       </c>
@@ -4293,11 +4292,11 @@
       <c r="H35" s="117"/>
     </row>
     <row r="36" spans="2:8" ht="16" customHeight="1">
-      <c r="B36" s="160"/>
-      <c r="C36" s="185" t="s">
+      <c r="B36" s="161"/>
+      <c r="C36" s="186" t="s">
         <v>149</v>
       </c>
-      <c r="D36" s="188" t="s">
+      <c r="D36" s="189" t="s">
         <v>214</v>
       </c>
       <c r="E36" s="60" t="s">
@@ -4310,9 +4309,9 @@
       <c r="H36" s="117"/>
     </row>
     <row r="37" spans="2:8" ht="16" customHeight="1">
-      <c r="B37" s="160"/>
-      <c r="C37" s="186"/>
-      <c r="D37" s="189"/>
+      <c r="B37" s="161"/>
+      <c r="C37" s="187"/>
+      <c r="D37" s="190"/>
       <c r="E37" s="60" t="s">
         <v>216</v>
       </c>
@@ -4322,9 +4321,9 @@
       <c r="G37" s="3"/>
     </row>
     <row r="38" spans="2:8" ht="16" customHeight="1">
-      <c r="B38" s="160"/>
-      <c r="C38" s="186"/>
-      <c r="D38" s="189"/>
+      <c r="B38" s="161"/>
+      <c r="C38" s="187"/>
+      <c r="D38" s="190"/>
       <c r="E38" s="60" t="s">
         <v>213</v>
       </c>
@@ -4334,9 +4333,9 @@
       <c r="G38" s="3"/>
     </row>
     <row r="39" spans="2:8" ht="16" customHeight="1">
-      <c r="B39" s="160"/>
-      <c r="C39" s="186"/>
-      <c r="D39" s="189"/>
+      <c r="B39" s="161"/>
+      <c r="C39" s="187"/>
+      <c r="D39" s="190"/>
       <c r="E39" s="60" t="s">
         <v>215</v>
       </c>
@@ -4346,23 +4345,21 @@
       <c r="G39" s="3"/>
     </row>
     <row r="40" spans="2:8" ht="16" customHeight="1">
-      <c r="B40" s="160"/>
-      <c r="C40" s="186"/>
-      <c r="D40" s="190"/>
+      <c r="B40" s="161"/>
+      <c r="C40" s="187"/>
+      <c r="D40" s="191"/>
       <c r="E40" s="60"/>
       <c r="F40" s="96"/>
       <c r="G40" s="3"/>
     </row>
     <row r="41" spans="2:8" ht="16" customHeight="1">
-      <c r="B41" s="160"/>
-      <c r="C41" s="187" t="s">
+      <c r="B41" s="161"/>
+      <c r="C41" s="188" t="s">
         <v>150</v>
       </c>
-      <c r="D41" s="191" t="s">
+      <c r="D41" s="192"/>
+      <c r="E41" s="61" t="s">
         <v>217</v>
-      </c>
-      <c r="E41" s="61" t="s">
-        <v>218</v>
       </c>
       <c r="F41" s="97">
         <v>44040</v>
@@ -4370,11 +4367,11 @@
       <c r="G41" s="40"/>
     </row>
     <row r="42" spans="2:8" ht="16" customHeight="1">
-      <c r="B42" s="160"/>
-      <c r="C42" s="187"/>
-      <c r="D42" s="192"/>
+      <c r="B42" s="161"/>
+      <c r="C42" s="188"/>
+      <c r="D42" s="193"/>
       <c r="E42" s="61" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F42" s="97">
         <v>44040</v>
@@ -4382,11 +4379,11 @@
       <c r="G42" s="40"/>
     </row>
     <row r="43" spans="2:8" ht="16" customHeight="1">
-      <c r="B43" s="160"/>
-      <c r="C43" s="187"/>
-      <c r="D43" s="192"/>
+      <c r="B43" s="161"/>
+      <c r="C43" s="188"/>
+      <c r="D43" s="193"/>
       <c r="E43" s="61" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F43" s="97">
         <v>44040</v>
@@ -4394,9 +4391,9 @@
       <c r="G43" s="40"/>
     </row>
     <row r="44" spans="2:8" ht="16" customHeight="1">
-      <c r="B44" s="160"/>
-      <c r="C44" s="187"/>
-      <c r="D44" s="192"/>
+      <c r="B44" s="161"/>
+      <c r="C44" s="188"/>
+      <c r="D44" s="193"/>
       <c r="E44" s="61" t="s">
         <v>216</v>
       </c>
@@ -4406,9 +4403,9 @@
       <c r="G44" s="40"/>
     </row>
     <row r="45" spans="2:8" ht="16" customHeight="1">
-      <c r="B45" s="160"/>
-      <c r="C45" s="187"/>
-      <c r="D45" s="192"/>
+      <c r="B45" s="161"/>
+      <c r="C45" s="188"/>
+      <c r="D45" s="193"/>
       <c r="E45" s="61" t="s">
         <v>201</v>
       </c>
@@ -4418,11 +4415,11 @@
       <c r="G45" s="40"/>
     </row>
     <row r="46" spans="2:8" ht="16" customHeight="1">
-      <c r="B46" s="160"/>
-      <c r="C46" s="187"/>
-      <c r="D46" s="193"/>
+      <c r="B46" s="161"/>
+      <c r="C46" s="188"/>
+      <c r="D46" s="194"/>
       <c r="E46" s="61" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F46" s="97">
         <v>44040</v>
@@ -4430,13 +4427,13 @@
       <c r="G46" s="40"/>
     </row>
     <row r="47" spans="2:8" ht="16" customHeight="1">
-      <c r="B47" s="160"/>
+      <c r="B47" s="161"/>
       <c r="C47" s="46" t="s">
         <v>163</v>
       </c>
       <c r="D47" s="47"/>
       <c r="E47" s="61" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F47" s="97">
         <v>44040</v>
@@ -4444,13 +4441,13 @@
       <c r="G47" s="40"/>
     </row>
     <row r="48" spans="2:8" ht="16" customHeight="1">
-      <c r="B48" s="161"/>
+      <c r="B48" s="162"/>
       <c r="C48" s="46" t="s">
         <v>165</v>
       </c>
       <c r="D48" s="47"/>
       <c r="E48" s="61" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F48" s="97">
         <v>44040</v>
@@ -4470,10 +4467,10 @@
       <c r="H49" s="117"/>
     </row>
     <row r="50" spans="2:8" ht="18">
-      <c r="B50" s="173" t="s">
+      <c r="B50" s="174" t="s">
         <v>136</v>
       </c>
-      <c r="C50" s="180" t="s">
+      <c r="C50" s="181" t="s">
         <v>147</v>
       </c>
       <c r="D50" s="39" t="s">
@@ -4491,8 +4488,8 @@
       <c r="H50" s="117"/>
     </row>
     <row r="51" spans="2:8" ht="18">
-      <c r="B51" s="173"/>
-      <c r="C51" s="181"/>
+      <c r="B51" s="174"/>
+      <c r="C51" s="182"/>
       <c r="D51" s="41" t="s">
         <v>91</v>
       </c>
@@ -4505,8 +4502,8 @@
       <c r="G51" s="40"/>
     </row>
     <row r="52" spans="2:8" ht="18">
-      <c r="B52" s="173"/>
-      <c r="C52" s="181"/>
+      <c r="B52" s="174"/>
+      <c r="C52" s="182"/>
       <c r="D52" s="41" t="s">
         <v>121</v>
       </c>
@@ -4519,8 +4516,8 @@
       <c r="G52" s="40"/>
     </row>
     <row r="53" spans="2:8" ht="18">
-      <c r="B53" s="173"/>
-      <c r="C53" s="181"/>
+      <c r="B53" s="174"/>
+      <c r="C53" s="182"/>
       <c r="D53" s="41" t="s">
         <v>119</v>
       </c>
@@ -4533,10 +4530,10 @@
       <c r="G53" s="40"/>
     </row>
     <row r="54" spans="2:8" ht="18">
-      <c r="B54" s="173"/>
-      <c r="C54" s="182"/>
+      <c r="B54" s="174"/>
+      <c r="C54" s="183"/>
       <c r="D54" s="41" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E54" s="61"/>
       <c r="F54" s="97">
@@ -4545,8 +4542,8 @@
       <c r="G54" s="40"/>
     </row>
     <row r="55" spans="2:8" ht="17">
-      <c r="B55" s="173"/>
-      <c r="C55" s="183" t="s">
+      <c r="B55" s="174"/>
+      <c r="C55" s="184" t="s">
         <v>123</v>
       </c>
       <c r="D55" s="42"/>
@@ -4555,10 +4552,10 @@
       <c r="G55" s="43"/>
     </row>
     <row r="56" spans="2:8" ht="18">
-      <c r="B56" s="173"/>
-      <c r="C56" s="184"/>
+      <c r="B56" s="174"/>
+      <c r="C56" s="185"/>
       <c r="D56" s="42" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E56" s="62" t="s">
         <v>159</v>
@@ -4569,10 +4566,10 @@
       <c r="G56" s="43"/>
     </row>
     <row r="57" spans="2:8" ht="18">
-      <c r="B57" s="173"/>
-      <c r="C57" s="184"/>
+      <c r="B57" s="174"/>
+      <c r="C57" s="185"/>
       <c r="D57" s="42" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E57" s="62" t="s">
         <v>63</v>
@@ -4583,10 +4580,10 @@
       <c r="G57" s="43"/>
     </row>
     <row r="58" spans="2:8" ht="18">
-      <c r="B58" s="173"/>
-      <c r="C58" s="184"/>
+      <c r="B58" s="174"/>
+      <c r="C58" s="185"/>
       <c r="D58" s="42" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E58" s="62" t="s">
         <v>67</v>
@@ -4597,10 +4594,10 @@
       <c r="G58" s="43"/>
     </row>
     <row r="59" spans="2:8" ht="18">
-      <c r="B59" s="173"/>
-      <c r="C59" s="184"/>
+      <c r="B59" s="174"/>
+      <c r="C59" s="185"/>
       <c r="D59" s="42" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E59" s="62"/>
       <c r="F59" s="99">
@@ -4609,8 +4606,8 @@
       <c r="G59" s="43"/>
     </row>
     <row r="60" spans="2:8" ht="18">
-      <c r="B60" s="173"/>
-      <c r="C60" s="165" t="s">
+      <c r="B60" s="174"/>
+      <c r="C60" s="166" t="s">
         <v>151</v>
       </c>
       <c r="D60" s="110" t="s">
@@ -4623,10 +4620,10 @@
       <c r="G60" s="107"/>
     </row>
     <row r="61" spans="2:8" ht="18">
-      <c r="B61" s="173"/>
-      <c r="C61" s="166"/>
+      <c r="B61" s="174"/>
+      <c r="C61" s="167"/>
       <c r="D61" s="110" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E61" s="111"/>
       <c r="F61" s="112">
@@ -4635,8 +4632,8 @@
       <c r="G61" s="107"/>
     </row>
     <row r="62" spans="2:8" ht="18">
-      <c r="B62" s="173"/>
-      <c r="C62" s="166"/>
+      <c r="B62" s="174"/>
+      <c r="C62" s="167"/>
       <c r="D62" s="110" t="s">
         <v>164</v>
       </c>
@@ -4647,10 +4644,10 @@
       <c r="G62" s="107"/>
     </row>
     <row r="63" spans="2:8" ht="18">
-      <c r="B63" s="173"/>
-      <c r="C63" s="167"/>
+      <c r="B63" s="174"/>
+      <c r="C63" s="168"/>
       <c r="D63" s="110" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E63" s="111"/>
       <c r="F63" s="112">
@@ -4659,8 +4656,8 @@
       <c r="G63" s="107"/>
     </row>
     <row r="64" spans="2:8" ht="16" customHeight="1">
-      <c r="B64" s="173"/>
-      <c r="C64" s="168" t="s">
+      <c r="B64" s="174"/>
+      <c r="C64" s="169" t="s">
         <v>152</v>
       </c>
       <c r="D64" s="38"/>
@@ -4669,10 +4666,10 @@
       <c r="G64" s="38"/>
     </row>
     <row r="65" spans="2:7" ht="18">
-      <c r="B65" s="173"/>
-      <c r="C65" s="169"/>
+      <c r="B65" s="174"/>
+      <c r="C65" s="170"/>
       <c r="D65" s="44" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E65" s="63" t="s">
         <v>125</v>
@@ -4683,10 +4680,10 @@
       <c r="G65" s="38"/>
     </row>
     <row r="66" spans="2:7" ht="18">
-      <c r="B66" s="173"/>
-      <c r="C66" s="169"/>
+      <c r="B66" s="174"/>
+      <c r="C66" s="170"/>
       <c r="D66" s="44" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E66" s="63" t="s">
         <v>124</v>
@@ -4697,22 +4694,22 @@
       <c r="G66" s="38"/>
     </row>
     <row r="67" spans="2:7" ht="17" customHeight="1">
-      <c r="B67" s="173"/>
-      <c r="C67" s="170"/>
+      <c r="B67" s="174"/>
+      <c r="C67" s="171"/>
       <c r="D67" s="45" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E67" s="64"/>
       <c r="F67" s="100"/>
       <c r="G67" s="38"/>
     </row>
     <row r="68" spans="2:7" ht="16" customHeight="1">
-      <c r="B68" s="173"/>
-      <c r="C68" s="171" t="s">
+      <c r="B68" s="174"/>
+      <c r="C68" s="172" t="s">
         <v>153</v>
       </c>
       <c r="D68" s="107" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E68" s="108"/>
       <c r="F68" s="109">
@@ -4721,10 +4718,10 @@
       <c r="G68" s="107"/>
     </row>
     <row r="69" spans="2:7" ht="16" customHeight="1">
-      <c r="B69" s="173"/>
-      <c r="C69" s="172"/>
+      <c r="B69" s="174"/>
+      <c r="C69" s="173"/>
       <c r="D69" s="107" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E69" s="108"/>
       <c r="F69" s="109">
@@ -4733,8 +4730,8 @@
       <c r="G69" s="107"/>
     </row>
     <row r="70" spans="2:7" ht="18">
-      <c r="B70" s="173"/>
-      <c r="C70" s="177" t="s">
+      <c r="B70" s="174"/>
+      <c r="C70" s="178" t="s">
         <v>154</v>
       </c>
       <c r="D70" s="33" t="s">
@@ -4747,10 +4744,10 @@
       <c r="G70" s="34"/>
     </row>
     <row r="71" spans="2:7" ht="18">
-      <c r="B71" s="173"/>
-      <c r="C71" s="178"/>
+      <c r="B71" s="174"/>
+      <c r="C71" s="179"/>
       <c r="D71" s="33" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E71" s="49"/>
       <c r="F71" s="103">
@@ -4759,10 +4756,10 @@
       <c r="G71" s="34"/>
     </row>
     <row r="72" spans="2:7" ht="18">
-      <c r="B72" s="173"/>
-      <c r="C72" s="179"/>
+      <c r="B72" s="174"/>
+      <c r="C72" s="180"/>
       <c r="D72" s="33" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E72" s="50"/>
       <c r="F72" s="104">
@@ -4771,8 +4768,8 @@
       <c r="G72" s="34"/>
     </row>
     <row r="73" spans="2:7" ht="18">
-      <c r="B73" s="173"/>
-      <c r="C73" s="174" t="s">
+      <c r="B73" s="174"/>
+      <c r="C73" s="175" t="s">
         <v>155</v>
       </c>
       <c r="D73" s="35" t="s">
@@ -4787,8 +4784,8 @@
       <c r="G73" s="6"/>
     </row>
     <row r="74" spans="2:7" ht="17">
-      <c r="B74" s="173"/>
-      <c r="C74" s="175"/>
+      <c r="B74" s="174"/>
+      <c r="C74" s="176"/>
       <c r="D74" s="6" t="s">
         <v>116</v>
       </c>
@@ -4799,10 +4796,10 @@
       <c r="G74" s="6"/>
     </row>
     <row r="75" spans="2:7">
-      <c r="B75" s="173"/>
-      <c r="C75" s="176"/>
+      <c r="B75" s="174"/>
+      <c r="C75" s="177"/>
       <c r="D75" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E75" s="66"/>
       <c r="F75" s="105">
@@ -4811,82 +4808,88 @@
       <c r="G75" s="6"/>
     </row>
     <row r="76" spans="2:7">
-      <c r="B76" s="162" t="s">
+      <c r="B76" s="163" t="s">
         <v>160</v>
       </c>
       <c r="C76" s="37" t="s">
         <v>161</v>
       </c>
       <c r="D76" s="37" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E76" s="67"/>
       <c r="F76" s="106">
         <v>44048</v>
       </c>
-      <c r="G76" s="67"/>
+      <c r="G76" s="119" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="77" spans="2:7">
-      <c r="B77" s="163"/>
+      <c r="B77" s="164"/>
       <c r="C77" s="37" t="s">
         <v>162</v>
       </c>
       <c r="D77" s="37" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E77" s="67"/>
       <c r="F77" s="106">
         <v>44048</v>
       </c>
-      <c r="G77" s="67"/>
+      <c r="G77" s="119" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="78" spans="2:7">
-      <c r="B78" s="164"/>
+      <c r="B78" s="165"/>
       <c r="C78" s="37"/>
       <c r="D78" s="37" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E78" s="67"/>
       <c r="F78" s="106">
         <v>44048</v>
       </c>
-      <c r="G78" s="67"/>
+      <c r="G78" s="119" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="79" spans="2:7">
-      <c r="B79" s="158" t="s">
-        <v>224</v>
+      <c r="B79" s="159" t="s">
+        <v>223</v>
       </c>
       <c r="C79" s="5"/>
       <c r="D79" s="68" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E79" s="113" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F79" s="68"/>
       <c r="G79" s="5"/>
     </row>
     <row r="80" spans="2:7">
-      <c r="B80" s="158"/>
+      <c r="B80" s="159"/>
       <c r="C80" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D80" s="68" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E80" s="113"/>
       <c r="F80" s="114" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G80" s="5"/>
     </row>
     <row r="81" spans="2:7">
-      <c r="B81" s="158"/>
+      <c r="B81" s="159"/>
       <c r="C81" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D81" s="68" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E81" s="113"/>
       <c r="F81" s="114">
@@ -4895,9 +4898,9 @@
       <c r="G81" s="5"/>
     </row>
     <row r="82" spans="2:7">
-      <c r="B82" s="158"/>
+      <c r="B82" s="159"/>
       <c r="C82" s="115" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D82" s="68"/>
       <c r="E82" s="113"/>
@@ -4907,7 +4910,7 @@
       <c r="G82" s="5"/>
     </row>
     <row r="83" spans="2:7">
-      <c r="B83" s="158"/>
+      <c r="B83" s="159"/>
       <c r="C83" s="5"/>
       <c r="D83" s="68"/>
       <c r="E83" s="113"/>
@@ -4919,7 +4922,7 @@
         <v>7.21</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D84" s="53"/>
       <c r="E84" s="118"/>
@@ -4933,7 +4936,7 @@
         <v>7.23</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D85" s="53"/>
       <c r="E85" s="118"/>

--- a/结算数据监控平台开发计划.xlsx
+++ b/结算数据监控平台开发计划.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicker/sandbox/settlementMonitoring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F461DBF-BD5F-1B4D-9115-D016608E0291}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BD3F8C9-EA84-6A41-9B2C-F15C7C978A7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2880" yWindow="460" windowWidth="26540" windowHeight="18920" activeTab="3" xr2:uid="{AD2C15C8-2DE4-104B-A764-E65CC8F0AEA6}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="246">
   <si>
     <t>ETX联网结算平台</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3738,8 +3738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E10E9005-F9D0-4E45-A602-C89B60257518}">
   <dimension ref="B2:H88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="94" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41:D46"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="94" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4261,7 +4261,7 @@
         <v>44035</v>
       </c>
       <c r="G33" s="37" t="s">
-        <v>243</v>
+        <v>175</v>
       </c>
       <c r="H33" s="117"/>
     </row>
@@ -4275,7 +4275,9 @@
       <c r="F34" s="86">
         <v>44035</v>
       </c>
-      <c r="G34" s="37"/>
+      <c r="G34" s="37" t="s">
+        <v>175</v>
+      </c>
       <c r="H34" s="117"/>
     </row>
     <row r="35" spans="2:8" ht="17" customHeight="1">
@@ -4288,7 +4290,9 @@
       <c r="F35" s="86">
         <v>44035</v>
       </c>
-      <c r="G35" s="37"/>
+      <c r="G35" s="37" t="s">
+        <v>175</v>
+      </c>
       <c r="H35" s="117"/>
     </row>
     <row r="36" spans="2:8" ht="16" customHeight="1">
@@ -4364,7 +4368,9 @@
       <c r="F41" s="97">
         <v>44040</v>
       </c>
-      <c r="G41" s="40"/>
+      <c r="G41" s="40" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="42" spans="2:8" ht="16" customHeight="1">
       <c r="B42" s="161"/>
@@ -4376,7 +4382,9 @@
       <c r="F42" s="97">
         <v>44040</v>
       </c>
-      <c r="G42" s="40"/>
+      <c r="G42" s="40" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="43" spans="2:8" ht="16" customHeight="1">
       <c r="B43" s="161"/>
@@ -4388,7 +4396,9 @@
       <c r="F43" s="97">
         <v>44040</v>
       </c>
-      <c r="G43" s="40"/>
+      <c r="G43" s="40" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="44" spans="2:8" ht="16" customHeight="1">
       <c r="B44" s="161"/>
@@ -4400,7 +4410,9 @@
       <c r="F44" s="97">
         <v>44040</v>
       </c>
-      <c r="G44" s="40"/>
+      <c r="G44" s="40" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="45" spans="2:8" ht="16" customHeight="1">
       <c r="B45" s="161"/>
@@ -4412,7 +4424,9 @@
       <c r="F45" s="97">
         <v>44040</v>
       </c>
-      <c r="G45" s="40"/>
+      <c r="G45" s="40" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="46" spans="2:8" ht="16" customHeight="1">
       <c r="B46" s="161"/>
@@ -4424,7 +4438,9 @@
       <c r="F46" s="97">
         <v>44040</v>
       </c>
-      <c r="G46" s="40"/>
+      <c r="G46" s="40" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="47" spans="2:8" ht="16" customHeight="1">
       <c r="B47" s="161"/>
@@ -4438,7 +4454,9 @@
       <c r="F47" s="97">
         <v>44040</v>
       </c>
-      <c r="G47" s="40"/>
+      <c r="G47" s="40" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="48" spans="2:8" ht="16" customHeight="1">
       <c r="B48" s="162"/>

--- a/结算数据监控平台开发计划.xlsx
+++ b/结算数据监控平台开发计划.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicker/sandbox/settlementMonitoring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BD3F8C9-EA84-6A41-9B2C-F15C7C978A7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46B5DFA1-3728-824E-8103-0A8BBE2F2C9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2880" yWindow="460" windowWidth="26540" windowHeight="18920" activeTab="3" xr2:uid="{AD2C15C8-2DE4-104B-A764-E65CC8F0AEA6}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="246">
   <si>
     <t>ETX联网结算平台</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1992,6 +1992,90 @@
     <xf numFmtId="0" fontId="9" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2072,90 +2156,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3738,8 +3738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E10E9005-F9D0-4E45-A602-C89B60257518}">
   <dimension ref="B2:H88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="94" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="94" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36:G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3784,10 +3784,10 @@
       <c r="H3" s="117"/>
     </row>
     <row r="4" spans="2:8">
-      <c r="B4" s="208" t="s">
+      <c r="B4" s="181" t="s">
         <v>172</v>
       </c>
-      <c r="C4" s="211" t="s">
+      <c r="C4" s="184" t="s">
         <v>173</v>
       </c>
       <c r="D4" s="70" t="s">
@@ -3805,8 +3805,8 @@
       <c r="H4" s="117"/>
     </row>
     <row r="5" spans="2:8">
-      <c r="B5" s="209"/>
-      <c r="C5" s="212"/>
+      <c r="B5" s="182"/>
+      <c r="C5" s="185"/>
       <c r="D5" s="70" t="s">
         <v>167</v>
       </c>
@@ -3822,8 +3822,8 @@
       <c r="H5" s="117"/>
     </row>
     <row r="6" spans="2:8">
-      <c r="B6" s="209"/>
-      <c r="C6" s="213"/>
+      <c r="B6" s="182"/>
+      <c r="C6" s="186"/>
       <c r="D6" s="70" t="s">
         <v>168</v>
       </c>
@@ -3839,7 +3839,7 @@
       <c r="H6" s="117"/>
     </row>
     <row r="7" spans="2:8">
-      <c r="B7" s="209"/>
+      <c r="B7" s="182"/>
       <c r="C7" s="72" t="s">
         <v>169</v>
       </c>
@@ -3858,8 +3858,8 @@
       <c r="H7" s="117"/>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="209"/>
-      <c r="C8" s="195" t="s">
+      <c r="B8" s="182"/>
+      <c r="C8" s="168" t="s">
         <v>174</v>
       </c>
       <c r="D8" s="75" t="s">
@@ -3875,8 +3875,8 @@
       <c r="H8" s="117"/>
     </row>
     <row r="9" spans="2:8">
-      <c r="B9" s="210"/>
-      <c r="C9" s="197"/>
+      <c r="B9" s="183"/>
+      <c r="C9" s="170"/>
       <c r="D9" s="75" t="s">
         <v>171</v>
       </c>
@@ -3899,10 +3899,10 @@
       <c r="H10" s="117"/>
     </row>
     <row r="11" spans="2:8" ht="36" customHeight="1">
-      <c r="B11" s="160" t="s">
+      <c r="B11" s="188" t="s">
         <v>99</v>
       </c>
-      <c r="C11" s="198" t="s">
+      <c r="C11" s="171" t="s">
         <v>144</v>
       </c>
       <c r="D11" s="27" t="s">
@@ -3920,8 +3920,8 @@
       <c r="H11" s="117"/>
     </row>
     <row r="12" spans="2:8" ht="18">
-      <c r="B12" s="161"/>
-      <c r="C12" s="199"/>
+      <c r="B12" s="189"/>
+      <c r="C12" s="172"/>
       <c r="D12" s="27" t="s">
         <v>188</v>
       </c>
@@ -3935,8 +3935,8 @@
       <c r="H12" s="117"/>
     </row>
     <row r="13" spans="2:8" ht="18">
-      <c r="B13" s="161"/>
-      <c r="C13" s="199"/>
+      <c r="B13" s="189"/>
+      <c r="C13" s="172"/>
       <c r="D13" s="28" t="s">
         <v>189</v>
       </c>
@@ -3952,8 +3952,8 @@
       <c r="H13" s="117"/>
     </row>
     <row r="14" spans="2:8" ht="18">
-      <c r="B14" s="161"/>
-      <c r="C14" s="199"/>
+      <c r="B14" s="189"/>
+      <c r="C14" s="172"/>
       <c r="D14" s="28" t="s">
         <v>190</v>
       </c>
@@ -3969,8 +3969,8 @@
       <c r="H14" s="117"/>
     </row>
     <row r="15" spans="2:8" ht="36">
-      <c r="B15" s="161"/>
-      <c r="C15" s="199"/>
+      <c r="B15" s="189"/>
+      <c r="C15" s="172"/>
       <c r="D15" s="28" t="s">
         <v>191</v>
       </c>
@@ -3986,8 +3986,8 @@
       <c r="H15" s="117"/>
     </row>
     <row r="16" spans="2:8" ht="17" customHeight="1">
-      <c r="B16" s="161"/>
-      <c r="C16" s="200"/>
+      <c r="B16" s="189"/>
+      <c r="C16" s="173"/>
       <c r="D16" s="29" t="s">
         <v>185</v>
       </c>
@@ -4001,7 +4001,7 @@
       <c r="H16" s="117"/>
     </row>
     <row r="17" spans="2:8" ht="18">
-      <c r="B17" s="161"/>
+      <c r="B17" s="189"/>
       <c r="C17" s="146" t="s">
         <v>114</v>
       </c>
@@ -4020,8 +4020,8 @@
       <c r="H17" s="117"/>
     </row>
     <row r="18" spans="2:8" ht="18">
-      <c r="B18" s="161"/>
-      <c r="C18" s="201"/>
+      <c r="B18" s="189"/>
+      <c r="C18" s="174"/>
       <c r="D18" s="31" t="s">
         <v>192</v>
       </c>
@@ -4035,8 +4035,8 @@
       <c r="H18" s="117"/>
     </row>
     <row r="19" spans="2:8" ht="18">
-      <c r="B19" s="161"/>
-      <c r="C19" s="201"/>
+      <c r="B19" s="189"/>
+      <c r="C19" s="174"/>
       <c r="D19" s="31" t="s">
         <v>193</v>
       </c>
@@ -4050,8 +4050,8 @@
       <c r="H19" s="117"/>
     </row>
     <row r="20" spans="2:8" ht="18">
-      <c r="B20" s="161"/>
-      <c r="C20" s="201"/>
+      <c r="B20" s="189"/>
+      <c r="C20" s="174"/>
       <c r="D20" s="31" t="s">
         <v>194</v>
       </c>
@@ -4065,8 +4065,8 @@
       <c r="H20" s="117"/>
     </row>
     <row r="21" spans="2:8" ht="18">
-      <c r="B21" s="161"/>
-      <c r="C21" s="201"/>
+      <c r="B21" s="189"/>
+      <c r="C21" s="174"/>
       <c r="D21" s="31" t="s">
         <v>195</v>
       </c>
@@ -4080,8 +4080,8 @@
       <c r="H21" s="117"/>
     </row>
     <row r="22" spans="2:8" ht="18">
-      <c r="B22" s="161"/>
-      <c r="C22" s="201"/>
+      <c r="B22" s="189"/>
+      <c r="C22" s="174"/>
       <c r="D22" s="31" t="s">
         <v>198</v>
       </c>
@@ -4095,7 +4095,7 @@
       <c r="H22" s="117"/>
     </row>
     <row r="23" spans="2:8" ht="18">
-      <c r="B23" s="161"/>
+      <c r="B23" s="189"/>
       <c r="C23" s="147"/>
       <c r="D23" s="31" t="s">
         <v>197</v>
@@ -4110,8 +4110,8 @@
       <c r="H23" s="117"/>
     </row>
     <row r="24" spans="2:8" ht="18">
-      <c r="B24" s="161"/>
-      <c r="C24" s="202" t="s">
+      <c r="B24" s="189"/>
+      <c r="C24" s="175" t="s">
         <v>145</v>
       </c>
       <c r="D24" s="32" t="s">
@@ -4129,8 +4129,8 @@
       <c r="H24" s="117"/>
     </row>
     <row r="25" spans="2:8" ht="18">
-      <c r="B25" s="161"/>
-      <c r="C25" s="203"/>
+      <c r="B25" s="189"/>
+      <c r="C25" s="176"/>
       <c r="D25" s="19" t="s">
         <v>199</v>
       </c>
@@ -4144,8 +4144,8 @@
       <c r="H25" s="117"/>
     </row>
     <row r="26" spans="2:8" ht="18">
-      <c r="B26" s="161"/>
-      <c r="C26" s="203"/>
+      <c r="B26" s="189"/>
+      <c r="C26" s="176"/>
       <c r="D26" s="19" t="s">
         <v>203</v>
       </c>
@@ -4159,8 +4159,8 @@
       <c r="H26" s="117"/>
     </row>
     <row r="27" spans="2:8" ht="18">
-      <c r="B27" s="161"/>
-      <c r="C27" s="203"/>
+      <c r="B27" s="189"/>
+      <c r="C27" s="176"/>
       <c r="D27" s="19" t="s">
         <v>204</v>
       </c>
@@ -4174,8 +4174,8 @@
       <c r="H27" s="117"/>
     </row>
     <row r="28" spans="2:8" ht="17">
-      <c r="B28" s="161"/>
-      <c r="C28" s="204"/>
+      <c r="B28" s="189"/>
+      <c r="C28" s="177"/>
       <c r="D28" s="19"/>
       <c r="E28" s="58"/>
       <c r="F28" s="93"/>
@@ -4183,8 +4183,8 @@
       <c r="H28" s="117"/>
     </row>
     <row r="29" spans="2:8" ht="18">
-      <c r="B29" s="161"/>
-      <c r="C29" s="205" t="s">
+      <c r="B29" s="189"/>
+      <c r="C29" s="178" t="s">
         <v>148</v>
       </c>
       <c r="D29" s="36" t="s">
@@ -4202,8 +4202,8 @@
       <c r="H29" s="117"/>
     </row>
     <row r="30" spans="2:8" ht="18">
-      <c r="B30" s="161"/>
-      <c r="C30" s="206"/>
+      <c r="B30" s="189"/>
+      <c r="C30" s="179"/>
       <c r="D30" s="36" t="s">
         <v>206</v>
       </c>
@@ -4217,8 +4217,8 @@
       <c r="H30" s="117"/>
     </row>
     <row r="31" spans="2:8" ht="36" customHeight="1">
-      <c r="B31" s="161"/>
-      <c r="C31" s="206"/>
+      <c r="B31" s="189"/>
+      <c r="C31" s="179"/>
       <c r="D31" s="36" t="s">
         <v>207</v>
       </c>
@@ -4232,8 +4232,8 @@
       <c r="H31" s="117"/>
     </row>
     <row r="32" spans="2:8" ht="54" customHeight="1">
-      <c r="B32" s="161"/>
-      <c r="C32" s="207"/>
+      <c r="B32" s="189"/>
+      <c r="C32" s="180"/>
       <c r="D32" s="59" t="s">
         <v>208</v>
       </c>
@@ -4247,11 +4247,11 @@
       <c r="H32" s="117"/>
     </row>
     <row r="33" spans="2:8" ht="16" customHeight="1">
-      <c r="B33" s="161"/>
+      <c r="B33" s="189"/>
       <c r="C33" s="153" t="s">
         <v>88</v>
       </c>
-      <c r="D33" s="195" t="s">
+      <c r="D33" s="168" t="s">
         <v>156</v>
       </c>
       <c r="E33" s="79" t="s">
@@ -4266,9 +4266,9 @@
       <c r="H33" s="117"/>
     </row>
     <row r="34" spans="2:8" ht="16" customHeight="1">
-      <c r="B34" s="161"/>
+      <c r="B34" s="189"/>
       <c r="C34" s="154"/>
-      <c r="D34" s="196"/>
+      <c r="D34" s="169"/>
       <c r="E34" s="79" t="s">
         <v>210</v>
       </c>
@@ -4281,9 +4281,9 @@
       <c r="H34" s="117"/>
     </row>
     <row r="35" spans="2:8" ht="17" customHeight="1">
-      <c r="B35" s="161"/>
+      <c r="B35" s="189"/>
       <c r="C35" s="155"/>
-      <c r="D35" s="197"/>
+      <c r="D35" s="170"/>
       <c r="E35" s="79" t="s">
         <v>209</v>
       </c>
@@ -4296,11 +4296,11 @@
       <c r="H35" s="117"/>
     </row>
     <row r="36" spans="2:8" ht="16" customHeight="1">
-      <c r="B36" s="161"/>
-      <c r="C36" s="186" t="s">
+      <c r="B36" s="189"/>
+      <c r="C36" s="159" t="s">
         <v>149</v>
       </c>
-      <c r="D36" s="189" t="s">
+      <c r="D36" s="162" t="s">
         <v>214</v>
       </c>
       <c r="E36" s="60" t="s">
@@ -4309,59 +4309,69 @@
       <c r="F36" s="95">
         <v>44036</v>
       </c>
-      <c r="G36" s="3"/>
+      <c r="G36" s="3" t="s">
+        <v>175</v>
+      </c>
       <c r="H36" s="117"/>
     </row>
     <row r="37" spans="2:8" ht="16" customHeight="1">
-      <c r="B37" s="161"/>
-      <c r="C37" s="187"/>
-      <c r="D37" s="190"/>
+      <c r="B37" s="189"/>
+      <c r="C37" s="160"/>
+      <c r="D37" s="163"/>
       <c r="E37" s="60" t="s">
         <v>216</v>
       </c>
       <c r="F37" s="95">
         <v>44039</v>
       </c>
-      <c r="G37" s="3"/>
+      <c r="G37" s="3" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="38" spans="2:8" ht="16" customHeight="1">
-      <c r="B38" s="161"/>
-      <c r="C38" s="187"/>
-      <c r="D38" s="190"/>
+      <c r="B38" s="189"/>
+      <c r="C38" s="160"/>
+      <c r="D38" s="163"/>
       <c r="E38" s="60" t="s">
         <v>213</v>
       </c>
       <c r="F38" s="95">
         <v>44039</v>
       </c>
-      <c r="G38" s="3"/>
+      <c r="G38" s="3" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="39" spans="2:8" ht="16" customHeight="1">
-      <c r="B39" s="161"/>
-      <c r="C39" s="187"/>
-      <c r="D39" s="190"/>
+      <c r="B39" s="189"/>
+      <c r="C39" s="160"/>
+      <c r="D39" s="163"/>
       <c r="E39" s="60" t="s">
         <v>215</v>
       </c>
       <c r="F39" s="96" t="s">
         <v>158</v>
       </c>
-      <c r="G39" s="3"/>
+      <c r="G39" s="3" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="40" spans="2:8" ht="16" customHeight="1">
-      <c r="B40" s="161"/>
-      <c r="C40" s="187"/>
-      <c r="D40" s="191"/>
+      <c r="B40" s="189"/>
+      <c r="C40" s="160"/>
+      <c r="D40" s="164"/>
       <c r="E40" s="60"/>
       <c r="F40" s="96"/>
-      <c r="G40" s="3"/>
+      <c r="G40" s="3" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="41" spans="2:8" ht="16" customHeight="1">
-      <c r="B41" s="161"/>
-      <c r="C41" s="188" t="s">
+      <c r="B41" s="189"/>
+      <c r="C41" s="161" t="s">
         <v>150</v>
       </c>
-      <c r="D41" s="192"/>
+      <c r="D41" s="165"/>
       <c r="E41" s="61" t="s">
         <v>217</v>
       </c>
@@ -4373,9 +4383,9 @@
       </c>
     </row>
     <row r="42" spans="2:8" ht="16" customHeight="1">
-      <c r="B42" s="161"/>
-      <c r="C42" s="188"/>
-      <c r="D42" s="193"/>
+      <c r="B42" s="189"/>
+      <c r="C42" s="161"/>
+      <c r="D42" s="166"/>
       <c r="E42" s="61" t="s">
         <v>218</v>
       </c>
@@ -4387,9 +4397,9 @@
       </c>
     </row>
     <row r="43" spans="2:8" ht="16" customHeight="1">
-      <c r="B43" s="161"/>
-      <c r="C43" s="188"/>
-      <c r="D43" s="193"/>
+      <c r="B43" s="189"/>
+      <c r="C43" s="161"/>
+      <c r="D43" s="166"/>
       <c r="E43" s="61" t="s">
         <v>219</v>
       </c>
@@ -4401,9 +4411,9 @@
       </c>
     </row>
     <row r="44" spans="2:8" ht="16" customHeight="1">
-      <c r="B44" s="161"/>
-      <c r="C44" s="188"/>
-      <c r="D44" s="193"/>
+      <c r="B44" s="189"/>
+      <c r="C44" s="161"/>
+      <c r="D44" s="166"/>
       <c r="E44" s="61" t="s">
         <v>216</v>
       </c>
@@ -4415,9 +4425,9 @@
       </c>
     </row>
     <row r="45" spans="2:8" ht="16" customHeight="1">
-      <c r="B45" s="161"/>
-      <c r="C45" s="188"/>
-      <c r="D45" s="193"/>
+      <c r="B45" s="189"/>
+      <c r="C45" s="161"/>
+      <c r="D45" s="166"/>
       <c r="E45" s="61" t="s">
         <v>201</v>
       </c>
@@ -4429,9 +4439,9 @@
       </c>
     </row>
     <row r="46" spans="2:8" ht="16" customHeight="1">
-      <c r="B46" s="161"/>
-      <c r="C46" s="188"/>
-      <c r="D46" s="194"/>
+      <c r="B46" s="189"/>
+      <c r="C46" s="161"/>
+      <c r="D46" s="167"/>
       <c r="E46" s="61" t="s">
         <v>220</v>
       </c>
@@ -4443,7 +4453,7 @@
       </c>
     </row>
     <row r="47" spans="2:8" ht="16" customHeight="1">
-      <c r="B47" s="161"/>
+      <c r="B47" s="189"/>
       <c r="C47" s="46" t="s">
         <v>163</v>
       </c>
@@ -4459,7 +4469,7 @@
       </c>
     </row>
     <row r="48" spans="2:8" ht="16" customHeight="1">
-      <c r="B48" s="162"/>
+      <c r="B48" s="190"/>
       <c r="C48" s="46" t="s">
         <v>165</v>
       </c>
@@ -4485,10 +4495,10 @@
       <c r="H49" s="117"/>
     </row>
     <row r="50" spans="2:8" ht="18">
-      <c r="B50" s="174" t="s">
+      <c r="B50" s="202" t="s">
         <v>136</v>
       </c>
-      <c r="C50" s="181" t="s">
+      <c r="C50" s="209" t="s">
         <v>147</v>
       </c>
       <c r="D50" s="39" t="s">
@@ -4506,8 +4516,8 @@
       <c r="H50" s="117"/>
     </row>
     <row r="51" spans="2:8" ht="18">
-      <c r="B51" s="174"/>
-      <c r="C51" s="182"/>
+      <c r="B51" s="202"/>
+      <c r="C51" s="210"/>
       <c r="D51" s="41" t="s">
         <v>91</v>
       </c>
@@ -4520,8 +4530,8 @@
       <c r="G51" s="40"/>
     </row>
     <row r="52" spans="2:8" ht="18">
-      <c r="B52" s="174"/>
-      <c r="C52" s="182"/>
+      <c r="B52" s="202"/>
+      <c r="C52" s="210"/>
       <c r="D52" s="41" t="s">
         <v>121</v>
       </c>
@@ -4534,8 +4544,8 @@
       <c r="G52" s="40"/>
     </row>
     <row r="53" spans="2:8" ht="18">
-      <c r="B53" s="174"/>
-      <c r="C53" s="182"/>
+      <c r="B53" s="202"/>
+      <c r="C53" s="210"/>
       <c r="D53" s="41" t="s">
         <v>119</v>
       </c>
@@ -4548,8 +4558,8 @@
       <c r="G53" s="40"/>
     </row>
     <row r="54" spans="2:8" ht="18">
-      <c r="B54" s="174"/>
-      <c r="C54" s="183"/>
+      <c r="B54" s="202"/>
+      <c r="C54" s="211"/>
       <c r="D54" s="41" t="s">
         <v>237</v>
       </c>
@@ -4560,8 +4570,8 @@
       <c r="G54" s="40"/>
     </row>
     <row r="55" spans="2:8" ht="17">
-      <c r="B55" s="174"/>
-      <c r="C55" s="184" t="s">
+      <c r="B55" s="202"/>
+      <c r="C55" s="212" t="s">
         <v>123</v>
       </c>
       <c r="D55" s="42"/>
@@ -4570,8 +4580,8 @@
       <c r="G55" s="43"/>
     </row>
     <row r="56" spans="2:8" ht="18">
-      <c r="B56" s="174"/>
-      <c r="C56" s="185"/>
+      <c r="B56" s="202"/>
+      <c r="C56" s="213"/>
       <c r="D56" s="42" t="s">
         <v>228</v>
       </c>
@@ -4584,8 +4594,8 @@
       <c r="G56" s="43"/>
     </row>
     <row r="57" spans="2:8" ht="18">
-      <c r="B57" s="174"/>
-      <c r="C57" s="185"/>
+      <c r="B57" s="202"/>
+      <c r="C57" s="213"/>
       <c r="D57" s="42" t="s">
         <v>229</v>
       </c>
@@ -4598,8 +4608,8 @@
       <c r="G57" s="43"/>
     </row>
     <row r="58" spans="2:8" ht="18">
-      <c r="B58" s="174"/>
-      <c r="C58" s="185"/>
+      <c r="B58" s="202"/>
+      <c r="C58" s="213"/>
       <c r="D58" s="42" t="s">
         <v>230</v>
       </c>
@@ -4612,8 +4622,8 @@
       <c r="G58" s="43"/>
     </row>
     <row r="59" spans="2:8" ht="18">
-      <c r="B59" s="174"/>
-      <c r="C59" s="185"/>
+      <c r="B59" s="202"/>
+      <c r="C59" s="213"/>
       <c r="D59" s="42" t="s">
         <v>237</v>
       </c>
@@ -4624,8 +4634,8 @@
       <c r="G59" s="43"/>
     </row>
     <row r="60" spans="2:8" ht="18">
-      <c r="B60" s="174"/>
-      <c r="C60" s="166" t="s">
+      <c r="B60" s="202"/>
+      <c r="C60" s="194" t="s">
         <v>151</v>
       </c>
       <c r="D60" s="110" t="s">
@@ -4638,8 +4648,8 @@
       <c r="G60" s="107"/>
     </row>
     <row r="61" spans="2:8" ht="18">
-      <c r="B61" s="174"/>
-      <c r="C61" s="167"/>
+      <c r="B61" s="202"/>
+      <c r="C61" s="195"/>
       <c r="D61" s="110" t="s">
         <v>231</v>
       </c>
@@ -4650,8 +4660,8 @@
       <c r="G61" s="107"/>
     </row>
     <row r="62" spans="2:8" ht="18">
-      <c r="B62" s="174"/>
-      <c r="C62" s="167"/>
+      <c r="B62" s="202"/>
+      <c r="C62" s="195"/>
       <c r="D62" s="110" t="s">
         <v>164</v>
       </c>
@@ -4662,8 +4672,8 @@
       <c r="G62" s="107"/>
     </row>
     <row r="63" spans="2:8" ht="18">
-      <c r="B63" s="174"/>
-      <c r="C63" s="168"/>
+      <c r="B63" s="202"/>
+      <c r="C63" s="196"/>
       <c r="D63" s="110" t="s">
         <v>237</v>
       </c>
@@ -4674,8 +4684,8 @@
       <c r="G63" s="107"/>
     </row>
     <row r="64" spans="2:8" ht="16" customHeight="1">
-      <c r="B64" s="174"/>
-      <c r="C64" s="169" t="s">
+      <c r="B64" s="202"/>
+      <c r="C64" s="197" t="s">
         <v>152</v>
       </c>
       <c r="D64" s="38"/>
@@ -4684,8 +4694,8 @@
       <c r="G64" s="38"/>
     </row>
     <row r="65" spans="2:7" ht="18">
-      <c r="B65" s="174"/>
-      <c r="C65" s="170"/>
+      <c r="B65" s="202"/>
+      <c r="C65" s="198"/>
       <c r="D65" s="44" t="s">
         <v>232</v>
       </c>
@@ -4698,8 +4708,8 @@
       <c r="G65" s="38"/>
     </row>
     <row r="66" spans="2:7" ht="18">
-      <c r="B66" s="174"/>
-      <c r="C66" s="170"/>
+      <c r="B66" s="202"/>
+      <c r="C66" s="198"/>
       <c r="D66" s="44" t="s">
         <v>233</v>
       </c>
@@ -4712,8 +4722,8 @@
       <c r="G66" s="38"/>
     </row>
     <row r="67" spans="2:7" ht="17" customHeight="1">
-      <c r="B67" s="174"/>
-      <c r="C67" s="171"/>
+      <c r="B67" s="202"/>
+      <c r="C67" s="199"/>
       <c r="D67" s="45" t="s">
         <v>234</v>
       </c>
@@ -4722,8 +4732,8 @@
       <c r="G67" s="38"/>
     </row>
     <row r="68" spans="2:7" ht="16" customHeight="1">
-      <c r="B68" s="174"/>
-      <c r="C68" s="172" t="s">
+      <c r="B68" s="202"/>
+      <c r="C68" s="200" t="s">
         <v>153</v>
       </c>
       <c r="D68" s="107" t="s">
@@ -4736,8 +4746,8 @@
       <c r="G68" s="107"/>
     </row>
     <row r="69" spans="2:7" ht="16" customHeight="1">
-      <c r="B69" s="174"/>
-      <c r="C69" s="173"/>
+      <c r="B69" s="202"/>
+      <c r="C69" s="201"/>
       <c r="D69" s="107" t="s">
         <v>234</v>
       </c>
@@ -4748,8 +4758,8 @@
       <c r="G69" s="107"/>
     </row>
     <row r="70" spans="2:7" ht="18">
-      <c r="B70" s="174"/>
-      <c r="C70" s="178" t="s">
+      <c r="B70" s="202"/>
+      <c r="C70" s="206" t="s">
         <v>154</v>
       </c>
       <c r="D70" s="33" t="s">
@@ -4762,8 +4772,8 @@
       <c r="G70" s="34"/>
     </row>
     <row r="71" spans="2:7" ht="18">
-      <c r="B71" s="174"/>
-      <c r="C71" s="179"/>
+      <c r="B71" s="202"/>
+      <c r="C71" s="207"/>
       <c r="D71" s="33" t="s">
         <v>236</v>
       </c>
@@ -4774,8 +4784,8 @@
       <c r="G71" s="34"/>
     </row>
     <row r="72" spans="2:7" ht="18">
-      <c r="B72" s="174"/>
-      <c r="C72" s="180"/>
+      <c r="B72" s="202"/>
+      <c r="C72" s="208"/>
       <c r="D72" s="33" t="s">
         <v>234</v>
       </c>
@@ -4786,8 +4796,8 @@
       <c r="G72" s="34"/>
     </row>
     <row r="73" spans="2:7" ht="18">
-      <c r="B73" s="174"/>
-      <c r="C73" s="175" t="s">
+      <c r="B73" s="202"/>
+      <c r="C73" s="203" t="s">
         <v>155</v>
       </c>
       <c r="D73" s="35" t="s">
@@ -4802,8 +4812,8 @@
       <c r="G73" s="6"/>
     </row>
     <row r="74" spans="2:7" ht="17">
-      <c r="B74" s="174"/>
-      <c r="C74" s="176"/>
+      <c r="B74" s="202"/>
+      <c r="C74" s="204"/>
       <c r="D74" s="6" t="s">
         <v>116</v>
       </c>
@@ -4814,8 +4824,8 @@
       <c r="G74" s="6"/>
     </row>
     <row r="75" spans="2:7">
-      <c r="B75" s="174"/>
-      <c r="C75" s="177"/>
+      <c r="B75" s="202"/>
+      <c r="C75" s="205"/>
       <c r="D75" s="6" t="s">
         <v>234</v>
       </c>
@@ -4826,7 +4836,7 @@
       <c r="G75" s="6"/>
     </row>
     <row r="76" spans="2:7">
-      <c r="B76" s="163" t="s">
+      <c r="B76" s="191" t="s">
         <v>160</v>
       </c>
       <c r="C76" s="37" t="s">
@@ -4844,7 +4854,7 @@
       </c>
     </row>
     <row r="77" spans="2:7">
-      <c r="B77" s="164"/>
+      <c r="B77" s="192"/>
       <c r="C77" s="37" t="s">
         <v>162</v>
       </c>
@@ -4860,7 +4870,7 @@
       </c>
     </row>
     <row r="78" spans="2:7">
-      <c r="B78" s="165"/>
+      <c r="B78" s="193"/>
       <c r="C78" s="37"/>
       <c r="D78" s="37" t="s">
         <v>234</v>
@@ -4874,7 +4884,7 @@
       </c>
     </row>
     <row r="79" spans="2:7">
-      <c r="B79" s="159" t="s">
+      <c r="B79" s="187" t="s">
         <v>223</v>
       </c>
       <c r="C79" s="5"/>
@@ -4888,7 +4898,7 @@
       <c r="G79" s="5"/>
     </row>
     <row r="80" spans="2:7">
-      <c r="B80" s="159"/>
+      <c r="B80" s="187"/>
       <c r="C80" s="5" t="s">
         <v>224</v>
       </c>
@@ -4902,7 +4912,7 @@
       <c r="G80" s="5"/>
     </row>
     <row r="81" spans="2:7">
-      <c r="B81" s="159"/>
+      <c r="B81" s="187"/>
       <c r="C81" s="5" t="s">
         <v>225</v>
       </c>
@@ -4916,7 +4926,7 @@
       <c r="G81" s="5"/>
     </row>
     <row r="82" spans="2:7">
-      <c r="B82" s="159"/>
+      <c r="B82" s="187"/>
       <c r="C82" s="115" t="s">
         <v>226</v>
       </c>
@@ -4928,7 +4938,7 @@
       <c r="G82" s="5"/>
     </row>
     <row r="83" spans="2:7">
-      <c r="B83" s="159"/>
+      <c r="B83" s="187"/>
       <c r="C83" s="5"/>
       <c r="D83" s="68"/>
       <c r="E83" s="113"/>
@@ -4977,6 +4987,17 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B79:B83"/>
+    <mergeCell ref="B11:B48"/>
+    <mergeCell ref="B76:B78"/>
+    <mergeCell ref="C60:C63"/>
+    <mergeCell ref="C64:C67"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="B50:B75"/>
+    <mergeCell ref="C73:C75"/>
+    <mergeCell ref="C70:C72"/>
+    <mergeCell ref="C50:C54"/>
+    <mergeCell ref="C55:C59"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="C36:C40"/>
     <mergeCell ref="C41:C46"/>
@@ -4991,17 +5012,6 @@
     <mergeCell ref="B4:B9"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="C8:C9"/>
-    <mergeCell ref="B79:B83"/>
-    <mergeCell ref="B11:B48"/>
-    <mergeCell ref="B76:B78"/>
-    <mergeCell ref="C60:C63"/>
-    <mergeCell ref="C64:C67"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="B50:B75"/>
-    <mergeCell ref="C73:C75"/>
-    <mergeCell ref="C70:C72"/>
-    <mergeCell ref="C50:C54"/>
-    <mergeCell ref="C55:C59"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/结算数据监控平台开发计划.xlsx
+++ b/结算数据监控平台开发计划.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicker/sandbox/settlementMonitoring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46B5DFA1-3728-824E-8103-0A8BBE2F2C9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{529E29BE-AC9A-D845-AAC9-0AA98CFA610F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2880" yWindow="460" windowWidth="26540" windowHeight="18920" activeTab="3" xr2:uid="{AD2C15C8-2DE4-104B-A764-E65CC8F0AEA6}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="245">
   <si>
     <t>ETX联网结算平台</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1143,14 +1143,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>wc</t>
-  </si>
-  <si>
-    <t>wc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>增加注册接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加：停车场的结算趋势</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1271,7 +1268,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="24">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1410,6 +1407,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="8">
     <border>
@@ -1514,7 +1517,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="214">
+  <cellXfs count="217">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1992,90 +1995,6 @@
     <xf numFmtId="0" fontId="9" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2156,6 +2075,99 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3738,8 +3750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E10E9005-F9D0-4E45-A602-C89B60257518}">
   <dimension ref="B2:H88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="94" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36:G40"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="94" workbookViewId="0">
+      <selection activeCell="G69" sqref="G69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3784,10 +3796,10 @@
       <c r="H3" s="117"/>
     </row>
     <row r="4" spans="2:8">
-      <c r="B4" s="181" t="s">
+      <c r="B4" s="208" t="s">
         <v>172</v>
       </c>
-      <c r="C4" s="184" t="s">
+      <c r="C4" s="211" t="s">
         <v>173</v>
       </c>
       <c r="D4" s="70" t="s">
@@ -3805,8 +3817,8 @@
       <c r="H4" s="117"/>
     </row>
     <row r="5" spans="2:8">
-      <c r="B5" s="182"/>
-      <c r="C5" s="185"/>
+      <c r="B5" s="209"/>
+      <c r="C5" s="212"/>
       <c r="D5" s="70" t="s">
         <v>167</v>
       </c>
@@ -3822,8 +3834,8 @@
       <c r="H5" s="117"/>
     </row>
     <row r="6" spans="2:8">
-      <c r="B6" s="182"/>
-      <c r="C6" s="186"/>
+      <c r="B6" s="209"/>
+      <c r="C6" s="213"/>
       <c r="D6" s="70" t="s">
         <v>168</v>
       </c>
@@ -3839,7 +3851,7 @@
       <c r="H6" s="117"/>
     </row>
     <row r="7" spans="2:8">
-      <c r="B7" s="182"/>
+      <c r="B7" s="209"/>
       <c r="C7" s="72" t="s">
         <v>169</v>
       </c>
@@ -3858,8 +3870,8 @@
       <c r="H7" s="117"/>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="182"/>
-      <c r="C8" s="168" t="s">
+      <c r="B8" s="209"/>
+      <c r="C8" s="195" t="s">
         <v>174</v>
       </c>
       <c r="D8" s="75" t="s">
@@ -3875,8 +3887,8 @@
       <c r="H8" s="117"/>
     </row>
     <row r="9" spans="2:8">
-      <c r="B9" s="183"/>
-      <c r="C9" s="170"/>
+      <c r="B9" s="210"/>
+      <c r="C9" s="197"/>
       <c r="D9" s="75" t="s">
         <v>171</v>
       </c>
@@ -3899,10 +3911,10 @@
       <c r="H10" s="117"/>
     </row>
     <row r="11" spans="2:8" ht="36" customHeight="1">
-      <c r="B11" s="188" t="s">
+      <c r="B11" s="160" t="s">
         <v>99</v>
       </c>
-      <c r="C11" s="171" t="s">
+      <c r="C11" s="198" t="s">
         <v>144</v>
       </c>
       <c r="D11" s="27" t="s">
@@ -3920,8 +3932,8 @@
       <c r="H11" s="117"/>
     </row>
     <row r="12" spans="2:8" ht="18">
-      <c r="B12" s="189"/>
-      <c r="C12" s="172"/>
+      <c r="B12" s="161"/>
+      <c r="C12" s="199"/>
       <c r="D12" s="27" t="s">
         <v>188</v>
       </c>
@@ -3935,8 +3947,8 @@
       <c r="H12" s="117"/>
     </row>
     <row r="13" spans="2:8" ht="18">
-      <c r="B13" s="189"/>
-      <c r="C13" s="172"/>
+      <c r="B13" s="161"/>
+      <c r="C13" s="199"/>
       <c r="D13" s="28" t="s">
         <v>189</v>
       </c>
@@ -3952,8 +3964,8 @@
       <c r="H13" s="117"/>
     </row>
     <row r="14" spans="2:8" ht="18">
-      <c r="B14" s="189"/>
-      <c r="C14" s="172"/>
+      <c r="B14" s="161"/>
+      <c r="C14" s="199"/>
       <c r="D14" s="28" t="s">
         <v>190</v>
       </c>
@@ -3969,8 +3981,8 @@
       <c r="H14" s="117"/>
     </row>
     <row r="15" spans="2:8" ht="36">
-      <c r="B15" s="189"/>
-      <c r="C15" s="172"/>
+      <c r="B15" s="161"/>
+      <c r="C15" s="199"/>
       <c r="D15" s="28" t="s">
         <v>191</v>
       </c>
@@ -3986,8 +3998,8 @@
       <c r="H15" s="117"/>
     </row>
     <row r="16" spans="2:8" ht="17" customHeight="1">
-      <c r="B16" s="189"/>
-      <c r="C16" s="173"/>
+      <c r="B16" s="161"/>
+      <c r="C16" s="200"/>
       <c r="D16" s="29" t="s">
         <v>185</v>
       </c>
@@ -4001,7 +4013,7 @@
       <c r="H16" s="117"/>
     </row>
     <row r="17" spans="2:8" ht="18">
-      <c r="B17" s="189"/>
+      <c r="B17" s="161"/>
       <c r="C17" s="146" t="s">
         <v>114</v>
       </c>
@@ -4020,8 +4032,8 @@
       <c r="H17" s="117"/>
     </row>
     <row r="18" spans="2:8" ht="18">
-      <c r="B18" s="189"/>
-      <c r="C18" s="174"/>
+      <c r="B18" s="161"/>
+      <c r="C18" s="201"/>
       <c r="D18" s="31" t="s">
         <v>192</v>
       </c>
@@ -4030,13 +4042,13 @@
         <v>44027</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>244</v>
+        <v>175</v>
       </c>
       <c r="H18" s="117"/>
     </row>
     <row r="19" spans="2:8" ht="18">
-      <c r="B19" s="189"/>
-      <c r="C19" s="174"/>
+      <c r="B19" s="161"/>
+      <c r="C19" s="201"/>
       <c r="D19" s="31" t="s">
         <v>193</v>
       </c>
@@ -4045,13 +4057,13 @@
         <v>44027</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>243</v>
+        <v>175</v>
       </c>
       <c r="H19" s="117"/>
     </row>
     <row r="20" spans="2:8" ht="18">
-      <c r="B20" s="189"/>
-      <c r="C20" s="174"/>
+      <c r="B20" s="161"/>
+      <c r="C20" s="201"/>
       <c r="D20" s="31" t="s">
         <v>194</v>
       </c>
@@ -4060,13 +4072,13 @@
         <v>44028</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>243</v>
+        <v>175</v>
       </c>
       <c r="H20" s="117"/>
     </row>
     <row r="21" spans="2:8" ht="18">
-      <c r="B21" s="189"/>
-      <c r="C21" s="174"/>
+      <c r="B21" s="161"/>
+      <c r="C21" s="201"/>
       <c r="D21" s="31" t="s">
         <v>195</v>
       </c>
@@ -4075,13 +4087,13 @@
         <v>44028</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>243</v>
+        <v>175</v>
       </c>
       <c r="H21" s="117"/>
     </row>
     <row r="22" spans="2:8" ht="18">
-      <c r="B22" s="189"/>
-      <c r="C22" s="174"/>
+      <c r="B22" s="161"/>
+      <c r="C22" s="201"/>
       <c r="D22" s="31" t="s">
         <v>198</v>
       </c>
@@ -4090,12 +4102,12 @@
         <v>44029</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>243</v>
+        <v>175</v>
       </c>
       <c r="H22" s="117"/>
     </row>
     <row r="23" spans="2:8" ht="18">
-      <c r="B23" s="189"/>
+      <c r="B23" s="161"/>
       <c r="C23" s="147"/>
       <c r="D23" s="31" t="s">
         <v>197</v>
@@ -4105,13 +4117,13 @@
         <v>44029</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>243</v>
+        <v>175</v>
       </c>
       <c r="H23" s="117"/>
     </row>
     <row r="24" spans="2:8" ht="18">
-      <c r="B24" s="189"/>
-      <c r="C24" s="175" t="s">
+      <c r="B24" s="161"/>
+      <c r="C24" s="202" t="s">
         <v>145</v>
       </c>
       <c r="D24" s="32" t="s">
@@ -4124,13 +4136,13 @@
         <v>44032</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>243</v>
+        <v>175</v>
       </c>
       <c r="H24" s="117"/>
     </row>
     <row r="25" spans="2:8" ht="18">
-      <c r="B25" s="189"/>
-      <c r="C25" s="176"/>
+      <c r="B25" s="161"/>
+      <c r="C25" s="203"/>
       <c r="D25" s="19" t="s">
         <v>199</v>
       </c>
@@ -4139,13 +4151,13 @@
         <v>44032</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>243</v>
+        <v>175</v>
       </c>
       <c r="H25" s="117"/>
     </row>
     <row r="26" spans="2:8" ht="18">
-      <c r="B26" s="189"/>
-      <c r="C26" s="176"/>
+      <c r="B26" s="161"/>
+      <c r="C26" s="203"/>
       <c r="D26" s="19" t="s">
         <v>203</v>
       </c>
@@ -4154,13 +4166,13 @@
         <v>44032</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>243</v>
+        <v>175</v>
       </c>
       <c r="H26" s="117"/>
     </row>
     <row r="27" spans="2:8" ht="18">
-      <c r="B27" s="189"/>
-      <c r="C27" s="176"/>
+      <c r="B27" s="161"/>
+      <c r="C27" s="203"/>
       <c r="D27" s="19" t="s">
         <v>204</v>
       </c>
@@ -4169,13 +4181,13 @@
         <v>44032</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>243</v>
+        <v>175</v>
       </c>
       <c r="H27" s="117"/>
     </row>
     <row r="28" spans="2:8" ht="17">
-      <c r="B28" s="189"/>
-      <c r="C28" s="177"/>
+      <c r="B28" s="161"/>
+      <c r="C28" s="204"/>
       <c r="D28" s="19"/>
       <c r="E28" s="58"/>
       <c r="F28" s="93"/>
@@ -4183,8 +4195,8 @@
       <c r="H28" s="117"/>
     </row>
     <row r="29" spans="2:8" ht="18">
-      <c r="B29" s="189"/>
-      <c r="C29" s="178" t="s">
+      <c r="B29" s="161"/>
+      <c r="C29" s="205" t="s">
         <v>148</v>
       </c>
       <c r="D29" s="36" t="s">
@@ -4202,8 +4214,8 @@
       <c r="H29" s="117"/>
     </row>
     <row r="30" spans="2:8" ht="18">
-      <c r="B30" s="189"/>
-      <c r="C30" s="179"/>
+      <c r="B30" s="161"/>
+      <c r="C30" s="206"/>
       <c r="D30" s="36" t="s">
         <v>206</v>
       </c>
@@ -4217,8 +4229,8 @@
       <c r="H30" s="117"/>
     </row>
     <row r="31" spans="2:8" ht="36" customHeight="1">
-      <c r="B31" s="189"/>
-      <c r="C31" s="179"/>
+      <c r="B31" s="161"/>
+      <c r="C31" s="206"/>
       <c r="D31" s="36" t="s">
         <v>207</v>
       </c>
@@ -4232,8 +4244,8 @@
       <c r="H31" s="117"/>
     </row>
     <row r="32" spans="2:8" ht="54" customHeight="1">
-      <c r="B32" s="189"/>
-      <c r="C32" s="180"/>
+      <c r="B32" s="161"/>
+      <c r="C32" s="207"/>
       <c r="D32" s="59" t="s">
         <v>208</v>
       </c>
@@ -4247,11 +4259,11 @@
       <c r="H32" s="117"/>
     </row>
     <row r="33" spans="2:8" ht="16" customHeight="1">
-      <c r="B33" s="189"/>
+      <c r="B33" s="161"/>
       <c r="C33" s="153" t="s">
         <v>88</v>
       </c>
-      <c r="D33" s="168" t="s">
+      <c r="D33" s="195" t="s">
         <v>156</v>
       </c>
       <c r="E33" s="79" t="s">
@@ -4266,9 +4278,9 @@
       <c r="H33" s="117"/>
     </row>
     <row r="34" spans="2:8" ht="16" customHeight="1">
-      <c r="B34" s="189"/>
+      <c r="B34" s="161"/>
       <c r="C34" s="154"/>
-      <c r="D34" s="169"/>
+      <c r="D34" s="196"/>
       <c r="E34" s="79" t="s">
         <v>210</v>
       </c>
@@ -4281,9 +4293,9 @@
       <c r="H34" s="117"/>
     </row>
     <row r="35" spans="2:8" ht="17" customHeight="1">
-      <c r="B35" s="189"/>
+      <c r="B35" s="161"/>
       <c r="C35" s="155"/>
-      <c r="D35" s="170"/>
+      <c r="D35" s="197"/>
       <c r="E35" s="79" t="s">
         <v>209</v>
       </c>
@@ -4296,11 +4308,11 @@
       <c r="H35" s="117"/>
     </row>
     <row r="36" spans="2:8" ht="16" customHeight="1">
-      <c r="B36" s="189"/>
-      <c r="C36" s="159" t="s">
+      <c r="B36" s="161"/>
+      <c r="C36" s="186" t="s">
         <v>149</v>
       </c>
-      <c r="D36" s="162" t="s">
+      <c r="D36" s="189" t="s">
         <v>214</v>
       </c>
       <c r="E36" s="60" t="s">
@@ -4315,9 +4327,9 @@
       <c r="H36" s="117"/>
     </row>
     <row r="37" spans="2:8" ht="16" customHeight="1">
-      <c r="B37" s="189"/>
-      <c r="C37" s="160"/>
-      <c r="D37" s="163"/>
+      <c r="B37" s="161"/>
+      <c r="C37" s="187"/>
+      <c r="D37" s="190"/>
       <c r="E37" s="60" t="s">
         <v>216</v>
       </c>
@@ -4327,11 +4339,12 @@
       <c r="G37" s="3" t="s">
         <v>175</v>
       </c>
+      <c r="H37" s="117"/>
     </row>
     <row r="38" spans="2:8" ht="16" customHeight="1">
-      <c r="B38" s="189"/>
-      <c r="C38" s="160"/>
-      <c r="D38" s="163"/>
+      <c r="B38" s="161"/>
+      <c r="C38" s="187"/>
+      <c r="D38" s="190"/>
       <c r="E38" s="60" t="s">
         <v>213</v>
       </c>
@@ -4341,11 +4354,12 @@
       <c r="G38" s="3" t="s">
         <v>175</v>
       </c>
+      <c r="H38" s="117"/>
     </row>
     <row r="39" spans="2:8" ht="16" customHeight="1">
-      <c r="B39" s="189"/>
-      <c r="C39" s="160"/>
-      <c r="D39" s="163"/>
+      <c r="B39" s="161"/>
+      <c r="C39" s="187"/>
+      <c r="D39" s="190"/>
       <c r="E39" s="60" t="s">
         <v>215</v>
       </c>
@@ -4355,23 +4369,25 @@
       <c r="G39" s="3" t="s">
         <v>175</v>
       </c>
+      <c r="H39" s="117"/>
     </row>
     <row r="40" spans="2:8" ht="16" customHeight="1">
-      <c r="B40" s="189"/>
-      <c r="C40" s="160"/>
-      <c r="D40" s="164"/>
+      <c r="B40" s="161"/>
+      <c r="C40" s="187"/>
+      <c r="D40" s="191"/>
       <c r="E40" s="60"/>
       <c r="F40" s="96"/>
       <c r="G40" s="3" t="s">
         <v>175</v>
       </c>
+      <c r="H40" s="117"/>
     </row>
     <row r="41" spans="2:8" ht="16" customHeight="1">
-      <c r="B41" s="189"/>
-      <c r="C41" s="161" t="s">
+      <c r="B41" s="161"/>
+      <c r="C41" s="188" t="s">
         <v>150</v>
       </c>
-      <c r="D41" s="165"/>
+      <c r="D41" s="192"/>
       <c r="E41" s="61" t="s">
         <v>217</v>
       </c>
@@ -4381,11 +4397,12 @@
       <c r="G41" s="40" t="s">
         <v>175</v>
       </c>
+      <c r="H41" s="117"/>
     </row>
     <row r="42" spans="2:8" ht="16" customHeight="1">
-      <c r="B42" s="189"/>
-      <c r="C42" s="161"/>
-      <c r="D42" s="166"/>
+      <c r="B42" s="161"/>
+      <c r="C42" s="188"/>
+      <c r="D42" s="193"/>
       <c r="E42" s="61" t="s">
         <v>218</v>
       </c>
@@ -4395,11 +4412,12 @@
       <c r="G42" s="40" t="s">
         <v>175</v>
       </c>
+      <c r="H42" s="117"/>
     </row>
     <row r="43" spans="2:8" ht="16" customHeight="1">
-      <c r="B43" s="189"/>
-      <c r="C43" s="161"/>
-      <c r="D43" s="166"/>
+      <c r="B43" s="161"/>
+      <c r="C43" s="188"/>
+      <c r="D43" s="193"/>
       <c r="E43" s="61" t="s">
         <v>219</v>
       </c>
@@ -4409,11 +4427,12 @@
       <c r="G43" s="40" t="s">
         <v>175</v>
       </c>
+      <c r="H43" s="117"/>
     </row>
     <row r="44" spans="2:8" ht="16" customHeight="1">
-      <c r="B44" s="189"/>
-      <c r="C44" s="161"/>
-      <c r="D44" s="166"/>
+      <c r="B44" s="161"/>
+      <c r="C44" s="188"/>
+      <c r="D44" s="193"/>
       <c r="E44" s="61" t="s">
         <v>216</v>
       </c>
@@ -4423,11 +4442,12 @@
       <c r="G44" s="40" t="s">
         <v>175</v>
       </c>
+      <c r="H44" s="117"/>
     </row>
     <row r="45" spans="2:8" ht="16" customHeight="1">
-      <c r="B45" s="189"/>
-      <c r="C45" s="161"/>
-      <c r="D45" s="166"/>
+      <c r="B45" s="161"/>
+      <c r="C45" s="188"/>
+      <c r="D45" s="193"/>
       <c r="E45" s="61" t="s">
         <v>201</v>
       </c>
@@ -4437,11 +4457,12 @@
       <c r="G45" s="40" t="s">
         <v>175</v>
       </c>
+      <c r="H45" s="117"/>
     </row>
     <row r="46" spans="2:8" ht="16" customHeight="1">
-      <c r="B46" s="189"/>
-      <c r="C46" s="161"/>
-      <c r="D46" s="167"/>
+      <c r="B46" s="161"/>
+      <c r="C46" s="188"/>
+      <c r="D46" s="194"/>
       <c r="E46" s="61" t="s">
         <v>220</v>
       </c>
@@ -4451,9 +4472,10 @@
       <c r="G46" s="40" t="s">
         <v>175</v>
       </c>
+      <c r="H46" s="117"/>
     </row>
     <row r="47" spans="2:8" ht="16" customHeight="1">
-      <c r="B47" s="189"/>
+      <c r="B47" s="161"/>
       <c r="C47" s="46" t="s">
         <v>163</v>
       </c>
@@ -4467,9 +4489,10 @@
       <c r="G47" s="40" t="s">
         <v>175</v>
       </c>
+      <c r="H47" s="117"/>
     </row>
     <row r="48" spans="2:8" ht="16" customHeight="1">
-      <c r="B48" s="190"/>
+      <c r="B48" s="162"/>
       <c r="C48" s="46" t="s">
         <v>165</v>
       </c>
@@ -4495,10 +4518,10 @@
       <c r="H49" s="117"/>
     </row>
     <row r="50" spans="2:8" ht="18">
-      <c r="B50" s="202" t="s">
+      <c r="B50" s="174" t="s">
         <v>136</v>
       </c>
-      <c r="C50" s="209" t="s">
+      <c r="C50" s="181" t="s">
         <v>147</v>
       </c>
       <c r="D50" s="39" t="s">
@@ -4516,8 +4539,8 @@
       <c r="H50" s="117"/>
     </row>
     <row r="51" spans="2:8" ht="18">
-      <c r="B51" s="202"/>
-      <c r="C51" s="210"/>
+      <c r="B51" s="174"/>
+      <c r="C51" s="182"/>
       <c r="D51" s="41" t="s">
         <v>91</v>
       </c>
@@ -4527,11 +4550,13 @@
       <c r="F51" s="97">
         <v>44041</v>
       </c>
-      <c r="G51" s="40"/>
+      <c r="G51" s="40" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="52" spans="2:8" ht="18">
-      <c r="B52" s="202"/>
-      <c r="C52" s="210"/>
+      <c r="B52" s="174"/>
+      <c r="C52" s="182"/>
       <c r="D52" s="41" t="s">
         <v>121</v>
       </c>
@@ -4541,11 +4566,13 @@
       <c r="F52" s="97">
         <v>44041</v>
       </c>
-      <c r="G52" s="40"/>
+      <c r="G52" s="40" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="53" spans="2:8" ht="18">
-      <c r="B53" s="202"/>
-      <c r="C53" s="210"/>
+      <c r="B53" s="174"/>
+      <c r="C53" s="182"/>
       <c r="D53" s="41" t="s">
         <v>119</v>
       </c>
@@ -4555,11 +4582,13 @@
       <c r="F53" s="97">
         <v>44041</v>
       </c>
-      <c r="G53" s="40"/>
+      <c r="G53" s="40" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="54" spans="2:8" ht="18">
-      <c r="B54" s="202"/>
-      <c r="C54" s="211"/>
+      <c r="B54" s="174"/>
+      <c r="C54" s="183"/>
       <c r="D54" s="41" t="s">
         <v>237</v>
       </c>
@@ -4567,11 +4596,13 @@
       <c r="F54" s="97">
         <v>44041</v>
       </c>
-      <c r="G54" s="40"/>
+      <c r="G54" s="40" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="55" spans="2:8" ht="17">
-      <c r="B55" s="202"/>
-      <c r="C55" s="212" t="s">
+      <c r="B55" s="174"/>
+      <c r="C55" s="184" t="s">
         <v>123</v>
       </c>
       <c r="D55" s="42"/>
@@ -4580,8 +4611,8 @@
       <c r="G55" s="43"/>
     </row>
     <row r="56" spans="2:8" ht="18">
-      <c r="B56" s="202"/>
-      <c r="C56" s="213"/>
+      <c r="B56" s="174"/>
+      <c r="C56" s="185"/>
       <c r="D56" s="42" t="s">
         <v>228</v>
       </c>
@@ -4594,8 +4625,8 @@
       <c r="G56" s="43"/>
     </row>
     <row r="57" spans="2:8" ht="18">
-      <c r="B57" s="202"/>
-      <c r="C57" s="213"/>
+      <c r="B57" s="174"/>
+      <c r="C57" s="185"/>
       <c r="D57" s="42" t="s">
         <v>229</v>
       </c>
@@ -4608,8 +4639,8 @@
       <c r="G57" s="43"/>
     </row>
     <row r="58" spans="2:8" ht="18">
-      <c r="B58" s="202"/>
-      <c r="C58" s="213"/>
+      <c r="B58" s="174"/>
+      <c r="C58" s="185"/>
       <c r="D58" s="42" t="s">
         <v>230</v>
       </c>
@@ -4622,8 +4653,8 @@
       <c r="G58" s="43"/>
     </row>
     <row r="59" spans="2:8" ht="18">
-      <c r="B59" s="202"/>
-      <c r="C59" s="213"/>
+      <c r="B59" s="174"/>
+      <c r="C59" s="185"/>
       <c r="D59" s="42" t="s">
         <v>237</v>
       </c>
@@ -4634,8 +4665,8 @@
       <c r="G59" s="43"/>
     </row>
     <row r="60" spans="2:8" ht="18">
-      <c r="B60" s="202"/>
-      <c r="C60" s="194" t="s">
+      <c r="B60" s="174"/>
+      <c r="C60" s="166" t="s">
         <v>151</v>
       </c>
       <c r="D60" s="110" t="s">
@@ -4648,8 +4679,8 @@
       <c r="G60" s="107"/>
     </row>
     <row r="61" spans="2:8" ht="18">
-      <c r="B61" s="202"/>
-      <c r="C61" s="195"/>
+      <c r="B61" s="174"/>
+      <c r="C61" s="167"/>
       <c r="D61" s="110" t="s">
         <v>231</v>
       </c>
@@ -4660,8 +4691,8 @@
       <c r="G61" s="107"/>
     </row>
     <row r="62" spans="2:8" ht="18">
-      <c r="B62" s="202"/>
-      <c r="C62" s="195"/>
+      <c r="B62" s="174"/>
+      <c r="C62" s="167"/>
       <c r="D62" s="110" t="s">
         <v>164</v>
       </c>
@@ -4672,8 +4703,8 @@
       <c r="G62" s="107"/>
     </row>
     <row r="63" spans="2:8" ht="18">
-      <c r="B63" s="202"/>
-      <c r="C63" s="196"/>
+      <c r="B63" s="174"/>
+      <c r="C63" s="168"/>
       <c r="D63" s="110" t="s">
         <v>237</v>
       </c>
@@ -4684,8 +4715,8 @@
       <c r="G63" s="107"/>
     </row>
     <row r="64" spans="2:8" ht="16" customHeight="1">
-      <c r="B64" s="202"/>
-      <c r="C64" s="197" t="s">
+      <c r="B64" s="174"/>
+      <c r="C64" s="169" t="s">
         <v>152</v>
       </c>
       <c r="D64" s="38"/>
@@ -4693,9 +4724,9 @@
       <c r="F64" s="100"/>
       <c r="G64" s="38"/>
     </row>
-    <row r="65" spans="2:7" ht="18">
-      <c r="B65" s="202"/>
-      <c r="C65" s="198"/>
+    <row r="65" spans="2:8" ht="18">
+      <c r="B65" s="174"/>
+      <c r="C65" s="170"/>
       <c r="D65" s="44" t="s">
         <v>232</v>
       </c>
@@ -4707,9 +4738,9 @@
       </c>
       <c r="G65" s="38"/>
     </row>
-    <row r="66" spans="2:7" ht="18">
-      <c r="B66" s="202"/>
-      <c r="C66" s="198"/>
+    <row r="66" spans="2:8" ht="18">
+      <c r="B66" s="174"/>
+      <c r="C66" s="170"/>
       <c r="D66" s="44" t="s">
         <v>233</v>
       </c>
@@ -4721,9 +4752,9 @@
       </c>
       <c r="G66" s="38"/>
     </row>
-    <row r="67" spans="2:7" ht="17" customHeight="1">
-      <c r="B67" s="202"/>
-      <c r="C67" s="199"/>
+    <row r="67" spans="2:8" ht="17" customHeight="1">
+      <c r="B67" s="174"/>
+      <c r="C67" s="171"/>
       <c r="D67" s="45" t="s">
         <v>234</v>
       </c>
@@ -4731,9 +4762,9 @@
       <c r="F67" s="100"/>
       <c r="G67" s="38"/>
     </row>
-    <row r="68" spans="2:7" ht="16" customHeight="1">
-      <c r="B68" s="202"/>
-      <c r="C68" s="200" t="s">
+    <row r="68" spans="2:8" ht="16" customHeight="1">
+      <c r="B68" s="174"/>
+      <c r="C68" s="172" t="s">
         <v>153</v>
       </c>
       <c r="D68" s="107" t="s">
@@ -4743,11 +4774,13 @@
       <c r="F68" s="109">
         <v>44043</v>
       </c>
-      <c r="G68" s="107"/>
-    </row>
-    <row r="69" spans="2:7" ht="16" customHeight="1">
-      <c r="B69" s="202"/>
-      <c r="C69" s="201"/>
+      <c r="G68" s="107" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8" ht="16" customHeight="1">
+      <c r="B69" s="174"/>
+      <c r="C69" s="173"/>
       <c r="D69" s="107" t="s">
         <v>234</v>
       </c>
@@ -4755,11 +4788,13 @@
       <c r="F69" s="109">
         <v>44043</v>
       </c>
-      <c r="G69" s="107"/>
-    </row>
-    <row r="70" spans="2:7" ht="18">
-      <c r="B70" s="202"/>
-      <c r="C70" s="206" t="s">
+      <c r="G69" s="107" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8" ht="18">
+      <c r="B70" s="174"/>
+      <c r="C70" s="178" t="s">
         <v>154</v>
       </c>
       <c r="D70" s="33" t="s">
@@ -4771,9 +4806,9 @@
       </c>
       <c r="G70" s="34"/>
     </row>
-    <row r="71" spans="2:7" ht="18">
-      <c r="B71" s="202"/>
-      <c r="C71" s="207"/>
+    <row r="71" spans="2:8" ht="18">
+      <c r="B71" s="174"/>
+      <c r="C71" s="179"/>
       <c r="D71" s="33" t="s">
         <v>236</v>
       </c>
@@ -4783,9 +4818,9 @@
       </c>
       <c r="G71" s="34"/>
     </row>
-    <row r="72" spans="2:7" ht="18">
-      <c r="B72" s="202"/>
-      <c r="C72" s="208"/>
+    <row r="72" spans="2:8" ht="18">
+      <c r="B72" s="174"/>
+      <c r="C72" s="180"/>
       <c r="D72" s="33" t="s">
         <v>234</v>
       </c>
@@ -4795,9 +4830,9 @@
       </c>
       <c r="G72" s="34"/>
     </row>
-    <row r="73" spans="2:7" ht="18">
-      <c r="B73" s="202"/>
-      <c r="C73" s="203" t="s">
+    <row r="73" spans="2:8" ht="18">
+      <c r="B73" s="174"/>
+      <c r="C73" s="175" t="s">
         <v>155</v>
       </c>
       <c r="D73" s="35" t="s">
@@ -4810,10 +4845,13 @@
         <v>44047</v>
       </c>
       <c r="G73" s="6"/>
-    </row>
-    <row r="74" spans="2:7" ht="17">
-      <c r="B74" s="202"/>
-      <c r="C74" s="204"/>
+      <c r="H73" s="215">
+        <v>44048</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8" ht="17">
+      <c r="B74" s="174"/>
+      <c r="C74" s="176"/>
       <c r="D74" s="6" t="s">
         <v>116</v>
       </c>
@@ -4822,10 +4860,11 @@
         <v>44047</v>
       </c>
       <c r="G74" s="6"/>
-    </row>
-    <row r="75" spans="2:7">
-      <c r="B75" s="202"/>
-      <c r="C75" s="205"/>
+      <c r="H74" s="214"/>
+    </row>
+    <row r="75" spans="2:8">
+      <c r="B75" s="174"/>
+      <c r="C75" s="177"/>
       <c r="D75" s="6" t="s">
         <v>234</v>
       </c>
@@ -4834,9 +4873,10 @@
         <v>44047</v>
       </c>
       <c r="G75" s="6"/>
-    </row>
-    <row r="76" spans="2:7">
-      <c r="B76" s="191" t="s">
+      <c r="H75" s="214"/>
+    </row>
+    <row r="76" spans="2:8">
+      <c r="B76" s="163" t="s">
         <v>160</v>
       </c>
       <c r="C76" s="37" t="s">
@@ -4853,8 +4893,8 @@
         <v>175</v>
       </c>
     </row>
-    <row r="77" spans="2:7">
-      <c r="B77" s="192"/>
+    <row r="77" spans="2:8">
+      <c r="B77" s="164"/>
       <c r="C77" s="37" t="s">
         <v>162</v>
       </c>
@@ -4869,8 +4909,8 @@
         <v>175</v>
       </c>
     </row>
-    <row r="78" spans="2:7">
-      <c r="B78" s="193"/>
+    <row r="78" spans="2:8">
+      <c r="B78" s="165"/>
       <c r="C78" s="37"/>
       <c r="D78" s="37" t="s">
         <v>234</v>
@@ -4883,8 +4923,8 @@
         <v>175</v>
       </c>
     </row>
-    <row r="79" spans="2:7">
-      <c r="B79" s="187" t="s">
+    <row r="79" spans="2:8">
+      <c r="B79" s="159" t="s">
         <v>223</v>
       </c>
       <c r="C79" s="5"/>
@@ -4897,8 +4937,8 @@
       <c r="F79" s="68"/>
       <c r="G79" s="5"/>
     </row>
-    <row r="80" spans="2:7">
-      <c r="B80" s="187"/>
+    <row r="80" spans="2:8">
+      <c r="B80" s="159"/>
       <c r="C80" s="5" t="s">
         <v>224</v>
       </c>
@@ -4912,7 +4952,7 @@
       <c r="G80" s="5"/>
     </row>
     <row r="81" spans="2:7">
-      <c r="B81" s="187"/>
+      <c r="B81" s="159"/>
       <c r="C81" s="5" t="s">
         <v>225</v>
       </c>
@@ -4926,7 +4966,7 @@
       <c r="G81" s="5"/>
     </row>
     <row r="82" spans="2:7">
-      <c r="B82" s="187"/>
+      <c r="B82" s="159"/>
       <c r="C82" s="115" t="s">
         <v>226</v>
       </c>
@@ -4938,7 +4978,7 @@
       <c r="G82" s="5"/>
     </row>
     <row r="83" spans="2:7">
-      <c r="B83" s="187"/>
+      <c r="B83" s="159"/>
       <c r="C83" s="5"/>
       <c r="D83" s="68"/>
       <c r="E83" s="113"/>
@@ -4950,7 +4990,7 @@
         <v>7.21</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D84" s="53"/>
       <c r="E84" s="118"/>
@@ -4974,6 +5014,12 @@
       </c>
     </row>
     <row r="86" spans="2:7">
+      <c r="B86" s="216">
+        <v>44039</v>
+      </c>
+      <c r="C86" s="115" t="s">
+        <v>244</v>
+      </c>
       <c r="D86" s="51"/>
       <c r="E86" s="52"/>
     </row>
@@ -4987,17 +5033,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B79:B83"/>
-    <mergeCell ref="B11:B48"/>
-    <mergeCell ref="B76:B78"/>
-    <mergeCell ref="C60:C63"/>
-    <mergeCell ref="C64:C67"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="B50:B75"/>
-    <mergeCell ref="C73:C75"/>
-    <mergeCell ref="C70:C72"/>
-    <mergeCell ref="C50:C54"/>
-    <mergeCell ref="C55:C59"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="C36:C40"/>
     <mergeCell ref="C41:C46"/>
@@ -5012,6 +5047,17 @@
     <mergeCell ref="B4:B9"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="C8:C9"/>
+    <mergeCell ref="B79:B83"/>
+    <mergeCell ref="B11:B48"/>
+    <mergeCell ref="B76:B78"/>
+    <mergeCell ref="C60:C63"/>
+    <mergeCell ref="C64:C67"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="B50:B75"/>
+    <mergeCell ref="C73:C75"/>
+    <mergeCell ref="C70:C72"/>
+    <mergeCell ref="C50:C54"/>
+    <mergeCell ref="C55:C59"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/结算数据监控平台开发计划.xlsx
+++ b/结算数据监控平台开发计划.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicker/sandbox/settlementMonitoring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{529E29BE-AC9A-D845-AAC9-0AA98CFA610F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{828A1587-6FA5-2844-8B3F-C486218928AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2880" yWindow="460" windowWidth="26540" windowHeight="18920" activeTab="3" xr2:uid="{AD2C15C8-2DE4-104B-A764-E65CC8F0AEA6}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="245">
   <si>
     <t>ETX联网结算平台</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -763,10 +763,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3、查询  30 日 内  省内结算概览</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>4、今日消息数量监控</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1148,6 +1144,10 @@
   </si>
   <si>
     <t>增加：停车场的结算趋势</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3、查询  30 日 内  省内结算趋势概览</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1878,6 +1878,15 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2159,15 +2168,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2665,16 +2665,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="18" customHeight="1">
-      <c r="B1" s="121" t="s">
+      <c r="B1" s="124" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="124"/>
     </row>
     <row r="2" spans="2:5">
-      <c r="B2" s="122"/>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
+      <c r="B2" s="125"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="125"/>
     </row>
     <row r="3" spans="2:5">
       <c r="B3" s="3" t="s">
@@ -2710,7 +2710,7 @@
       <c r="D5" s="2"/>
     </row>
     <row r="6" spans="2:5">
-      <c r="B6" s="123" t="s">
+      <c r="B6" s="126" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -2724,7 +2724,7 @@
       </c>
     </row>
     <row r="7" spans="2:5">
-      <c r="B7" s="123"/>
+      <c r="B7" s="126"/>
       <c r="C7" s="4" t="s">
         <v>39</v>
       </c>
@@ -2734,7 +2734,7 @@
       </c>
     </row>
     <row r="8" spans="2:5">
-      <c r="B8" s="125" t="s">
+      <c r="B8" s="128" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="5" t="s">
@@ -2748,7 +2748,7 @@
       </c>
     </row>
     <row r="9" spans="2:5">
-      <c r="B9" s="125"/>
+      <c r="B9" s="128"/>
       <c r="C9" s="5" t="s">
         <v>43</v>
       </c>
@@ -2784,7 +2784,7 @@
       <c r="D13" s="2"/>
     </row>
     <row r="14" spans="2:5">
-      <c r="B14" s="124" t="s">
+      <c r="B14" s="127" t="s">
         <v>45</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -2798,7 +2798,7 @@
       </c>
     </row>
     <row r="15" spans="2:5">
-      <c r="B15" s="124"/>
+      <c r="B15" s="127"/>
       <c r="C15" s="2" t="s">
         <v>27</v>
       </c>
@@ -2808,7 +2808,7 @@
       <c r="E15" s="11"/>
     </row>
     <row r="16" spans="2:5">
-      <c r="B16" s="124"/>
+      <c r="B16" s="127"/>
       <c r="C16" s="2" t="s">
         <v>28</v>
       </c>
@@ -2818,7 +2818,7 @@
       <c r="E16" s="11"/>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="124"/>
+      <c r="B17" s="127"/>
       <c r="C17" s="2" t="s">
         <v>29</v>
       </c>
@@ -2838,7 +2838,7 @@
       <c r="D19" s="2"/>
     </row>
     <row r="20" spans="2:5">
-      <c r="B20" s="120" t="s">
+      <c r="B20" s="123" t="s">
         <v>51</v>
       </c>
       <c r="C20" s="7" t="s">
@@ -2847,35 +2847,35 @@
       <c r="D20" s="2"/>
     </row>
     <row r="21" spans="2:5">
-      <c r="B21" s="120"/>
+      <c r="B21" s="123"/>
       <c r="C21" s="7" t="s">
         <v>34</v>
       </c>
       <c r="D21" s="2"/>
     </row>
     <row r="22" spans="2:5">
-      <c r="B22" s="120"/>
+      <c r="B22" s="123"/>
       <c r="C22" s="7" t="s">
         <v>53</v>
       </c>
       <c r="D22" s="2"/>
     </row>
     <row r="23" spans="2:5">
-      <c r="B23" s="120"/>
+      <c r="B23" s="123"/>
       <c r="C23" s="7" t="s">
         <v>54</v>
       </c>
       <c r="D23" s="2"/>
     </row>
     <row r="24" spans="2:5">
-      <c r="B24" s="120"/>
+      <c r="B24" s="123"/>
       <c r="C24" s="7" t="s">
         <v>55</v>
       </c>
       <c r="D24" s="2"/>
     </row>
     <row r="25" spans="2:5">
-      <c r="B25" s="120"/>
+      <c r="B25" s="123"/>
       <c r="C25" s="2" t="s">
         <v>56</v>
       </c>
@@ -2979,13 +2979,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="30">
-      <c r="B2" s="129" t="s">
+      <c r="B2" s="132" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="130"/>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="131"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="133"/>
+      <c r="E2" s="133"/>
+      <c r="F2" s="134"/>
     </row>
     <row r="3" spans="2:8">
       <c r="B3" s="25"/>
@@ -2998,7 +2998,7 @@
       <c r="B4" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="C4" s="135" t="s">
+      <c r="C4" s="138" t="s">
         <v>60</v>
       </c>
       <c r="D4" s="14" t="s">
@@ -3017,7 +3017,7 @@
     </row>
     <row r="5" spans="2:8" ht="18">
       <c r="B5" s="23"/>
-      <c r="C5" s="136"/>
+      <c r="C5" s="139"/>
       <c r="D5" s="15" t="s">
         <v>129</v>
       </c>
@@ -3028,7 +3028,7 @@
     </row>
     <row r="6" spans="2:8" ht="18">
       <c r="B6" s="23"/>
-      <c r="C6" s="136"/>
+      <c r="C6" s="139"/>
       <c r="D6" s="15" t="s">
         <v>130</v>
       </c>
@@ -3037,7 +3037,7 @@
     </row>
     <row r="7" spans="2:8" ht="18">
       <c r="B7" s="23"/>
-      <c r="C7" s="137"/>
+      <c r="C7" s="140"/>
       <c r="D7" s="15" t="s">
         <v>131</v>
       </c>
@@ -3057,7 +3057,7 @@
     </row>
     <row r="9" spans="2:8" ht="17">
       <c r="B9" s="23"/>
-      <c r="C9" s="138" t="s">
+      <c r="C9" s="141" t="s">
         <v>114</v>
       </c>
       <c r="D9" s="15"/>
@@ -3066,7 +3066,7 @@
     </row>
     <row r="10" spans="2:8" ht="16" customHeight="1">
       <c r="B10" s="23"/>
-      <c r="C10" s="139"/>
+      <c r="C10" s="142"/>
       <c r="D10" s="15" t="s">
         <v>62</v>
       </c>
@@ -3075,7 +3075,7 @@
     </row>
     <row r="11" spans="2:8" ht="18" customHeight="1">
       <c r="B11" s="23"/>
-      <c r="C11" s="139"/>
+      <c r="C11" s="142"/>
       <c r="D11" s="15" t="s">
         <v>65</v>
       </c>
@@ -3086,7 +3086,7 @@
     </row>
     <row r="12" spans="2:8" ht="18">
       <c r="B12" s="23"/>
-      <c r="C12" s="139"/>
+      <c r="C12" s="142"/>
       <c r="D12" s="15" t="s">
         <v>66</v>
       </c>
@@ -3097,7 +3097,7 @@
     </row>
     <row r="13" spans="2:8" ht="36">
       <c r="B13" s="23"/>
-      <c r="C13" s="139"/>
+      <c r="C13" s="142"/>
       <c r="D13" s="15" t="s">
         <v>68</v>
       </c>
@@ -3108,7 +3108,7 @@
     </row>
     <row r="14" spans="2:8" ht="18">
       <c r="B14" s="23"/>
-      <c r="C14" s="140"/>
+      <c r="C14" s="143"/>
       <c r="D14" s="16" t="s">
         <v>70</v>
       </c>
@@ -3153,7 +3153,7 @@
     </row>
     <row r="19" spans="2:6" ht="18">
       <c r="B19" s="23"/>
-      <c r="C19" s="141"/>
+      <c r="C19" s="144"/>
       <c r="D19" s="15" t="s">
         <v>132</v>
       </c>
@@ -3162,7 +3162,7 @@
     </row>
     <row r="20" spans="2:6" ht="18">
       <c r="B20" s="23"/>
-      <c r="C20" s="142"/>
+      <c r="C20" s="145"/>
       <c r="D20" s="15" t="s">
         <v>133</v>
       </c>
@@ -3171,28 +3171,28 @@
     </row>
     <row r="21" spans="2:6" ht="17">
       <c r="B21" s="23"/>
-      <c r="C21" s="142"/>
+      <c r="C21" s="145"/>
       <c r="D21" s="15"/>
       <c r="E21" s="15"/>
       <c r="F21" s="2"/>
     </row>
     <row r="22" spans="2:6" ht="17">
       <c r="B22" s="23"/>
-      <c r="C22" s="142"/>
+      <c r="C22" s="145"/>
       <c r="D22" s="15"/>
       <c r="E22" s="15"/>
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="2:6" ht="17">
       <c r="B23" s="23"/>
-      <c r="C23" s="142"/>
+      <c r="C23" s="145"/>
       <c r="D23" s="15"/>
       <c r="E23" s="15"/>
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="2:6" ht="17">
       <c r="B24" s="23"/>
-      <c r="C24" s="143"/>
+      <c r="C24" s="146"/>
       <c r="D24" s="16"/>
       <c r="E24" s="15"/>
       <c r="F24" s="2"/>
@@ -3226,7 +3226,7 @@
     </row>
     <row r="29" spans="2:6" ht="18">
       <c r="B29" s="23"/>
-      <c r="C29" s="144" t="s">
+      <c r="C29" s="147" t="s">
         <v>78</v>
       </c>
       <c r="D29" s="15" t="s">
@@ -3236,7 +3236,7 @@
     </row>
     <row r="30" spans="2:6" ht="16" customHeight="1">
       <c r="B30" s="23"/>
-      <c r="C30" s="145"/>
+      <c r="C30" s="148"/>
       <c r="D30" s="15" t="s">
         <v>79</v>
       </c>
@@ -3252,7 +3252,7 @@
     </row>
     <row r="32" spans="2:6" ht="36">
       <c r="B32" s="23"/>
-      <c r="C32" s="146" t="s">
+      <c r="C32" s="149" t="s">
         <v>80</v>
       </c>
       <c r="D32" s="15" t="s">
@@ -3265,7 +3265,7 @@
     </row>
     <row r="33" spans="2:6" ht="17">
       <c r="B33" s="23"/>
-      <c r="C33" s="147"/>
+      <c r="C33" s="150"/>
       <c r="D33" s="2" t="s">
         <v>116</v>
       </c>
@@ -3285,7 +3285,7 @@
     </row>
     <row r="35" spans="2:6" ht="16" customHeight="1">
       <c r="B35" s="23"/>
-      <c r="C35" s="148" t="s">
+      <c r="C35" s="151" t="s">
         <v>85</v>
       </c>
       <c r="D35" s="15" t="s">
@@ -3295,8 +3295,8 @@
       <c r="F35" s="15"/>
     </row>
     <row r="36" spans="2:6" ht="18">
-      <c r="B36" s="150"/>
-      <c r="C36" s="149"/>
+      <c r="B36" s="153"/>
+      <c r="C36" s="152"/>
       <c r="D36" s="15" t="s">
         <v>87</v>
       </c>
@@ -3304,7 +3304,7 @@
       <c r="F36" s="15"/>
     </row>
     <row r="37" spans="2:6" ht="18">
-      <c r="B37" s="151"/>
+      <c r="B37" s="154"/>
       <c r="C37" s="15"/>
       <c r="D37" s="15" t="s">
         <v>117</v>
@@ -3313,14 +3313,14 @@
       <c r="F37" s="15"/>
     </row>
     <row r="38" spans="2:6">
-      <c r="B38" s="151"/>
+      <c r="B38" s="154"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
     </row>
     <row r="39" spans="2:6" ht="17">
-      <c r="B39" s="151"/>
+      <c r="B39" s="154"/>
       <c r="C39" s="24" t="s">
         <v>88</v>
       </c>
@@ -3331,15 +3331,15 @@
       <c r="F39" s="2"/>
     </row>
     <row r="40" spans="2:6" ht="16" customHeight="1">
-      <c r="B40" s="151"/>
+      <c r="B40" s="154"/>
       <c r="C40" s="13"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
     </row>
     <row r="41" spans="2:6">
-      <c r="B41" s="151"/>
-      <c r="C41" s="153" t="s">
+      <c r="B41" s="154"/>
+      <c r="C41" s="156" t="s">
         <v>102</v>
       </c>
       <c r="D41" s="2" t="s">
@@ -3349,8 +3349,8 @@
       <c r="F41" s="2"/>
     </row>
     <row r="42" spans="2:6">
-      <c r="B42" s="151"/>
-      <c r="C42" s="154"/>
+      <c r="B42" s="154"/>
+      <c r="C42" s="157"/>
       <c r="D42" s="2" t="s">
         <v>104</v>
       </c>
@@ -3358,8 +3358,8 @@
       <c r="F42" s="2"/>
     </row>
     <row r="43" spans="2:6" ht="17" customHeight="1">
-      <c r="B43" s="151"/>
-      <c r="C43" s="154"/>
+      <c r="B43" s="154"/>
+      <c r="C43" s="157"/>
       <c r="D43" s="2" t="s">
         <v>105</v>
       </c>
@@ -3367,8 +3367,8 @@
       <c r="F43" s="2"/>
     </row>
     <row r="44" spans="2:6" ht="17" customHeight="1">
-      <c r="B44" s="151"/>
-      <c r="C44" s="154"/>
+      <c r="B44" s="154"/>
+      <c r="C44" s="157"/>
       <c r="D44" s="2" t="s">
         <v>106</v>
       </c>
@@ -3376,8 +3376,8 @@
       <c r="F44" s="2"/>
     </row>
     <row r="45" spans="2:6" ht="17" customHeight="1">
-      <c r="B45" s="151"/>
-      <c r="C45" s="154"/>
+      <c r="B45" s="154"/>
+      <c r="C45" s="157"/>
       <c r="D45" s="2" t="s">
         <v>107</v>
       </c>
@@ -3385,8 +3385,8 @@
       <c r="F45" s="2"/>
     </row>
     <row r="46" spans="2:6" ht="17" customHeight="1">
-      <c r="B46" s="151"/>
-      <c r="C46" s="154"/>
+      <c r="B46" s="154"/>
+      <c r="C46" s="157"/>
       <c r="D46" s="20" t="s">
         <v>108</v>
       </c>
@@ -3394,8 +3394,8 @@
       <c r="F46" s="2"/>
     </row>
     <row r="47" spans="2:6" ht="17" customHeight="1">
-      <c r="B47" s="151"/>
-      <c r="C47" s="154"/>
+      <c r="B47" s="154"/>
+      <c r="C47" s="157"/>
       <c r="D47" s="2" t="s">
         <v>109</v>
       </c>
@@ -3403,8 +3403,8 @@
       <c r="F47" s="2"/>
     </row>
     <row r="48" spans="2:6" ht="17" customHeight="1">
-      <c r="B48" s="151"/>
-      <c r="C48" s="154"/>
+      <c r="B48" s="154"/>
+      <c r="C48" s="157"/>
       <c r="D48" s="21" t="s">
         <v>110</v>
       </c>
@@ -3412,8 +3412,8 @@
       <c r="F48" s="2"/>
     </row>
     <row r="49" spans="2:6" ht="17" customHeight="1">
-      <c r="B49" s="151"/>
-      <c r="C49" s="155"/>
+      <c r="B49" s="154"/>
+      <c r="C49" s="158"/>
       <c r="D49" s="21" t="s">
         <v>111</v>
       </c>
@@ -3421,13 +3421,13 @@
       <c r="F49" s="2"/>
     </row>
     <row r="50" spans="2:6" ht="17" customHeight="1">
-      <c r="B50" s="151"/>
+      <c r="B50" s="154"/>
       <c r="C50" s="2"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
     </row>
     <row r="51" spans="2:6" ht="17" customHeight="1">
-      <c r="B51" s="152"/>
+      <c r="B51" s="155"/>
       <c r="C51" s="2"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
@@ -3440,10 +3440,10 @@
       <c r="F52" s="2"/>
     </row>
     <row r="53" spans="2:6" ht="17" customHeight="1">
-      <c r="B53" s="132" t="s">
+      <c r="B53" s="135" t="s">
         <v>89</v>
       </c>
-      <c r="C53" s="156" t="s">
+      <c r="C53" s="159" t="s">
         <v>60</v>
       </c>
       <c r="D53" s="14" t="s">
@@ -3455,8 +3455,8 @@
       <c r="F53" s="2"/>
     </row>
     <row r="54" spans="2:6" ht="18">
-      <c r="B54" s="133"/>
-      <c r="C54" s="157"/>
+      <c r="B54" s="136"/>
+      <c r="C54" s="160"/>
       <c r="D54" s="15" t="s">
         <v>91</v>
       </c>
@@ -3466,8 +3466,8 @@
       <c r="F54" s="2"/>
     </row>
     <row r="55" spans="2:6" ht="18">
-      <c r="B55" s="133"/>
-      <c r="C55" s="157"/>
+      <c r="B55" s="136"/>
+      <c r="C55" s="160"/>
       <c r="D55" s="15" t="s">
         <v>121</v>
       </c>
@@ -3477,8 +3477,8 @@
       <c r="F55" s="2"/>
     </row>
     <row r="56" spans="2:6" ht="18">
-      <c r="B56" s="133"/>
-      <c r="C56" s="158"/>
+      <c r="B56" s="136"/>
+      <c r="C56" s="161"/>
       <c r="D56" s="15" t="s">
         <v>119</v>
       </c>
@@ -3488,15 +3488,15 @@
       <c r="F56" s="2"/>
     </row>
     <row r="57" spans="2:6">
-      <c r="B57" s="133"/>
+      <c r="B57" s="136"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
     </row>
     <row r="58" spans="2:6" ht="17">
-      <c r="B58" s="133"/>
-      <c r="C58" s="126" t="s">
+      <c r="B58" s="136"/>
+      <c r="C58" s="129" t="s">
         <v>123</v>
       </c>
       <c r="D58" s="15"/>
@@ -3504,8 +3504,8 @@
       <c r="F58" s="15"/>
     </row>
     <row r="59" spans="2:6" ht="18">
-      <c r="B59" s="133"/>
-      <c r="C59" s="127"/>
+      <c r="B59" s="136"/>
+      <c r="C59" s="130"/>
       <c r="D59" s="15" t="s">
         <v>62</v>
       </c>
@@ -3517,8 +3517,8 @@
       </c>
     </row>
     <row r="60" spans="2:6" ht="18" customHeight="1">
-      <c r="B60" s="133"/>
-      <c r="C60" s="127"/>
+      <c r="B60" s="136"/>
+      <c r="C60" s="130"/>
       <c r="D60" s="15" t="s">
         <v>65</v>
       </c>
@@ -3528,8 +3528,8 @@
       <c r="F60" s="15"/>
     </row>
     <row r="61" spans="2:6" ht="18">
-      <c r="B61" s="133"/>
-      <c r="C61" s="127"/>
+      <c r="B61" s="136"/>
+      <c r="C61" s="130"/>
       <c r="D61" s="15" t="s">
         <v>66</v>
       </c>
@@ -3539,8 +3539,8 @@
       <c r="F61" s="15"/>
     </row>
     <row r="62" spans="2:6" ht="36">
-      <c r="B62" s="133"/>
-      <c r="C62" s="127"/>
+      <c r="B62" s="136"/>
+      <c r="C62" s="130"/>
       <c r="D62" s="15" t="s">
         <v>101</v>
       </c>
@@ -3550,8 +3550,8 @@
       <c r="F62" s="15"/>
     </row>
     <row r="63" spans="2:6" ht="18">
-      <c r="B63" s="133"/>
-      <c r="C63" s="128"/>
+      <c r="B63" s="136"/>
+      <c r="C63" s="131"/>
       <c r="D63" s="15" t="s">
         <v>93</v>
       </c>
@@ -3561,21 +3561,21 @@
       <c r="F63" s="15"/>
     </row>
     <row r="64" spans="2:6" ht="17">
-      <c r="B64" s="133"/>
+      <c r="B64" s="136"/>
       <c r="C64" s="15"/>
       <c r="D64" s="15"/>
       <c r="E64" s="15"/>
       <c r="F64" s="15"/>
     </row>
     <row r="65" spans="2:6">
-      <c r="B65" s="133"/>
+      <c r="B65" s="136"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
     </row>
     <row r="66" spans="2:6" ht="18">
-      <c r="B66" s="133"/>
+      <c r="B66" s="136"/>
       <c r="C66" s="15" t="s">
         <v>100</v>
       </c>
@@ -3586,14 +3586,14 @@
       <c r="F66" s="15"/>
     </row>
     <row r="67" spans="2:6" ht="17">
-      <c r="B67" s="133"/>
+      <c r="B67" s="136"/>
       <c r="C67" s="15"/>
       <c r="D67" s="15"/>
       <c r="E67" s="15"/>
       <c r="F67" s="15"/>
     </row>
     <row r="68" spans="2:6" ht="18">
-      <c r="B68" s="133"/>
+      <c r="B68" s="136"/>
       <c r="C68" s="15" t="s">
         <v>74</v>
       </c>
@@ -3604,7 +3604,7 @@
       <c r="F68" s="15"/>
     </row>
     <row r="69" spans="2:6" ht="18">
-      <c r="B69" s="133"/>
+      <c r="B69" s="136"/>
       <c r="C69" s="15"/>
       <c r="D69" s="15"/>
       <c r="E69" s="15" t="s">
@@ -3613,7 +3613,7 @@
       <c r="F69" s="15"/>
     </row>
     <row r="70" spans="2:6" ht="18">
-      <c r="B70" s="133"/>
+      <c r="B70" s="136"/>
       <c r="C70" s="15"/>
       <c r="D70" s="15"/>
       <c r="E70" s="15" t="s">
@@ -3622,35 +3622,35 @@
       <c r="F70" s="15"/>
     </row>
     <row r="71" spans="2:6" ht="17">
-      <c r="B71" s="133"/>
+      <c r="B71" s="136"/>
       <c r="C71" s="15"/>
       <c r="D71" s="15"/>
       <c r="E71" s="15"/>
       <c r="F71" s="15"/>
     </row>
     <row r="72" spans="2:6" ht="17">
-      <c r="B72" s="133"/>
+      <c r="B72" s="136"/>
       <c r="C72" s="15"/>
       <c r="D72" s="15"/>
       <c r="E72" s="15"/>
       <c r="F72" s="15"/>
     </row>
     <row r="73" spans="2:6" ht="17">
-      <c r="B73" s="133"/>
+      <c r="B73" s="136"/>
       <c r="C73" s="15"/>
       <c r="D73" s="15"/>
       <c r="E73" s="16"/>
       <c r="F73" s="15"/>
     </row>
     <row r="74" spans="2:6" ht="17">
-      <c r="B74" s="133"/>
+      <c r="B74" s="136"/>
       <c r="C74" s="15"/>
       <c r="D74" s="15"/>
       <c r="E74" s="15"/>
       <c r="F74" s="15"/>
     </row>
     <row r="75" spans="2:6" ht="18">
-      <c r="B75" s="133"/>
+      <c r="B75" s="136"/>
       <c r="C75" s="15" t="s">
         <v>77</v>
       </c>
@@ -3659,21 +3659,21 @@
       <c r="F75" s="14"/>
     </row>
     <row r="76" spans="2:6">
-      <c r="B76" s="133"/>
+      <c r="B76" s="136"/>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
     </row>
     <row r="77" spans="2:6">
-      <c r="B77" s="133"/>
+      <c r="B77" s="136"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
     </row>
     <row r="78" spans="2:6" ht="18">
-      <c r="B78" s="133"/>
+      <c r="B78" s="136"/>
       <c r="C78" s="15" t="s">
         <v>95</v>
       </c>
@@ -3682,7 +3682,7 @@
       <c r="F78" s="2"/>
     </row>
     <row r="79" spans="2:6" ht="18">
-      <c r="B79" s="133"/>
+      <c r="B79" s="136"/>
       <c r="C79" s="15"/>
       <c r="D79" s="15" t="s">
         <v>96</v>
@@ -3693,7 +3693,7 @@
       <c r="F79" s="2"/>
     </row>
     <row r="80" spans="2:6" ht="18">
-      <c r="B80" s="133"/>
+      <c r="B80" s="136"/>
       <c r="C80" s="15"/>
       <c r="D80" s="15" t="s">
         <v>97</v>
@@ -3704,14 +3704,14 @@
       <c r="F80" s="2"/>
     </row>
     <row r="81" spans="2:6">
-      <c r="B81" s="133"/>
+      <c r="B81" s="136"/>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
     </row>
     <row r="82" spans="2:6">
-      <c r="B82" s="133"/>
+      <c r="B82" s="136"/>
       <c r="C82" s="2" t="s">
         <v>98</v>
       </c>
@@ -3720,10 +3720,10 @@
       <c r="F82" s="2"/>
     </row>
     <row r="83" spans="2:6">
-      <c r="B83" s="133"/>
+      <c r="B83" s="136"/>
     </row>
     <row r="84" spans="2:6">
-      <c r="B84" s="134"/>
+      <c r="B84" s="137"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -3750,8 +3750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E10E9005-F9D0-4E45-A602-C89B60257518}">
   <dimension ref="B2:H88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="94" workbookViewId="0">
-      <selection activeCell="G69" sqref="G69"/>
+    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="94" workbookViewId="0">
+      <selection activeCell="G68" sqref="G68:G75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3765,14 +3765,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="30">
-      <c r="B2" s="129" t="s">
+      <c r="B2" s="132" t="s">
         <v>135</v>
       </c>
-      <c r="C2" s="130"/>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="131"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="133"/>
+      <c r="E2" s="133"/>
+      <c r="F2" s="133"/>
+      <c r="G2" s="134"/>
     </row>
     <row r="3" spans="2:8">
       <c r="B3" s="25" t="s">
@@ -3796,108 +3796,108 @@
       <c r="H3" s="117"/>
     </row>
     <row r="4" spans="2:8">
-      <c r="B4" s="208" t="s">
+      <c r="B4" s="211" t="s">
+        <v>171</v>
+      </c>
+      <c r="C4" s="214" t="s">
         <v>172</v>
       </c>
-      <c r="C4" s="211" t="s">
-        <v>173</v>
-      </c>
       <c r="D4" s="70" t="s">
+        <v>165</v>
+      </c>
+      <c r="E4" s="71" t="s">
+        <v>176</v>
+      </c>
+      <c r="F4" s="81" t="s">
+        <v>180</v>
+      </c>
+      <c r="G4" s="34" t="s">
+        <v>174</v>
+      </c>
+      <c r="H4" s="117"/>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" s="212"/>
+      <c r="C5" s="215"/>
+      <c r="D5" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="E4" s="71" t="s">
+      <c r="E5" s="71" t="s">
         <v>177</v>
-      </c>
-      <c r="F4" s="81" t="s">
-        <v>181</v>
-      </c>
-      <c r="G4" s="34" t="s">
-        <v>175</v>
-      </c>
-      <c r="H4" s="117"/>
-    </row>
-    <row r="5" spans="2:8">
-      <c r="B5" s="209"/>
-      <c r="C5" s="212"/>
-      <c r="D5" s="70" t="s">
-        <v>167</v>
-      </c>
-      <c r="E5" s="71" t="s">
-        <v>178</v>
       </c>
       <c r="F5" s="82">
         <v>44015</v>
       </c>
       <c r="G5" s="34" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H5" s="117"/>
     </row>
     <row r="6" spans="2:8">
-      <c r="B6" s="209"/>
-      <c r="C6" s="213"/>
+      <c r="B6" s="212"/>
+      <c r="C6" s="216"/>
       <c r="D6" s="70" t="s">
+        <v>167</v>
+      </c>
+      <c r="E6" s="71" t="s">
+        <v>178</v>
+      </c>
+      <c r="F6" s="83" t="s">
+        <v>181</v>
+      </c>
+      <c r="G6" s="34" t="s">
+        <v>174</v>
+      </c>
+      <c r="H6" s="117"/>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" s="212"/>
+      <c r="C7" s="72" t="s">
         <v>168</v>
       </c>
-      <c r="E6" s="71" t="s">
+      <c r="D7" s="72" t="s">
+        <v>168</v>
+      </c>
+      <c r="E7" s="73" t="s">
         <v>179</v>
-      </c>
-      <c r="F6" s="83" t="s">
-        <v>182</v>
-      </c>
-      <c r="G6" s="34" t="s">
-        <v>175</v>
-      </c>
-      <c r="H6" s="117"/>
-    </row>
-    <row r="7" spans="2:8">
-      <c r="B7" s="209"/>
-      <c r="C7" s="72" t="s">
-        <v>169</v>
-      </c>
-      <c r="D7" s="72" t="s">
-        <v>169</v>
-      </c>
-      <c r="E7" s="73" t="s">
-        <v>180</v>
       </c>
       <c r="F7" s="84">
         <v>44020</v>
       </c>
       <c r="G7" s="74" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H7" s="117"/>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="209"/>
-      <c r="C8" s="195" t="s">
-        <v>174</v>
+      <c r="B8" s="212"/>
+      <c r="C8" s="198" t="s">
+        <v>173</v>
       </c>
       <c r="D8" s="75" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E8" s="67"/>
       <c r="F8" s="85" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G8" s="37" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H8" s="117"/>
     </row>
     <row r="9" spans="2:8">
-      <c r="B9" s="210"/>
-      <c r="C9" s="197"/>
+      <c r="B9" s="213"/>
+      <c r="C9" s="200"/>
       <c r="D9" s="75" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E9" s="67"/>
       <c r="F9" s="86">
         <v>44021</v>
       </c>
       <c r="G9" s="37" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H9" s="117"/>
     </row>
@@ -3911,46 +3911,46 @@
       <c r="H10" s="117"/>
     </row>
     <row r="11" spans="2:8" ht="36" customHeight="1">
-      <c r="B11" s="160" t="s">
+      <c r="B11" s="163" t="s">
         <v>99</v>
       </c>
-      <c r="C11" s="198" t="s">
+      <c r="C11" s="201" t="s">
         <v>144</v>
       </c>
       <c r="D11" s="27" t="s">
         <v>143</v>
       </c>
       <c r="E11" s="54" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F11" s="87" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G11" s="76" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H11" s="117"/>
     </row>
     <row r="12" spans="2:8" ht="18">
-      <c r="B12" s="161"/>
-      <c r="C12" s="199"/>
+      <c r="B12" s="164"/>
+      <c r="C12" s="202"/>
       <c r="D12" s="27" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E12" s="54"/>
       <c r="F12" s="88">
         <v>44025</v>
       </c>
       <c r="G12" s="76" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H12" s="117"/>
     </row>
     <row r="13" spans="2:8" ht="18">
-      <c r="B13" s="161"/>
-      <c r="C13" s="199"/>
+      <c r="B13" s="164"/>
+      <c r="C13" s="202"/>
       <c r="D13" s="28" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E13" s="48" t="s">
         <v>126</v>
@@ -3959,235 +3959,235 @@
         <v>44025</v>
       </c>
       <c r="G13" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H13" s="117"/>
     </row>
     <row r="14" spans="2:8" ht="18">
-      <c r="B14" s="161"/>
-      <c r="C14" s="199"/>
+      <c r="B14" s="164"/>
+      <c r="C14" s="202"/>
       <c r="D14" s="28" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E14" s="54" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F14" s="89">
         <v>44025</v>
       </c>
       <c r="G14" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H14" s="117"/>
     </row>
     <row r="15" spans="2:8" ht="36">
-      <c r="B15" s="161"/>
-      <c r="C15" s="199"/>
+      <c r="B15" s="164"/>
+      <c r="C15" s="202"/>
       <c r="D15" s="28" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E15" s="54" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F15" s="89">
         <v>44026</v>
       </c>
       <c r="G15" s="76" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H15" s="117"/>
     </row>
     <row r="16" spans="2:8" ht="17" customHeight="1">
-      <c r="B16" s="161"/>
-      <c r="C16" s="200"/>
+      <c r="B16" s="164"/>
+      <c r="C16" s="203"/>
       <c r="D16" s="29" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E16" s="55"/>
       <c r="F16" s="89">
         <v>44026</v>
       </c>
       <c r="G16" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H16" s="117"/>
     </row>
     <row r="17" spans="2:8" ht="18">
-      <c r="B17" s="161"/>
-      <c r="C17" s="146" t="s">
+      <c r="B17" s="164"/>
+      <c r="C17" s="149" t="s">
         <v>114</v>
       </c>
       <c r="D17" s="30" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E17" s="56" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F17" s="90">
         <v>44027</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H17" s="117"/>
     </row>
     <row r="18" spans="2:8" ht="18">
-      <c r="B18" s="161"/>
-      <c r="C18" s="201"/>
+      <c r="B18" s="164"/>
+      <c r="C18" s="204"/>
       <c r="D18" s="31" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E18" s="56"/>
       <c r="F18" s="90">
         <v>44027</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H18" s="117"/>
     </row>
     <row r="19" spans="2:8" ht="18">
-      <c r="B19" s="161"/>
-      <c r="C19" s="201"/>
+      <c r="B19" s="164"/>
+      <c r="C19" s="204"/>
       <c r="D19" s="31" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E19" s="56"/>
       <c r="F19" s="90">
         <v>44027</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H19" s="117"/>
     </row>
     <row r="20" spans="2:8" ht="18">
-      <c r="B20" s="161"/>
-      <c r="C20" s="201"/>
+      <c r="B20" s="164"/>
+      <c r="C20" s="204"/>
       <c r="D20" s="31" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E20" s="56"/>
       <c r="F20" s="90">
         <v>44028</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H20" s="117"/>
     </row>
     <row r="21" spans="2:8" ht="18">
-      <c r="B21" s="161"/>
-      <c r="C21" s="201"/>
+      <c r="B21" s="164"/>
+      <c r="C21" s="204"/>
       <c r="D21" s="31" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E21" s="56"/>
       <c r="F21" s="90">
         <v>44028</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H21" s="117"/>
     </row>
     <row r="22" spans="2:8" ht="18">
-      <c r="B22" s="161"/>
-      <c r="C22" s="201"/>
+      <c r="B22" s="164"/>
+      <c r="C22" s="204"/>
       <c r="D22" s="31" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E22" s="56"/>
       <c r="F22" s="90">
         <v>44029</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H22" s="117"/>
     </row>
     <row r="23" spans="2:8" ht="18">
-      <c r="B23" s="161"/>
-      <c r="C23" s="147"/>
+      <c r="B23" s="164"/>
+      <c r="C23" s="150"/>
       <c r="D23" s="31" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E23" s="57"/>
       <c r="F23" s="90">
         <v>44029</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H23" s="117"/>
     </row>
     <row r="24" spans="2:8" ht="18">
-      <c r="B24" s="161"/>
-      <c r="C24" s="202" t="s">
+      <c r="B24" s="164"/>
+      <c r="C24" s="205" t="s">
         <v>145</v>
       </c>
       <c r="D24" s="32" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E24" s="58" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F24" s="91">
         <v>44032</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H24" s="117"/>
     </row>
     <row r="25" spans="2:8" ht="18">
-      <c r="B25" s="161"/>
-      <c r="C25" s="203"/>
+      <c r="B25" s="164"/>
+      <c r="C25" s="206"/>
       <c r="D25" s="19" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E25" s="58"/>
       <c r="F25" s="91">
         <v>44032</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H25" s="117"/>
     </row>
     <row r="26" spans="2:8" ht="18">
-      <c r="B26" s="161"/>
-      <c r="C26" s="203"/>
+      <c r="B26" s="164"/>
+      <c r="C26" s="206"/>
       <c r="D26" s="19" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E26" s="58"/>
       <c r="F26" s="91">
         <v>44032</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H26" s="117"/>
     </row>
     <row r="27" spans="2:8" ht="18">
-      <c r="B27" s="161"/>
-      <c r="C27" s="203"/>
+      <c r="B27" s="164"/>
+      <c r="C27" s="206"/>
       <c r="D27" s="19" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E27" s="58"/>
       <c r="F27" s="92">
         <v>44032</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H27" s="117"/>
     </row>
     <row r="28" spans="2:8" ht="17">
-      <c r="B28" s="161"/>
-      <c r="C28" s="204"/>
+      <c r="B28" s="164"/>
+      <c r="C28" s="207"/>
       <c r="D28" s="19"/>
       <c r="E28" s="58"/>
       <c r="F28" s="93"/>
@@ -4195,316 +4195,316 @@
       <c r="H28" s="117"/>
     </row>
     <row r="29" spans="2:8" ht="18">
-      <c r="B29" s="161"/>
-      <c r="C29" s="205" t="s">
+      <c r="B29" s="164"/>
+      <c r="C29" s="208" t="s">
         <v>148</v>
       </c>
       <c r="D29" s="36" t="s">
         <v>146</v>
       </c>
       <c r="E29" s="59" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F29" s="94">
         <v>44033</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H29" s="117"/>
     </row>
     <row r="30" spans="2:8" ht="18">
-      <c r="B30" s="161"/>
-      <c r="C30" s="206"/>
+      <c r="B30" s="164"/>
+      <c r="C30" s="209"/>
       <c r="D30" s="36" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E30" s="59"/>
       <c r="F30" s="94">
         <v>44033</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H30" s="117"/>
     </row>
     <row r="31" spans="2:8" ht="36" customHeight="1">
-      <c r="B31" s="161"/>
-      <c r="C31" s="206"/>
+      <c r="B31" s="164"/>
+      <c r="C31" s="209"/>
       <c r="D31" s="36" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E31" s="59"/>
       <c r="F31" s="94">
         <v>44034</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H31" s="117"/>
     </row>
     <row r="32" spans="2:8" ht="54" customHeight="1">
-      <c r="B32" s="161"/>
-      <c r="C32" s="207"/>
+      <c r="B32" s="164"/>
+      <c r="C32" s="210"/>
       <c r="D32" s="59" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E32" s="78"/>
       <c r="F32" s="94">
         <v>44034</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H32" s="117"/>
     </row>
     <row r="33" spans="2:8" ht="16" customHeight="1">
-      <c r="B33" s="161"/>
-      <c r="C33" s="153" t="s">
+      <c r="B33" s="164"/>
+      <c r="C33" s="156" t="s">
         <v>88</v>
       </c>
-      <c r="D33" s="195" t="s">
-        <v>156</v>
+      <c r="D33" s="198" t="s">
+        <v>155</v>
       </c>
       <c r="E33" s="79" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F33" s="86">
         <v>44035</v>
       </c>
       <c r="G33" s="37" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H33" s="117"/>
     </row>
     <row r="34" spans="2:8" ht="16" customHeight="1">
-      <c r="B34" s="161"/>
-      <c r="C34" s="154"/>
-      <c r="D34" s="196"/>
+      <c r="B34" s="164"/>
+      <c r="C34" s="157"/>
+      <c r="D34" s="199"/>
       <c r="E34" s="79" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F34" s="86">
         <v>44035</v>
       </c>
       <c r="G34" s="37" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H34" s="117"/>
     </row>
     <row r="35" spans="2:8" ht="17" customHeight="1">
-      <c r="B35" s="161"/>
-      <c r="C35" s="155"/>
-      <c r="D35" s="197"/>
+      <c r="B35" s="164"/>
+      <c r="C35" s="158"/>
+      <c r="D35" s="200"/>
       <c r="E35" s="79" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F35" s="86">
         <v>44035</v>
       </c>
       <c r="G35" s="37" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H35" s="117"/>
     </row>
     <row r="36" spans="2:8" ht="16" customHeight="1">
-      <c r="B36" s="161"/>
-      <c r="C36" s="186" t="s">
+      <c r="B36" s="164"/>
+      <c r="C36" s="189" t="s">
         <v>149</v>
       </c>
-      <c r="D36" s="189" t="s">
-        <v>214</v>
+      <c r="D36" s="192" t="s">
+        <v>213</v>
       </c>
       <c r="E36" s="60" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F36" s="95">
         <v>44036</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H36" s="117"/>
     </row>
     <row r="37" spans="2:8" ht="16" customHeight="1">
-      <c r="B37" s="161"/>
-      <c r="C37" s="187"/>
-      <c r="D37" s="190"/>
+      <c r="B37" s="164"/>
+      <c r="C37" s="190"/>
+      <c r="D37" s="193"/>
       <c r="E37" s="60" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F37" s="95">
         <v>44039</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H37" s="117"/>
     </row>
     <row r="38" spans="2:8" ht="16" customHeight="1">
-      <c r="B38" s="161"/>
-      <c r="C38" s="187"/>
-      <c r="D38" s="190"/>
+      <c r="B38" s="164"/>
+      <c r="C38" s="190"/>
+      <c r="D38" s="193"/>
       <c r="E38" s="60" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F38" s="95">
         <v>44039</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H38" s="117"/>
     </row>
     <row r="39" spans="2:8" ht="16" customHeight="1">
-      <c r="B39" s="161"/>
-      <c r="C39" s="187"/>
-      <c r="D39" s="190"/>
+      <c r="B39" s="164"/>
+      <c r="C39" s="190"/>
+      <c r="D39" s="193"/>
       <c r="E39" s="60" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F39" s="96" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H39" s="117"/>
     </row>
     <row r="40" spans="2:8" ht="16" customHeight="1">
-      <c r="B40" s="161"/>
-      <c r="C40" s="187"/>
-      <c r="D40" s="191"/>
+      <c r="B40" s="164"/>
+      <c r="C40" s="190"/>
+      <c r="D40" s="194"/>
       <c r="E40" s="60"/>
       <c r="F40" s="96"/>
       <c r="G40" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H40" s="117"/>
     </row>
     <row r="41" spans="2:8" ht="16" customHeight="1">
-      <c r="B41" s="161"/>
-      <c r="C41" s="188" t="s">
+      <c r="B41" s="164"/>
+      <c r="C41" s="191" t="s">
         <v>150</v>
       </c>
-      <c r="D41" s="192"/>
+      <c r="D41" s="195"/>
       <c r="E41" s="61" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F41" s="97">
         <v>44040</v>
       </c>
       <c r="G41" s="40" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H41" s="117"/>
     </row>
     <row r="42" spans="2:8" ht="16" customHeight="1">
-      <c r="B42" s="161"/>
-      <c r="C42" s="188"/>
-      <c r="D42" s="193"/>
+      <c r="B42" s="164"/>
+      <c r="C42" s="191"/>
+      <c r="D42" s="196"/>
       <c r="E42" s="61" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F42" s="97">
         <v>44040</v>
       </c>
       <c r="G42" s="40" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H42" s="117"/>
     </row>
     <row r="43" spans="2:8" ht="16" customHeight="1">
-      <c r="B43" s="161"/>
-      <c r="C43" s="188"/>
-      <c r="D43" s="193"/>
+      <c r="B43" s="164"/>
+      <c r="C43" s="191"/>
+      <c r="D43" s="196"/>
       <c r="E43" s="61" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F43" s="97">
         <v>44040</v>
       </c>
       <c r="G43" s="40" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H43" s="117"/>
     </row>
     <row r="44" spans="2:8" ht="16" customHeight="1">
-      <c r="B44" s="161"/>
-      <c r="C44" s="188"/>
-      <c r="D44" s="193"/>
+      <c r="B44" s="164"/>
+      <c r="C44" s="191"/>
+      <c r="D44" s="196"/>
       <c r="E44" s="61" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F44" s="97">
         <v>44040</v>
       </c>
       <c r="G44" s="40" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H44" s="117"/>
     </row>
     <row r="45" spans="2:8" ht="16" customHeight="1">
-      <c r="B45" s="161"/>
-      <c r="C45" s="188"/>
-      <c r="D45" s="193"/>
+      <c r="B45" s="164"/>
+      <c r="C45" s="191"/>
+      <c r="D45" s="196"/>
       <c r="E45" s="61" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F45" s="97">
         <v>44040</v>
       </c>
       <c r="G45" s="40" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H45" s="117"/>
     </row>
     <row r="46" spans="2:8" ht="16" customHeight="1">
-      <c r="B46" s="161"/>
-      <c r="C46" s="188"/>
-      <c r="D46" s="194"/>
+      <c r="B46" s="164"/>
+      <c r="C46" s="191"/>
+      <c r="D46" s="197"/>
       <c r="E46" s="61" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F46" s="97">
         <v>44040</v>
       </c>
       <c r="G46" s="40" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H46" s="117"/>
     </row>
     <row r="47" spans="2:8" ht="16" customHeight="1">
-      <c r="B47" s="161"/>
+      <c r="B47" s="164"/>
       <c r="C47" s="46" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D47" s="47"/>
       <c r="E47" s="61" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F47" s="97">
         <v>44040</v>
       </c>
       <c r="G47" s="40" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H47" s="117"/>
     </row>
     <row r="48" spans="2:8" ht="16" customHeight="1">
-      <c r="B48" s="162"/>
+      <c r="B48" s="165"/>
       <c r="C48" s="46" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D48" s="47"/>
       <c r="E48" s="61" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F48" s="97">
         <v>44040</v>
       </c>
       <c r="G48" s="40" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H48" s="117"/>
     </row>
@@ -4518,10 +4518,10 @@
       <c r="H49" s="117"/>
     </row>
     <row r="50" spans="2:8" ht="18">
-      <c r="B50" s="174" t="s">
+      <c r="B50" s="177" t="s">
         <v>136</v>
       </c>
-      <c r="C50" s="181" t="s">
+      <c r="C50" s="184" t="s">
         <v>147</v>
       </c>
       <c r="D50" s="39" t="s">
@@ -4534,13 +4534,13 @@
         <v>44041</v>
       </c>
       <c r="G50" s="40" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H50" s="117"/>
     </row>
     <row r="51" spans="2:8" ht="18">
-      <c r="B51" s="174"/>
-      <c r="C51" s="182"/>
+      <c r="B51" s="177"/>
+      <c r="C51" s="185"/>
       <c r="D51" s="41" t="s">
         <v>91</v>
       </c>
@@ -4551,12 +4551,12 @@
         <v>44041</v>
       </c>
       <c r="G51" s="40" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="52" spans="2:8" ht="18">
-      <c r="B52" s="174"/>
-      <c r="C52" s="182"/>
+      <c r="B52" s="177"/>
+      <c r="C52" s="185"/>
       <c r="D52" s="41" t="s">
         <v>121</v>
       </c>
@@ -4567,12 +4567,12 @@
         <v>44041</v>
       </c>
       <c r="G52" s="40" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="53" spans="2:8" ht="18">
-      <c r="B53" s="174"/>
-      <c r="C53" s="182"/>
+      <c r="B53" s="177"/>
+      <c r="C53" s="185"/>
       <c r="D53" s="41" t="s">
         <v>119</v>
       </c>
@@ -4583,26 +4583,26 @@
         <v>44041</v>
       </c>
       <c r="G53" s="40" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="54" spans="2:8" ht="18">
-      <c r="B54" s="174"/>
-      <c r="C54" s="183"/>
+      <c r="B54" s="177"/>
+      <c r="C54" s="186"/>
       <c r="D54" s="41" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E54" s="61"/>
       <c r="F54" s="97">
         <v>44041</v>
       </c>
       <c r="G54" s="40" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="55" spans="2:8" ht="17">
-      <c r="B55" s="174"/>
-      <c r="C55" s="184" t="s">
+      <c r="B55" s="177"/>
+      <c r="C55" s="187" t="s">
         <v>123</v>
       </c>
       <c r="D55" s="42"/>
@@ -4611,24 +4611,26 @@
       <c r="G55" s="43"/>
     </row>
     <row r="56" spans="2:8" ht="18">
-      <c r="B56" s="174"/>
-      <c r="C56" s="185"/>
+      <c r="B56" s="177"/>
+      <c r="C56" s="188"/>
       <c r="D56" s="42" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E56" s="62" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F56" s="99">
         <v>44041</v>
       </c>
-      <c r="G56" s="43"/>
+      <c r="G56" s="43" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="57" spans="2:8" ht="18">
-      <c r="B57" s="174"/>
-      <c r="C57" s="185"/>
+      <c r="B57" s="177"/>
+      <c r="C57" s="188"/>
       <c r="D57" s="42" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E57" s="62" t="s">
         <v>63</v>
@@ -4636,13 +4638,15 @@
       <c r="F57" s="99">
         <v>44041</v>
       </c>
-      <c r="G57" s="43"/>
+      <c r="G57" s="43" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="58" spans="2:8" ht="18">
-      <c r="B58" s="174"/>
-      <c r="C58" s="185"/>
+      <c r="B58" s="177"/>
+      <c r="C58" s="188"/>
       <c r="D58" s="42" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E58" s="62" t="s">
         <v>67</v>
@@ -4650,24 +4654,28 @@
       <c r="F58" s="99">
         <v>44041</v>
       </c>
-      <c r="G58" s="43"/>
+      <c r="G58" s="43" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="59" spans="2:8" ht="18">
-      <c r="B59" s="174"/>
-      <c r="C59" s="185"/>
+      <c r="B59" s="177"/>
+      <c r="C59" s="188"/>
       <c r="D59" s="42" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E59" s="62"/>
       <c r="F59" s="99">
         <v>44041</v>
       </c>
-      <c r="G59" s="43"/>
+      <c r="G59" s="43" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="60" spans="2:8" ht="18">
-      <c r="B60" s="174"/>
-      <c r="C60" s="166" t="s">
-        <v>151</v>
+      <c r="B60" s="177"/>
+      <c r="C60" s="169" t="s">
+        <v>244</v>
       </c>
       <c r="D60" s="110" t="s">
         <v>112</v>
@@ -4676,48 +4684,56 @@
       <c r="F60" s="112">
         <v>44041</v>
       </c>
-      <c r="G60" s="107"/>
+      <c r="G60" s="43" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="61" spans="2:8" ht="18">
-      <c r="B61" s="174"/>
-      <c r="C61" s="167"/>
+      <c r="B61" s="177"/>
+      <c r="C61" s="170"/>
       <c r="D61" s="110" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E61" s="111"/>
       <c r="F61" s="112">
         <v>44041</v>
       </c>
-      <c r="G61" s="107"/>
+      <c r="G61" s="43" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="62" spans="2:8" ht="18">
-      <c r="B62" s="174"/>
-      <c r="C62" s="167"/>
+      <c r="B62" s="177"/>
+      <c r="C62" s="170"/>
       <c r="D62" s="110" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E62" s="111"/>
       <c r="F62" s="112">
         <v>44041</v>
       </c>
-      <c r="G62" s="107"/>
+      <c r="G62" s="43" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="63" spans="2:8" ht="18">
-      <c r="B63" s="174"/>
-      <c r="C63" s="168"/>
+      <c r="B63" s="177"/>
+      <c r="C63" s="171"/>
       <c r="D63" s="110" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E63" s="111"/>
       <c r="F63" s="112">
         <v>44041</v>
       </c>
-      <c r="G63" s="107"/>
+      <c r="G63" s="43" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="64" spans="2:8" ht="16" customHeight="1">
-      <c r="B64" s="174"/>
-      <c r="C64" s="169" t="s">
-        <v>152</v>
+      <c r="B64" s="177"/>
+      <c r="C64" s="172" t="s">
+        <v>151</v>
       </c>
       <c r="D64" s="38"/>
       <c r="E64" s="63"/>
@@ -4725,10 +4741,10 @@
       <c r="G64" s="38"/>
     </row>
     <row r="65" spans="2:8" ht="18">
-      <c r="B65" s="174"/>
-      <c r="C65" s="170"/>
+      <c r="B65" s="177"/>
+      <c r="C65" s="173"/>
       <c r="D65" s="44" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E65" s="63" t="s">
         <v>125</v>
@@ -4736,13 +4752,15 @@
       <c r="F65" s="101">
         <v>44042</v>
       </c>
-      <c r="G65" s="38"/>
+      <c r="G65" s="38" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="66" spans="2:8" ht="18">
-      <c r="B66" s="174"/>
-      <c r="C66" s="170"/>
+      <c r="B66" s="177"/>
+      <c r="C66" s="173"/>
       <c r="D66" s="44" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E66" s="63" t="s">
         <v>124</v>
@@ -4750,52 +4768,56 @@
       <c r="F66" s="101">
         <v>44042</v>
       </c>
-      <c r="G66" s="38"/>
+      <c r="G66" s="38" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="67" spans="2:8" ht="17" customHeight="1">
-      <c r="B67" s="174"/>
-      <c r="C67" s="171"/>
+      <c r="B67" s="177"/>
+      <c r="C67" s="174"/>
       <c r="D67" s="45" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E67" s="64"/>
       <c r="F67" s="100"/>
-      <c r="G67" s="38"/>
+      <c r="G67" s="38" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="68" spans="2:8" ht="16" customHeight="1">
-      <c r="B68" s="174"/>
-      <c r="C68" s="172" t="s">
-        <v>153</v>
+      <c r="B68" s="177"/>
+      <c r="C68" s="175" t="s">
+        <v>152</v>
       </c>
       <c r="D68" s="107" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E68" s="108"/>
       <c r="F68" s="109">
         <v>44043</v>
       </c>
       <c r="G68" s="107" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="69" spans="2:8" ht="16" customHeight="1">
-      <c r="B69" s="174"/>
-      <c r="C69" s="173"/>
+      <c r="B69" s="177"/>
+      <c r="C69" s="176"/>
       <c r="D69" s="107" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E69" s="108"/>
       <c r="F69" s="109">
         <v>44043</v>
       </c>
       <c r="G69" s="107" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="70" spans="2:8" ht="18">
-      <c r="B70" s="174"/>
-      <c r="C70" s="178" t="s">
-        <v>154</v>
+      <c r="B70" s="177"/>
+      <c r="C70" s="181" t="s">
+        <v>153</v>
       </c>
       <c r="D70" s="33" t="s">
         <v>115</v>
@@ -4804,36 +4826,42 @@
       <c r="F70" s="102">
         <v>44046</v>
       </c>
-      <c r="G70" s="34"/>
+      <c r="G70" s="34" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="71" spans="2:8" ht="18">
-      <c r="B71" s="174"/>
-      <c r="C71" s="179"/>
+      <c r="B71" s="177"/>
+      <c r="C71" s="182"/>
       <c r="D71" s="33" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E71" s="49"/>
       <c r="F71" s="103">
         <v>44046</v>
       </c>
-      <c r="G71" s="34"/>
+      <c r="G71" s="107" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="72" spans="2:8" ht="18">
-      <c r="B72" s="174"/>
-      <c r="C72" s="180"/>
+      <c r="B72" s="177"/>
+      <c r="C72" s="183"/>
       <c r="D72" s="33" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E72" s="50"/>
       <c r="F72" s="104">
         <v>44046</v>
       </c>
-      <c r="G72" s="34"/>
+      <c r="G72" s="107" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="73" spans="2:8" ht="18">
-      <c r="B73" s="174"/>
-      <c r="C73" s="175" t="s">
-        <v>155</v>
+      <c r="B73" s="177"/>
+      <c r="C73" s="178" t="s">
+        <v>154</v>
       </c>
       <c r="D73" s="35" t="s">
         <v>81</v>
@@ -4844,14 +4872,16 @@
       <c r="F73" s="116">
         <v>44047</v>
       </c>
-      <c r="G73" s="6"/>
-      <c r="H73" s="215">
+      <c r="G73" s="34" t="s">
+        <v>174</v>
+      </c>
+      <c r="H73" s="121">
         <v>44048</v>
       </c>
     </row>
     <row r="74" spans="2:8" ht="17">
-      <c r="B74" s="174"/>
-      <c r="C74" s="176"/>
+      <c r="B74" s="177"/>
+      <c r="C74" s="179"/>
       <c r="D74" s="6" t="s">
         <v>116</v>
       </c>
@@ -4859,105 +4889,109 @@
       <c r="F74" s="105">
         <v>44047</v>
       </c>
-      <c r="G74" s="6"/>
-      <c r="H74" s="214"/>
+      <c r="G74" s="107" t="s">
+        <v>174</v>
+      </c>
+      <c r="H74" s="120"/>
     </row>
     <row r="75" spans="2:8">
-      <c r="B75" s="174"/>
-      <c r="C75" s="177"/>
+      <c r="B75" s="177"/>
+      <c r="C75" s="180"/>
       <c r="D75" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E75" s="66"/>
       <c r="F75" s="105">
         <v>44047</v>
       </c>
-      <c r="G75" s="6"/>
-      <c r="H75" s="214"/>
+      <c r="G75" s="107" t="s">
+        <v>174</v>
+      </c>
+      <c r="H75" s="120"/>
     </row>
     <row r="76" spans="2:8">
-      <c r="B76" s="163" t="s">
+      <c r="B76" s="166" t="s">
+        <v>159</v>
+      </c>
+      <c r="C76" s="37" t="s">
         <v>160</v>
       </c>
-      <c r="C76" s="37" t="s">
-        <v>161</v>
-      </c>
       <c r="D76" s="37" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E76" s="67"/>
       <c r="F76" s="106">
         <v>44048</v>
       </c>
       <c r="G76" s="119" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="77" spans="2:8">
-      <c r="B77" s="164"/>
+      <c r="B77" s="167"/>
       <c r="C77" s="37" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D77" s="37" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E77" s="67"/>
       <c r="F77" s="106">
         <v>44048</v>
       </c>
       <c r="G77" s="119" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="78" spans="2:8">
-      <c r="B78" s="165"/>
+      <c r="B78" s="168"/>
       <c r="C78" s="37"/>
       <c r="D78" s="37" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E78" s="67"/>
       <c r="F78" s="106">
         <v>44048</v>
       </c>
       <c r="G78" s="119" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="79" spans="2:8">
-      <c r="B79" s="159" t="s">
-        <v>223</v>
+      <c r="B79" s="162" t="s">
+        <v>222</v>
       </c>
       <c r="C79" s="5"/>
       <c r="D79" s="68" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E79" s="113" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F79" s="68"/>
       <c r="G79" s="5"/>
     </row>
     <row r="80" spans="2:8">
-      <c r="B80" s="159"/>
+      <c r="B80" s="162"/>
       <c r="C80" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D80" s="68" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E80" s="113"/>
       <c r="F80" s="114" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G80" s="5"/>
     </row>
     <row r="81" spans="2:7">
-      <c r="B81" s="159"/>
+      <c r="B81" s="162"/>
       <c r="C81" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D81" s="68" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E81" s="113"/>
       <c r="F81" s="114">
@@ -4966,9 +5000,9 @@
       <c r="G81" s="5"/>
     </row>
     <row r="82" spans="2:7">
-      <c r="B82" s="159"/>
+      <c r="B82" s="162"/>
       <c r="C82" s="115" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D82" s="68"/>
       <c r="E82" s="113"/>
@@ -4978,7 +5012,7 @@
       <c r="G82" s="5"/>
     </row>
     <row r="83" spans="2:7">
-      <c r="B83" s="159"/>
+      <c r="B83" s="162"/>
       <c r="C83" s="5"/>
       <c r="D83" s="68"/>
       <c r="E83" s="113"/>
@@ -4990,13 +5024,13 @@
         <v>7.21</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D84" s="53"/>
       <c r="E84" s="118"/>
       <c r="F84" s="53"/>
       <c r="G84" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="85" spans="2:7">
@@ -5004,21 +5038,21 @@
         <v>7.23</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D85" s="53"/>
       <c r="E85" s="118"/>
       <c r="F85" s="53"/>
       <c r="G85" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="86" spans="2:7">
-      <c r="B86" s="216">
+      <c r="B86" s="122">
         <v>44039</v>
       </c>
       <c r="C86" s="115" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D86" s="51"/>
       <c r="E86" s="52"/>

--- a/结算数据监控平台开发计划.xlsx
+++ b/结算数据监控平台开发计划.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicker/sandbox/settlementMonitoring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{828A1587-6FA5-2844-8B3F-C486218928AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B24672FF-BDEC-3349-80F6-46926D513DA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2880" yWindow="460" windowWidth="26540" windowHeight="18920" activeTab="3" xr2:uid="{AD2C15C8-2DE4-104B-A764-E65CC8F0AEA6}"/>
+    <workbookView xWindow="23700" yWindow="1660" windowWidth="26540" windowHeight="18920" activeTab="3" xr2:uid="{AD2C15C8-2DE4-104B-A764-E65CC8F0AEA6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2004,6 +2004,90 @@
     <xf numFmtId="0" fontId="9" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2084,90 +2168,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3750,8 +3750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E10E9005-F9D0-4E45-A602-C89B60257518}">
   <dimension ref="B2:H88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="94" workbookViewId="0">
-      <selection activeCell="G68" sqref="G68:G75"/>
+    <sheetView tabSelected="1" topLeftCell="B6" zoomScale="75" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3796,10 +3796,10 @@
       <c r="H3" s="117"/>
     </row>
     <row r="4" spans="2:8">
-      <c r="B4" s="211" t="s">
+      <c r="B4" s="184" t="s">
         <v>171</v>
       </c>
-      <c r="C4" s="214" t="s">
+      <c r="C4" s="187" t="s">
         <v>172</v>
       </c>
       <c r="D4" s="70" t="s">
@@ -3817,8 +3817,8 @@
       <c r="H4" s="117"/>
     </row>
     <row r="5" spans="2:8">
-      <c r="B5" s="212"/>
-      <c r="C5" s="215"/>
+      <c r="B5" s="185"/>
+      <c r="C5" s="188"/>
       <c r="D5" s="70" t="s">
         <v>166</v>
       </c>
@@ -3834,8 +3834,8 @@
       <c r="H5" s="117"/>
     </row>
     <row r="6" spans="2:8">
-      <c r="B6" s="212"/>
-      <c r="C6" s="216"/>
+      <c r="B6" s="185"/>
+      <c r="C6" s="189"/>
       <c r="D6" s="70" t="s">
         <v>167</v>
       </c>
@@ -3851,7 +3851,7 @@
       <c r="H6" s="117"/>
     </row>
     <row r="7" spans="2:8">
-      <c r="B7" s="212"/>
+      <c r="B7" s="185"/>
       <c r="C7" s="72" t="s">
         <v>168</v>
       </c>
@@ -3870,8 +3870,8 @@
       <c r="H7" s="117"/>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="212"/>
-      <c r="C8" s="198" t="s">
+      <c r="B8" s="185"/>
+      <c r="C8" s="171" t="s">
         <v>173</v>
       </c>
       <c r="D8" s="75" t="s">
@@ -3887,8 +3887,8 @@
       <c r="H8" s="117"/>
     </row>
     <row r="9" spans="2:8">
-      <c r="B9" s="213"/>
-      <c r="C9" s="200"/>
+      <c r="B9" s="186"/>
+      <c r="C9" s="173"/>
       <c r="D9" s="75" t="s">
         <v>170</v>
       </c>
@@ -3911,10 +3911,10 @@
       <c r="H10" s="117"/>
     </row>
     <row r="11" spans="2:8" ht="36" customHeight="1">
-      <c r="B11" s="163" t="s">
+      <c r="B11" s="191" t="s">
         <v>99</v>
       </c>
-      <c r="C11" s="201" t="s">
+      <c r="C11" s="174" t="s">
         <v>144</v>
       </c>
       <c r="D11" s="27" t="s">
@@ -3929,11 +3929,13 @@
       <c r="G11" s="76" t="s">
         <v>174</v>
       </c>
-      <c r="H11" s="117"/>
+      <c r="H11" s="117">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="2:8" ht="18">
-      <c r="B12" s="164"/>
-      <c r="C12" s="202"/>
+      <c r="B12" s="192"/>
+      <c r="C12" s="175"/>
       <c r="D12" s="27" t="s">
         <v>187</v>
       </c>
@@ -3944,11 +3946,13 @@
       <c r="G12" s="76" t="s">
         <v>174</v>
       </c>
-      <c r="H12" s="117"/>
+      <c r="H12" s="117">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="2:8" ht="18">
-      <c r="B13" s="164"/>
-      <c r="C13" s="202"/>
+      <c r="B13" s="192"/>
+      <c r="C13" s="175"/>
       <c r="D13" s="28" t="s">
         <v>188</v>
       </c>
@@ -3961,11 +3965,13 @@
       <c r="G13" s="29" t="s">
         <v>174</v>
       </c>
-      <c r="H13" s="117"/>
+      <c r="H13" s="117">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="2:8" ht="18">
-      <c r="B14" s="164"/>
-      <c r="C14" s="202"/>
+      <c r="B14" s="192"/>
+      <c r="C14" s="175"/>
       <c r="D14" s="28" t="s">
         <v>189</v>
       </c>
@@ -3978,11 +3984,13 @@
       <c r="G14" s="29" t="s">
         <v>174</v>
       </c>
-      <c r="H14" s="117"/>
+      <c r="H14" s="117">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="2:8" ht="36">
-      <c r="B15" s="164"/>
-      <c r="C15" s="202"/>
+      <c r="B15" s="192"/>
+      <c r="C15" s="175"/>
       <c r="D15" s="28" t="s">
         <v>190</v>
       </c>
@@ -3995,11 +4003,13 @@
       <c r="G15" s="76" t="s">
         <v>174</v>
       </c>
-      <c r="H15" s="117"/>
+      <c r="H15" s="117">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="2:8" ht="17" customHeight="1">
-      <c r="B16" s="164"/>
-      <c r="C16" s="203"/>
+      <c r="B16" s="192"/>
+      <c r="C16" s="176"/>
       <c r="D16" s="29" t="s">
         <v>184</v>
       </c>
@@ -4013,7 +4023,7 @@
       <c r="H16" s="117"/>
     </row>
     <row r="17" spans="2:8" ht="18">
-      <c r="B17" s="164"/>
+      <c r="B17" s="192"/>
       <c r="C17" s="149" t="s">
         <v>114</v>
       </c>
@@ -4032,8 +4042,8 @@
       <c r="H17" s="117"/>
     </row>
     <row r="18" spans="2:8" ht="18">
-      <c r="B18" s="164"/>
-      <c r="C18" s="204"/>
+      <c r="B18" s="192"/>
+      <c r="C18" s="177"/>
       <c r="D18" s="31" t="s">
         <v>191</v>
       </c>
@@ -4047,8 +4057,8 @@
       <c r="H18" s="117"/>
     </row>
     <row r="19" spans="2:8" ht="18">
-      <c r="B19" s="164"/>
-      <c r="C19" s="204"/>
+      <c r="B19" s="192"/>
+      <c r="C19" s="177"/>
       <c r="D19" s="31" t="s">
         <v>192</v>
       </c>
@@ -4062,8 +4072,8 @@
       <c r="H19" s="117"/>
     </row>
     <row r="20" spans="2:8" ht="18">
-      <c r="B20" s="164"/>
-      <c r="C20" s="204"/>
+      <c r="B20" s="192"/>
+      <c r="C20" s="177"/>
       <c r="D20" s="31" t="s">
         <v>193</v>
       </c>
@@ -4077,8 +4087,8 @@
       <c r="H20" s="117"/>
     </row>
     <row r="21" spans="2:8" ht="18">
-      <c r="B21" s="164"/>
-      <c r="C21" s="204"/>
+      <c r="B21" s="192"/>
+      <c r="C21" s="177"/>
       <c r="D21" s="31" t="s">
         <v>194</v>
       </c>
@@ -4092,8 +4102,8 @@
       <c r="H21" s="117"/>
     </row>
     <row r="22" spans="2:8" ht="18">
-      <c r="B22" s="164"/>
-      <c r="C22" s="204"/>
+      <c r="B22" s="192"/>
+      <c r="C22" s="177"/>
       <c r="D22" s="31" t="s">
         <v>197</v>
       </c>
@@ -4107,7 +4117,7 @@
       <c r="H22" s="117"/>
     </row>
     <row r="23" spans="2:8" ht="18">
-      <c r="B23" s="164"/>
+      <c r="B23" s="192"/>
       <c r="C23" s="150"/>
       <c r="D23" s="31" t="s">
         <v>196</v>
@@ -4122,8 +4132,8 @@
       <c r="H23" s="117"/>
     </row>
     <row r="24" spans="2:8" ht="18">
-      <c r="B24" s="164"/>
-      <c r="C24" s="205" t="s">
+      <c r="B24" s="192"/>
+      <c r="C24" s="178" t="s">
         <v>145</v>
       </c>
       <c r="D24" s="32" t="s">
@@ -4141,8 +4151,8 @@
       <c r="H24" s="117"/>
     </row>
     <row r="25" spans="2:8" ht="18">
-      <c r="B25" s="164"/>
-      <c r="C25" s="206"/>
+      <c r="B25" s="192"/>
+      <c r="C25" s="179"/>
       <c r="D25" s="19" t="s">
         <v>198</v>
       </c>
@@ -4156,8 +4166,8 @@
       <c r="H25" s="117"/>
     </row>
     <row r="26" spans="2:8" ht="18">
-      <c r="B26" s="164"/>
-      <c r="C26" s="206"/>
+      <c r="B26" s="192"/>
+      <c r="C26" s="179"/>
       <c r="D26" s="19" t="s">
         <v>202</v>
       </c>
@@ -4171,8 +4181,8 @@
       <c r="H26" s="117"/>
     </row>
     <row r="27" spans="2:8" ht="18">
-      <c r="B27" s="164"/>
-      <c r="C27" s="206"/>
+      <c r="B27" s="192"/>
+      <c r="C27" s="179"/>
       <c r="D27" s="19" t="s">
         <v>203</v>
       </c>
@@ -4186,8 +4196,8 @@
       <c r="H27" s="117"/>
     </row>
     <row r="28" spans="2:8" ht="17">
-      <c r="B28" s="164"/>
-      <c r="C28" s="207"/>
+      <c r="B28" s="192"/>
+      <c r="C28" s="180"/>
       <c r="D28" s="19"/>
       <c r="E28" s="58"/>
       <c r="F28" s="93"/>
@@ -4195,8 +4205,8 @@
       <c r="H28" s="117"/>
     </row>
     <row r="29" spans="2:8" ht="18">
-      <c r="B29" s="164"/>
-      <c r="C29" s="208" t="s">
+      <c r="B29" s="192"/>
+      <c r="C29" s="181" t="s">
         <v>148</v>
       </c>
       <c r="D29" s="36" t="s">
@@ -4214,8 +4224,8 @@
       <c r="H29" s="117"/>
     </row>
     <row r="30" spans="2:8" ht="18">
-      <c r="B30" s="164"/>
-      <c r="C30" s="209"/>
+      <c r="B30" s="192"/>
+      <c r="C30" s="182"/>
       <c r="D30" s="36" t="s">
         <v>205</v>
       </c>
@@ -4229,8 +4239,8 @@
       <c r="H30" s="117"/>
     </row>
     <row r="31" spans="2:8" ht="36" customHeight="1">
-      <c r="B31" s="164"/>
-      <c r="C31" s="209"/>
+      <c r="B31" s="192"/>
+      <c r="C31" s="182"/>
       <c r="D31" s="36" t="s">
         <v>206</v>
       </c>
@@ -4244,8 +4254,8 @@
       <c r="H31" s="117"/>
     </row>
     <row r="32" spans="2:8" ht="54" customHeight="1">
-      <c r="B32" s="164"/>
-      <c r="C32" s="210"/>
+      <c r="B32" s="192"/>
+      <c r="C32" s="183"/>
       <c r="D32" s="59" t="s">
         <v>207</v>
       </c>
@@ -4259,11 +4269,11 @@
       <c r="H32" s="117"/>
     </row>
     <row r="33" spans="2:8" ht="16" customHeight="1">
-      <c r="B33" s="164"/>
+      <c r="B33" s="192"/>
       <c r="C33" s="156" t="s">
         <v>88</v>
       </c>
-      <c r="D33" s="198" t="s">
+      <c r="D33" s="171" t="s">
         <v>155</v>
       </c>
       <c r="E33" s="79" t="s">
@@ -4278,9 +4288,9 @@
       <c r="H33" s="117"/>
     </row>
     <row r="34" spans="2:8" ht="16" customHeight="1">
-      <c r="B34" s="164"/>
+      <c r="B34" s="192"/>
       <c r="C34" s="157"/>
-      <c r="D34" s="199"/>
+      <c r="D34" s="172"/>
       <c r="E34" s="79" t="s">
         <v>209</v>
       </c>
@@ -4293,9 +4303,9 @@
       <c r="H34" s="117"/>
     </row>
     <row r="35" spans="2:8" ht="17" customHeight="1">
-      <c r="B35" s="164"/>
+      <c r="B35" s="192"/>
       <c r="C35" s="158"/>
-      <c r="D35" s="200"/>
+      <c r="D35" s="173"/>
       <c r="E35" s="79" t="s">
         <v>208</v>
       </c>
@@ -4308,11 +4318,11 @@
       <c r="H35" s="117"/>
     </row>
     <row r="36" spans="2:8" ht="16" customHeight="1">
-      <c r="B36" s="164"/>
-      <c r="C36" s="189" t="s">
+      <c r="B36" s="192"/>
+      <c r="C36" s="162" t="s">
         <v>149</v>
       </c>
-      <c r="D36" s="192" t="s">
+      <c r="D36" s="165" t="s">
         <v>213</v>
       </c>
       <c r="E36" s="60" t="s">
@@ -4327,9 +4337,9 @@
       <c r="H36" s="117"/>
     </row>
     <row r="37" spans="2:8" ht="16" customHeight="1">
-      <c r="B37" s="164"/>
-      <c r="C37" s="190"/>
-      <c r="D37" s="193"/>
+      <c r="B37" s="192"/>
+      <c r="C37" s="163"/>
+      <c r="D37" s="166"/>
       <c r="E37" s="60" t="s">
         <v>215</v>
       </c>
@@ -4342,9 +4352,9 @@
       <c r="H37" s="117"/>
     </row>
     <row r="38" spans="2:8" ht="16" customHeight="1">
-      <c r="B38" s="164"/>
-      <c r="C38" s="190"/>
-      <c r="D38" s="193"/>
+      <c r="B38" s="192"/>
+      <c r="C38" s="163"/>
+      <c r="D38" s="166"/>
       <c r="E38" s="60" t="s">
         <v>212</v>
       </c>
@@ -4357,9 +4367,9 @@
       <c r="H38" s="117"/>
     </row>
     <row r="39" spans="2:8" ht="16" customHeight="1">
-      <c r="B39" s="164"/>
-      <c r="C39" s="190"/>
-      <c r="D39" s="193"/>
+      <c r="B39" s="192"/>
+      <c r="C39" s="163"/>
+      <c r="D39" s="166"/>
       <c r="E39" s="60" t="s">
         <v>214</v>
       </c>
@@ -4372,9 +4382,9 @@
       <c r="H39" s="117"/>
     </row>
     <row r="40" spans="2:8" ht="16" customHeight="1">
-      <c r="B40" s="164"/>
-      <c r="C40" s="190"/>
-      <c r="D40" s="194"/>
+      <c r="B40" s="192"/>
+      <c r="C40" s="163"/>
+      <c r="D40" s="167"/>
       <c r="E40" s="60"/>
       <c r="F40" s="96"/>
       <c r="G40" s="3" t="s">
@@ -4383,11 +4393,11 @@
       <c r="H40" s="117"/>
     </row>
     <row r="41" spans="2:8" ht="16" customHeight="1">
-      <c r="B41" s="164"/>
-      <c r="C41" s="191" t="s">
+      <c r="B41" s="192"/>
+      <c r="C41" s="164" t="s">
         <v>150</v>
       </c>
-      <c r="D41" s="195"/>
+      <c r="D41" s="168"/>
       <c r="E41" s="61" t="s">
         <v>216</v>
       </c>
@@ -4400,9 +4410,9 @@
       <c r="H41" s="117"/>
     </row>
     <row r="42" spans="2:8" ht="16" customHeight="1">
-      <c r="B42" s="164"/>
-      <c r="C42" s="191"/>
-      <c r="D42" s="196"/>
+      <c r="B42" s="192"/>
+      <c r="C42" s="164"/>
+      <c r="D42" s="169"/>
       <c r="E42" s="61" t="s">
         <v>217</v>
       </c>
@@ -4415,9 +4425,9 @@
       <c r="H42" s="117"/>
     </row>
     <row r="43" spans="2:8" ht="16" customHeight="1">
-      <c r="B43" s="164"/>
-      <c r="C43" s="191"/>
-      <c r="D43" s="196"/>
+      <c r="B43" s="192"/>
+      <c r="C43" s="164"/>
+      <c r="D43" s="169"/>
       <c r="E43" s="61" t="s">
         <v>218</v>
       </c>
@@ -4430,9 +4440,9 @@
       <c r="H43" s="117"/>
     </row>
     <row r="44" spans="2:8" ht="16" customHeight="1">
-      <c r="B44" s="164"/>
-      <c r="C44" s="191"/>
-      <c r="D44" s="196"/>
+      <c r="B44" s="192"/>
+      <c r="C44" s="164"/>
+      <c r="D44" s="169"/>
       <c r="E44" s="61" t="s">
         <v>215</v>
       </c>
@@ -4445,9 +4455,9 @@
       <c r="H44" s="117"/>
     </row>
     <row r="45" spans="2:8" ht="16" customHeight="1">
-      <c r="B45" s="164"/>
-      <c r="C45" s="191"/>
-      <c r="D45" s="196"/>
+      <c r="B45" s="192"/>
+      <c r="C45" s="164"/>
+      <c r="D45" s="169"/>
       <c r="E45" s="61" t="s">
         <v>200</v>
       </c>
@@ -4460,9 +4470,9 @@
       <c r="H45" s="117"/>
     </row>
     <row r="46" spans="2:8" ht="16" customHeight="1">
-      <c r="B46" s="164"/>
-      <c r="C46" s="191"/>
-      <c r="D46" s="197"/>
+      <c r="B46" s="192"/>
+      <c r="C46" s="164"/>
+      <c r="D46" s="170"/>
       <c r="E46" s="61" t="s">
         <v>219</v>
       </c>
@@ -4475,7 +4485,7 @@
       <c r="H46" s="117"/>
     </row>
     <row r="47" spans="2:8" ht="16" customHeight="1">
-      <c r="B47" s="164"/>
+      <c r="B47" s="192"/>
       <c r="C47" s="46" t="s">
         <v>162</v>
       </c>
@@ -4492,7 +4502,7 @@
       <c r="H47" s="117"/>
     </row>
     <row r="48" spans="2:8" ht="16" customHeight="1">
-      <c r="B48" s="165"/>
+      <c r="B48" s="193"/>
       <c r="C48" s="46" t="s">
         <v>164</v>
       </c>
@@ -4506,7 +4516,9 @@
       <c r="G48" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="H48" s="117"/>
+      <c r="H48" s="117">
+        <v>1</v>
+      </c>
     </row>
     <row r="49" spans="2:8">
       <c r="B49" s="2"/>
@@ -4518,10 +4530,10 @@
       <c r="H49" s="117"/>
     </row>
     <row r="50" spans="2:8" ht="18">
-      <c r="B50" s="177" t="s">
+      <c r="B50" s="205" t="s">
         <v>136</v>
       </c>
-      <c r="C50" s="184" t="s">
+      <c r="C50" s="212" t="s">
         <v>147</v>
       </c>
       <c r="D50" s="39" t="s">
@@ -4539,8 +4551,8 @@
       <c r="H50" s="117"/>
     </row>
     <row r="51" spans="2:8" ht="18">
-      <c r="B51" s="177"/>
-      <c r="C51" s="185"/>
+      <c r="B51" s="205"/>
+      <c r="C51" s="213"/>
       <c r="D51" s="41" t="s">
         <v>91</v>
       </c>
@@ -4555,8 +4567,8 @@
       </c>
     </row>
     <row r="52" spans="2:8" ht="18">
-      <c r="B52" s="177"/>
-      <c r="C52" s="185"/>
+      <c r="B52" s="205"/>
+      <c r="C52" s="213"/>
       <c r="D52" s="41" t="s">
         <v>121</v>
       </c>
@@ -4571,8 +4583,8 @@
       </c>
     </row>
     <row r="53" spans="2:8" ht="18">
-      <c r="B53" s="177"/>
-      <c r="C53" s="185"/>
+      <c r="B53" s="205"/>
+      <c r="C53" s="213"/>
       <c r="D53" s="41" t="s">
         <v>119</v>
       </c>
@@ -4587,8 +4599,8 @@
       </c>
     </row>
     <row r="54" spans="2:8" ht="18">
-      <c r="B54" s="177"/>
-      <c r="C54" s="186"/>
+      <c r="B54" s="205"/>
+      <c r="C54" s="214"/>
       <c r="D54" s="41" t="s">
         <v>236</v>
       </c>
@@ -4601,8 +4613,8 @@
       </c>
     </row>
     <row r="55" spans="2:8" ht="17">
-      <c r="B55" s="177"/>
-      <c r="C55" s="187" t="s">
+      <c r="B55" s="205"/>
+      <c r="C55" s="215" t="s">
         <v>123</v>
       </c>
       <c r="D55" s="42"/>
@@ -4611,8 +4623,8 @@
       <c r="G55" s="43"/>
     </row>
     <row r="56" spans="2:8" ht="18">
-      <c r="B56" s="177"/>
-      <c r="C56" s="188"/>
+      <c r="B56" s="205"/>
+      <c r="C56" s="216"/>
       <c r="D56" s="42" t="s">
         <v>227</v>
       </c>
@@ -4627,8 +4639,8 @@
       </c>
     </row>
     <row r="57" spans="2:8" ht="18">
-      <c r="B57" s="177"/>
-      <c r="C57" s="188"/>
+      <c r="B57" s="205"/>
+      <c r="C57" s="216"/>
       <c r="D57" s="42" t="s">
         <v>228</v>
       </c>
@@ -4643,8 +4655,8 @@
       </c>
     </row>
     <row r="58" spans="2:8" ht="18">
-      <c r="B58" s="177"/>
-      <c r="C58" s="188"/>
+      <c r="B58" s="205"/>
+      <c r="C58" s="216"/>
       <c r="D58" s="42" t="s">
         <v>229</v>
       </c>
@@ -4659,8 +4671,8 @@
       </c>
     </row>
     <row r="59" spans="2:8" ht="18">
-      <c r="B59" s="177"/>
-      <c r="C59" s="188"/>
+      <c r="B59" s="205"/>
+      <c r="C59" s="216"/>
       <c r="D59" s="42" t="s">
         <v>236</v>
       </c>
@@ -4673,8 +4685,8 @@
       </c>
     </row>
     <row r="60" spans="2:8" ht="18">
-      <c r="B60" s="177"/>
-      <c r="C60" s="169" t="s">
+      <c r="B60" s="205"/>
+      <c r="C60" s="197" t="s">
         <v>244</v>
       </c>
       <c r="D60" s="110" t="s">
@@ -4689,8 +4701,8 @@
       </c>
     </row>
     <row r="61" spans="2:8" ht="18">
-      <c r="B61" s="177"/>
-      <c r="C61" s="170"/>
+      <c r="B61" s="205"/>
+      <c r="C61" s="198"/>
       <c r="D61" s="110" t="s">
         <v>230</v>
       </c>
@@ -4703,8 +4715,8 @@
       </c>
     </row>
     <row r="62" spans="2:8" ht="18">
-      <c r="B62" s="177"/>
-      <c r="C62" s="170"/>
+      <c r="B62" s="205"/>
+      <c r="C62" s="198"/>
       <c r="D62" s="110" t="s">
         <v>163</v>
       </c>
@@ -4717,8 +4729,8 @@
       </c>
     </row>
     <row r="63" spans="2:8" ht="18">
-      <c r="B63" s="177"/>
-      <c r="C63" s="171"/>
+      <c r="B63" s="205"/>
+      <c r="C63" s="199"/>
       <c r="D63" s="110" t="s">
         <v>236</v>
       </c>
@@ -4731,8 +4743,8 @@
       </c>
     </row>
     <row r="64" spans="2:8" ht="16" customHeight="1">
-      <c r="B64" s="177"/>
-      <c r="C64" s="172" t="s">
+      <c r="B64" s="205"/>
+      <c r="C64" s="200" t="s">
         <v>151</v>
       </c>
       <c r="D64" s="38"/>
@@ -4741,8 +4753,8 @@
       <c r="G64" s="38"/>
     </row>
     <row r="65" spans="2:8" ht="18">
-      <c r="B65" s="177"/>
-      <c r="C65" s="173"/>
+      <c r="B65" s="205"/>
+      <c r="C65" s="201"/>
       <c r="D65" s="44" t="s">
         <v>231</v>
       </c>
@@ -4757,8 +4769,8 @@
       </c>
     </row>
     <row r="66" spans="2:8" ht="18">
-      <c r="B66" s="177"/>
-      <c r="C66" s="173"/>
+      <c r="B66" s="205"/>
+      <c r="C66" s="201"/>
       <c r="D66" s="44" t="s">
         <v>232</v>
       </c>
@@ -4773,8 +4785,8 @@
       </c>
     </row>
     <row r="67" spans="2:8" ht="17" customHeight="1">
-      <c r="B67" s="177"/>
-      <c r="C67" s="174"/>
+      <c r="B67" s="205"/>
+      <c r="C67" s="202"/>
       <c r="D67" s="45" t="s">
         <v>233</v>
       </c>
@@ -4785,8 +4797,8 @@
       </c>
     </row>
     <row r="68" spans="2:8" ht="16" customHeight="1">
-      <c r="B68" s="177"/>
-      <c r="C68" s="175" t="s">
+      <c r="B68" s="205"/>
+      <c r="C68" s="203" t="s">
         <v>152</v>
       </c>
       <c r="D68" s="107" t="s">
@@ -4801,8 +4813,8 @@
       </c>
     </row>
     <row r="69" spans="2:8" ht="16" customHeight="1">
-      <c r="B69" s="177"/>
-      <c r="C69" s="176"/>
+      <c r="B69" s="205"/>
+      <c r="C69" s="204"/>
       <c r="D69" s="107" t="s">
         <v>233</v>
       </c>
@@ -4815,8 +4827,8 @@
       </c>
     </row>
     <row r="70" spans="2:8" ht="18">
-      <c r="B70" s="177"/>
-      <c r="C70" s="181" t="s">
+      <c r="B70" s="205"/>
+      <c r="C70" s="209" t="s">
         <v>153</v>
       </c>
       <c r="D70" s="33" t="s">
@@ -4831,8 +4843,8 @@
       </c>
     </row>
     <row r="71" spans="2:8" ht="18">
-      <c r="B71" s="177"/>
-      <c r="C71" s="182"/>
+      <c r="B71" s="205"/>
+      <c r="C71" s="210"/>
       <c r="D71" s="33" t="s">
         <v>235</v>
       </c>
@@ -4845,8 +4857,8 @@
       </c>
     </row>
     <row r="72" spans="2:8" ht="18">
-      <c r="B72" s="177"/>
-      <c r="C72" s="183"/>
+      <c r="B72" s="205"/>
+      <c r="C72" s="211"/>
       <c r="D72" s="33" t="s">
         <v>233</v>
       </c>
@@ -4859,8 +4871,8 @@
       </c>
     </row>
     <row r="73" spans="2:8" ht="18">
-      <c r="B73" s="177"/>
-      <c r="C73" s="178" t="s">
+      <c r="B73" s="205"/>
+      <c r="C73" s="206" t="s">
         <v>154</v>
       </c>
       <c r="D73" s="35" t="s">
@@ -4880,8 +4892,8 @@
       </c>
     </row>
     <row r="74" spans="2:8" ht="17">
-      <c r="B74" s="177"/>
-      <c r="C74" s="179"/>
+      <c r="B74" s="205"/>
+      <c r="C74" s="207"/>
       <c r="D74" s="6" t="s">
         <v>116</v>
       </c>
@@ -4895,8 +4907,8 @@
       <c r="H74" s="120"/>
     </row>
     <row r="75" spans="2:8">
-      <c r="B75" s="177"/>
-      <c r="C75" s="180"/>
+      <c r="B75" s="205"/>
+      <c r="C75" s="208"/>
       <c r="D75" s="6" t="s">
         <v>233</v>
       </c>
@@ -4910,7 +4922,7 @@
       <c r="H75" s="120"/>
     </row>
     <row r="76" spans="2:8">
-      <c r="B76" s="166" t="s">
+      <c r="B76" s="194" t="s">
         <v>159</v>
       </c>
       <c r="C76" s="37" t="s">
@@ -4928,7 +4940,7 @@
       </c>
     </row>
     <row r="77" spans="2:8">
-      <c r="B77" s="167"/>
+      <c r="B77" s="195"/>
       <c r="C77" s="37" t="s">
         <v>161</v>
       </c>
@@ -4944,7 +4956,7 @@
       </c>
     </row>
     <row r="78" spans="2:8">
-      <c r="B78" s="168"/>
+      <c r="B78" s="196"/>
       <c r="C78" s="37"/>
       <c r="D78" s="37" t="s">
         <v>233</v>
@@ -4958,7 +4970,7 @@
       </c>
     </row>
     <row r="79" spans="2:8">
-      <c r="B79" s="162" t="s">
+      <c r="B79" s="190" t="s">
         <v>222</v>
       </c>
       <c r="C79" s="5"/>
@@ -4972,7 +4984,7 @@
       <c r="G79" s="5"/>
     </row>
     <row r="80" spans="2:8">
-      <c r="B80" s="162"/>
+      <c r="B80" s="190"/>
       <c r="C80" s="5" t="s">
         <v>223</v>
       </c>
@@ -4985,8 +4997,8 @@
       </c>
       <c r="G80" s="5"/>
     </row>
-    <row r="81" spans="2:7">
-      <c r="B81" s="162"/>
+    <row r="81" spans="2:8">
+      <c r="B81" s="190"/>
       <c r="C81" s="5" t="s">
         <v>224</v>
       </c>
@@ -4999,8 +5011,8 @@
       </c>
       <c r="G81" s="5"/>
     </row>
-    <row r="82" spans="2:7">
-      <c r="B82" s="162"/>
+    <row r="82" spans="2:8">
+      <c r="B82" s="190"/>
       <c r="C82" s="115" t="s">
         <v>225</v>
       </c>
@@ -5011,15 +5023,15 @@
       </c>
       <c r="G82" s="5"/>
     </row>
-    <row r="83" spans="2:7">
-      <c r="B83" s="162"/>
+    <row r="83" spans="2:8">
+      <c r="B83" s="190"/>
       <c r="C83" s="5"/>
       <c r="D83" s="68"/>
       <c r="E83" s="113"/>
       <c r="F83" s="114"/>
       <c r="G83" s="5"/>
     </row>
-    <row r="84" spans="2:7">
+    <row r="84" spans="2:8">
       <c r="B84" s="2">
         <v>7.21</v>
       </c>
@@ -5032,8 +5044,11 @@
       <c r="G84" s="2" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="85" spans="2:7">
+      <c r="H84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8">
       <c r="B85" s="2">
         <v>7.23</v>
       </c>
@@ -5046,8 +5061,11 @@
       <c r="G85" s="2" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="86" spans="2:7">
+      <c r="H85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8">
       <c r="B86" s="122">
         <v>44039</v>
       </c>
@@ -5057,16 +5075,27 @@
       <c r="D86" s="51"/>
       <c r="E86" s="52"/>
     </row>
-    <row r="87" spans="2:7">
+    <row r="87" spans="2:8">
       <c r="D87" s="51"/>
       <c r="E87" s="52"/>
     </row>
-    <row r="88" spans="2:7">
+    <row r="88" spans="2:8">
       <c r="D88" s="51"/>
       <c r="E88" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B79:B83"/>
+    <mergeCell ref="B11:B48"/>
+    <mergeCell ref="B76:B78"/>
+    <mergeCell ref="C60:C63"/>
+    <mergeCell ref="C64:C67"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="B50:B75"/>
+    <mergeCell ref="C73:C75"/>
+    <mergeCell ref="C70:C72"/>
+    <mergeCell ref="C50:C54"/>
+    <mergeCell ref="C55:C59"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="C36:C40"/>
     <mergeCell ref="C41:C46"/>
@@ -5081,17 +5110,6 @@
     <mergeCell ref="B4:B9"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="C8:C9"/>
-    <mergeCell ref="B79:B83"/>
-    <mergeCell ref="B11:B48"/>
-    <mergeCell ref="B76:B78"/>
-    <mergeCell ref="C60:C63"/>
-    <mergeCell ref="C64:C67"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="B50:B75"/>
-    <mergeCell ref="C73:C75"/>
-    <mergeCell ref="C70:C72"/>
-    <mergeCell ref="C50:C54"/>
-    <mergeCell ref="C55:C59"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/结算数据监控平台开发计划.xlsx
+++ b/结算数据监控平台开发计划.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicker/sandbox/settlementMonitoring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B24672FF-BDEC-3349-80F6-46926D513DA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B85E3A9-9775-7A41-8CEF-7B2058944C75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23700" yWindow="1660" windowWidth="26540" windowHeight="18920" activeTab="3" xr2:uid="{AD2C15C8-2DE4-104B-A764-E65CC8F0AEA6}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18940" activeTab="3" xr2:uid="{AD2C15C8-2DE4-104B-A764-E65CC8F0AEA6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="246">
   <si>
     <t>ETX联网结算平台</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1148,6 +1148,10 @@
   </si>
   <si>
     <t>3、查询  30 日 内  省内结算趋势概览</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加：清分核对差额</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1884,9 +1888,6 @@
     <xf numFmtId="58" fontId="0" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2004,90 +2005,6 @@
     <xf numFmtId="0" fontId="9" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2168,6 +2085,93 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2665,16 +2669,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="18" customHeight="1">
-      <c r="B1" s="124" t="s">
+      <c r="B1" s="123" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
     </row>
     <row r="2" spans="2:5">
-      <c r="B2" s="125"/>
-      <c r="C2" s="125"/>
-      <c r="D2" s="125"/>
+      <c r="B2" s="124"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
     </row>
     <row r="3" spans="2:5">
       <c r="B3" s="3" t="s">
@@ -2710,7 +2714,7 @@
       <c r="D5" s="2"/>
     </row>
     <row r="6" spans="2:5">
-      <c r="B6" s="126" t="s">
+      <c r="B6" s="125" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -2724,7 +2728,7 @@
       </c>
     </row>
     <row r="7" spans="2:5">
-      <c r="B7" s="126"/>
+      <c r="B7" s="125"/>
       <c r="C7" s="4" t="s">
         <v>39</v>
       </c>
@@ -2734,7 +2738,7 @@
       </c>
     </row>
     <row r="8" spans="2:5">
-      <c r="B8" s="128" t="s">
+      <c r="B8" s="127" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="5" t="s">
@@ -2748,7 +2752,7 @@
       </c>
     </row>
     <row r="9" spans="2:5">
-      <c r="B9" s="128"/>
+      <c r="B9" s="127"/>
       <c r="C9" s="5" t="s">
         <v>43</v>
       </c>
@@ -2784,7 +2788,7 @@
       <c r="D13" s="2"/>
     </row>
     <row r="14" spans="2:5">
-      <c r="B14" s="127" t="s">
+      <c r="B14" s="126" t="s">
         <v>45</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -2798,7 +2802,7 @@
       </c>
     </row>
     <row r="15" spans="2:5">
-      <c r="B15" s="127"/>
+      <c r="B15" s="126"/>
       <c r="C15" s="2" t="s">
         <v>27</v>
       </c>
@@ -2808,7 +2812,7 @@
       <c r="E15" s="11"/>
     </row>
     <row r="16" spans="2:5">
-      <c r="B16" s="127"/>
+      <c r="B16" s="126"/>
       <c r="C16" s="2" t="s">
         <v>28</v>
       </c>
@@ -2818,7 +2822,7 @@
       <c r="E16" s="11"/>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="127"/>
+      <c r="B17" s="126"/>
       <c r="C17" s="2" t="s">
         <v>29</v>
       </c>
@@ -2838,7 +2842,7 @@
       <c r="D19" s="2"/>
     </row>
     <row r="20" spans="2:5">
-      <c r="B20" s="123" t="s">
+      <c r="B20" s="122" t="s">
         <v>51</v>
       </c>
       <c r="C20" s="7" t="s">
@@ -2847,35 +2851,35 @@
       <c r="D20" s="2"/>
     </row>
     <row r="21" spans="2:5">
-      <c r="B21" s="123"/>
+      <c r="B21" s="122"/>
       <c r="C21" s="7" t="s">
         <v>34</v>
       </c>
       <c r="D21" s="2"/>
     </row>
     <row r="22" spans="2:5">
-      <c r="B22" s="123"/>
+      <c r="B22" s="122"/>
       <c r="C22" s="7" t="s">
         <v>53</v>
       </c>
       <c r="D22" s="2"/>
     </row>
     <row r="23" spans="2:5">
-      <c r="B23" s="123"/>
+      <c r="B23" s="122"/>
       <c r="C23" s="7" t="s">
         <v>54</v>
       </c>
       <c r="D23" s="2"/>
     </row>
     <row r="24" spans="2:5">
-      <c r="B24" s="123"/>
+      <c r="B24" s="122"/>
       <c r="C24" s="7" t="s">
         <v>55</v>
       </c>
       <c r="D24" s="2"/>
     </row>
     <row r="25" spans="2:5">
-      <c r="B25" s="123"/>
+      <c r="B25" s="122"/>
       <c r="C25" s="2" t="s">
         <v>56</v>
       </c>
@@ -2979,13 +2983,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="30">
-      <c r="B2" s="132" t="s">
+      <c r="B2" s="131" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="133"/>
-      <c r="D2" s="133"/>
-      <c r="E2" s="133"/>
-      <c r="F2" s="134"/>
+      <c r="C2" s="132"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="132"/>
+      <c r="F2" s="133"/>
     </row>
     <row r="3" spans="2:8">
       <c r="B3" s="25"/>
@@ -2998,7 +3002,7 @@
       <c r="B4" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="C4" s="138" t="s">
+      <c r="C4" s="137" t="s">
         <v>60</v>
       </c>
       <c r="D4" s="14" t="s">
@@ -3017,7 +3021,7 @@
     </row>
     <row r="5" spans="2:8" ht="18">
       <c r="B5" s="23"/>
-      <c r="C5" s="139"/>
+      <c r="C5" s="138"/>
       <c r="D5" s="15" t="s">
         <v>129</v>
       </c>
@@ -3028,7 +3032,7 @@
     </row>
     <row r="6" spans="2:8" ht="18">
       <c r="B6" s="23"/>
-      <c r="C6" s="139"/>
+      <c r="C6" s="138"/>
       <c r="D6" s="15" t="s">
         <v>130</v>
       </c>
@@ -3037,7 +3041,7 @@
     </row>
     <row r="7" spans="2:8" ht="18">
       <c r="B7" s="23"/>
-      <c r="C7" s="140"/>
+      <c r="C7" s="139"/>
       <c r="D7" s="15" t="s">
         <v>131</v>
       </c>
@@ -3057,7 +3061,7 @@
     </row>
     <row r="9" spans="2:8" ht="17">
       <c r="B9" s="23"/>
-      <c r="C9" s="141" t="s">
+      <c r="C9" s="140" t="s">
         <v>114</v>
       </c>
       <c r="D9" s="15"/>
@@ -3066,7 +3070,7 @@
     </row>
     <row r="10" spans="2:8" ht="16" customHeight="1">
       <c r="B10" s="23"/>
-      <c r="C10" s="142"/>
+      <c r="C10" s="141"/>
       <c r="D10" s="15" t="s">
         <v>62</v>
       </c>
@@ -3075,7 +3079,7 @@
     </row>
     <row r="11" spans="2:8" ht="18" customHeight="1">
       <c r="B11" s="23"/>
-      <c r="C11" s="142"/>
+      <c r="C11" s="141"/>
       <c r="D11" s="15" t="s">
         <v>65</v>
       </c>
@@ -3086,7 +3090,7 @@
     </row>
     <row r="12" spans="2:8" ht="18">
       <c r="B12" s="23"/>
-      <c r="C12" s="142"/>
+      <c r="C12" s="141"/>
       <c r="D12" s="15" t="s">
         <v>66</v>
       </c>
@@ -3097,7 +3101,7 @@
     </row>
     <row r="13" spans="2:8" ht="36">
       <c r="B13" s="23"/>
-      <c r="C13" s="142"/>
+      <c r="C13" s="141"/>
       <c r="D13" s="15" t="s">
         <v>68</v>
       </c>
@@ -3108,7 +3112,7 @@
     </row>
     <row r="14" spans="2:8" ht="18">
       <c r="B14" s="23"/>
-      <c r="C14" s="143"/>
+      <c r="C14" s="142"/>
       <c r="D14" s="16" t="s">
         <v>70</v>
       </c>
@@ -3153,7 +3157,7 @@
     </row>
     <row r="19" spans="2:6" ht="18">
       <c r="B19" s="23"/>
-      <c r="C19" s="144"/>
+      <c r="C19" s="143"/>
       <c r="D19" s="15" t="s">
         <v>132</v>
       </c>
@@ -3162,7 +3166,7 @@
     </row>
     <row r="20" spans="2:6" ht="18">
       <c r="B20" s="23"/>
-      <c r="C20" s="145"/>
+      <c r="C20" s="144"/>
       <c r="D20" s="15" t="s">
         <v>133</v>
       </c>
@@ -3171,28 +3175,28 @@
     </row>
     <row r="21" spans="2:6" ht="17">
       <c r="B21" s="23"/>
-      <c r="C21" s="145"/>
+      <c r="C21" s="144"/>
       <c r="D21" s="15"/>
       <c r="E21" s="15"/>
       <c r="F21" s="2"/>
     </row>
     <row r="22" spans="2:6" ht="17">
       <c r="B22" s="23"/>
-      <c r="C22" s="145"/>
+      <c r="C22" s="144"/>
       <c r="D22" s="15"/>
       <c r="E22" s="15"/>
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="2:6" ht="17">
       <c r="B23" s="23"/>
-      <c r="C23" s="145"/>
+      <c r="C23" s="144"/>
       <c r="D23" s="15"/>
       <c r="E23" s="15"/>
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="2:6" ht="17">
       <c r="B24" s="23"/>
-      <c r="C24" s="146"/>
+      <c r="C24" s="145"/>
       <c r="D24" s="16"/>
       <c r="E24" s="15"/>
       <c r="F24" s="2"/>
@@ -3226,7 +3230,7 @@
     </row>
     <row r="29" spans="2:6" ht="18">
       <c r="B29" s="23"/>
-      <c r="C29" s="147" t="s">
+      <c r="C29" s="146" t="s">
         <v>78</v>
       </c>
       <c r="D29" s="15" t="s">
@@ -3236,7 +3240,7 @@
     </row>
     <row r="30" spans="2:6" ht="16" customHeight="1">
       <c r="B30" s="23"/>
-      <c r="C30" s="148"/>
+      <c r="C30" s="147"/>
       <c r="D30" s="15" t="s">
         <v>79</v>
       </c>
@@ -3252,7 +3256,7 @@
     </row>
     <row r="32" spans="2:6" ht="36">
       <c r="B32" s="23"/>
-      <c r="C32" s="149" t="s">
+      <c r="C32" s="148" t="s">
         <v>80</v>
       </c>
       <c r="D32" s="15" t="s">
@@ -3265,7 +3269,7 @@
     </row>
     <row r="33" spans="2:6" ht="17">
       <c r="B33" s="23"/>
-      <c r="C33" s="150"/>
+      <c r="C33" s="149"/>
       <c r="D33" s="2" t="s">
         <v>116</v>
       </c>
@@ -3285,7 +3289,7 @@
     </row>
     <row r="35" spans="2:6" ht="16" customHeight="1">
       <c r="B35" s="23"/>
-      <c r="C35" s="151" t="s">
+      <c r="C35" s="150" t="s">
         <v>85</v>
       </c>
       <c r="D35" s="15" t="s">
@@ -3295,8 +3299,8 @@
       <c r="F35" s="15"/>
     </row>
     <row r="36" spans="2:6" ht="18">
-      <c r="B36" s="153"/>
-      <c r="C36" s="152"/>
+      <c r="B36" s="152"/>
+      <c r="C36" s="151"/>
       <c r="D36" s="15" t="s">
         <v>87</v>
       </c>
@@ -3304,7 +3308,7 @@
       <c r="F36" s="15"/>
     </row>
     <row r="37" spans="2:6" ht="18">
-      <c r="B37" s="154"/>
+      <c r="B37" s="153"/>
       <c r="C37" s="15"/>
       <c r="D37" s="15" t="s">
         <v>117</v>
@@ -3313,14 +3317,14 @@
       <c r="F37" s="15"/>
     </row>
     <row r="38" spans="2:6">
-      <c r="B38" s="154"/>
+      <c r="B38" s="153"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
     </row>
     <row r="39" spans="2:6" ht="17">
-      <c r="B39" s="154"/>
+      <c r="B39" s="153"/>
       <c r="C39" s="24" t="s">
         <v>88</v>
       </c>
@@ -3331,15 +3335,15 @@
       <c r="F39" s="2"/>
     </row>
     <row r="40" spans="2:6" ht="16" customHeight="1">
-      <c r="B40" s="154"/>
+      <c r="B40" s="153"/>
       <c r="C40" s="13"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
     </row>
     <row r="41" spans="2:6">
-      <c r="B41" s="154"/>
-      <c r="C41" s="156" t="s">
+      <c r="B41" s="153"/>
+      <c r="C41" s="155" t="s">
         <v>102</v>
       </c>
       <c r="D41" s="2" t="s">
@@ -3349,8 +3353,8 @@
       <c r="F41" s="2"/>
     </row>
     <row r="42" spans="2:6">
-      <c r="B42" s="154"/>
-      <c r="C42" s="157"/>
+      <c r="B42" s="153"/>
+      <c r="C42" s="156"/>
       <c r="D42" s="2" t="s">
         <v>104</v>
       </c>
@@ -3358,8 +3362,8 @@
       <c r="F42" s="2"/>
     </row>
     <row r="43" spans="2:6" ht="17" customHeight="1">
-      <c r="B43" s="154"/>
-      <c r="C43" s="157"/>
+      <c r="B43" s="153"/>
+      <c r="C43" s="156"/>
       <c r="D43" s="2" t="s">
         <v>105</v>
       </c>
@@ -3367,8 +3371,8 @@
       <c r="F43" s="2"/>
     </row>
     <row r="44" spans="2:6" ht="17" customHeight="1">
-      <c r="B44" s="154"/>
-      <c r="C44" s="157"/>
+      <c r="B44" s="153"/>
+      <c r="C44" s="156"/>
       <c r="D44" s="2" t="s">
         <v>106</v>
       </c>
@@ -3376,8 +3380,8 @@
       <c r="F44" s="2"/>
     </row>
     <row r="45" spans="2:6" ht="17" customHeight="1">
-      <c r="B45" s="154"/>
-      <c r="C45" s="157"/>
+      <c r="B45" s="153"/>
+      <c r="C45" s="156"/>
       <c r="D45" s="2" t="s">
         <v>107</v>
       </c>
@@ -3385,8 +3389,8 @@
       <c r="F45" s="2"/>
     </row>
     <row r="46" spans="2:6" ht="17" customHeight="1">
-      <c r="B46" s="154"/>
-      <c r="C46" s="157"/>
+      <c r="B46" s="153"/>
+      <c r="C46" s="156"/>
       <c r="D46" s="20" t="s">
         <v>108</v>
       </c>
@@ -3394,8 +3398,8 @@
       <c r="F46" s="2"/>
     </row>
     <row r="47" spans="2:6" ht="17" customHeight="1">
-      <c r="B47" s="154"/>
-      <c r="C47" s="157"/>
+      <c r="B47" s="153"/>
+      <c r="C47" s="156"/>
       <c r="D47" s="2" t="s">
         <v>109</v>
       </c>
@@ -3403,8 +3407,8 @@
       <c r="F47" s="2"/>
     </row>
     <row r="48" spans="2:6" ht="17" customHeight="1">
-      <c r="B48" s="154"/>
-      <c r="C48" s="157"/>
+      <c r="B48" s="153"/>
+      <c r="C48" s="156"/>
       <c r="D48" s="21" t="s">
         <v>110</v>
       </c>
@@ -3412,8 +3416,8 @@
       <c r="F48" s="2"/>
     </row>
     <row r="49" spans="2:6" ht="17" customHeight="1">
-      <c r="B49" s="154"/>
-      <c r="C49" s="158"/>
+      <c r="B49" s="153"/>
+      <c r="C49" s="157"/>
       <c r="D49" s="21" t="s">
         <v>111</v>
       </c>
@@ -3421,13 +3425,13 @@
       <c r="F49" s="2"/>
     </row>
     <row r="50" spans="2:6" ht="17" customHeight="1">
-      <c r="B50" s="154"/>
+      <c r="B50" s="153"/>
       <c r="C50" s="2"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
     </row>
     <row r="51" spans="2:6" ht="17" customHeight="1">
-      <c r="B51" s="155"/>
+      <c r="B51" s="154"/>
       <c r="C51" s="2"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
@@ -3440,10 +3444,10 @@
       <c r="F52" s="2"/>
     </row>
     <row r="53" spans="2:6" ht="17" customHeight="1">
-      <c r="B53" s="135" t="s">
+      <c r="B53" s="134" t="s">
         <v>89</v>
       </c>
-      <c r="C53" s="159" t="s">
+      <c r="C53" s="158" t="s">
         <v>60</v>
       </c>
       <c r="D53" s="14" t="s">
@@ -3455,8 +3459,8 @@
       <c r="F53" s="2"/>
     </row>
     <row r="54" spans="2:6" ht="18">
-      <c r="B54" s="136"/>
-      <c r="C54" s="160"/>
+      <c r="B54" s="135"/>
+      <c r="C54" s="159"/>
       <c r="D54" s="15" t="s">
         <v>91</v>
       </c>
@@ -3466,8 +3470,8 @@
       <c r="F54" s="2"/>
     </row>
     <row r="55" spans="2:6" ht="18">
-      <c r="B55" s="136"/>
-      <c r="C55" s="160"/>
+      <c r="B55" s="135"/>
+      <c r="C55" s="159"/>
       <c r="D55" s="15" t="s">
         <v>121</v>
       </c>
@@ -3477,8 +3481,8 @@
       <c r="F55" s="2"/>
     </row>
     <row r="56" spans="2:6" ht="18">
-      <c r="B56" s="136"/>
-      <c r="C56" s="161"/>
+      <c r="B56" s="135"/>
+      <c r="C56" s="160"/>
       <c r="D56" s="15" t="s">
         <v>119</v>
       </c>
@@ -3488,15 +3492,15 @@
       <c r="F56" s="2"/>
     </row>
     <row r="57" spans="2:6">
-      <c r="B57" s="136"/>
+      <c r="B57" s="135"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
     </row>
     <row r="58" spans="2:6" ht="17">
-      <c r="B58" s="136"/>
-      <c r="C58" s="129" t="s">
+      <c r="B58" s="135"/>
+      <c r="C58" s="128" t="s">
         <v>123</v>
       </c>
       <c r="D58" s="15"/>
@@ -3504,8 +3508,8 @@
       <c r="F58" s="15"/>
     </row>
     <row r="59" spans="2:6" ht="18">
-      <c r="B59" s="136"/>
-      <c r="C59" s="130"/>
+      <c r="B59" s="135"/>
+      <c r="C59" s="129"/>
       <c r="D59" s="15" t="s">
         <v>62</v>
       </c>
@@ -3517,8 +3521,8 @@
       </c>
     </row>
     <row r="60" spans="2:6" ht="18" customHeight="1">
-      <c r="B60" s="136"/>
-      <c r="C60" s="130"/>
+      <c r="B60" s="135"/>
+      <c r="C60" s="129"/>
       <c r="D60" s="15" t="s">
         <v>65</v>
       </c>
@@ -3528,8 +3532,8 @@
       <c r="F60" s="15"/>
     </row>
     <row r="61" spans="2:6" ht="18">
-      <c r="B61" s="136"/>
-      <c r="C61" s="130"/>
+      <c r="B61" s="135"/>
+      <c r="C61" s="129"/>
       <c r="D61" s="15" t="s">
         <v>66</v>
       </c>
@@ -3539,8 +3543,8 @@
       <c r="F61" s="15"/>
     </row>
     <row r="62" spans="2:6" ht="36">
-      <c r="B62" s="136"/>
-      <c r="C62" s="130"/>
+      <c r="B62" s="135"/>
+      <c r="C62" s="129"/>
       <c r="D62" s="15" t="s">
         <v>101</v>
       </c>
@@ -3550,8 +3554,8 @@
       <c r="F62" s="15"/>
     </row>
     <row r="63" spans="2:6" ht="18">
-      <c r="B63" s="136"/>
-      <c r="C63" s="131"/>
+      <c r="B63" s="135"/>
+      <c r="C63" s="130"/>
       <c r="D63" s="15" t="s">
         <v>93</v>
       </c>
@@ -3561,21 +3565,21 @@
       <c r="F63" s="15"/>
     </row>
     <row r="64" spans="2:6" ht="17">
-      <c r="B64" s="136"/>
+      <c r="B64" s="135"/>
       <c r="C64" s="15"/>
       <c r="D64" s="15"/>
       <c r="E64" s="15"/>
       <c r="F64" s="15"/>
     </row>
     <row r="65" spans="2:6">
-      <c r="B65" s="136"/>
+      <c r="B65" s="135"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
     </row>
     <row r="66" spans="2:6" ht="18">
-      <c r="B66" s="136"/>
+      <c r="B66" s="135"/>
       <c r="C66" s="15" t="s">
         <v>100</v>
       </c>
@@ -3586,14 +3590,14 @@
       <c r="F66" s="15"/>
     </row>
     <row r="67" spans="2:6" ht="17">
-      <c r="B67" s="136"/>
+      <c r="B67" s="135"/>
       <c r="C67" s="15"/>
       <c r="D67" s="15"/>
       <c r="E67" s="15"/>
       <c r="F67" s="15"/>
     </row>
     <row r="68" spans="2:6" ht="18">
-      <c r="B68" s="136"/>
+      <c r="B68" s="135"/>
       <c r="C68" s="15" t="s">
         <v>74</v>
       </c>
@@ -3604,7 +3608,7 @@
       <c r="F68" s="15"/>
     </row>
     <row r="69" spans="2:6" ht="18">
-      <c r="B69" s="136"/>
+      <c r="B69" s="135"/>
       <c r="C69" s="15"/>
       <c r="D69" s="15"/>
       <c r="E69" s="15" t="s">
@@ -3613,7 +3617,7 @@
       <c r="F69" s="15"/>
     </row>
     <row r="70" spans="2:6" ht="18">
-      <c r="B70" s="136"/>
+      <c r="B70" s="135"/>
       <c r="C70" s="15"/>
       <c r="D70" s="15"/>
       <c r="E70" s="15" t="s">
@@ -3622,35 +3626,35 @@
       <c r="F70" s="15"/>
     </row>
     <row r="71" spans="2:6" ht="17">
-      <c r="B71" s="136"/>
+      <c r="B71" s="135"/>
       <c r="C71" s="15"/>
       <c r="D71" s="15"/>
       <c r="E71" s="15"/>
       <c r="F71" s="15"/>
     </row>
     <row r="72" spans="2:6" ht="17">
-      <c r="B72" s="136"/>
+      <c r="B72" s="135"/>
       <c r="C72" s="15"/>
       <c r="D72" s="15"/>
       <c r="E72" s="15"/>
       <c r="F72" s="15"/>
     </row>
     <row r="73" spans="2:6" ht="17">
-      <c r="B73" s="136"/>
+      <c r="B73" s="135"/>
       <c r="C73" s="15"/>
       <c r="D73" s="15"/>
       <c r="E73" s="16"/>
       <c r="F73" s="15"/>
     </row>
     <row r="74" spans="2:6" ht="17">
-      <c r="B74" s="136"/>
+      <c r="B74" s="135"/>
       <c r="C74" s="15"/>
       <c r="D74" s="15"/>
       <c r="E74" s="15"/>
       <c r="F74" s="15"/>
     </row>
     <row r="75" spans="2:6" ht="18">
-      <c r="B75" s="136"/>
+      <c r="B75" s="135"/>
       <c r="C75" s="15" t="s">
         <v>77</v>
       </c>
@@ -3659,21 +3663,21 @@
       <c r="F75" s="14"/>
     </row>
     <row r="76" spans="2:6">
-      <c r="B76" s="136"/>
+      <c r="B76" s="135"/>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
     </row>
     <row r="77" spans="2:6">
-      <c r="B77" s="136"/>
+      <c r="B77" s="135"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
     </row>
     <row r="78" spans="2:6" ht="18">
-      <c r="B78" s="136"/>
+      <c r="B78" s="135"/>
       <c r="C78" s="15" t="s">
         <v>95</v>
       </c>
@@ -3682,7 +3686,7 @@
       <c r="F78" s="2"/>
     </row>
     <row r="79" spans="2:6" ht="18">
-      <c r="B79" s="136"/>
+      <c r="B79" s="135"/>
       <c r="C79" s="15"/>
       <c r="D79" s="15" t="s">
         <v>96</v>
@@ -3693,7 +3697,7 @@
       <c r="F79" s="2"/>
     </row>
     <row r="80" spans="2:6" ht="18">
-      <c r="B80" s="136"/>
+      <c r="B80" s="135"/>
       <c r="C80" s="15"/>
       <c r="D80" s="15" t="s">
         <v>97</v>
@@ -3704,14 +3708,14 @@
       <c r="F80" s="2"/>
     </row>
     <row r="81" spans="2:6">
-      <c r="B81" s="136"/>
+      <c r="B81" s="135"/>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
     </row>
     <row r="82" spans="2:6">
-      <c r="B82" s="136"/>
+      <c r="B82" s="135"/>
       <c r="C82" s="2" t="s">
         <v>98</v>
       </c>
@@ -3720,10 +3724,10 @@
       <c r="F82" s="2"/>
     </row>
     <row r="83" spans="2:6">
-      <c r="B83" s="136"/>
+      <c r="B83" s="135"/>
     </row>
     <row r="84" spans="2:6">
-      <c r="B84" s="137"/>
+      <c r="B84" s="136"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -3750,8 +3754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E10E9005-F9D0-4E45-A602-C89B60257518}">
   <dimension ref="B2:H88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B6" zoomScale="75" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="D95" sqref="D95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3765,14 +3769,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="30">
-      <c r="B2" s="132" t="s">
+      <c r="B2" s="131" t="s">
         <v>135</v>
       </c>
-      <c r="C2" s="133"/>
-      <c r="D2" s="133"/>
-      <c r="E2" s="133"/>
-      <c r="F2" s="133"/>
-      <c r="G2" s="134"/>
+      <c r="C2" s="132"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="132"/>
+      <c r="F2" s="132"/>
+      <c r="G2" s="133"/>
     </row>
     <row r="3" spans="2:8">
       <c r="B3" s="25" t="s">
@@ -3796,10 +3800,10 @@
       <c r="H3" s="117"/>
     </row>
     <row r="4" spans="2:8">
-      <c r="B4" s="184" t="s">
+      <c r="B4" s="210" t="s">
         <v>171</v>
       </c>
-      <c r="C4" s="187" t="s">
+      <c r="C4" s="213" t="s">
         <v>172</v>
       </c>
       <c r="D4" s="70" t="s">
@@ -3817,8 +3821,8 @@
       <c r="H4" s="117"/>
     </row>
     <row r="5" spans="2:8">
-      <c r="B5" s="185"/>
-      <c r="C5" s="188"/>
+      <c r="B5" s="211"/>
+      <c r="C5" s="214"/>
       <c r="D5" s="70" t="s">
         <v>166</v>
       </c>
@@ -3834,8 +3838,8 @@
       <c r="H5" s="117"/>
     </row>
     <row r="6" spans="2:8">
-      <c r="B6" s="185"/>
-      <c r="C6" s="189"/>
+      <c r="B6" s="211"/>
+      <c r="C6" s="215"/>
       <c r="D6" s="70" t="s">
         <v>167</v>
       </c>
@@ -3851,7 +3855,7 @@
       <c r="H6" s="117"/>
     </row>
     <row r="7" spans="2:8">
-      <c r="B7" s="185"/>
+      <c r="B7" s="211"/>
       <c r="C7" s="72" t="s">
         <v>168</v>
       </c>
@@ -3870,8 +3874,8 @@
       <c r="H7" s="117"/>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="185"/>
-      <c r="C8" s="171" t="s">
+      <c r="B8" s="211"/>
+      <c r="C8" s="197" t="s">
         <v>173</v>
       </c>
       <c r="D8" s="75" t="s">
@@ -3887,8 +3891,8 @@
       <c r="H8" s="117"/>
     </row>
     <row r="9" spans="2:8">
-      <c r="B9" s="186"/>
-      <c r="C9" s="173"/>
+      <c r="B9" s="212"/>
+      <c r="C9" s="199"/>
       <c r="D9" s="75" t="s">
         <v>170</v>
       </c>
@@ -3911,10 +3915,10 @@
       <c r="H10" s="117"/>
     </row>
     <row r="11" spans="2:8" ht="36" customHeight="1">
-      <c r="B11" s="191" t="s">
+      <c r="B11" s="162" t="s">
         <v>99</v>
       </c>
-      <c r="C11" s="174" t="s">
+      <c r="C11" s="200" t="s">
         <v>144</v>
       </c>
       <c r="D11" s="27" t="s">
@@ -3934,8 +3938,8 @@
       </c>
     </row>
     <row r="12" spans="2:8" ht="18">
-      <c r="B12" s="192"/>
-      <c r="C12" s="175"/>
+      <c r="B12" s="163"/>
+      <c r="C12" s="201"/>
       <c r="D12" s="27" t="s">
         <v>187</v>
       </c>
@@ -3951,8 +3955,8 @@
       </c>
     </row>
     <row r="13" spans="2:8" ht="18">
-      <c r="B13" s="192"/>
-      <c r="C13" s="175"/>
+      <c r="B13" s="163"/>
+      <c r="C13" s="201"/>
       <c r="D13" s="28" t="s">
         <v>188</v>
       </c>
@@ -3970,8 +3974,8 @@
       </c>
     </row>
     <row r="14" spans="2:8" ht="18">
-      <c r="B14" s="192"/>
-      <c r="C14" s="175"/>
+      <c r="B14" s="163"/>
+      <c r="C14" s="201"/>
       <c r="D14" s="28" t="s">
         <v>189</v>
       </c>
@@ -3989,8 +3993,8 @@
       </c>
     </row>
     <row r="15" spans="2:8" ht="36">
-      <c r="B15" s="192"/>
-      <c r="C15" s="175"/>
+      <c r="B15" s="163"/>
+      <c r="C15" s="201"/>
       <c r="D15" s="28" t="s">
         <v>190</v>
       </c>
@@ -4008,8 +4012,8 @@
       </c>
     </row>
     <row r="16" spans="2:8" ht="17" customHeight="1">
-      <c r="B16" s="192"/>
-      <c r="C16" s="176"/>
+      <c r="B16" s="163"/>
+      <c r="C16" s="202"/>
       <c r="D16" s="29" t="s">
         <v>184</v>
       </c>
@@ -4023,8 +4027,8 @@
       <c r="H16" s="117"/>
     </row>
     <row r="17" spans="2:8" ht="18">
-      <c r="B17" s="192"/>
-      <c r="C17" s="149" t="s">
+      <c r="B17" s="163"/>
+      <c r="C17" s="148" t="s">
         <v>114</v>
       </c>
       <c r="D17" s="30" t="s">
@@ -4042,8 +4046,8 @@
       <c r="H17" s="117"/>
     </row>
     <row r="18" spans="2:8" ht="18">
-      <c r="B18" s="192"/>
-      <c r="C18" s="177"/>
+      <c r="B18" s="163"/>
+      <c r="C18" s="203"/>
       <c r="D18" s="31" t="s">
         <v>191</v>
       </c>
@@ -4057,8 +4061,8 @@
       <c r="H18" s="117"/>
     </row>
     <row r="19" spans="2:8" ht="18">
-      <c r="B19" s="192"/>
-      <c r="C19" s="177"/>
+      <c r="B19" s="163"/>
+      <c r="C19" s="203"/>
       <c r="D19" s="31" t="s">
         <v>192</v>
       </c>
@@ -4072,8 +4076,8 @@
       <c r="H19" s="117"/>
     </row>
     <row r="20" spans="2:8" ht="18">
-      <c r="B20" s="192"/>
-      <c r="C20" s="177"/>
+      <c r="B20" s="163"/>
+      <c r="C20" s="203"/>
       <c r="D20" s="31" t="s">
         <v>193</v>
       </c>
@@ -4087,8 +4091,8 @@
       <c r="H20" s="117"/>
     </row>
     <row r="21" spans="2:8" ht="18">
-      <c r="B21" s="192"/>
-      <c r="C21" s="177"/>
+      <c r="B21" s="163"/>
+      <c r="C21" s="203"/>
       <c r="D21" s="31" t="s">
         <v>194</v>
       </c>
@@ -4102,8 +4106,8 @@
       <c r="H21" s="117"/>
     </row>
     <row r="22" spans="2:8" ht="18">
-      <c r="B22" s="192"/>
-      <c r="C22" s="177"/>
+      <c r="B22" s="163"/>
+      <c r="C22" s="203"/>
       <c r="D22" s="31" t="s">
         <v>197</v>
       </c>
@@ -4117,8 +4121,8 @@
       <c r="H22" s="117"/>
     </row>
     <row r="23" spans="2:8" ht="18">
-      <c r="B23" s="192"/>
-      <c r="C23" s="150"/>
+      <c r="B23" s="163"/>
+      <c r="C23" s="149"/>
       <c r="D23" s="31" t="s">
         <v>196</v>
       </c>
@@ -4132,8 +4136,8 @@
       <c r="H23" s="117"/>
     </row>
     <row r="24" spans="2:8" ht="18">
-      <c r="B24" s="192"/>
-      <c r="C24" s="178" t="s">
+      <c r="B24" s="163"/>
+      <c r="C24" s="204" t="s">
         <v>145</v>
       </c>
       <c r="D24" s="32" t="s">
@@ -4151,8 +4155,8 @@
       <c r="H24" s="117"/>
     </row>
     <row r="25" spans="2:8" ht="18">
-      <c r="B25" s="192"/>
-      <c r="C25" s="179"/>
+      <c r="B25" s="163"/>
+      <c r="C25" s="205"/>
       <c r="D25" s="19" t="s">
         <v>198</v>
       </c>
@@ -4166,8 +4170,8 @@
       <c r="H25" s="117"/>
     </row>
     <row r="26" spans="2:8" ht="18">
-      <c r="B26" s="192"/>
-      <c r="C26" s="179"/>
+      <c r="B26" s="163"/>
+      <c r="C26" s="205"/>
       <c r="D26" s="19" t="s">
         <v>202</v>
       </c>
@@ -4181,8 +4185,8 @@
       <c r="H26" s="117"/>
     </row>
     <row r="27" spans="2:8" ht="18">
-      <c r="B27" s="192"/>
-      <c r="C27" s="179"/>
+      <c r="B27" s="163"/>
+      <c r="C27" s="205"/>
       <c r="D27" s="19" t="s">
         <v>203</v>
       </c>
@@ -4196,8 +4200,8 @@
       <c r="H27" s="117"/>
     </row>
     <row r="28" spans="2:8" ht="17">
-      <c r="B28" s="192"/>
-      <c r="C28" s="180"/>
+      <c r="B28" s="163"/>
+      <c r="C28" s="206"/>
       <c r="D28" s="19"/>
       <c r="E28" s="58"/>
       <c r="F28" s="93"/>
@@ -4205,8 +4209,8 @@
       <c r="H28" s="117"/>
     </row>
     <row r="29" spans="2:8" ht="18">
-      <c r="B29" s="192"/>
-      <c r="C29" s="181" t="s">
+      <c r="B29" s="163"/>
+      <c r="C29" s="207" t="s">
         <v>148</v>
       </c>
       <c r="D29" s="36" t="s">
@@ -4224,8 +4228,8 @@
       <c r="H29" s="117"/>
     </row>
     <row r="30" spans="2:8" ht="18">
-      <c r="B30" s="192"/>
-      <c r="C30" s="182"/>
+      <c r="B30" s="163"/>
+      <c r="C30" s="208"/>
       <c r="D30" s="36" t="s">
         <v>205</v>
       </c>
@@ -4239,8 +4243,8 @@
       <c r="H30" s="117"/>
     </row>
     <row r="31" spans="2:8" ht="36" customHeight="1">
-      <c r="B31" s="192"/>
-      <c r="C31" s="182"/>
+      <c r="B31" s="163"/>
+      <c r="C31" s="208"/>
       <c r="D31" s="36" t="s">
         <v>206</v>
       </c>
@@ -4254,8 +4258,8 @@
       <c r="H31" s="117"/>
     </row>
     <row r="32" spans="2:8" ht="54" customHeight="1">
-      <c r="B32" s="192"/>
-      <c r="C32" s="183"/>
+      <c r="B32" s="163"/>
+      <c r="C32" s="209"/>
       <c r="D32" s="59" t="s">
         <v>207</v>
       </c>
@@ -4269,11 +4273,11 @@
       <c r="H32" s="117"/>
     </row>
     <row r="33" spans="2:8" ht="16" customHeight="1">
-      <c r="B33" s="192"/>
-      <c r="C33" s="156" t="s">
+      <c r="B33" s="163"/>
+      <c r="C33" s="155" t="s">
         <v>88</v>
       </c>
-      <c r="D33" s="171" t="s">
+      <c r="D33" s="197" t="s">
         <v>155</v>
       </c>
       <c r="E33" s="79" t="s">
@@ -4288,9 +4292,9 @@
       <c r="H33" s="117"/>
     </row>
     <row r="34" spans="2:8" ht="16" customHeight="1">
-      <c r="B34" s="192"/>
-      <c r="C34" s="157"/>
-      <c r="D34" s="172"/>
+      <c r="B34" s="163"/>
+      <c r="C34" s="156"/>
+      <c r="D34" s="198"/>
       <c r="E34" s="79" t="s">
         <v>209</v>
       </c>
@@ -4303,9 +4307,9 @@
       <c r="H34" s="117"/>
     </row>
     <row r="35" spans="2:8" ht="17" customHeight="1">
-      <c r="B35" s="192"/>
-      <c r="C35" s="158"/>
-      <c r="D35" s="173"/>
+      <c r="B35" s="163"/>
+      <c r="C35" s="157"/>
+      <c r="D35" s="199"/>
       <c r="E35" s="79" t="s">
         <v>208</v>
       </c>
@@ -4318,11 +4322,11 @@
       <c r="H35" s="117"/>
     </row>
     <row r="36" spans="2:8" ht="16" customHeight="1">
-      <c r="B36" s="192"/>
-      <c r="C36" s="162" t="s">
+      <c r="B36" s="163"/>
+      <c r="C36" s="188" t="s">
         <v>149</v>
       </c>
-      <c r="D36" s="165" t="s">
+      <c r="D36" s="191" t="s">
         <v>213</v>
       </c>
       <c r="E36" s="60" t="s">
@@ -4337,9 +4341,9 @@
       <c r="H36" s="117"/>
     </row>
     <row r="37" spans="2:8" ht="16" customHeight="1">
-      <c r="B37" s="192"/>
-      <c r="C37" s="163"/>
-      <c r="D37" s="166"/>
+      <c r="B37" s="163"/>
+      <c r="C37" s="189"/>
+      <c r="D37" s="192"/>
       <c r="E37" s="60" t="s">
         <v>215</v>
       </c>
@@ -4352,9 +4356,9 @@
       <c r="H37" s="117"/>
     </row>
     <row r="38" spans="2:8" ht="16" customHeight="1">
-      <c r="B38" s="192"/>
-      <c r="C38" s="163"/>
-      <c r="D38" s="166"/>
+      <c r="B38" s="163"/>
+      <c r="C38" s="189"/>
+      <c r="D38" s="192"/>
       <c r="E38" s="60" t="s">
         <v>212</v>
       </c>
@@ -4367,9 +4371,9 @@
       <c r="H38" s="117"/>
     </row>
     <row r="39" spans="2:8" ht="16" customHeight="1">
-      <c r="B39" s="192"/>
-      <c r="C39" s="163"/>
-      <c r="D39" s="166"/>
+      <c r="B39" s="163"/>
+      <c r="C39" s="189"/>
+      <c r="D39" s="192"/>
       <c r="E39" s="60" t="s">
         <v>214</v>
       </c>
@@ -4382,9 +4386,9 @@
       <c r="H39" s="117"/>
     </row>
     <row r="40" spans="2:8" ht="16" customHeight="1">
-      <c r="B40" s="192"/>
-      <c r="C40" s="163"/>
-      <c r="D40" s="167"/>
+      <c r="B40" s="163"/>
+      <c r="C40" s="189"/>
+      <c r="D40" s="193"/>
       <c r="E40" s="60"/>
       <c r="F40" s="96"/>
       <c r="G40" s="3" t="s">
@@ -4393,11 +4397,11 @@
       <c r="H40" s="117"/>
     </row>
     <row r="41" spans="2:8" ht="16" customHeight="1">
-      <c r="B41" s="192"/>
-      <c r="C41" s="164" t="s">
+      <c r="B41" s="163"/>
+      <c r="C41" s="190" t="s">
         <v>150</v>
       </c>
-      <c r="D41" s="168"/>
+      <c r="D41" s="194"/>
       <c r="E41" s="61" t="s">
         <v>216</v>
       </c>
@@ -4410,9 +4414,9 @@
       <c r="H41" s="117"/>
     </row>
     <row r="42" spans="2:8" ht="16" customHeight="1">
-      <c r="B42" s="192"/>
-      <c r="C42" s="164"/>
-      <c r="D42" s="169"/>
+      <c r="B42" s="163"/>
+      <c r="C42" s="190"/>
+      <c r="D42" s="195"/>
       <c r="E42" s="61" t="s">
         <v>217</v>
       </c>
@@ -4425,9 +4429,9 @@
       <c r="H42" s="117"/>
     </row>
     <row r="43" spans="2:8" ht="16" customHeight="1">
-      <c r="B43" s="192"/>
-      <c r="C43" s="164"/>
-      <c r="D43" s="169"/>
+      <c r="B43" s="163"/>
+      <c r="C43" s="190"/>
+      <c r="D43" s="195"/>
       <c r="E43" s="61" t="s">
         <v>218</v>
       </c>
@@ -4440,9 +4444,9 @@
       <c r="H43" s="117"/>
     </row>
     <row r="44" spans="2:8" ht="16" customHeight="1">
-      <c r="B44" s="192"/>
-      <c r="C44" s="164"/>
-      <c r="D44" s="169"/>
+      <c r="B44" s="163"/>
+      <c r="C44" s="190"/>
+      <c r="D44" s="195"/>
       <c r="E44" s="61" t="s">
         <v>215</v>
       </c>
@@ -4455,9 +4459,9 @@
       <c r="H44" s="117"/>
     </row>
     <row r="45" spans="2:8" ht="16" customHeight="1">
-      <c r="B45" s="192"/>
-      <c r="C45" s="164"/>
-      <c r="D45" s="169"/>
+      <c r="B45" s="163"/>
+      <c r="C45" s="190"/>
+      <c r="D45" s="195"/>
       <c r="E45" s="61" t="s">
         <v>200</v>
       </c>
@@ -4470,9 +4474,9 @@
       <c r="H45" s="117"/>
     </row>
     <row r="46" spans="2:8" ht="16" customHeight="1">
-      <c r="B46" s="192"/>
-      <c r="C46" s="164"/>
-      <c r="D46" s="170"/>
+      <c r="B46" s="163"/>
+      <c r="C46" s="190"/>
+      <c r="D46" s="196"/>
       <c r="E46" s="61" t="s">
         <v>219</v>
       </c>
@@ -4485,7 +4489,7 @@
       <c r="H46" s="117"/>
     </row>
     <row r="47" spans="2:8" ht="16" customHeight="1">
-      <c r="B47" s="192"/>
+      <c r="B47" s="163"/>
       <c r="C47" s="46" t="s">
         <v>162</v>
       </c>
@@ -4502,7 +4506,7 @@
       <c r="H47" s="117"/>
     </row>
     <row r="48" spans="2:8" ht="16" customHeight="1">
-      <c r="B48" s="193"/>
+      <c r="B48" s="164"/>
       <c r="C48" s="46" t="s">
         <v>164</v>
       </c>
@@ -4530,10 +4534,10 @@
       <c r="H49" s="117"/>
     </row>
     <row r="50" spans="2:8" ht="18">
-      <c r="B50" s="205" t="s">
+      <c r="B50" s="176" t="s">
         <v>136</v>
       </c>
-      <c r="C50" s="212" t="s">
+      <c r="C50" s="183" t="s">
         <v>147</v>
       </c>
       <c r="D50" s="39" t="s">
@@ -4551,8 +4555,8 @@
       <c r="H50" s="117"/>
     </row>
     <row r="51" spans="2:8" ht="18">
-      <c r="B51" s="205"/>
-      <c r="C51" s="213"/>
+      <c r="B51" s="176"/>
+      <c r="C51" s="184"/>
       <c r="D51" s="41" t="s">
         <v>91</v>
       </c>
@@ -4567,8 +4571,8 @@
       </c>
     </row>
     <row r="52" spans="2:8" ht="18">
-      <c r="B52" s="205"/>
-      <c r="C52" s="213"/>
+      <c r="B52" s="176"/>
+      <c r="C52" s="184"/>
       <c r="D52" s="41" t="s">
         <v>121</v>
       </c>
@@ -4583,8 +4587,8 @@
       </c>
     </row>
     <row r="53" spans="2:8" ht="18">
-      <c r="B53" s="205"/>
-      <c r="C53" s="213"/>
+      <c r="B53" s="176"/>
+      <c r="C53" s="184"/>
       <c r="D53" s="41" t="s">
         <v>119</v>
       </c>
@@ -4599,8 +4603,8 @@
       </c>
     </row>
     <row r="54" spans="2:8" ht="18">
-      <c r="B54" s="205"/>
-      <c r="C54" s="214"/>
+      <c r="B54" s="176"/>
+      <c r="C54" s="185"/>
       <c r="D54" s="41" t="s">
         <v>236</v>
       </c>
@@ -4613,8 +4617,8 @@
       </c>
     </row>
     <row r="55" spans="2:8" ht="17">
-      <c r="B55" s="205"/>
-      <c r="C55" s="215" t="s">
+      <c r="B55" s="176"/>
+      <c r="C55" s="186" t="s">
         <v>123</v>
       </c>
       <c r="D55" s="42"/>
@@ -4623,8 +4627,8 @@
       <c r="G55" s="43"/>
     </row>
     <row r="56" spans="2:8" ht="18">
-      <c r="B56" s="205"/>
-      <c r="C56" s="216"/>
+      <c r="B56" s="176"/>
+      <c r="C56" s="187"/>
       <c r="D56" s="42" t="s">
         <v>227</v>
       </c>
@@ -4639,8 +4643,8 @@
       </c>
     </row>
     <row r="57" spans="2:8" ht="18">
-      <c r="B57" s="205"/>
-      <c r="C57" s="216"/>
+      <c r="B57" s="176"/>
+      <c r="C57" s="187"/>
       <c r="D57" s="42" t="s">
         <v>228</v>
       </c>
@@ -4655,8 +4659,8 @@
       </c>
     </row>
     <row r="58" spans="2:8" ht="18">
-      <c r="B58" s="205"/>
-      <c r="C58" s="216"/>
+      <c r="B58" s="176"/>
+      <c r="C58" s="187"/>
       <c r="D58" s="42" t="s">
         <v>229</v>
       </c>
@@ -4671,8 +4675,8 @@
       </c>
     </row>
     <row r="59" spans="2:8" ht="18">
-      <c r="B59" s="205"/>
-      <c r="C59" s="216"/>
+      <c r="B59" s="176"/>
+      <c r="C59" s="187"/>
       <c r="D59" s="42" t="s">
         <v>236</v>
       </c>
@@ -4685,8 +4689,8 @@
       </c>
     </row>
     <row r="60" spans="2:8" ht="18">
-      <c r="B60" s="205"/>
-      <c r="C60" s="197" t="s">
+      <c r="B60" s="176"/>
+      <c r="C60" s="168" t="s">
         <v>244</v>
       </c>
       <c r="D60" s="110" t="s">
@@ -4701,8 +4705,8 @@
       </c>
     </row>
     <row r="61" spans="2:8" ht="18">
-      <c r="B61" s="205"/>
-      <c r="C61" s="198"/>
+      <c r="B61" s="176"/>
+      <c r="C61" s="169"/>
       <c r="D61" s="110" t="s">
         <v>230</v>
       </c>
@@ -4715,8 +4719,8 @@
       </c>
     </row>
     <row r="62" spans="2:8" ht="18">
-      <c r="B62" s="205"/>
-      <c r="C62" s="198"/>
+      <c r="B62" s="176"/>
+      <c r="C62" s="169"/>
       <c r="D62" s="110" t="s">
         <v>163</v>
       </c>
@@ -4729,8 +4733,8 @@
       </c>
     </row>
     <row r="63" spans="2:8" ht="18">
-      <c r="B63" s="205"/>
-      <c r="C63" s="199"/>
+      <c r="B63" s="176"/>
+      <c r="C63" s="170"/>
       <c r="D63" s="110" t="s">
         <v>236</v>
       </c>
@@ -4743,8 +4747,8 @@
       </c>
     </row>
     <row r="64" spans="2:8" ht="16" customHeight="1">
-      <c r="B64" s="205"/>
-      <c r="C64" s="200" t="s">
+      <c r="B64" s="176"/>
+      <c r="C64" s="171" t="s">
         <v>151</v>
       </c>
       <c r="D64" s="38"/>
@@ -4753,8 +4757,8 @@
       <c r="G64" s="38"/>
     </row>
     <row r="65" spans="2:8" ht="18">
-      <c r="B65" s="205"/>
-      <c r="C65" s="201"/>
+      <c r="B65" s="176"/>
+      <c r="C65" s="172"/>
       <c r="D65" s="44" t="s">
         <v>231</v>
       </c>
@@ -4769,8 +4773,8 @@
       </c>
     </row>
     <row r="66" spans="2:8" ht="18">
-      <c r="B66" s="205"/>
-      <c r="C66" s="201"/>
+      <c r="B66" s="176"/>
+      <c r="C66" s="172"/>
       <c r="D66" s="44" t="s">
         <v>232</v>
       </c>
@@ -4785,8 +4789,8 @@
       </c>
     </row>
     <row r="67" spans="2:8" ht="17" customHeight="1">
-      <c r="B67" s="205"/>
-      <c r="C67" s="202"/>
+      <c r="B67" s="176"/>
+      <c r="C67" s="173"/>
       <c r="D67" s="45" t="s">
         <v>233</v>
       </c>
@@ -4797,8 +4801,8 @@
       </c>
     </row>
     <row r="68" spans="2:8" ht="16" customHeight="1">
-      <c r="B68" s="205"/>
-      <c r="C68" s="203" t="s">
+      <c r="B68" s="176"/>
+      <c r="C68" s="174" t="s">
         <v>152</v>
       </c>
       <c r="D68" s="107" t="s">
@@ -4813,8 +4817,8 @@
       </c>
     </row>
     <row r="69" spans="2:8" ht="16" customHeight="1">
-      <c r="B69" s="205"/>
-      <c r="C69" s="204"/>
+      <c r="B69" s="176"/>
+      <c r="C69" s="175"/>
       <c r="D69" s="107" t="s">
         <v>233</v>
       </c>
@@ -4827,8 +4831,8 @@
       </c>
     </row>
     <row r="70" spans="2:8" ht="18">
-      <c r="B70" s="205"/>
-      <c r="C70" s="209" t="s">
+      <c r="B70" s="176"/>
+      <c r="C70" s="180" t="s">
         <v>153</v>
       </c>
       <c r="D70" s="33" t="s">
@@ -4843,8 +4847,8 @@
       </c>
     </row>
     <row r="71" spans="2:8" ht="18">
-      <c r="B71" s="205"/>
-      <c r="C71" s="210"/>
+      <c r="B71" s="176"/>
+      <c r="C71" s="181"/>
       <c r="D71" s="33" t="s">
         <v>235</v>
       </c>
@@ -4857,8 +4861,8 @@
       </c>
     </row>
     <row r="72" spans="2:8" ht="18">
-      <c r="B72" s="205"/>
-      <c r="C72" s="211"/>
+      <c r="B72" s="176"/>
+      <c r="C72" s="182"/>
       <c r="D72" s="33" t="s">
         <v>233</v>
       </c>
@@ -4871,8 +4875,8 @@
       </c>
     </row>
     <row r="73" spans="2:8" ht="18">
-      <c r="B73" s="205"/>
-      <c r="C73" s="206" t="s">
+      <c r="B73" s="176"/>
+      <c r="C73" s="177" t="s">
         <v>154</v>
       </c>
       <c r="D73" s="35" t="s">
@@ -4892,8 +4896,8 @@
       </c>
     </row>
     <row r="74" spans="2:8" ht="17">
-      <c r="B74" s="205"/>
-      <c r="C74" s="207"/>
+      <c r="B74" s="176"/>
+      <c r="C74" s="178"/>
       <c r="D74" s="6" t="s">
         <v>116</v>
       </c>
@@ -4907,8 +4911,8 @@
       <c r="H74" s="120"/>
     </row>
     <row r="75" spans="2:8">
-      <c r="B75" s="205"/>
-      <c r="C75" s="208"/>
+      <c r="B75" s="176"/>
+      <c r="C75" s="179"/>
       <c r="D75" s="6" t="s">
         <v>233</v>
       </c>
@@ -4922,7 +4926,7 @@
       <c r="H75" s="120"/>
     </row>
     <row r="76" spans="2:8">
-      <c r="B76" s="194" t="s">
+      <c r="B76" s="165" t="s">
         <v>159</v>
       </c>
       <c r="C76" s="37" t="s">
@@ -4940,7 +4944,7 @@
       </c>
     </row>
     <row r="77" spans="2:8">
-      <c r="B77" s="195"/>
+      <c r="B77" s="166"/>
       <c r="C77" s="37" t="s">
         <v>161</v>
       </c>
@@ -4956,7 +4960,7 @@
       </c>
     </row>
     <row r="78" spans="2:8">
-      <c r="B78" s="196"/>
+      <c r="B78" s="167"/>
       <c r="C78" s="37"/>
       <c r="D78" s="37" t="s">
         <v>233</v>
@@ -4970,7 +4974,7 @@
       </c>
     </row>
     <row r="79" spans="2:8">
-      <c r="B79" s="190" t="s">
+      <c r="B79" s="161" t="s">
         <v>222</v>
       </c>
       <c r="C79" s="5"/>
@@ -4984,7 +4988,7 @@
       <c r="G79" s="5"/>
     </row>
     <row r="80" spans="2:8">
-      <c r="B80" s="190"/>
+      <c r="B80" s="161"/>
       <c r="C80" s="5" t="s">
         <v>223</v>
       </c>
@@ -4998,7 +5002,7 @@
       <c r="G80" s="5"/>
     </row>
     <row r="81" spans="2:8">
-      <c r="B81" s="190"/>
+      <c r="B81" s="161"/>
       <c r="C81" s="5" t="s">
         <v>224</v>
       </c>
@@ -5012,7 +5016,7 @@
       <c r="G81" s="5"/>
     </row>
     <row r="82" spans="2:8">
-      <c r="B82" s="190"/>
+      <c r="B82" s="161"/>
       <c r="C82" s="115" t="s">
         <v>225</v>
       </c>
@@ -5024,7 +5028,7 @@
       <c r="G82" s="5"/>
     </row>
     <row r="83" spans="2:8">
-      <c r="B83" s="190"/>
+      <c r="B83" s="161"/>
       <c r="C83" s="5"/>
       <c r="D83" s="68"/>
       <c r="E83" s="113"/>
@@ -5066,18 +5070,28 @@
       </c>
     </row>
     <row r="86" spans="2:8">
-      <c r="B86" s="122">
+      <c r="B86" s="216">
         <v>44039</v>
       </c>
-      <c r="C86" s="115" t="s">
+      <c r="C86" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="D86" s="51"/>
-      <c r="E86" s="52"/>
+      <c r="D86" s="53"/>
+      <c r="E86" s="118"/>
+      <c r="F86" s="53"/>
+      <c r="G86" s="2"/>
     </row>
     <row r="87" spans="2:8">
-      <c r="D87" s="51"/>
-      <c r="E87" s="52"/>
+      <c r="B87" s="216">
+        <v>44039</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="D87" s="53"/>
+      <c r="E87" s="118"/>
+      <c r="F87" s="53"/>
+      <c r="G87" s="2"/>
     </row>
     <row r="88" spans="2:8">
       <c r="D88" s="51"/>
@@ -5085,17 +5099,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B79:B83"/>
-    <mergeCell ref="B11:B48"/>
-    <mergeCell ref="B76:B78"/>
-    <mergeCell ref="C60:C63"/>
-    <mergeCell ref="C64:C67"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="B50:B75"/>
-    <mergeCell ref="C73:C75"/>
-    <mergeCell ref="C70:C72"/>
-    <mergeCell ref="C50:C54"/>
-    <mergeCell ref="C55:C59"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="C36:C40"/>
     <mergeCell ref="C41:C46"/>
@@ -5110,6 +5113,17 @@
     <mergeCell ref="B4:B9"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="C8:C9"/>
+    <mergeCell ref="B79:B83"/>
+    <mergeCell ref="B11:B48"/>
+    <mergeCell ref="B76:B78"/>
+    <mergeCell ref="C60:C63"/>
+    <mergeCell ref="C64:C67"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="B50:B75"/>
+    <mergeCell ref="C73:C75"/>
+    <mergeCell ref="C70:C72"/>
+    <mergeCell ref="C50:C54"/>
+    <mergeCell ref="C55:C59"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/结算数据监控平台开发计划.xlsx
+++ b/结算数据监控平台开发计划.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicker/sandbox/settlementMonitoring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B85E3A9-9775-7A41-8CEF-7B2058944C75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2A2B23A-6E99-8445-B03A-55A4291356D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18940" activeTab="3" xr2:uid="{AD2C15C8-2DE4-104B-A764-E65CC8F0AEA6}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18940" activeTab="4" xr2:uid="{AD2C15C8-2DE4-104B-A764-E65CC8F0AEA6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_Toc43818052" localSheetId="0">Sheet1!$B$5</definedName>
     <definedName name="_Toc43818053" localSheetId="0">Sheet1!$B$17</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="247">
   <si>
     <t>ETX联网结算平台</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1152,6 +1153,10 @@
   </si>
   <si>
     <t>增加：清分核对差额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结算数据监控平台功能列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1521,7 +1526,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="217">
+  <cellXfs count="223">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1888,6 +1893,27 @@
     <xf numFmtId="58" fontId="0" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2005,6 +2031,90 @@
     <xf numFmtId="0" fontId="9" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2085,93 +2195,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2669,16 +2692,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="18" customHeight="1">
-      <c r="B1" s="123" t="s">
+      <c r="B1" s="130" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="123"/>
-      <c r="D1" s="123"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
     </row>
     <row r="2" spans="2:5">
-      <c r="B2" s="124"/>
-      <c r="C2" s="124"/>
-      <c r="D2" s="124"/>
+      <c r="B2" s="131"/>
+      <c r="C2" s="131"/>
+      <c r="D2" s="131"/>
     </row>
     <row r="3" spans="2:5">
       <c r="B3" s="3" t="s">
@@ -2714,7 +2737,7 @@
       <c r="D5" s="2"/>
     </row>
     <row r="6" spans="2:5">
-      <c r="B6" s="125" t="s">
+      <c r="B6" s="132" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -2728,7 +2751,7 @@
       </c>
     </row>
     <row r="7" spans="2:5">
-      <c r="B7" s="125"/>
+      <c r="B7" s="132"/>
       <c r="C7" s="4" t="s">
         <v>39</v>
       </c>
@@ -2738,7 +2761,7 @@
       </c>
     </row>
     <row r="8" spans="2:5">
-      <c r="B8" s="127" t="s">
+      <c r="B8" s="134" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="5" t="s">
@@ -2752,7 +2775,7 @@
       </c>
     </row>
     <row r="9" spans="2:5">
-      <c r="B9" s="127"/>
+      <c r="B9" s="134"/>
       <c r="C9" s="5" t="s">
         <v>43</v>
       </c>
@@ -2788,7 +2811,7 @@
       <c r="D13" s="2"/>
     </row>
     <row r="14" spans="2:5">
-      <c r="B14" s="126" t="s">
+      <c r="B14" s="133" t="s">
         <v>45</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -2802,7 +2825,7 @@
       </c>
     </row>
     <row r="15" spans="2:5">
-      <c r="B15" s="126"/>
+      <c r="B15" s="133"/>
       <c r="C15" s="2" t="s">
         <v>27</v>
       </c>
@@ -2812,7 +2835,7 @@
       <c r="E15" s="11"/>
     </row>
     <row r="16" spans="2:5">
-      <c r="B16" s="126"/>
+      <c r="B16" s="133"/>
       <c r="C16" s="2" t="s">
         <v>28</v>
       </c>
@@ -2822,7 +2845,7 @@
       <c r="E16" s="11"/>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="126"/>
+      <c r="B17" s="133"/>
       <c r="C17" s="2" t="s">
         <v>29</v>
       </c>
@@ -2842,7 +2865,7 @@
       <c r="D19" s="2"/>
     </row>
     <row r="20" spans="2:5">
-      <c r="B20" s="122" t="s">
+      <c r="B20" s="129" t="s">
         <v>51</v>
       </c>
       <c r="C20" s="7" t="s">
@@ -2851,35 +2874,35 @@
       <c r="D20" s="2"/>
     </row>
     <row r="21" spans="2:5">
-      <c r="B21" s="122"/>
+      <c r="B21" s="129"/>
       <c r="C21" s="7" t="s">
         <v>34</v>
       </c>
       <c r="D21" s="2"/>
     </row>
     <row r="22" spans="2:5">
-      <c r="B22" s="122"/>
+      <c r="B22" s="129"/>
       <c r="C22" s="7" t="s">
         <v>53</v>
       </c>
       <c r="D22" s="2"/>
     </row>
     <row r="23" spans="2:5">
-      <c r="B23" s="122"/>
+      <c r="B23" s="129"/>
       <c r="C23" s="7" t="s">
         <v>54</v>
       </c>
       <c r="D23" s="2"/>
     </row>
     <row r="24" spans="2:5">
-      <c r="B24" s="122"/>
+      <c r="B24" s="129"/>
       <c r="C24" s="7" t="s">
         <v>55</v>
       </c>
       <c r="D24" s="2"/>
     </row>
     <row r="25" spans="2:5">
-      <c r="B25" s="122"/>
+      <c r="B25" s="129"/>
       <c r="C25" s="2" t="s">
         <v>56</v>
       </c>
@@ -2983,13 +3006,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="30">
-      <c r="B2" s="131" t="s">
+      <c r="B2" s="138" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="132"/>
-      <c r="D2" s="132"/>
-      <c r="E2" s="132"/>
-      <c r="F2" s="133"/>
+      <c r="C2" s="139"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="139"/>
+      <c r="F2" s="140"/>
     </row>
     <row r="3" spans="2:8">
       <c r="B3" s="25"/>
@@ -3002,7 +3025,7 @@
       <c r="B4" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="C4" s="137" t="s">
+      <c r="C4" s="144" t="s">
         <v>60</v>
       </c>
       <c r="D4" s="14" t="s">
@@ -3021,7 +3044,7 @@
     </row>
     <row r="5" spans="2:8" ht="18">
       <c r="B5" s="23"/>
-      <c r="C5" s="138"/>
+      <c r="C5" s="145"/>
       <c r="D5" s="15" t="s">
         <v>129</v>
       </c>
@@ -3032,7 +3055,7 @@
     </row>
     <row r="6" spans="2:8" ht="18">
       <c r="B6" s="23"/>
-      <c r="C6" s="138"/>
+      <c r="C6" s="145"/>
       <c r="D6" s="15" t="s">
         <v>130</v>
       </c>
@@ -3041,7 +3064,7 @@
     </row>
     <row r="7" spans="2:8" ht="18">
       <c r="B7" s="23"/>
-      <c r="C7" s="139"/>
+      <c r="C7" s="146"/>
       <c r="D7" s="15" t="s">
         <v>131</v>
       </c>
@@ -3061,7 +3084,7 @@
     </row>
     <row r="9" spans="2:8" ht="17">
       <c r="B9" s="23"/>
-      <c r="C9" s="140" t="s">
+      <c r="C9" s="147" t="s">
         <v>114</v>
       </c>
       <c r="D9" s="15"/>
@@ -3070,7 +3093,7 @@
     </row>
     <row r="10" spans="2:8" ht="16" customHeight="1">
       <c r="B10" s="23"/>
-      <c r="C10" s="141"/>
+      <c r="C10" s="148"/>
       <c r="D10" s="15" t="s">
         <v>62</v>
       </c>
@@ -3079,7 +3102,7 @@
     </row>
     <row r="11" spans="2:8" ht="18" customHeight="1">
       <c r="B11" s="23"/>
-      <c r="C11" s="141"/>
+      <c r="C11" s="148"/>
       <c r="D11" s="15" t="s">
         <v>65</v>
       </c>
@@ -3090,7 +3113,7 @@
     </row>
     <row r="12" spans="2:8" ht="18">
       <c r="B12" s="23"/>
-      <c r="C12" s="141"/>
+      <c r="C12" s="148"/>
       <c r="D12" s="15" t="s">
         <v>66</v>
       </c>
@@ -3101,7 +3124,7 @@
     </row>
     <row r="13" spans="2:8" ht="36">
       <c r="B13" s="23"/>
-      <c r="C13" s="141"/>
+      <c r="C13" s="148"/>
       <c r="D13" s="15" t="s">
         <v>68</v>
       </c>
@@ -3112,7 +3135,7 @@
     </row>
     <row r="14" spans="2:8" ht="18">
       <c r="B14" s="23"/>
-      <c r="C14" s="142"/>
+      <c r="C14" s="149"/>
       <c r="D14" s="16" t="s">
         <v>70</v>
       </c>
@@ -3157,7 +3180,7 @@
     </row>
     <row r="19" spans="2:6" ht="18">
       <c r="B19" s="23"/>
-      <c r="C19" s="143"/>
+      <c r="C19" s="150"/>
       <c r="D19" s="15" t="s">
         <v>132</v>
       </c>
@@ -3166,7 +3189,7 @@
     </row>
     <row r="20" spans="2:6" ht="18">
       <c r="B20" s="23"/>
-      <c r="C20" s="144"/>
+      <c r="C20" s="151"/>
       <c r="D20" s="15" t="s">
         <v>133</v>
       </c>
@@ -3175,28 +3198,28 @@
     </row>
     <row r="21" spans="2:6" ht="17">
       <c r="B21" s="23"/>
-      <c r="C21" s="144"/>
+      <c r="C21" s="151"/>
       <c r="D21" s="15"/>
       <c r="E21" s="15"/>
       <c r="F21" s="2"/>
     </row>
     <row r="22" spans="2:6" ht="17">
       <c r="B22" s="23"/>
-      <c r="C22" s="144"/>
+      <c r="C22" s="151"/>
       <c r="D22" s="15"/>
       <c r="E22" s="15"/>
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="2:6" ht="17">
       <c r="B23" s="23"/>
-      <c r="C23" s="144"/>
+      <c r="C23" s="151"/>
       <c r="D23" s="15"/>
       <c r="E23" s="15"/>
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="2:6" ht="17">
       <c r="B24" s="23"/>
-      <c r="C24" s="145"/>
+      <c r="C24" s="152"/>
       <c r="D24" s="16"/>
       <c r="E24" s="15"/>
       <c r="F24" s="2"/>
@@ -3230,7 +3253,7 @@
     </row>
     <row r="29" spans="2:6" ht="18">
       <c r="B29" s="23"/>
-      <c r="C29" s="146" t="s">
+      <c r="C29" s="153" t="s">
         <v>78</v>
       </c>
       <c r="D29" s="15" t="s">
@@ -3240,7 +3263,7 @@
     </row>
     <row r="30" spans="2:6" ht="16" customHeight="1">
       <c r="B30" s="23"/>
-      <c r="C30" s="147"/>
+      <c r="C30" s="154"/>
       <c r="D30" s="15" t="s">
         <v>79</v>
       </c>
@@ -3256,7 +3279,7 @@
     </row>
     <row r="32" spans="2:6" ht="36">
       <c r="B32" s="23"/>
-      <c r="C32" s="148" t="s">
+      <c r="C32" s="155" t="s">
         <v>80</v>
       </c>
       <c r="D32" s="15" t="s">
@@ -3269,7 +3292,7 @@
     </row>
     <row r="33" spans="2:6" ht="17">
       <c r="B33" s="23"/>
-      <c r="C33" s="149"/>
+      <c r="C33" s="156"/>
       <c r="D33" s="2" t="s">
         <v>116</v>
       </c>
@@ -3289,7 +3312,7 @@
     </row>
     <row r="35" spans="2:6" ht="16" customHeight="1">
       <c r="B35" s="23"/>
-      <c r="C35" s="150" t="s">
+      <c r="C35" s="157" t="s">
         <v>85</v>
       </c>
       <c r="D35" s="15" t="s">
@@ -3299,8 +3322,8 @@
       <c r="F35" s="15"/>
     </row>
     <row r="36" spans="2:6" ht="18">
-      <c r="B36" s="152"/>
-      <c r="C36" s="151"/>
+      <c r="B36" s="159"/>
+      <c r="C36" s="158"/>
       <c r="D36" s="15" t="s">
         <v>87</v>
       </c>
@@ -3308,7 +3331,7 @@
       <c r="F36" s="15"/>
     </row>
     <row r="37" spans="2:6" ht="18">
-      <c r="B37" s="153"/>
+      <c r="B37" s="160"/>
       <c r="C37" s="15"/>
       <c r="D37" s="15" t="s">
         <v>117</v>
@@ -3317,14 +3340,14 @@
       <c r="F37" s="15"/>
     </row>
     <row r="38" spans="2:6">
-      <c r="B38" s="153"/>
+      <c r="B38" s="160"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
     </row>
     <row r="39" spans="2:6" ht="17">
-      <c r="B39" s="153"/>
+      <c r="B39" s="160"/>
       <c r="C39" s="24" t="s">
         <v>88</v>
       </c>
@@ -3335,15 +3358,15 @@
       <c r="F39" s="2"/>
     </row>
     <row r="40" spans="2:6" ht="16" customHeight="1">
-      <c r="B40" s="153"/>
+      <c r="B40" s="160"/>
       <c r="C40" s="13"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
     </row>
     <row r="41" spans="2:6">
-      <c r="B41" s="153"/>
-      <c r="C41" s="155" t="s">
+      <c r="B41" s="160"/>
+      <c r="C41" s="162" t="s">
         <v>102</v>
       </c>
       <c r="D41" s="2" t="s">
@@ -3353,8 +3376,8 @@
       <c r="F41" s="2"/>
     </row>
     <row r="42" spans="2:6">
-      <c r="B42" s="153"/>
-      <c r="C42" s="156"/>
+      <c r="B42" s="160"/>
+      <c r="C42" s="163"/>
       <c r="D42" s="2" t="s">
         <v>104</v>
       </c>
@@ -3362,8 +3385,8 @@
       <c r="F42" s="2"/>
     </row>
     <row r="43" spans="2:6" ht="17" customHeight="1">
-      <c r="B43" s="153"/>
-      <c r="C43" s="156"/>
+      <c r="B43" s="160"/>
+      <c r="C43" s="163"/>
       <c r="D43" s="2" t="s">
         <v>105</v>
       </c>
@@ -3371,8 +3394,8 @@
       <c r="F43" s="2"/>
     </row>
     <row r="44" spans="2:6" ht="17" customHeight="1">
-      <c r="B44" s="153"/>
-      <c r="C44" s="156"/>
+      <c r="B44" s="160"/>
+      <c r="C44" s="163"/>
       <c r="D44" s="2" t="s">
         <v>106</v>
       </c>
@@ -3380,8 +3403,8 @@
       <c r="F44" s="2"/>
     </row>
     <row r="45" spans="2:6" ht="17" customHeight="1">
-      <c r="B45" s="153"/>
-      <c r="C45" s="156"/>
+      <c r="B45" s="160"/>
+      <c r="C45" s="163"/>
       <c r="D45" s="2" t="s">
         <v>107</v>
       </c>
@@ -3389,8 +3412,8 @@
       <c r="F45" s="2"/>
     </row>
     <row r="46" spans="2:6" ht="17" customHeight="1">
-      <c r="B46" s="153"/>
-      <c r="C46" s="156"/>
+      <c r="B46" s="160"/>
+      <c r="C46" s="163"/>
       <c r="D46" s="20" t="s">
         <v>108</v>
       </c>
@@ -3398,8 +3421,8 @@
       <c r="F46" s="2"/>
     </row>
     <row r="47" spans="2:6" ht="17" customHeight="1">
-      <c r="B47" s="153"/>
-      <c r="C47" s="156"/>
+      <c r="B47" s="160"/>
+      <c r="C47" s="163"/>
       <c r="D47" s="2" t="s">
         <v>109</v>
       </c>
@@ -3407,8 +3430,8 @@
       <c r="F47" s="2"/>
     </row>
     <row r="48" spans="2:6" ht="17" customHeight="1">
-      <c r="B48" s="153"/>
-      <c r="C48" s="156"/>
+      <c r="B48" s="160"/>
+      <c r="C48" s="163"/>
       <c r="D48" s="21" t="s">
         <v>110</v>
       </c>
@@ -3416,8 +3439,8 @@
       <c r="F48" s="2"/>
     </row>
     <row r="49" spans="2:6" ht="17" customHeight="1">
-      <c r="B49" s="153"/>
-      <c r="C49" s="157"/>
+      <c r="B49" s="160"/>
+      <c r="C49" s="164"/>
       <c r="D49" s="21" t="s">
         <v>111</v>
       </c>
@@ -3425,13 +3448,13 @@
       <c r="F49" s="2"/>
     </row>
     <row r="50" spans="2:6" ht="17" customHeight="1">
-      <c r="B50" s="153"/>
+      <c r="B50" s="160"/>
       <c r="C50" s="2"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
     </row>
     <row r="51" spans="2:6" ht="17" customHeight="1">
-      <c r="B51" s="154"/>
+      <c r="B51" s="161"/>
       <c r="C51" s="2"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
@@ -3444,10 +3467,10 @@
       <c r="F52" s="2"/>
     </row>
     <row r="53" spans="2:6" ht="17" customHeight="1">
-      <c r="B53" s="134" t="s">
+      <c r="B53" s="141" t="s">
         <v>89</v>
       </c>
-      <c r="C53" s="158" t="s">
+      <c r="C53" s="165" t="s">
         <v>60</v>
       </c>
       <c r="D53" s="14" t="s">
@@ -3459,8 +3482,8 @@
       <c r="F53" s="2"/>
     </row>
     <row r="54" spans="2:6" ht="18">
-      <c r="B54" s="135"/>
-      <c r="C54" s="159"/>
+      <c r="B54" s="142"/>
+      <c r="C54" s="166"/>
       <c r="D54" s="15" t="s">
         <v>91</v>
       </c>
@@ -3470,8 +3493,8 @@
       <c r="F54" s="2"/>
     </row>
     <row r="55" spans="2:6" ht="18">
-      <c r="B55" s="135"/>
-      <c r="C55" s="159"/>
+      <c r="B55" s="142"/>
+      <c r="C55" s="166"/>
       <c r="D55" s="15" t="s">
         <v>121</v>
       </c>
@@ -3481,8 +3504,8 @@
       <c r="F55" s="2"/>
     </row>
     <row r="56" spans="2:6" ht="18">
-      <c r="B56" s="135"/>
-      <c r="C56" s="160"/>
+      <c r="B56" s="142"/>
+      <c r="C56" s="167"/>
       <c r="D56" s="15" t="s">
         <v>119</v>
       </c>
@@ -3492,15 +3515,15 @@
       <c r="F56" s="2"/>
     </row>
     <row r="57" spans="2:6">
-      <c r="B57" s="135"/>
+      <c r="B57" s="142"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
     </row>
     <row r="58" spans="2:6" ht="17">
-      <c r="B58" s="135"/>
-      <c r="C58" s="128" t="s">
+      <c r="B58" s="142"/>
+      <c r="C58" s="135" t="s">
         <v>123</v>
       </c>
       <c r="D58" s="15"/>
@@ -3508,8 +3531,8 @@
       <c r="F58" s="15"/>
     </row>
     <row r="59" spans="2:6" ht="18">
-      <c r="B59" s="135"/>
-      <c r="C59" s="129"/>
+      <c r="B59" s="142"/>
+      <c r="C59" s="136"/>
       <c r="D59" s="15" t="s">
         <v>62</v>
       </c>
@@ -3521,8 +3544,8 @@
       </c>
     </row>
     <row r="60" spans="2:6" ht="18" customHeight="1">
-      <c r="B60" s="135"/>
-      <c r="C60" s="129"/>
+      <c r="B60" s="142"/>
+      <c r="C60" s="136"/>
       <c r="D60" s="15" t="s">
         <v>65</v>
       </c>
@@ -3532,8 +3555,8 @@
       <c r="F60" s="15"/>
     </row>
     <row r="61" spans="2:6" ht="18">
-      <c r="B61" s="135"/>
-      <c r="C61" s="129"/>
+      <c r="B61" s="142"/>
+      <c r="C61" s="136"/>
       <c r="D61" s="15" t="s">
         <v>66</v>
       </c>
@@ -3543,8 +3566,8 @@
       <c r="F61" s="15"/>
     </row>
     <row r="62" spans="2:6" ht="36">
-      <c r="B62" s="135"/>
-      <c r="C62" s="129"/>
+      <c r="B62" s="142"/>
+      <c r="C62" s="136"/>
       <c r="D62" s="15" t="s">
         <v>101</v>
       </c>
@@ -3554,8 +3577,8 @@
       <c r="F62" s="15"/>
     </row>
     <row r="63" spans="2:6" ht="18">
-      <c r="B63" s="135"/>
-      <c r="C63" s="130"/>
+      <c r="B63" s="142"/>
+      <c r="C63" s="137"/>
       <c r="D63" s="15" t="s">
         <v>93</v>
       </c>
@@ -3565,21 +3588,21 @@
       <c r="F63" s="15"/>
     </row>
     <row r="64" spans="2:6" ht="17">
-      <c r="B64" s="135"/>
+      <c r="B64" s="142"/>
       <c r="C64" s="15"/>
       <c r="D64" s="15"/>
       <c r="E64" s="15"/>
       <c r="F64" s="15"/>
     </row>
     <row r="65" spans="2:6">
-      <c r="B65" s="135"/>
+      <c r="B65" s="142"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
     </row>
     <row r="66" spans="2:6" ht="18">
-      <c r="B66" s="135"/>
+      <c r="B66" s="142"/>
       <c r="C66" s="15" t="s">
         <v>100</v>
       </c>
@@ -3590,14 +3613,14 @@
       <c r="F66" s="15"/>
     </row>
     <row r="67" spans="2:6" ht="17">
-      <c r="B67" s="135"/>
+      <c r="B67" s="142"/>
       <c r="C67" s="15"/>
       <c r="D67" s="15"/>
       <c r="E67" s="15"/>
       <c r="F67" s="15"/>
     </row>
     <row r="68" spans="2:6" ht="18">
-      <c r="B68" s="135"/>
+      <c r="B68" s="142"/>
       <c r="C68" s="15" t="s">
         <v>74</v>
       </c>
@@ -3608,7 +3631,7 @@
       <c r="F68" s="15"/>
     </row>
     <row r="69" spans="2:6" ht="18">
-      <c r="B69" s="135"/>
+      <c r="B69" s="142"/>
       <c r="C69" s="15"/>
       <c r="D69" s="15"/>
       <c r="E69" s="15" t="s">
@@ -3617,7 +3640,7 @@
       <c r="F69" s="15"/>
     </row>
     <row r="70" spans="2:6" ht="18">
-      <c r="B70" s="135"/>
+      <c r="B70" s="142"/>
       <c r="C70" s="15"/>
       <c r="D70" s="15"/>
       <c r="E70" s="15" t="s">
@@ -3626,35 +3649,35 @@
       <c r="F70" s="15"/>
     </row>
     <row r="71" spans="2:6" ht="17">
-      <c r="B71" s="135"/>
+      <c r="B71" s="142"/>
       <c r="C71" s="15"/>
       <c r="D71" s="15"/>
       <c r="E71" s="15"/>
       <c r="F71" s="15"/>
     </row>
     <row r="72" spans="2:6" ht="17">
-      <c r="B72" s="135"/>
+      <c r="B72" s="142"/>
       <c r="C72" s="15"/>
       <c r="D72" s="15"/>
       <c r="E72" s="15"/>
       <c r="F72" s="15"/>
     </row>
     <row r="73" spans="2:6" ht="17">
-      <c r="B73" s="135"/>
+      <c r="B73" s="142"/>
       <c r="C73" s="15"/>
       <c r="D73" s="15"/>
       <c r="E73" s="16"/>
       <c r="F73" s="15"/>
     </row>
     <row r="74" spans="2:6" ht="17">
-      <c r="B74" s="135"/>
+      <c r="B74" s="142"/>
       <c r="C74" s="15"/>
       <c r="D74" s="15"/>
       <c r="E74" s="15"/>
       <c r="F74" s="15"/>
     </row>
     <row r="75" spans="2:6" ht="18">
-      <c r="B75" s="135"/>
+      <c r="B75" s="142"/>
       <c r="C75" s="15" t="s">
         <v>77</v>
       </c>
@@ -3663,21 +3686,21 @@
       <c r="F75" s="14"/>
     </row>
     <row r="76" spans="2:6">
-      <c r="B76" s="135"/>
+      <c r="B76" s="142"/>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
     </row>
     <row r="77" spans="2:6">
-      <c r="B77" s="135"/>
+      <c r="B77" s="142"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
     </row>
     <row r="78" spans="2:6" ht="18">
-      <c r="B78" s="135"/>
+      <c r="B78" s="142"/>
       <c r="C78" s="15" t="s">
         <v>95</v>
       </c>
@@ -3686,7 +3709,7 @@
       <c r="F78" s="2"/>
     </row>
     <row r="79" spans="2:6" ht="18">
-      <c r="B79" s="135"/>
+      <c r="B79" s="142"/>
       <c r="C79" s="15"/>
       <c r="D79" s="15" t="s">
         <v>96</v>
@@ -3697,7 +3720,7 @@
       <c r="F79" s="2"/>
     </row>
     <row r="80" spans="2:6" ht="18">
-      <c r="B80" s="135"/>
+      <c r="B80" s="142"/>
       <c r="C80" s="15"/>
       <c r="D80" s="15" t="s">
         <v>97</v>
@@ -3708,14 +3731,14 @@
       <c r="F80" s="2"/>
     </row>
     <row r="81" spans="2:6">
-      <c r="B81" s="135"/>
+      <c r="B81" s="142"/>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
     </row>
     <row r="82" spans="2:6">
-      <c r="B82" s="135"/>
+      <c r="B82" s="142"/>
       <c r="C82" s="2" t="s">
         <v>98</v>
       </c>
@@ -3724,10 +3747,10 @@
       <c r="F82" s="2"/>
     </row>
     <row r="83" spans="2:6">
-      <c r="B83" s="135"/>
+      <c r="B83" s="142"/>
     </row>
     <row r="84" spans="2:6">
-      <c r="B84" s="136"/>
+      <c r="B84" s="143"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -3754,8 +3777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E10E9005-F9D0-4E45-A602-C89B60257518}">
   <dimension ref="B2:H88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="D95" sqref="D95"/>
+    <sheetView zoomScale="75" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:G88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3769,14 +3792,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="30">
-      <c r="B2" s="131" t="s">
+      <c r="B2" s="138" t="s">
         <v>135</v>
       </c>
-      <c r="C2" s="132"/>
-      <c r="D2" s="132"/>
-      <c r="E2" s="132"/>
-      <c r="F2" s="132"/>
-      <c r="G2" s="133"/>
+      <c r="C2" s="139"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="139"/>
+      <c r="F2" s="139"/>
+      <c r="G2" s="140"/>
     </row>
     <row r="3" spans="2:8">
       <c r="B3" s="25" t="s">
@@ -3800,10 +3823,10 @@
       <c r="H3" s="117"/>
     </row>
     <row r="4" spans="2:8">
-      <c r="B4" s="210" t="s">
+      <c r="B4" s="190" t="s">
         <v>171</v>
       </c>
-      <c r="C4" s="213" t="s">
+      <c r="C4" s="193" t="s">
         <v>172</v>
       </c>
       <c r="D4" s="70" t="s">
@@ -3821,8 +3844,8 @@
       <c r="H4" s="117"/>
     </row>
     <row r="5" spans="2:8">
-      <c r="B5" s="211"/>
-      <c r="C5" s="214"/>
+      <c r="B5" s="191"/>
+      <c r="C5" s="194"/>
       <c r="D5" s="70" t="s">
         <v>166</v>
       </c>
@@ -3838,8 +3861,8 @@
       <c r="H5" s="117"/>
     </row>
     <row r="6" spans="2:8">
-      <c r="B6" s="211"/>
-      <c r="C6" s="215"/>
+      <c r="B6" s="191"/>
+      <c r="C6" s="195"/>
       <c r="D6" s="70" t="s">
         <v>167</v>
       </c>
@@ -3855,7 +3878,7 @@
       <c r="H6" s="117"/>
     </row>
     <row r="7" spans="2:8">
-      <c r="B7" s="211"/>
+      <c r="B7" s="191"/>
       <c r="C7" s="72" t="s">
         <v>168</v>
       </c>
@@ -3874,8 +3897,8 @@
       <c r="H7" s="117"/>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="211"/>
-      <c r="C8" s="197" t="s">
+      <c r="B8" s="191"/>
+      <c r="C8" s="177" t="s">
         <v>173</v>
       </c>
       <c r="D8" s="75" t="s">
@@ -3891,8 +3914,8 @@
       <c r="H8" s="117"/>
     </row>
     <row r="9" spans="2:8">
-      <c r="B9" s="212"/>
-      <c r="C9" s="199"/>
+      <c r="B9" s="192"/>
+      <c r="C9" s="179"/>
       <c r="D9" s="75" t="s">
         <v>170</v>
       </c>
@@ -3915,10 +3938,10 @@
       <c r="H10" s="117"/>
     </row>
     <row r="11" spans="2:8" ht="36" customHeight="1">
-      <c r="B11" s="162" t="s">
+      <c r="B11" s="197" t="s">
         <v>99</v>
       </c>
-      <c r="C11" s="200" t="s">
+      <c r="C11" s="180" t="s">
         <v>144</v>
       </c>
       <c r="D11" s="27" t="s">
@@ -3938,8 +3961,8 @@
       </c>
     </row>
     <row r="12" spans="2:8" ht="18">
-      <c r="B12" s="163"/>
-      <c r="C12" s="201"/>
+      <c r="B12" s="198"/>
+      <c r="C12" s="181"/>
       <c r="D12" s="27" t="s">
         <v>187</v>
       </c>
@@ -3955,8 +3978,8 @@
       </c>
     </row>
     <row r="13" spans="2:8" ht="18">
-      <c r="B13" s="163"/>
-      <c r="C13" s="201"/>
+      <c r="B13" s="198"/>
+      <c r="C13" s="181"/>
       <c r="D13" s="28" t="s">
         <v>188</v>
       </c>
@@ -3974,8 +3997,8 @@
       </c>
     </row>
     <row r="14" spans="2:8" ht="18">
-      <c r="B14" s="163"/>
-      <c r="C14" s="201"/>
+      <c r="B14" s="198"/>
+      <c r="C14" s="181"/>
       <c r="D14" s="28" t="s">
         <v>189</v>
       </c>
@@ -3993,8 +4016,8 @@
       </c>
     </row>
     <row r="15" spans="2:8" ht="36">
-      <c r="B15" s="163"/>
-      <c r="C15" s="201"/>
+      <c r="B15" s="198"/>
+      <c r="C15" s="181"/>
       <c r="D15" s="28" t="s">
         <v>190</v>
       </c>
@@ -4012,8 +4035,8 @@
       </c>
     </row>
     <row r="16" spans="2:8" ht="17" customHeight="1">
-      <c r="B16" s="163"/>
-      <c r="C16" s="202"/>
+      <c r="B16" s="198"/>
+      <c r="C16" s="182"/>
       <c r="D16" s="29" t="s">
         <v>184</v>
       </c>
@@ -4027,8 +4050,8 @@
       <c r="H16" s="117"/>
     </row>
     <row r="17" spans="2:8" ht="18">
-      <c r="B17" s="163"/>
-      <c r="C17" s="148" t="s">
+      <c r="B17" s="198"/>
+      <c r="C17" s="155" t="s">
         <v>114</v>
       </c>
       <c r="D17" s="30" t="s">
@@ -4046,8 +4069,8 @@
       <c r="H17" s="117"/>
     </row>
     <row r="18" spans="2:8" ht="18">
-      <c r="B18" s="163"/>
-      <c r="C18" s="203"/>
+      <c r="B18" s="198"/>
+      <c r="C18" s="183"/>
       <c r="D18" s="31" t="s">
         <v>191</v>
       </c>
@@ -4061,8 +4084,8 @@
       <c r="H18" s="117"/>
     </row>
     <row r="19" spans="2:8" ht="18">
-      <c r="B19" s="163"/>
-      <c r="C19" s="203"/>
+      <c r="B19" s="198"/>
+      <c r="C19" s="183"/>
       <c r="D19" s="31" t="s">
         <v>192</v>
       </c>
@@ -4076,8 +4099,8 @@
       <c r="H19" s="117"/>
     </row>
     <row r="20" spans="2:8" ht="18">
-      <c r="B20" s="163"/>
-      <c r="C20" s="203"/>
+      <c r="B20" s="198"/>
+      <c r="C20" s="183"/>
       <c r="D20" s="31" t="s">
         <v>193</v>
       </c>
@@ -4091,8 +4114,8 @@
       <c r="H20" s="117"/>
     </row>
     <row r="21" spans="2:8" ht="18">
-      <c r="B21" s="163"/>
-      <c r="C21" s="203"/>
+      <c r="B21" s="198"/>
+      <c r="C21" s="183"/>
       <c r="D21" s="31" t="s">
         <v>194</v>
       </c>
@@ -4106,8 +4129,8 @@
       <c r="H21" s="117"/>
     </row>
     <row r="22" spans="2:8" ht="18">
-      <c r="B22" s="163"/>
-      <c r="C22" s="203"/>
+      <c r="B22" s="198"/>
+      <c r="C22" s="183"/>
       <c r="D22" s="31" t="s">
         <v>197</v>
       </c>
@@ -4121,8 +4144,8 @@
       <c r="H22" s="117"/>
     </row>
     <row r="23" spans="2:8" ht="18">
-      <c r="B23" s="163"/>
-      <c r="C23" s="149"/>
+      <c r="B23" s="198"/>
+      <c r="C23" s="156"/>
       <c r="D23" s="31" t="s">
         <v>196</v>
       </c>
@@ -4136,8 +4159,8 @@
       <c r="H23" s="117"/>
     </row>
     <row r="24" spans="2:8" ht="18">
-      <c r="B24" s="163"/>
-      <c r="C24" s="204" t="s">
+      <c r="B24" s="198"/>
+      <c r="C24" s="184" t="s">
         <v>145</v>
       </c>
       <c r="D24" s="32" t="s">
@@ -4155,8 +4178,8 @@
       <c r="H24" s="117"/>
     </row>
     <row r="25" spans="2:8" ht="18">
-      <c r="B25" s="163"/>
-      <c r="C25" s="205"/>
+      <c r="B25" s="198"/>
+      <c r="C25" s="185"/>
       <c r="D25" s="19" t="s">
         <v>198</v>
       </c>
@@ -4170,8 +4193,8 @@
       <c r="H25" s="117"/>
     </row>
     <row r="26" spans="2:8" ht="18">
-      <c r="B26" s="163"/>
-      <c r="C26" s="205"/>
+      <c r="B26" s="198"/>
+      <c r="C26" s="185"/>
       <c r="D26" s="19" t="s">
         <v>202</v>
       </c>
@@ -4185,8 +4208,8 @@
       <c r="H26" s="117"/>
     </row>
     <row r="27" spans="2:8" ht="18">
-      <c r="B27" s="163"/>
-      <c r="C27" s="205"/>
+      <c r="B27" s="198"/>
+      <c r="C27" s="185"/>
       <c r="D27" s="19" t="s">
         <v>203</v>
       </c>
@@ -4200,8 +4223,8 @@
       <c r="H27" s="117"/>
     </row>
     <row r="28" spans="2:8" ht="17">
-      <c r="B28" s="163"/>
-      <c r="C28" s="206"/>
+      <c r="B28" s="198"/>
+      <c r="C28" s="186"/>
       <c r="D28" s="19"/>
       <c r="E28" s="58"/>
       <c r="F28" s="93"/>
@@ -4209,8 +4232,8 @@
       <c r="H28" s="117"/>
     </row>
     <row r="29" spans="2:8" ht="18">
-      <c r="B29" s="163"/>
-      <c r="C29" s="207" t="s">
+      <c r="B29" s="198"/>
+      <c r="C29" s="187" t="s">
         <v>148</v>
       </c>
       <c r="D29" s="36" t="s">
@@ -4228,8 +4251,8 @@
       <c r="H29" s="117"/>
     </row>
     <row r="30" spans="2:8" ht="18">
-      <c r="B30" s="163"/>
-      <c r="C30" s="208"/>
+      <c r="B30" s="198"/>
+      <c r="C30" s="188"/>
       <c r="D30" s="36" t="s">
         <v>205</v>
       </c>
@@ -4243,8 +4266,8 @@
       <c r="H30" s="117"/>
     </row>
     <row r="31" spans="2:8" ht="36" customHeight="1">
-      <c r="B31" s="163"/>
-      <c r="C31" s="208"/>
+      <c r="B31" s="198"/>
+      <c r="C31" s="188"/>
       <c r="D31" s="36" t="s">
         <v>206</v>
       </c>
@@ -4258,8 +4281,8 @@
       <c r="H31" s="117"/>
     </row>
     <row r="32" spans="2:8" ht="54" customHeight="1">
-      <c r="B32" s="163"/>
-      <c r="C32" s="209"/>
+      <c r="B32" s="198"/>
+      <c r="C32" s="189"/>
       <c r="D32" s="59" t="s">
         <v>207</v>
       </c>
@@ -4273,11 +4296,11 @@
       <c r="H32" s="117"/>
     </row>
     <row r="33" spans="2:8" ht="16" customHeight="1">
-      <c r="B33" s="163"/>
-      <c r="C33" s="155" t="s">
+      <c r="B33" s="198"/>
+      <c r="C33" s="162" t="s">
         <v>88</v>
       </c>
-      <c r="D33" s="197" t="s">
+      <c r="D33" s="177" t="s">
         <v>155</v>
       </c>
       <c r="E33" s="79" t="s">
@@ -4292,9 +4315,9 @@
       <c r="H33" s="117"/>
     </row>
     <row r="34" spans="2:8" ht="16" customHeight="1">
-      <c r="B34" s="163"/>
-      <c r="C34" s="156"/>
-      <c r="D34" s="198"/>
+      <c r="B34" s="198"/>
+      <c r="C34" s="163"/>
+      <c r="D34" s="178"/>
       <c r="E34" s="79" t="s">
         <v>209</v>
       </c>
@@ -4307,9 +4330,9 @@
       <c r="H34" s="117"/>
     </row>
     <row r="35" spans="2:8" ht="17" customHeight="1">
-      <c r="B35" s="163"/>
-      <c r="C35" s="157"/>
-      <c r="D35" s="199"/>
+      <c r="B35" s="198"/>
+      <c r="C35" s="164"/>
+      <c r="D35" s="179"/>
       <c r="E35" s="79" t="s">
         <v>208</v>
       </c>
@@ -4322,11 +4345,11 @@
       <c r="H35" s="117"/>
     </row>
     <row r="36" spans="2:8" ht="16" customHeight="1">
-      <c r="B36" s="163"/>
-      <c r="C36" s="188" t="s">
+      <c r="B36" s="198"/>
+      <c r="C36" s="168" t="s">
         <v>149</v>
       </c>
-      <c r="D36" s="191" t="s">
+      <c r="D36" s="171" t="s">
         <v>213</v>
       </c>
       <c r="E36" s="60" t="s">
@@ -4341,9 +4364,9 @@
       <c r="H36" s="117"/>
     </row>
     <row r="37" spans="2:8" ht="16" customHeight="1">
-      <c r="B37" s="163"/>
-      <c r="C37" s="189"/>
-      <c r="D37" s="192"/>
+      <c r="B37" s="198"/>
+      <c r="C37" s="169"/>
+      <c r="D37" s="172"/>
       <c r="E37" s="60" t="s">
         <v>215</v>
       </c>
@@ -4356,9 +4379,9 @@
       <c r="H37" s="117"/>
     </row>
     <row r="38" spans="2:8" ht="16" customHeight="1">
-      <c r="B38" s="163"/>
-      <c r="C38" s="189"/>
-      <c r="D38" s="192"/>
+      <c r="B38" s="198"/>
+      <c r="C38" s="169"/>
+      <c r="D38" s="172"/>
       <c r="E38" s="60" t="s">
         <v>212</v>
       </c>
@@ -4371,9 +4394,9 @@
       <c r="H38" s="117"/>
     </row>
     <row r="39" spans="2:8" ht="16" customHeight="1">
-      <c r="B39" s="163"/>
-      <c r="C39" s="189"/>
-      <c r="D39" s="192"/>
+      <c r="B39" s="198"/>
+      <c r="C39" s="169"/>
+      <c r="D39" s="172"/>
       <c r="E39" s="60" t="s">
         <v>214</v>
       </c>
@@ -4386,9 +4409,9 @@
       <c r="H39" s="117"/>
     </row>
     <row r="40" spans="2:8" ht="16" customHeight="1">
-      <c r="B40" s="163"/>
-      <c r="C40" s="189"/>
-      <c r="D40" s="193"/>
+      <c r="B40" s="198"/>
+      <c r="C40" s="169"/>
+      <c r="D40" s="173"/>
       <c r="E40" s="60"/>
       <c r="F40" s="96"/>
       <c r="G40" s="3" t="s">
@@ -4397,11 +4420,11 @@
       <c r="H40" s="117"/>
     </row>
     <row r="41" spans="2:8" ht="16" customHeight="1">
-      <c r="B41" s="163"/>
-      <c r="C41" s="190" t="s">
+      <c r="B41" s="198"/>
+      <c r="C41" s="170" t="s">
         <v>150</v>
       </c>
-      <c r="D41" s="194"/>
+      <c r="D41" s="174"/>
       <c r="E41" s="61" t="s">
         <v>216</v>
       </c>
@@ -4414,9 +4437,9 @@
       <c r="H41" s="117"/>
     </row>
     <row r="42" spans="2:8" ht="16" customHeight="1">
-      <c r="B42" s="163"/>
-      <c r="C42" s="190"/>
-      <c r="D42" s="195"/>
+      <c r="B42" s="198"/>
+      <c r="C42" s="170"/>
+      <c r="D42" s="175"/>
       <c r="E42" s="61" t="s">
         <v>217</v>
       </c>
@@ -4429,9 +4452,9 @@
       <c r="H42" s="117"/>
     </row>
     <row r="43" spans="2:8" ht="16" customHeight="1">
-      <c r="B43" s="163"/>
-      <c r="C43" s="190"/>
-      <c r="D43" s="195"/>
+      <c r="B43" s="198"/>
+      <c r="C43" s="170"/>
+      <c r="D43" s="175"/>
       <c r="E43" s="61" t="s">
         <v>218</v>
       </c>
@@ -4444,9 +4467,9 @@
       <c r="H43" s="117"/>
     </row>
     <row r="44" spans="2:8" ht="16" customHeight="1">
-      <c r="B44" s="163"/>
-      <c r="C44" s="190"/>
-      <c r="D44" s="195"/>
+      <c r="B44" s="198"/>
+      <c r="C44" s="170"/>
+      <c r="D44" s="175"/>
       <c r="E44" s="61" t="s">
         <v>215</v>
       </c>
@@ -4459,9 +4482,9 @@
       <c r="H44" s="117"/>
     </row>
     <row r="45" spans="2:8" ht="16" customHeight="1">
-      <c r="B45" s="163"/>
-      <c r="C45" s="190"/>
-      <c r="D45" s="195"/>
+      <c r="B45" s="198"/>
+      <c r="C45" s="170"/>
+      <c r="D45" s="175"/>
       <c r="E45" s="61" t="s">
         <v>200</v>
       </c>
@@ -4474,9 +4497,9 @@
       <c r="H45" s="117"/>
     </row>
     <row r="46" spans="2:8" ht="16" customHeight="1">
-      <c r="B46" s="163"/>
-      <c r="C46" s="190"/>
-      <c r="D46" s="196"/>
+      <c r="B46" s="198"/>
+      <c r="C46" s="170"/>
+      <c r="D46" s="176"/>
       <c r="E46" s="61" t="s">
         <v>219</v>
       </c>
@@ -4489,7 +4512,7 @@
       <c r="H46" s="117"/>
     </row>
     <row r="47" spans="2:8" ht="16" customHeight="1">
-      <c r="B47" s="163"/>
+      <c r="B47" s="198"/>
       <c r="C47" s="46" t="s">
         <v>162</v>
       </c>
@@ -4506,7 +4529,7 @@
       <c r="H47" s="117"/>
     </row>
     <row r="48" spans="2:8" ht="16" customHeight="1">
-      <c r="B48" s="164"/>
+      <c r="B48" s="199"/>
       <c r="C48" s="46" t="s">
         <v>164</v>
       </c>
@@ -4534,10 +4557,10 @@
       <c r="H49" s="117"/>
     </row>
     <row r="50" spans="2:8" ht="18">
-      <c r="B50" s="176" t="s">
+      <c r="B50" s="211" t="s">
         <v>136</v>
       </c>
-      <c r="C50" s="183" t="s">
+      <c r="C50" s="218" t="s">
         <v>147</v>
       </c>
       <c r="D50" s="39" t="s">
@@ -4555,8 +4578,8 @@
       <c r="H50" s="117"/>
     </row>
     <row r="51" spans="2:8" ht="18">
-      <c r="B51" s="176"/>
-      <c r="C51" s="184"/>
+      <c r="B51" s="211"/>
+      <c r="C51" s="219"/>
       <c r="D51" s="41" t="s">
         <v>91</v>
       </c>
@@ -4571,8 +4594,8 @@
       </c>
     </row>
     <row r="52" spans="2:8" ht="18">
-      <c r="B52" s="176"/>
-      <c r="C52" s="184"/>
+      <c r="B52" s="211"/>
+      <c r="C52" s="219"/>
       <c r="D52" s="41" t="s">
         <v>121</v>
       </c>
@@ -4587,8 +4610,8 @@
       </c>
     </row>
     <row r="53" spans="2:8" ht="18">
-      <c r="B53" s="176"/>
-      <c r="C53" s="184"/>
+      <c r="B53" s="211"/>
+      <c r="C53" s="219"/>
       <c r="D53" s="41" t="s">
         <v>119</v>
       </c>
@@ -4603,8 +4626,8 @@
       </c>
     </row>
     <row r="54" spans="2:8" ht="18">
-      <c r="B54" s="176"/>
-      <c r="C54" s="185"/>
+      <c r="B54" s="211"/>
+      <c r="C54" s="220"/>
       <c r="D54" s="41" t="s">
         <v>236</v>
       </c>
@@ -4617,8 +4640,8 @@
       </c>
     </row>
     <row r="55" spans="2:8" ht="17">
-      <c r="B55" s="176"/>
-      <c r="C55" s="186" t="s">
+      <c r="B55" s="211"/>
+      <c r="C55" s="221" t="s">
         <v>123</v>
       </c>
       <c r="D55" s="42"/>
@@ -4627,8 +4650,8 @@
       <c r="G55" s="43"/>
     </row>
     <row r="56" spans="2:8" ht="18">
-      <c r="B56" s="176"/>
-      <c r="C56" s="187"/>
+      <c r="B56" s="211"/>
+      <c r="C56" s="222"/>
       <c r="D56" s="42" t="s">
         <v>227</v>
       </c>
@@ -4643,8 +4666,8 @@
       </c>
     </row>
     <row r="57" spans="2:8" ht="18">
-      <c r="B57" s="176"/>
-      <c r="C57" s="187"/>
+      <c r="B57" s="211"/>
+      <c r="C57" s="222"/>
       <c r="D57" s="42" t="s">
         <v>228</v>
       </c>
@@ -4659,8 +4682,8 @@
       </c>
     </row>
     <row r="58" spans="2:8" ht="18">
-      <c r="B58" s="176"/>
-      <c r="C58" s="187"/>
+      <c r="B58" s="211"/>
+      <c r="C58" s="222"/>
       <c r="D58" s="42" t="s">
         <v>229</v>
       </c>
@@ -4675,8 +4698,8 @@
       </c>
     </row>
     <row r="59" spans="2:8" ht="18">
-      <c r="B59" s="176"/>
-      <c r="C59" s="187"/>
+      <c r="B59" s="211"/>
+      <c r="C59" s="222"/>
       <c r="D59" s="42" t="s">
         <v>236</v>
       </c>
@@ -4689,8 +4712,8 @@
       </c>
     </row>
     <row r="60" spans="2:8" ht="18">
-      <c r="B60" s="176"/>
-      <c r="C60" s="168" t="s">
+      <c r="B60" s="211"/>
+      <c r="C60" s="203" t="s">
         <v>244</v>
       </c>
       <c r="D60" s="110" t="s">
@@ -4705,8 +4728,8 @@
       </c>
     </row>
     <row r="61" spans="2:8" ht="18">
-      <c r="B61" s="176"/>
-      <c r="C61" s="169"/>
+      <c r="B61" s="211"/>
+      <c r="C61" s="204"/>
       <c r="D61" s="110" t="s">
         <v>230</v>
       </c>
@@ -4719,8 +4742,8 @@
       </c>
     </row>
     <row r="62" spans="2:8" ht="18">
-      <c r="B62" s="176"/>
-      <c r="C62" s="169"/>
+      <c r="B62" s="211"/>
+      <c r="C62" s="204"/>
       <c r="D62" s="110" t="s">
         <v>163</v>
       </c>
@@ -4733,8 +4756,8 @@
       </c>
     </row>
     <row r="63" spans="2:8" ht="18">
-      <c r="B63" s="176"/>
-      <c r="C63" s="170"/>
+      <c r="B63" s="211"/>
+      <c r="C63" s="205"/>
       <c r="D63" s="110" t="s">
         <v>236</v>
       </c>
@@ -4747,8 +4770,8 @@
       </c>
     </row>
     <row r="64" spans="2:8" ht="16" customHeight="1">
-      <c r="B64" s="176"/>
-      <c r="C64" s="171" t="s">
+      <c r="B64" s="211"/>
+      <c r="C64" s="206" t="s">
         <v>151</v>
       </c>
       <c r="D64" s="38"/>
@@ -4757,8 +4780,8 @@
       <c r="G64" s="38"/>
     </row>
     <row r="65" spans="2:8" ht="18">
-      <c r="B65" s="176"/>
-      <c r="C65" s="172"/>
+      <c r="B65" s="211"/>
+      <c r="C65" s="207"/>
       <c r="D65" s="44" t="s">
         <v>231</v>
       </c>
@@ -4773,8 +4796,8 @@
       </c>
     </row>
     <row r="66" spans="2:8" ht="18">
-      <c r="B66" s="176"/>
-      <c r="C66" s="172"/>
+      <c r="B66" s="211"/>
+      <c r="C66" s="207"/>
       <c r="D66" s="44" t="s">
         <v>232</v>
       </c>
@@ -4789,8 +4812,8 @@
       </c>
     </row>
     <row r="67" spans="2:8" ht="17" customHeight="1">
-      <c r="B67" s="176"/>
-      <c r="C67" s="173"/>
+      <c r="B67" s="211"/>
+      <c r="C67" s="208"/>
       <c r="D67" s="45" t="s">
         <v>233</v>
       </c>
@@ -4801,8 +4824,8 @@
       </c>
     </row>
     <row r="68" spans="2:8" ht="16" customHeight="1">
-      <c r="B68" s="176"/>
-      <c r="C68" s="174" t="s">
+      <c r="B68" s="211"/>
+      <c r="C68" s="209" t="s">
         <v>152</v>
       </c>
       <c r="D68" s="107" t="s">
@@ -4817,8 +4840,8 @@
       </c>
     </row>
     <row r="69" spans="2:8" ht="16" customHeight="1">
-      <c r="B69" s="176"/>
-      <c r="C69" s="175"/>
+      <c r="B69" s="211"/>
+      <c r="C69" s="210"/>
       <c r="D69" s="107" t="s">
         <v>233</v>
       </c>
@@ -4831,8 +4854,8 @@
       </c>
     </row>
     <row r="70" spans="2:8" ht="18">
-      <c r="B70" s="176"/>
-      <c r="C70" s="180" t="s">
+      <c r="B70" s="211"/>
+      <c r="C70" s="215" t="s">
         <v>153</v>
       </c>
       <c r="D70" s="33" t="s">
@@ -4847,8 +4870,8 @@
       </c>
     </row>
     <row r="71" spans="2:8" ht="18">
-      <c r="B71" s="176"/>
-      <c r="C71" s="181"/>
+      <c r="B71" s="211"/>
+      <c r="C71" s="216"/>
       <c r="D71" s="33" t="s">
         <v>235</v>
       </c>
@@ -4861,8 +4884,8 @@
       </c>
     </row>
     <row r="72" spans="2:8" ht="18">
-      <c r="B72" s="176"/>
-      <c r="C72" s="182"/>
+      <c r="B72" s="211"/>
+      <c r="C72" s="217"/>
       <c r="D72" s="33" t="s">
         <v>233</v>
       </c>
@@ -4875,8 +4898,8 @@
       </c>
     </row>
     <row r="73" spans="2:8" ht="18">
-      <c r="B73" s="176"/>
-      <c r="C73" s="177" t="s">
+      <c r="B73" s="211"/>
+      <c r="C73" s="212" t="s">
         <v>154</v>
       </c>
       <c r="D73" s="35" t="s">
@@ -4896,8 +4919,8 @@
       </c>
     </row>
     <row r="74" spans="2:8" ht="17">
-      <c r="B74" s="176"/>
-      <c r="C74" s="178"/>
+      <c r="B74" s="211"/>
+      <c r="C74" s="213"/>
       <c r="D74" s="6" t="s">
         <v>116</v>
       </c>
@@ -4911,8 +4934,8 @@
       <c r="H74" s="120"/>
     </row>
     <row r="75" spans="2:8">
-      <c r="B75" s="176"/>
-      <c r="C75" s="179"/>
+      <c r="B75" s="211"/>
+      <c r="C75" s="214"/>
       <c r="D75" s="6" t="s">
         <v>233</v>
       </c>
@@ -4926,7 +4949,7 @@
       <c r="H75" s="120"/>
     </row>
     <row r="76" spans="2:8">
-      <c r="B76" s="165" t="s">
+      <c r="B76" s="200" t="s">
         <v>159</v>
       </c>
       <c r="C76" s="37" t="s">
@@ -4944,7 +4967,7 @@
       </c>
     </row>
     <row r="77" spans="2:8">
-      <c r="B77" s="166"/>
+      <c r="B77" s="201"/>
       <c r="C77" s="37" t="s">
         <v>161</v>
       </c>
@@ -4960,7 +4983,7 @@
       </c>
     </row>
     <row r="78" spans="2:8">
-      <c r="B78" s="167"/>
+      <c r="B78" s="202"/>
       <c r="C78" s="37"/>
       <c r="D78" s="37" t="s">
         <v>233</v>
@@ -4974,7 +4997,7 @@
       </c>
     </row>
     <row r="79" spans="2:8">
-      <c r="B79" s="161" t="s">
+      <c r="B79" s="196" t="s">
         <v>222</v>
       </c>
       <c r="C79" s="5"/>
@@ -4988,7 +5011,7 @@
       <c r="G79" s="5"/>
     </row>
     <row r="80" spans="2:8">
-      <c r="B80" s="161"/>
+      <c r="B80" s="196"/>
       <c r="C80" s="5" t="s">
         <v>223</v>
       </c>
@@ -5002,7 +5025,7 @@
       <c r="G80" s="5"/>
     </row>
     <row r="81" spans="2:8">
-      <c r="B81" s="161"/>
+      <c r="B81" s="196"/>
       <c r="C81" s="5" t="s">
         <v>224</v>
       </c>
@@ -5016,7 +5039,7 @@
       <c r="G81" s="5"/>
     </row>
     <row r="82" spans="2:8">
-      <c r="B82" s="161"/>
+      <c r="B82" s="196"/>
       <c r="C82" s="115" t="s">
         <v>225</v>
       </c>
@@ -5028,7 +5051,7 @@
       <c r="G82" s="5"/>
     </row>
     <row r="83" spans="2:8">
-      <c r="B83" s="161"/>
+      <c r="B83" s="196"/>
       <c r="C83" s="5"/>
       <c r="D83" s="68"/>
       <c r="E83" s="113"/>
@@ -5070,7 +5093,7 @@
       </c>
     </row>
     <row r="86" spans="2:8">
-      <c r="B86" s="216">
+      <c r="B86" s="128">
         <v>44039</v>
       </c>
       <c r="C86" s="5" t="s">
@@ -5082,7 +5105,7 @@
       <c r="G86" s="2"/>
     </row>
     <row r="87" spans="2:8">
-      <c r="B87" s="216">
+      <c r="B87" s="128">
         <v>44039</v>
       </c>
       <c r="C87" s="5" t="s">
@@ -5099,6 +5122,17 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B79:B83"/>
+    <mergeCell ref="B11:B48"/>
+    <mergeCell ref="B76:B78"/>
+    <mergeCell ref="C60:C63"/>
+    <mergeCell ref="C64:C67"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="B50:B75"/>
+    <mergeCell ref="C73:C75"/>
+    <mergeCell ref="C70:C72"/>
+    <mergeCell ref="C50:C54"/>
+    <mergeCell ref="C55:C59"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="C36:C40"/>
     <mergeCell ref="C41:C46"/>
@@ -5113,17 +5147,1316 @@
     <mergeCell ref="B4:B9"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="C8:C9"/>
-    <mergeCell ref="B79:B83"/>
-    <mergeCell ref="B11:B48"/>
-    <mergeCell ref="B76:B78"/>
-    <mergeCell ref="C60:C63"/>
-    <mergeCell ref="C64:C67"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="B50:B75"/>
-    <mergeCell ref="C73:C75"/>
-    <mergeCell ref="C70:C72"/>
-    <mergeCell ref="C50:C54"/>
-    <mergeCell ref="C55:C59"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BD846FD-50A1-DA45-8751-BA61D2456D0B}">
+  <dimension ref="A1:F87"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
+      <selection activeCell="H86" sqref="H86"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="32.83203125" customWidth="1"/>
+    <col min="2" max="2" width="36.5" customWidth="1"/>
+    <col min="3" max="3" width="56.1640625" customWidth="1"/>
+    <col min="4" max="4" width="41.6640625" customWidth="1"/>
+    <col min="5" max="5" width="36.6640625" customWidth="1"/>
+    <col min="6" max="6" width="24.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="30">
+      <c r="A1" s="138" t="s">
+        <v>246</v>
+      </c>
+      <c r="B1" s="139"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="140"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D2" s="53" t="s">
+        <v>140</v>
+      </c>
+      <c r="E2" s="80" t="s">
+        <v>141</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="190" t="s">
+        <v>171</v>
+      </c>
+      <c r="B3" s="193" t="s">
+        <v>172</v>
+      </c>
+      <c r="C3" s="70" t="s">
+        <v>165</v>
+      </c>
+      <c r="D3" s="71" t="s">
+        <v>176</v>
+      </c>
+      <c r="E3" s="81" t="s">
+        <v>180</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="191"/>
+      <c r="B4" s="194"/>
+      <c r="C4" s="70" t="s">
+        <v>166</v>
+      </c>
+      <c r="D4" s="71" t="s">
+        <v>177</v>
+      </c>
+      <c r="E4" s="82">
+        <v>44015</v>
+      </c>
+      <c r="F4" s="34" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="191"/>
+      <c r="B5" s="195"/>
+      <c r="C5" s="70" t="s">
+        <v>167</v>
+      </c>
+      <c r="D5" s="71" t="s">
+        <v>178</v>
+      </c>
+      <c r="E5" s="83" t="s">
+        <v>181</v>
+      </c>
+      <c r="F5" s="34" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="191"/>
+      <c r="B6" s="72" t="s">
+        <v>168</v>
+      </c>
+      <c r="C6" s="72" t="s">
+        <v>168</v>
+      </c>
+      <c r="D6" s="73" t="s">
+        <v>179</v>
+      </c>
+      <c r="E6" s="84">
+        <v>44020</v>
+      </c>
+      <c r="F6" s="74" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="191"/>
+      <c r="B7" s="177" t="s">
+        <v>173</v>
+      </c>
+      <c r="C7" s="75" t="s">
+        <v>169</v>
+      </c>
+      <c r="D7" s="67"/>
+      <c r="E7" s="85" t="s">
+        <v>175</v>
+      </c>
+      <c r="F7" s="37" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="192"/>
+      <c r="B8" s="179"/>
+      <c r="C8" s="75" t="s">
+        <v>170</v>
+      </c>
+      <c r="D8" s="67"/>
+      <c r="E8" s="86">
+        <v>44021</v>
+      </c>
+      <c r="F8" s="37" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="127"/>
+      <c r="B9" s="126"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="86"/>
+      <c r="F9" s="37"/>
+    </row>
+    <row r="10" spans="1:6" ht="108">
+      <c r="A10" s="197" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10" s="180" t="s">
+        <v>144</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="D10" s="54" t="s">
+        <v>185</v>
+      </c>
+      <c r="E10" s="87" t="s">
+        <v>156</v>
+      </c>
+      <c r="F10" s="76" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="72">
+      <c r="A11" s="198"/>
+      <c r="B11" s="181"/>
+      <c r="C11" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="D11" s="54"/>
+      <c r="E11" s="88">
+        <v>44025</v>
+      </c>
+      <c r="F11" s="76" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="72">
+      <c r="A12" s="198"/>
+      <c r="B12" s="181"/>
+      <c r="C12" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="D12" s="48" t="s">
+        <v>126</v>
+      </c>
+      <c r="E12" s="88">
+        <v>44025</v>
+      </c>
+      <c r="F12" s="29" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="72">
+      <c r="A13" s="198"/>
+      <c r="B13" s="181"/>
+      <c r="C13" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="D13" s="54" t="s">
+        <v>183</v>
+      </c>
+      <c r="E13" s="89">
+        <v>44025</v>
+      </c>
+      <c r="F13" s="29" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="90">
+      <c r="A14" s="198"/>
+      <c r="B14" s="181"/>
+      <c r="C14" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="D14" s="54" t="s">
+        <v>182</v>
+      </c>
+      <c r="E14" s="89">
+        <v>44026</v>
+      </c>
+      <c r="F14" s="76" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="198"/>
+      <c r="B15" s="182"/>
+      <c r="C15" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="D15" s="55"/>
+      <c r="E15" s="89">
+        <v>44026</v>
+      </c>
+      <c r="F15" s="29" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="36">
+      <c r="A16" s="198"/>
+      <c r="B16" s="155" t="s">
+        <v>114</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>195</v>
+      </c>
+      <c r="D16" s="56" t="s">
+        <v>186</v>
+      </c>
+      <c r="E16" s="90">
+        <v>44027</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="36">
+      <c r="A17" s="198"/>
+      <c r="B17" s="183"/>
+      <c r="C17" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="D17" s="56"/>
+      <c r="E17" s="90">
+        <v>44027</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="72">
+      <c r="A18" s="198"/>
+      <c r="B18" s="183"/>
+      <c r="C18" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="D18" s="56"/>
+      <c r="E18" s="90">
+        <v>44027</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="72">
+      <c r="A19" s="198"/>
+      <c r="B19" s="183"/>
+      <c r="C19" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="D19" s="56"/>
+      <c r="E19" s="90">
+        <v>44028</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="36">
+      <c r="A20" s="198"/>
+      <c r="B20" s="183"/>
+      <c r="C20" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="D20" s="56"/>
+      <c r="E20" s="90">
+        <v>44028</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="18">
+      <c r="A21" s="198"/>
+      <c r="B21" s="183"/>
+      <c r="C21" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="D21" s="56"/>
+      <c r="E21" s="90">
+        <v>44029</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="36">
+      <c r="A22" s="198"/>
+      <c r="B22" s="156"/>
+      <c r="C22" s="31" t="s">
+        <v>196</v>
+      </c>
+      <c r="D22" s="57"/>
+      <c r="E22" s="90">
+        <v>44029</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="90">
+      <c r="A23" s="198"/>
+      <c r="B23" s="184" t="s">
+        <v>145</v>
+      </c>
+      <c r="C23" s="32" t="s">
+        <v>199</v>
+      </c>
+      <c r="D23" s="58" t="s">
+        <v>201</v>
+      </c>
+      <c r="E23" s="91">
+        <v>44032</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="72">
+      <c r="A24" s="198"/>
+      <c r="B24" s="185"/>
+      <c r="C24" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="D24" s="58"/>
+      <c r="E24" s="91">
+        <v>44032</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="36">
+      <c r="A25" s="198"/>
+      <c r="B25" s="185"/>
+      <c r="C25" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="D25" s="58"/>
+      <c r="E25" s="91">
+        <v>44032</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="18">
+      <c r="A26" s="198"/>
+      <c r="B26" s="185"/>
+      <c r="C26" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="D26" s="58"/>
+      <c r="E26" s="92">
+        <v>44032</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="17">
+      <c r="A27" s="198"/>
+      <c r="B27" s="186"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="58"/>
+      <c r="E27" s="93"/>
+      <c r="F27" s="5"/>
+    </row>
+    <row r="28" spans="1:6" ht="54">
+      <c r="A28" s="198"/>
+      <c r="B28" s="187" t="s">
+        <v>148</v>
+      </c>
+      <c r="C28" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="D28" s="59" t="s">
+        <v>204</v>
+      </c>
+      <c r="E28" s="94">
+        <v>44033</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="72">
+      <c r="A29" s="198"/>
+      <c r="B29" s="188"/>
+      <c r="C29" s="36" t="s">
+        <v>205</v>
+      </c>
+      <c r="D29" s="59"/>
+      <c r="E29" s="94">
+        <v>44033</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="108">
+      <c r="A30" s="198"/>
+      <c r="B30" s="188"/>
+      <c r="C30" s="36" t="s">
+        <v>206</v>
+      </c>
+      <c r="D30" s="59"/>
+      <c r="E30" s="94">
+        <v>44034</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="54">
+      <c r="A31" s="198"/>
+      <c r="B31" s="189"/>
+      <c r="C31" s="59" t="s">
+        <v>207</v>
+      </c>
+      <c r="D31" s="78"/>
+      <c r="E31" s="94">
+        <v>44034</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="198"/>
+      <c r="B32" s="162" t="s">
+        <v>88</v>
+      </c>
+      <c r="C32" s="177" t="s">
+        <v>155</v>
+      </c>
+      <c r="D32" s="79" t="s">
+        <v>210</v>
+      </c>
+      <c r="E32" s="86">
+        <v>44035</v>
+      </c>
+      <c r="F32" s="37" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="198"/>
+      <c r="B33" s="163"/>
+      <c r="C33" s="178"/>
+      <c r="D33" s="79" t="s">
+        <v>209</v>
+      </c>
+      <c r="E33" s="86">
+        <v>44035</v>
+      </c>
+      <c r="F33" s="37" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="198"/>
+      <c r="B34" s="164"/>
+      <c r="C34" s="179"/>
+      <c r="D34" s="79" t="s">
+        <v>208</v>
+      </c>
+      <c r="E34" s="86">
+        <v>44035</v>
+      </c>
+      <c r="F34" s="37" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="198"/>
+      <c r="B35" s="168" t="s">
+        <v>149</v>
+      </c>
+      <c r="C35" s="171" t="s">
+        <v>213</v>
+      </c>
+      <c r="D35" s="60" t="s">
+        <v>211</v>
+      </c>
+      <c r="E35" s="95">
+        <v>44036</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="198"/>
+      <c r="B36" s="169"/>
+      <c r="C36" s="172"/>
+      <c r="D36" s="60" t="s">
+        <v>215</v>
+      </c>
+      <c r="E36" s="95">
+        <v>44039</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="198"/>
+      <c r="B37" s="169"/>
+      <c r="C37" s="172"/>
+      <c r="D37" s="60" t="s">
+        <v>212</v>
+      </c>
+      <c r="E37" s="95">
+        <v>44039</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="198"/>
+      <c r="B38" s="169"/>
+      <c r="C38" s="172"/>
+      <c r="D38" s="60" t="s">
+        <v>214</v>
+      </c>
+      <c r="E38" s="96" t="s">
+        <v>157</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="198"/>
+      <c r="B39" s="169"/>
+      <c r="C39" s="173"/>
+      <c r="D39" s="60"/>
+      <c r="E39" s="96"/>
+      <c r="F39" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="198"/>
+      <c r="B40" s="170" t="s">
+        <v>150</v>
+      </c>
+      <c r="C40" s="174"/>
+      <c r="D40" s="123" t="s">
+        <v>216</v>
+      </c>
+      <c r="E40" s="97">
+        <v>44040</v>
+      </c>
+      <c r="F40" s="40" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="198"/>
+      <c r="B41" s="170"/>
+      <c r="C41" s="175"/>
+      <c r="D41" s="123" t="s">
+        <v>217</v>
+      </c>
+      <c r="E41" s="97">
+        <v>44040</v>
+      </c>
+      <c r="F41" s="40" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="198"/>
+      <c r="B42" s="170"/>
+      <c r="C42" s="175"/>
+      <c r="D42" s="123" t="s">
+        <v>218</v>
+      </c>
+      <c r="E42" s="97">
+        <v>44040</v>
+      </c>
+      <c r="F42" s="40" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="198"/>
+      <c r="B43" s="170"/>
+      <c r="C43" s="175"/>
+      <c r="D43" s="123" t="s">
+        <v>215</v>
+      </c>
+      <c r="E43" s="97">
+        <v>44040</v>
+      </c>
+      <c r="F43" s="40" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="198"/>
+      <c r="B44" s="170"/>
+      <c r="C44" s="175"/>
+      <c r="D44" s="123" t="s">
+        <v>200</v>
+      </c>
+      <c r="E44" s="97">
+        <v>44040</v>
+      </c>
+      <c r="F44" s="40" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="198"/>
+      <c r="B45" s="170"/>
+      <c r="C45" s="176"/>
+      <c r="D45" s="123" t="s">
+        <v>219</v>
+      </c>
+      <c r="E45" s="97">
+        <v>44040</v>
+      </c>
+      <c r="F45" s="40" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="17">
+      <c r="A46" s="198"/>
+      <c r="B46" s="124" t="s">
+        <v>162</v>
+      </c>
+      <c r="C46" s="125"/>
+      <c r="D46" s="123" t="s">
+        <v>220</v>
+      </c>
+      <c r="E46" s="97">
+        <v>44040</v>
+      </c>
+      <c r="F46" s="40" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="17">
+      <c r="A47" s="199"/>
+      <c r="B47" s="124" t="s">
+        <v>164</v>
+      </c>
+      <c r="C47" s="125"/>
+      <c r="D47" s="123" t="s">
+        <v>221</v>
+      </c>
+      <c r="E47" s="97">
+        <v>44040</v>
+      </c>
+      <c r="F47" s="40" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="53"/>
+      <c r="E48" s="80"/>
+      <c r="F48" s="2"/>
+    </row>
+    <row r="49" spans="1:6" ht="126">
+      <c r="A49" s="211" t="s">
+        <v>136</v>
+      </c>
+      <c r="B49" s="218" t="s">
+        <v>147</v>
+      </c>
+      <c r="C49" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="D49" s="123" t="s">
+        <v>120</v>
+      </c>
+      <c r="E49" s="97">
+        <v>44041</v>
+      </c>
+      <c r="F49" s="40" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="72">
+      <c r="A50" s="211"/>
+      <c r="B50" s="219"/>
+      <c r="C50" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="D50" s="123" t="s">
+        <v>122</v>
+      </c>
+      <c r="E50" s="97">
+        <v>44041</v>
+      </c>
+      <c r="F50" s="40" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="72">
+      <c r="A51" s="211"/>
+      <c r="B51" s="219"/>
+      <c r="C51" s="41" t="s">
+        <v>121</v>
+      </c>
+      <c r="D51" s="123" t="s">
+        <v>120</v>
+      </c>
+      <c r="E51" s="97">
+        <v>44041</v>
+      </c>
+      <c r="F51" s="40" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="54">
+      <c r="A52" s="211"/>
+      <c r="B52" s="219"/>
+      <c r="C52" s="41" t="s">
+        <v>119</v>
+      </c>
+      <c r="D52" s="123" t="s">
+        <v>122</v>
+      </c>
+      <c r="E52" s="97">
+        <v>44041</v>
+      </c>
+      <c r="F52" s="40" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="18">
+      <c r="A53" s="211"/>
+      <c r="B53" s="220"/>
+      <c r="C53" s="41" t="s">
+        <v>236</v>
+      </c>
+      <c r="D53" s="123"/>
+      <c r="E53" s="97">
+        <v>44041</v>
+      </c>
+      <c r="F53" s="40" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="17">
+      <c r="A54" s="211"/>
+      <c r="B54" s="221" t="s">
+        <v>123</v>
+      </c>
+      <c r="C54" s="42"/>
+      <c r="D54" s="62"/>
+      <c r="E54" s="98"/>
+      <c r="F54" s="43"/>
+    </row>
+    <row r="55" spans="1:6" ht="54">
+      <c r="A55" s="211"/>
+      <c r="B55" s="222"/>
+      <c r="C55" s="42" t="s">
+        <v>227</v>
+      </c>
+      <c r="D55" s="62" t="s">
+        <v>158</v>
+      </c>
+      <c r="E55" s="99">
+        <v>44041</v>
+      </c>
+      <c r="F55" s="43" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="36">
+      <c r="A56" s="211"/>
+      <c r="B56" s="222"/>
+      <c r="C56" s="42" t="s">
+        <v>228</v>
+      </c>
+      <c r="D56" s="62" t="s">
+        <v>63</v>
+      </c>
+      <c r="E56" s="99">
+        <v>44041</v>
+      </c>
+      <c r="F56" s="43" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="36">
+      <c r="A57" s="211"/>
+      <c r="B57" s="222"/>
+      <c r="C57" s="42" t="s">
+        <v>229</v>
+      </c>
+      <c r="D57" s="62" t="s">
+        <v>67</v>
+      </c>
+      <c r="E57" s="99">
+        <v>44041</v>
+      </c>
+      <c r="F57" s="43" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="18">
+      <c r="A58" s="211"/>
+      <c r="B58" s="222"/>
+      <c r="C58" s="42" t="s">
+        <v>236</v>
+      </c>
+      <c r="D58" s="62"/>
+      <c r="E58" s="99">
+        <v>44041</v>
+      </c>
+      <c r="F58" s="43" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="18">
+      <c r="A59" s="211"/>
+      <c r="B59" s="203" t="s">
+        <v>244</v>
+      </c>
+      <c r="C59" s="110" t="s">
+        <v>112</v>
+      </c>
+      <c r="D59" s="111"/>
+      <c r="E59" s="112">
+        <v>44041</v>
+      </c>
+      <c r="F59" s="43" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="54">
+      <c r="A60" s="211"/>
+      <c r="B60" s="204"/>
+      <c r="C60" s="110" t="s">
+        <v>230</v>
+      </c>
+      <c r="D60" s="111"/>
+      <c r="E60" s="112">
+        <v>44041</v>
+      </c>
+      <c r="F60" s="43" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="36">
+      <c r="A61" s="211"/>
+      <c r="B61" s="204"/>
+      <c r="C61" s="110" t="s">
+        <v>163</v>
+      </c>
+      <c r="D61" s="111"/>
+      <c r="E61" s="112">
+        <v>44041</v>
+      </c>
+      <c r="F61" s="43" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="18">
+      <c r="A62" s="211"/>
+      <c r="B62" s="205"/>
+      <c r="C62" s="110" t="s">
+        <v>236</v>
+      </c>
+      <c r="D62" s="111"/>
+      <c r="E62" s="112">
+        <v>44041</v>
+      </c>
+      <c r="F62" s="43" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="211"/>
+      <c r="B63" s="206" t="s">
+        <v>151</v>
+      </c>
+      <c r="C63" s="38"/>
+      <c r="D63" s="63"/>
+      <c r="E63" s="100"/>
+      <c r="F63" s="38"/>
+    </row>
+    <row r="64" spans="1:6" ht="72">
+      <c r="A64" s="211"/>
+      <c r="B64" s="207"/>
+      <c r="C64" s="44" t="s">
+        <v>231</v>
+      </c>
+      <c r="D64" s="63" t="s">
+        <v>125</v>
+      </c>
+      <c r="E64" s="101">
+        <v>44042</v>
+      </c>
+      <c r="F64" s="38" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="36">
+      <c r="A65" s="211"/>
+      <c r="B65" s="207"/>
+      <c r="C65" s="44" t="s">
+        <v>232</v>
+      </c>
+      <c r="D65" s="63" t="s">
+        <v>124</v>
+      </c>
+      <c r="E65" s="101">
+        <v>44042</v>
+      </c>
+      <c r="F65" s="38" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="211"/>
+      <c r="B66" s="208"/>
+      <c r="C66" s="45" t="s">
+        <v>233</v>
+      </c>
+      <c r="D66" s="64"/>
+      <c r="E66" s="100"/>
+      <c r="F66" s="38" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="211"/>
+      <c r="B67" s="209" t="s">
+        <v>152</v>
+      </c>
+      <c r="C67" s="107" t="s">
+        <v>234</v>
+      </c>
+      <c r="D67" s="108"/>
+      <c r="E67" s="109">
+        <v>44043</v>
+      </c>
+      <c r="F67" s="107" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="211"/>
+      <c r="B68" s="210"/>
+      <c r="C68" s="107" t="s">
+        <v>233</v>
+      </c>
+      <c r="D68" s="108"/>
+      <c r="E68" s="109">
+        <v>44043</v>
+      </c>
+      <c r="F68" s="107" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="54">
+      <c r="A69" s="211"/>
+      <c r="B69" s="215" t="s">
+        <v>153</v>
+      </c>
+      <c r="C69" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="D69" s="50"/>
+      <c r="E69" s="102">
+        <v>44046</v>
+      </c>
+      <c r="F69" s="34" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="72">
+      <c r="A70" s="211"/>
+      <c r="B70" s="216"/>
+      <c r="C70" s="33" t="s">
+        <v>235</v>
+      </c>
+      <c r="D70" s="49"/>
+      <c r="E70" s="103">
+        <v>44046</v>
+      </c>
+      <c r="F70" s="107" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="36">
+      <c r="A71" s="211"/>
+      <c r="B71" s="217"/>
+      <c r="C71" s="33" t="s">
+        <v>233</v>
+      </c>
+      <c r="D71" s="50"/>
+      <c r="E71" s="104">
+        <v>44046</v>
+      </c>
+      <c r="F71" s="107" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="72">
+      <c r="A72" s="211"/>
+      <c r="B72" s="212" t="s">
+        <v>154</v>
+      </c>
+      <c r="C72" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="D72" s="65" t="s">
+        <v>82</v>
+      </c>
+      <c r="E72" s="116">
+        <v>44047</v>
+      </c>
+      <c r="F72" s="34" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="17">
+      <c r="A73" s="211"/>
+      <c r="B73" s="213"/>
+      <c r="C73" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D73" s="65"/>
+      <c r="E73" s="105">
+        <v>44047</v>
+      </c>
+      <c r="F73" s="107" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="211"/>
+      <c r="B74" s="214"/>
+      <c r="C74" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="D74" s="66"/>
+      <c r="E74" s="105">
+        <v>44047</v>
+      </c>
+      <c r="F74" s="107" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="200" t="s">
+        <v>159</v>
+      </c>
+      <c r="B75" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="C75" s="37" t="s">
+        <v>232</v>
+      </c>
+      <c r="D75" s="67"/>
+      <c r="E75" s="106">
+        <v>44048</v>
+      </c>
+      <c r="F75" s="119" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="201"/>
+      <c r="B76" s="37" t="s">
+        <v>161</v>
+      </c>
+      <c r="C76" s="37" t="s">
+        <v>232</v>
+      </c>
+      <c r="D76" s="67"/>
+      <c r="E76" s="106">
+        <v>44048</v>
+      </c>
+      <c r="F76" s="119" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="202"/>
+      <c r="B77" s="37"/>
+      <c r="C77" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="D77" s="67"/>
+      <c r="E77" s="106">
+        <v>44048</v>
+      </c>
+      <c r="F77" s="119" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="196" t="s">
+        <v>222</v>
+      </c>
+      <c r="B78" s="5"/>
+      <c r="C78" s="122" t="s">
+        <v>237</v>
+      </c>
+      <c r="D78" s="113" t="s">
+        <v>226</v>
+      </c>
+      <c r="E78" s="122"/>
+      <c r="F78" s="5"/>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="196"/>
+      <c r="B79" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C79" s="122" t="s">
+        <v>238</v>
+      </c>
+      <c r="D79" s="113"/>
+      <c r="E79" s="114" t="s">
+        <v>240</v>
+      </c>
+      <c r="F79" s="5"/>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="196"/>
+      <c r="B80" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="C80" s="122" t="s">
+        <v>239</v>
+      </c>
+      <c r="D80" s="113"/>
+      <c r="E80" s="114">
+        <v>44053</v>
+      </c>
+      <c r="F80" s="5"/>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="196"/>
+      <c r="B81" s="115" t="s">
+        <v>225</v>
+      </c>
+      <c r="C81" s="122"/>
+      <c r="D81" s="113"/>
+      <c r="E81" s="114">
+        <v>44053</v>
+      </c>
+      <c r="F81" s="5"/>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="196"/>
+      <c r="B82" s="5"/>
+      <c r="C82" s="122"/>
+      <c r="D82" s="113"/>
+      <c r="E82" s="114"/>
+      <c r="F82" s="5"/>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="2">
+        <v>7.21</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="C83" s="53"/>
+      <c r="D83" s="118"/>
+      <c r="E83" s="53"/>
+      <c r="F83" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="2">
+        <v>7.23</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="C84" s="53"/>
+      <c r="D84" s="118"/>
+      <c r="E84" s="53"/>
+      <c r="F84" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="128">
+        <v>44039</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="C85" s="53"/>
+      <c r="D85" s="118"/>
+      <c r="E85" s="53"/>
+      <c r="F85" s="2"/>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="128">
+        <v>44039</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="C86" s="53"/>
+      <c r="D86" s="118"/>
+      <c r="E86" s="53"/>
+      <c r="F86" s="2"/>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="C87" s="51"/>
+      <c r="D87" s="52"/>
+      <c r="E87" s="51"/>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="B72:B74"/>
+    <mergeCell ref="A75:A77"/>
+    <mergeCell ref="A78:A82"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="B35:B39"/>
+    <mergeCell ref="C35:C39"/>
+    <mergeCell ref="B40:B45"/>
+    <mergeCell ref="C40:C45"/>
+    <mergeCell ref="A49:A74"/>
+    <mergeCell ref="B49:B53"/>
+    <mergeCell ref="B54:B58"/>
+    <mergeCell ref="B59:B62"/>
+    <mergeCell ref="B63:B66"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="A10:A47"/>
+    <mergeCell ref="B10:B15"/>
+    <mergeCell ref="B16:B22"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="B32:B34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/结算数据监控平台开发计划.xlsx
+++ b/结算数据监控平台开发计划.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicker/sandbox/settlementMonitoring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2A2B23A-6E99-8445-B03A-55A4291356D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FA0E7AA-2DD1-314E-89A8-4364F74AD300}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18940" activeTab="4" xr2:uid="{AD2C15C8-2DE4-104B-A764-E65CC8F0AEA6}"/>
+    <workbookView xWindow="0" yWindow="620" windowWidth="33600" windowHeight="18940" activeTab="4" xr2:uid="{AD2C15C8-2DE4-104B-A764-E65CC8F0AEA6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="259">
   <si>
     <t>ETX联网结算平台</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1157,6 +1157,54 @@
   </si>
   <si>
     <t>结算数据监控平台功能列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、省外累计交易金额、交易笔数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>redis中获取数据【实时】+kafka传递的数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、省外清分金额、清分笔数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3、待处理异常数据金额、笔数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4、待处理争议数据金额、笔数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5、坏账数据金额，笔数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、统计今日打包数据量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、统计今日已发送原始交易消息包数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3、统计今日接收原始交易消息应答包数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4、统计今日记账包数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、统计交易金额、清分金额，计算差额，统计时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、新增省外结算趋势记录，包含 统计时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2031,6 +2079,87 @@
     <xf numFmtId="0" fontId="9" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2114,87 +2243,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3777,7 +3825,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E10E9005-F9D0-4E45-A602-C89B60257518}">
   <dimension ref="B2:H88"/>
   <sheetViews>
-    <sheetView zoomScale="75" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="75" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:G88"/>
     </sheetView>
   </sheetViews>
@@ -3823,10 +3871,10 @@
       <c r="H3" s="117"/>
     </row>
     <row r="4" spans="2:8">
-      <c r="B4" s="190" t="s">
+      <c r="B4" s="217" t="s">
         <v>171</v>
       </c>
-      <c r="C4" s="193" t="s">
+      <c r="C4" s="220" t="s">
         <v>172</v>
       </c>
       <c r="D4" s="70" t="s">
@@ -3844,8 +3892,8 @@
       <c r="H4" s="117"/>
     </row>
     <row r="5" spans="2:8">
-      <c r="B5" s="191"/>
-      <c r="C5" s="194"/>
+      <c r="B5" s="218"/>
+      <c r="C5" s="221"/>
       <c r="D5" s="70" t="s">
         <v>166</v>
       </c>
@@ -3861,8 +3909,8 @@
       <c r="H5" s="117"/>
     </row>
     <row r="6" spans="2:8">
-      <c r="B6" s="191"/>
-      <c r="C6" s="195"/>
+      <c r="B6" s="218"/>
+      <c r="C6" s="222"/>
       <c r="D6" s="70" t="s">
         <v>167</v>
       </c>
@@ -3878,7 +3926,7 @@
       <c r="H6" s="117"/>
     </row>
     <row r="7" spans="2:8">
-      <c r="B7" s="191"/>
+      <c r="B7" s="218"/>
       <c r="C7" s="72" t="s">
         <v>168</v>
       </c>
@@ -3897,8 +3945,8 @@
       <c r="H7" s="117"/>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="191"/>
-      <c r="C8" s="177" t="s">
+      <c r="B8" s="218"/>
+      <c r="C8" s="204" t="s">
         <v>173</v>
       </c>
       <c r="D8" s="75" t="s">
@@ -3914,8 +3962,8 @@
       <c r="H8" s="117"/>
     </row>
     <row r="9" spans="2:8">
-      <c r="B9" s="192"/>
-      <c r="C9" s="179"/>
+      <c r="B9" s="219"/>
+      <c r="C9" s="206"/>
       <c r="D9" s="75" t="s">
         <v>170</v>
       </c>
@@ -3938,10 +3986,10 @@
       <c r="H10" s="117"/>
     </row>
     <row r="11" spans="2:8" ht="36" customHeight="1">
-      <c r="B11" s="197" t="s">
+      <c r="B11" s="169" t="s">
         <v>99</v>
       </c>
-      <c r="C11" s="180" t="s">
+      <c r="C11" s="207" t="s">
         <v>144</v>
       </c>
       <c r="D11" s="27" t="s">
@@ -3961,8 +4009,8 @@
       </c>
     </row>
     <row r="12" spans="2:8" ht="18">
-      <c r="B12" s="198"/>
-      <c r="C12" s="181"/>
+      <c r="B12" s="170"/>
+      <c r="C12" s="208"/>
       <c r="D12" s="27" t="s">
         <v>187</v>
       </c>
@@ -3978,8 +4026,8 @@
       </c>
     </row>
     <row r="13" spans="2:8" ht="18">
-      <c r="B13" s="198"/>
-      <c r="C13" s="181"/>
+      <c r="B13" s="170"/>
+      <c r="C13" s="208"/>
       <c r="D13" s="28" t="s">
         <v>188</v>
       </c>
@@ -3997,8 +4045,8 @@
       </c>
     </row>
     <row r="14" spans="2:8" ht="18">
-      <c r="B14" s="198"/>
-      <c r="C14" s="181"/>
+      <c r="B14" s="170"/>
+      <c r="C14" s="208"/>
       <c r="D14" s="28" t="s">
         <v>189</v>
       </c>
@@ -4016,8 +4064,8 @@
       </c>
     </row>
     <row r="15" spans="2:8" ht="36">
-      <c r="B15" s="198"/>
-      <c r="C15" s="181"/>
+      <c r="B15" s="170"/>
+      <c r="C15" s="208"/>
       <c r="D15" s="28" t="s">
         <v>190</v>
       </c>
@@ -4035,8 +4083,8 @@
       </c>
     </row>
     <row r="16" spans="2:8" ht="17" customHeight="1">
-      <c r="B16" s="198"/>
-      <c r="C16" s="182"/>
+      <c r="B16" s="170"/>
+      <c r="C16" s="209"/>
       <c r="D16" s="29" t="s">
         <v>184</v>
       </c>
@@ -4050,7 +4098,7 @@
       <c r="H16" s="117"/>
     </row>
     <row r="17" spans="2:8" ht="18">
-      <c r="B17" s="198"/>
+      <c r="B17" s="170"/>
       <c r="C17" s="155" t="s">
         <v>114</v>
       </c>
@@ -4069,8 +4117,8 @@
       <c r="H17" s="117"/>
     </row>
     <row r="18" spans="2:8" ht="18">
-      <c r="B18" s="198"/>
-      <c r="C18" s="183"/>
+      <c r="B18" s="170"/>
+      <c r="C18" s="210"/>
       <c r="D18" s="31" t="s">
         <v>191</v>
       </c>
@@ -4084,8 +4132,8 @@
       <c r="H18" s="117"/>
     </row>
     <row r="19" spans="2:8" ht="18">
-      <c r="B19" s="198"/>
-      <c r="C19" s="183"/>
+      <c r="B19" s="170"/>
+      <c r="C19" s="210"/>
       <c r="D19" s="31" t="s">
         <v>192</v>
       </c>
@@ -4099,8 +4147,8 @@
       <c r="H19" s="117"/>
     </row>
     <row r="20" spans="2:8" ht="18">
-      <c r="B20" s="198"/>
-      <c r="C20" s="183"/>
+      <c r="B20" s="170"/>
+      <c r="C20" s="210"/>
       <c r="D20" s="31" t="s">
         <v>193</v>
       </c>
@@ -4114,8 +4162,8 @@
       <c r="H20" s="117"/>
     </row>
     <row r="21" spans="2:8" ht="18">
-      <c r="B21" s="198"/>
-      <c r="C21" s="183"/>
+      <c r="B21" s="170"/>
+      <c r="C21" s="210"/>
       <c r="D21" s="31" t="s">
         <v>194</v>
       </c>
@@ -4129,8 +4177,8 @@
       <c r="H21" s="117"/>
     </row>
     <row r="22" spans="2:8" ht="18">
-      <c r="B22" s="198"/>
-      <c r="C22" s="183"/>
+      <c r="B22" s="170"/>
+      <c r="C22" s="210"/>
       <c r="D22" s="31" t="s">
         <v>197</v>
       </c>
@@ -4144,7 +4192,7 @@
       <c r="H22" s="117"/>
     </row>
     <row r="23" spans="2:8" ht="18">
-      <c r="B23" s="198"/>
+      <c r="B23" s="170"/>
       <c r="C23" s="156"/>
       <c r="D23" s="31" t="s">
         <v>196</v>
@@ -4159,8 +4207,8 @@
       <c r="H23" s="117"/>
     </row>
     <row r="24" spans="2:8" ht="18">
-      <c r="B24" s="198"/>
-      <c r="C24" s="184" t="s">
+      <c r="B24" s="170"/>
+      <c r="C24" s="211" t="s">
         <v>145</v>
       </c>
       <c r="D24" s="32" t="s">
@@ -4178,8 +4226,8 @@
       <c r="H24" s="117"/>
     </row>
     <row r="25" spans="2:8" ht="18">
-      <c r="B25" s="198"/>
-      <c r="C25" s="185"/>
+      <c r="B25" s="170"/>
+      <c r="C25" s="212"/>
       <c r="D25" s="19" t="s">
         <v>198</v>
       </c>
@@ -4193,8 +4241,8 @@
       <c r="H25" s="117"/>
     </row>
     <row r="26" spans="2:8" ht="18">
-      <c r="B26" s="198"/>
-      <c r="C26" s="185"/>
+      <c r="B26" s="170"/>
+      <c r="C26" s="212"/>
       <c r="D26" s="19" t="s">
         <v>202</v>
       </c>
@@ -4208,8 +4256,8 @@
       <c r="H26" s="117"/>
     </row>
     <row r="27" spans="2:8" ht="18">
-      <c r="B27" s="198"/>
-      <c r="C27" s="185"/>
+      <c r="B27" s="170"/>
+      <c r="C27" s="212"/>
       <c r="D27" s="19" t="s">
         <v>203</v>
       </c>
@@ -4223,8 +4271,8 @@
       <c r="H27" s="117"/>
     </row>
     <row r="28" spans="2:8" ht="17">
-      <c r="B28" s="198"/>
-      <c r="C28" s="186"/>
+      <c r="B28" s="170"/>
+      <c r="C28" s="213"/>
       <c r="D28" s="19"/>
       <c r="E28" s="58"/>
       <c r="F28" s="93"/>
@@ -4232,8 +4280,8 @@
       <c r="H28" s="117"/>
     </row>
     <row r="29" spans="2:8" ht="18">
-      <c r="B29" s="198"/>
-      <c r="C29" s="187" t="s">
+      <c r="B29" s="170"/>
+      <c r="C29" s="214" t="s">
         <v>148</v>
       </c>
       <c r="D29" s="36" t="s">
@@ -4251,8 +4299,8 @@
       <c r="H29" s="117"/>
     </row>
     <row r="30" spans="2:8" ht="18">
-      <c r="B30" s="198"/>
-      <c r="C30" s="188"/>
+      <c r="B30" s="170"/>
+      <c r="C30" s="215"/>
       <c r="D30" s="36" t="s">
         <v>205</v>
       </c>
@@ -4266,8 +4314,8 @@
       <c r="H30" s="117"/>
     </row>
     <row r="31" spans="2:8" ht="36" customHeight="1">
-      <c r="B31" s="198"/>
-      <c r="C31" s="188"/>
+      <c r="B31" s="170"/>
+      <c r="C31" s="215"/>
       <c r="D31" s="36" t="s">
         <v>206</v>
       </c>
@@ -4281,8 +4329,8 @@
       <c r="H31" s="117"/>
     </row>
     <row r="32" spans="2:8" ht="54" customHeight="1">
-      <c r="B32" s="198"/>
-      <c r="C32" s="189"/>
+      <c r="B32" s="170"/>
+      <c r="C32" s="216"/>
       <c r="D32" s="59" t="s">
         <v>207</v>
       </c>
@@ -4296,11 +4344,11 @@
       <c r="H32" s="117"/>
     </row>
     <row r="33" spans="2:8" ht="16" customHeight="1">
-      <c r="B33" s="198"/>
+      <c r="B33" s="170"/>
       <c r="C33" s="162" t="s">
         <v>88</v>
       </c>
-      <c r="D33" s="177" t="s">
+      <c r="D33" s="204" t="s">
         <v>155</v>
       </c>
       <c r="E33" s="79" t="s">
@@ -4315,9 +4363,9 @@
       <c r="H33" s="117"/>
     </row>
     <row r="34" spans="2:8" ht="16" customHeight="1">
-      <c r="B34" s="198"/>
+      <c r="B34" s="170"/>
       <c r="C34" s="163"/>
-      <c r="D34" s="178"/>
+      <c r="D34" s="205"/>
       <c r="E34" s="79" t="s">
         <v>209</v>
       </c>
@@ -4330,9 +4378,9 @@
       <c r="H34" s="117"/>
     </row>
     <row r="35" spans="2:8" ht="17" customHeight="1">
-      <c r="B35" s="198"/>
+      <c r="B35" s="170"/>
       <c r="C35" s="164"/>
-      <c r="D35" s="179"/>
+      <c r="D35" s="206"/>
       <c r="E35" s="79" t="s">
         <v>208</v>
       </c>
@@ -4345,11 +4393,11 @@
       <c r="H35" s="117"/>
     </row>
     <row r="36" spans="2:8" ht="16" customHeight="1">
-      <c r="B36" s="198"/>
-      <c r="C36" s="168" t="s">
+      <c r="B36" s="170"/>
+      <c r="C36" s="195" t="s">
         <v>149</v>
       </c>
-      <c r="D36" s="171" t="s">
+      <c r="D36" s="198" t="s">
         <v>213</v>
       </c>
       <c r="E36" s="60" t="s">
@@ -4364,9 +4412,9 @@
       <c r="H36" s="117"/>
     </row>
     <row r="37" spans="2:8" ht="16" customHeight="1">
-      <c r="B37" s="198"/>
-      <c r="C37" s="169"/>
-      <c r="D37" s="172"/>
+      <c r="B37" s="170"/>
+      <c r="C37" s="196"/>
+      <c r="D37" s="199"/>
       <c r="E37" s="60" t="s">
         <v>215</v>
       </c>
@@ -4379,9 +4427,9 @@
       <c r="H37" s="117"/>
     </row>
     <row r="38" spans="2:8" ht="16" customHeight="1">
-      <c r="B38" s="198"/>
-      <c r="C38" s="169"/>
-      <c r="D38" s="172"/>
+      <c r="B38" s="170"/>
+      <c r="C38" s="196"/>
+      <c r="D38" s="199"/>
       <c r="E38" s="60" t="s">
         <v>212</v>
       </c>
@@ -4394,9 +4442,9 @@
       <c r="H38" s="117"/>
     </row>
     <row r="39" spans="2:8" ht="16" customHeight="1">
-      <c r="B39" s="198"/>
-      <c r="C39" s="169"/>
-      <c r="D39" s="172"/>
+      <c r="B39" s="170"/>
+      <c r="C39" s="196"/>
+      <c r="D39" s="199"/>
       <c r="E39" s="60" t="s">
         <v>214</v>
       </c>
@@ -4409,9 +4457,9 @@
       <c r="H39" s="117"/>
     </row>
     <row r="40" spans="2:8" ht="16" customHeight="1">
-      <c r="B40" s="198"/>
-      <c r="C40" s="169"/>
-      <c r="D40" s="173"/>
+      <c r="B40" s="170"/>
+      <c r="C40" s="196"/>
+      <c r="D40" s="200"/>
       <c r="E40" s="60"/>
       <c r="F40" s="96"/>
       <c r="G40" s="3" t="s">
@@ -4420,11 +4468,11 @@
       <c r="H40" s="117"/>
     </row>
     <row r="41" spans="2:8" ht="16" customHeight="1">
-      <c r="B41" s="198"/>
-      <c r="C41" s="170" t="s">
+      <c r="B41" s="170"/>
+      <c r="C41" s="197" t="s">
         <v>150</v>
       </c>
-      <c r="D41" s="174"/>
+      <c r="D41" s="201"/>
       <c r="E41" s="61" t="s">
         <v>216</v>
       </c>
@@ -4437,9 +4485,9 @@
       <c r="H41" s="117"/>
     </row>
     <row r="42" spans="2:8" ht="16" customHeight="1">
-      <c r="B42" s="198"/>
-      <c r="C42" s="170"/>
-      <c r="D42" s="175"/>
+      <c r="B42" s="170"/>
+      <c r="C42" s="197"/>
+      <c r="D42" s="202"/>
       <c r="E42" s="61" t="s">
         <v>217</v>
       </c>
@@ -4452,9 +4500,9 @@
       <c r="H42" s="117"/>
     </row>
     <row r="43" spans="2:8" ht="16" customHeight="1">
-      <c r="B43" s="198"/>
-      <c r="C43" s="170"/>
-      <c r="D43" s="175"/>
+      <c r="B43" s="170"/>
+      <c r="C43" s="197"/>
+      <c r="D43" s="202"/>
       <c r="E43" s="61" t="s">
         <v>218</v>
       </c>
@@ -4467,9 +4515,9 @@
       <c r="H43" s="117"/>
     </row>
     <row r="44" spans="2:8" ht="16" customHeight="1">
-      <c r="B44" s="198"/>
-      <c r="C44" s="170"/>
-      <c r="D44" s="175"/>
+      <c r="B44" s="170"/>
+      <c r="C44" s="197"/>
+      <c r="D44" s="202"/>
       <c r="E44" s="61" t="s">
         <v>215</v>
       </c>
@@ -4482,9 +4530,9 @@
       <c r="H44" s="117"/>
     </row>
     <row r="45" spans="2:8" ht="16" customHeight="1">
-      <c r="B45" s="198"/>
-      <c r="C45" s="170"/>
-      <c r="D45" s="175"/>
+      <c r="B45" s="170"/>
+      <c r="C45" s="197"/>
+      <c r="D45" s="202"/>
       <c r="E45" s="61" t="s">
         <v>200</v>
       </c>
@@ -4497,9 +4545,9 @@
       <c r="H45" s="117"/>
     </row>
     <row r="46" spans="2:8" ht="16" customHeight="1">
-      <c r="B46" s="198"/>
-      <c r="C46" s="170"/>
-      <c r="D46" s="176"/>
+      <c r="B46" s="170"/>
+      <c r="C46" s="197"/>
+      <c r="D46" s="203"/>
       <c r="E46" s="61" t="s">
         <v>219</v>
       </c>
@@ -4512,7 +4560,7 @@
       <c r="H46" s="117"/>
     </row>
     <row r="47" spans="2:8" ht="16" customHeight="1">
-      <c r="B47" s="198"/>
+      <c r="B47" s="170"/>
       <c r="C47" s="46" t="s">
         <v>162</v>
       </c>
@@ -4529,7 +4577,7 @@
       <c r="H47" s="117"/>
     </row>
     <row r="48" spans="2:8" ht="16" customHeight="1">
-      <c r="B48" s="199"/>
+      <c r="B48" s="171"/>
       <c r="C48" s="46" t="s">
         <v>164</v>
       </c>
@@ -4557,10 +4605,10 @@
       <c r="H49" s="117"/>
     </row>
     <row r="50" spans="2:8" ht="18">
-      <c r="B50" s="211" t="s">
+      <c r="B50" s="183" t="s">
         <v>136</v>
       </c>
-      <c r="C50" s="218" t="s">
+      <c r="C50" s="190" t="s">
         <v>147</v>
       </c>
       <c r="D50" s="39" t="s">
@@ -4578,8 +4626,8 @@
       <c r="H50" s="117"/>
     </row>
     <row r="51" spans="2:8" ht="18">
-      <c r="B51" s="211"/>
-      <c r="C51" s="219"/>
+      <c r="B51" s="183"/>
+      <c r="C51" s="191"/>
       <c r="D51" s="41" t="s">
         <v>91</v>
       </c>
@@ -4594,8 +4642,8 @@
       </c>
     </row>
     <row r="52" spans="2:8" ht="18">
-      <c r="B52" s="211"/>
-      <c r="C52" s="219"/>
+      <c r="B52" s="183"/>
+      <c r="C52" s="191"/>
       <c r="D52" s="41" t="s">
         <v>121</v>
       </c>
@@ -4610,8 +4658,8 @@
       </c>
     </row>
     <row r="53" spans="2:8" ht="18">
-      <c r="B53" s="211"/>
-      <c r="C53" s="219"/>
+      <c r="B53" s="183"/>
+      <c r="C53" s="191"/>
       <c r="D53" s="41" t="s">
         <v>119</v>
       </c>
@@ -4626,8 +4674,8 @@
       </c>
     </row>
     <row r="54" spans="2:8" ht="18">
-      <c r="B54" s="211"/>
-      <c r="C54" s="220"/>
+      <c r="B54" s="183"/>
+      <c r="C54" s="192"/>
       <c r="D54" s="41" t="s">
         <v>236</v>
       </c>
@@ -4640,8 +4688,8 @@
       </c>
     </row>
     <row r="55" spans="2:8" ht="17">
-      <c r="B55" s="211"/>
-      <c r="C55" s="221" t="s">
+      <c r="B55" s="183"/>
+      <c r="C55" s="193" t="s">
         <v>123</v>
       </c>
       <c r="D55" s="42"/>
@@ -4650,8 +4698,8 @@
       <c r="G55" s="43"/>
     </row>
     <row r="56" spans="2:8" ht="18">
-      <c r="B56" s="211"/>
-      <c r="C56" s="222"/>
+      <c r="B56" s="183"/>
+      <c r="C56" s="194"/>
       <c r="D56" s="42" t="s">
         <v>227</v>
       </c>
@@ -4666,8 +4714,8 @@
       </c>
     </row>
     <row r="57" spans="2:8" ht="18">
-      <c r="B57" s="211"/>
-      <c r="C57" s="222"/>
+      <c r="B57" s="183"/>
+      <c r="C57" s="194"/>
       <c r="D57" s="42" t="s">
         <v>228</v>
       </c>
@@ -4682,8 +4730,8 @@
       </c>
     </row>
     <row r="58" spans="2:8" ht="18">
-      <c r="B58" s="211"/>
-      <c r="C58" s="222"/>
+      <c r="B58" s="183"/>
+      <c r="C58" s="194"/>
       <c r="D58" s="42" t="s">
         <v>229</v>
       </c>
@@ -4698,8 +4746,8 @@
       </c>
     </row>
     <row r="59" spans="2:8" ht="18">
-      <c r="B59" s="211"/>
-      <c r="C59" s="222"/>
+      <c r="B59" s="183"/>
+      <c r="C59" s="194"/>
       <c r="D59" s="42" t="s">
         <v>236</v>
       </c>
@@ -4712,8 +4760,8 @@
       </c>
     </row>
     <row r="60" spans="2:8" ht="18">
-      <c r="B60" s="211"/>
-      <c r="C60" s="203" t="s">
+      <c r="B60" s="183"/>
+      <c r="C60" s="175" t="s">
         <v>244</v>
       </c>
       <c r="D60" s="110" t="s">
@@ -4728,8 +4776,8 @@
       </c>
     </row>
     <row r="61" spans="2:8" ht="18">
-      <c r="B61" s="211"/>
-      <c r="C61" s="204"/>
+      <c r="B61" s="183"/>
+      <c r="C61" s="176"/>
       <c r="D61" s="110" t="s">
         <v>230</v>
       </c>
@@ -4742,8 +4790,8 @@
       </c>
     </row>
     <row r="62" spans="2:8" ht="18">
-      <c r="B62" s="211"/>
-      <c r="C62" s="204"/>
+      <c r="B62" s="183"/>
+      <c r="C62" s="176"/>
       <c r="D62" s="110" t="s">
         <v>163</v>
       </c>
@@ -4756,8 +4804,8 @@
       </c>
     </row>
     <row r="63" spans="2:8" ht="18">
-      <c r="B63" s="211"/>
-      <c r="C63" s="205"/>
+      <c r="B63" s="183"/>
+      <c r="C63" s="177"/>
       <c r="D63" s="110" t="s">
         <v>236</v>
       </c>
@@ -4770,8 +4818,8 @@
       </c>
     </row>
     <row r="64" spans="2:8" ht="16" customHeight="1">
-      <c r="B64" s="211"/>
-      <c r="C64" s="206" t="s">
+      <c r="B64" s="183"/>
+      <c r="C64" s="178" t="s">
         <v>151</v>
       </c>
       <c r="D64" s="38"/>
@@ -4780,8 +4828,8 @@
       <c r="G64" s="38"/>
     </row>
     <row r="65" spans="2:8" ht="18">
-      <c r="B65" s="211"/>
-      <c r="C65" s="207"/>
+      <c r="B65" s="183"/>
+      <c r="C65" s="179"/>
       <c r="D65" s="44" t="s">
         <v>231</v>
       </c>
@@ -4796,8 +4844,8 @@
       </c>
     </row>
     <row r="66" spans="2:8" ht="18">
-      <c r="B66" s="211"/>
-      <c r="C66" s="207"/>
+      <c r="B66" s="183"/>
+      <c r="C66" s="179"/>
       <c r="D66" s="44" t="s">
         <v>232</v>
       </c>
@@ -4812,8 +4860,8 @@
       </c>
     </row>
     <row r="67" spans="2:8" ht="17" customHeight="1">
-      <c r="B67" s="211"/>
-      <c r="C67" s="208"/>
+      <c r="B67" s="183"/>
+      <c r="C67" s="180"/>
       <c r="D67" s="45" t="s">
         <v>233</v>
       </c>
@@ -4824,8 +4872,8 @@
       </c>
     </row>
     <row r="68" spans="2:8" ht="16" customHeight="1">
-      <c r="B68" s="211"/>
-      <c r="C68" s="209" t="s">
+      <c r="B68" s="183"/>
+      <c r="C68" s="181" t="s">
         <v>152</v>
       </c>
       <c r="D68" s="107" t="s">
@@ -4840,8 +4888,8 @@
       </c>
     </row>
     <row r="69" spans="2:8" ht="16" customHeight="1">
-      <c r="B69" s="211"/>
-      <c r="C69" s="210"/>
+      <c r="B69" s="183"/>
+      <c r="C69" s="182"/>
       <c r="D69" s="107" t="s">
         <v>233</v>
       </c>
@@ -4854,8 +4902,8 @@
       </c>
     </row>
     <row r="70" spans="2:8" ht="18">
-      <c r="B70" s="211"/>
-      <c r="C70" s="215" t="s">
+      <c r="B70" s="183"/>
+      <c r="C70" s="187" t="s">
         <v>153</v>
       </c>
       <c r="D70" s="33" t="s">
@@ -4870,8 +4918,8 @@
       </c>
     </row>
     <row r="71" spans="2:8" ht="18">
-      <c r="B71" s="211"/>
-      <c r="C71" s="216"/>
+      <c r="B71" s="183"/>
+      <c r="C71" s="188"/>
       <c r="D71" s="33" t="s">
         <v>235</v>
       </c>
@@ -4884,8 +4932,8 @@
       </c>
     </row>
     <row r="72" spans="2:8" ht="18">
-      <c r="B72" s="211"/>
-      <c r="C72" s="217"/>
+      <c r="B72" s="183"/>
+      <c r="C72" s="189"/>
       <c r="D72" s="33" t="s">
         <v>233</v>
       </c>
@@ -4898,8 +4946,8 @@
       </c>
     </row>
     <row r="73" spans="2:8" ht="18">
-      <c r="B73" s="211"/>
-      <c r="C73" s="212" t="s">
+      <c r="B73" s="183"/>
+      <c r="C73" s="184" t="s">
         <v>154</v>
       </c>
       <c r="D73" s="35" t="s">
@@ -4919,8 +4967,8 @@
       </c>
     </row>
     <row r="74" spans="2:8" ht="17">
-      <c r="B74" s="211"/>
-      <c r="C74" s="213"/>
+      <c r="B74" s="183"/>
+      <c r="C74" s="185"/>
       <c r="D74" s="6" t="s">
         <v>116</v>
       </c>
@@ -4934,8 +4982,8 @@
       <c r="H74" s="120"/>
     </row>
     <row r="75" spans="2:8">
-      <c r="B75" s="211"/>
-      <c r="C75" s="214"/>
+      <c r="B75" s="183"/>
+      <c r="C75" s="186"/>
       <c r="D75" s="6" t="s">
         <v>233</v>
       </c>
@@ -4949,7 +4997,7 @@
       <c r="H75" s="120"/>
     </row>
     <row r="76" spans="2:8">
-      <c r="B76" s="200" t="s">
+      <c r="B76" s="172" t="s">
         <v>159</v>
       </c>
       <c r="C76" s="37" t="s">
@@ -4967,7 +5015,7 @@
       </c>
     </row>
     <row r="77" spans="2:8">
-      <c r="B77" s="201"/>
+      <c r="B77" s="173"/>
       <c r="C77" s="37" t="s">
         <v>161</v>
       </c>
@@ -4983,7 +5031,7 @@
       </c>
     </row>
     <row r="78" spans="2:8">
-      <c r="B78" s="202"/>
+      <c r="B78" s="174"/>
       <c r="C78" s="37"/>
       <c r="D78" s="37" t="s">
         <v>233</v>
@@ -4997,7 +5045,7 @@
       </c>
     </row>
     <row r="79" spans="2:8">
-      <c r="B79" s="196" t="s">
+      <c r="B79" s="168" t="s">
         <v>222</v>
       </c>
       <c r="C79" s="5"/>
@@ -5011,7 +5059,7 @@
       <c r="G79" s="5"/>
     </row>
     <row r="80" spans="2:8">
-      <c r="B80" s="196"/>
+      <c r="B80" s="168"/>
       <c r="C80" s="5" t="s">
         <v>223</v>
       </c>
@@ -5025,7 +5073,7 @@
       <c r="G80" s="5"/>
     </row>
     <row r="81" spans="2:8">
-      <c r="B81" s="196"/>
+      <c r="B81" s="168"/>
       <c r="C81" s="5" t="s">
         <v>224</v>
       </c>
@@ -5039,7 +5087,7 @@
       <c r="G81" s="5"/>
     </row>
     <row r="82" spans="2:8">
-      <c r="B82" s="196"/>
+      <c r="B82" s="168"/>
       <c r="C82" s="115" t="s">
         <v>225</v>
       </c>
@@ -5051,7 +5099,7 @@
       <c r="G82" s="5"/>
     </row>
     <row r="83" spans="2:8">
-      <c r="B83" s="196"/>
+      <c r="B83" s="168"/>
       <c r="C83" s="5"/>
       <c r="D83" s="68"/>
       <c r="E83" s="113"/>
@@ -5122,17 +5170,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B79:B83"/>
-    <mergeCell ref="B11:B48"/>
-    <mergeCell ref="B76:B78"/>
-    <mergeCell ref="C60:C63"/>
-    <mergeCell ref="C64:C67"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="B50:B75"/>
-    <mergeCell ref="C73:C75"/>
-    <mergeCell ref="C70:C72"/>
-    <mergeCell ref="C50:C54"/>
-    <mergeCell ref="C55:C59"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="C36:C40"/>
     <mergeCell ref="C41:C46"/>
@@ -5147,6 +5184,17 @@
     <mergeCell ref="B4:B9"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="C8:C9"/>
+    <mergeCell ref="B79:B83"/>
+    <mergeCell ref="B11:B48"/>
+    <mergeCell ref="B76:B78"/>
+    <mergeCell ref="C60:C63"/>
+    <mergeCell ref="C64:C67"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="B50:B75"/>
+    <mergeCell ref="C73:C75"/>
+    <mergeCell ref="C70:C72"/>
+    <mergeCell ref="C50:C54"/>
+    <mergeCell ref="C55:C59"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5157,8 +5205,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BD846FD-50A1-DA45-8751-BA61D2456D0B}">
   <dimension ref="A1:F87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
-      <selection activeCell="H86" sqref="H86"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="92" workbookViewId="0">
+      <selection sqref="A1:F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5202,10 +5250,10 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="190" t="s">
+      <c r="A3" s="217" t="s">
         <v>171</v>
       </c>
-      <c r="B3" s="193" t="s">
+      <c r="B3" s="220" t="s">
         <v>172</v>
       </c>
       <c r="C3" s="70" t="s">
@@ -5222,8 +5270,8 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="191"/>
-      <c r="B4" s="194"/>
+      <c r="A4" s="218"/>
+      <c r="B4" s="221"/>
       <c r="C4" s="70" t="s">
         <v>166</v>
       </c>
@@ -5238,8 +5286,8 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="191"/>
-      <c r="B5" s="195"/>
+      <c r="A5" s="218"/>
+      <c r="B5" s="222"/>
       <c r="C5" s="70" t="s">
         <v>167</v>
       </c>
@@ -5254,7 +5302,7 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="191"/>
+      <c r="A6" s="218"/>
       <c r="B6" s="72" t="s">
         <v>168</v>
       </c>
@@ -5272,8 +5320,8 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="191"/>
-      <c r="B7" s="177" t="s">
+      <c r="A7" s="218"/>
+      <c r="B7" s="204" t="s">
         <v>173</v>
       </c>
       <c r="C7" s="75" t="s">
@@ -5288,8 +5336,8 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="192"/>
-      <c r="B8" s="179"/>
+      <c r="A8" s="219"/>
+      <c r="B8" s="206"/>
       <c r="C8" s="75" t="s">
         <v>170</v>
       </c>
@@ -5309,18 +5357,18 @@
       <c r="E9" s="86"/>
       <c r="F9" s="37"/>
     </row>
-    <row r="10" spans="1:6" ht="108">
-      <c r="A10" s="197" t="s">
+    <row r="10" spans="1:6" ht="18">
+      <c r="A10" s="169" t="s">
         <v>99</v>
       </c>
-      <c r="B10" s="180" t="s">
+      <c r="B10" s="207" t="s">
         <v>144</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>143</v>
+        <v>247</v>
       </c>
       <c r="D10" s="54" t="s">
-        <v>185</v>
+        <v>248</v>
       </c>
       <c r="E10" s="87" t="s">
         <v>156</v>
@@ -5329,13 +5377,15 @@
         <v>174</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="72">
-      <c r="A11" s="198"/>
-      <c r="B11" s="181"/>
+    <row r="11" spans="1:6">
+      <c r="A11" s="170"/>
+      <c r="B11" s="208"/>
       <c r="C11" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="D11" s="54"/>
+        <v>249</v>
+      </c>
+      <c r="D11" s="48" t="s">
+        <v>126</v>
+      </c>
       <c r="E11" s="88">
         <v>44025</v>
       </c>
@@ -5343,11 +5393,11 @@
         <v>174</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="72">
-      <c r="A12" s="198"/>
-      <c r="B12" s="181"/>
+    <row r="12" spans="1:6" ht="18">
+      <c r="A12" s="170"/>
+      <c r="B12" s="208"/>
       <c r="C12" s="28" t="s">
-        <v>188</v>
+        <v>250</v>
       </c>
       <c r="D12" s="48" t="s">
         <v>126</v>
@@ -5359,11 +5409,11 @@
         <v>174</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="72">
-      <c r="A13" s="198"/>
-      <c r="B13" s="181"/>
+    <row r="13" spans="1:6" ht="18">
+      <c r="A13" s="170"/>
+      <c r="B13" s="208"/>
       <c r="C13" s="28" t="s">
-        <v>189</v>
+        <v>251</v>
       </c>
       <c r="D13" s="54" t="s">
         <v>183</v>
@@ -5375,15 +5425,13 @@
         <v>174</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="90">
-      <c r="A14" s="198"/>
-      <c r="B14" s="181"/>
+    <row r="14" spans="1:6" ht="18">
+      <c r="A14" s="170"/>
+      <c r="B14" s="208"/>
       <c r="C14" s="28" t="s">
-        <v>190</v>
-      </c>
-      <c r="D14" s="54" t="s">
-        <v>182</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="D14" s="54"/>
       <c r="E14" s="89">
         <v>44026</v>
       </c>
@@ -5392,8 +5440,8 @@
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="198"/>
-      <c r="B15" s="182"/>
+      <c r="A15" s="170"/>
+      <c r="B15" s="209"/>
       <c r="C15" s="29" t="s">
         <v>184</v>
       </c>
@@ -5405,8 +5453,8 @@
         <v>174</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="36">
-      <c r="A16" s="198"/>
+    <row r="16" spans="1:6" ht="18">
+      <c r="A16" s="170"/>
       <c r="B16" s="155" t="s">
         <v>114</v>
       </c>
@@ -5423,11 +5471,11 @@
         <v>174</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="36">
-      <c r="A17" s="198"/>
-      <c r="B17" s="183"/>
+    <row r="17" spans="1:6" ht="18">
+      <c r="A17" s="170"/>
+      <c r="B17" s="210"/>
       <c r="C17" s="31" t="s">
-        <v>191</v>
+        <v>253</v>
       </c>
       <c r="D17" s="56"/>
       <c r="E17" s="90">
@@ -5437,11 +5485,11 @@
         <v>174</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="72">
-      <c r="A18" s="198"/>
-      <c r="B18" s="183"/>
+    <row r="18" spans="1:6" ht="18">
+      <c r="A18" s="170"/>
+      <c r="B18" s="210"/>
       <c r="C18" s="31" t="s">
-        <v>192</v>
+        <v>254</v>
       </c>
       <c r="D18" s="56"/>
       <c r="E18" s="90">
@@ -5451,11 +5499,11 @@
         <v>174</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="72">
-      <c r="A19" s="198"/>
-      <c r="B19" s="183"/>
+    <row r="19" spans="1:6" ht="18">
+      <c r="A19" s="170"/>
+      <c r="B19" s="210"/>
       <c r="C19" s="31" t="s">
-        <v>193</v>
+        <v>255</v>
       </c>
       <c r="D19" s="56"/>
       <c r="E19" s="90">
@@ -5465,11 +5513,11 @@
         <v>174</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="36">
-      <c r="A20" s="198"/>
-      <c r="B20" s="183"/>
+    <row r="20" spans="1:6" ht="18">
+      <c r="A20" s="170"/>
+      <c r="B20" s="210"/>
       <c r="C20" s="31" t="s">
-        <v>194</v>
+        <v>256</v>
       </c>
       <c r="D20" s="56"/>
       <c r="E20" s="90">
@@ -5480,8 +5528,8 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="18">
-      <c r="A21" s="198"/>
-      <c r="B21" s="183"/>
+      <c r="A21" s="170"/>
+      <c r="B21" s="210"/>
       <c r="C21" s="31" t="s">
         <v>197</v>
       </c>
@@ -5493,8 +5541,8 @@
         <v>174</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="36">
-      <c r="A22" s="198"/>
+    <row r="22" spans="1:6" ht="18">
+      <c r="A22" s="170"/>
       <c r="B22" s="156"/>
       <c r="C22" s="31" t="s">
         <v>196</v>
@@ -5507,13 +5555,13 @@
         <v>174</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="90">
-      <c r="A23" s="198"/>
-      <c r="B23" s="184" t="s">
+    <row r="23" spans="1:6" ht="18">
+      <c r="A23" s="170"/>
+      <c r="B23" s="211" t="s">
         <v>145</v>
       </c>
       <c r="C23" s="32" t="s">
-        <v>199</v>
+        <v>257</v>
       </c>
       <c r="D23" s="58" t="s">
         <v>201</v>
@@ -5525,11 +5573,11 @@
         <v>174</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="72">
-      <c r="A24" s="198"/>
-      <c r="B24" s="185"/>
+    <row r="24" spans="1:6" ht="18">
+      <c r="A24" s="170"/>
+      <c r="B24" s="212"/>
       <c r="C24" s="19" t="s">
-        <v>198</v>
+        <v>258</v>
       </c>
       <c r="D24" s="58"/>
       <c r="E24" s="91">
@@ -5539,9 +5587,9 @@
         <v>174</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="36">
-      <c r="A25" s="198"/>
-      <c r="B25" s="185"/>
+    <row r="25" spans="1:6" ht="18">
+      <c r="A25" s="170"/>
+      <c r="B25" s="212"/>
       <c r="C25" s="19" t="s">
         <v>202</v>
       </c>
@@ -5554,8 +5602,8 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="18">
-      <c r="A26" s="198"/>
-      <c r="B26" s="185"/>
+      <c r="A26" s="170"/>
+      <c r="B26" s="212"/>
       <c r="C26" s="19" t="s">
         <v>203</v>
       </c>
@@ -5568,16 +5616,16 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="17">
-      <c r="A27" s="198"/>
-      <c r="B27" s="186"/>
+      <c r="A27" s="170"/>
+      <c r="B27" s="213"/>
       <c r="C27" s="19"/>
       <c r="D27" s="58"/>
       <c r="E27" s="93"/>
       <c r="F27" s="5"/>
     </row>
-    <row r="28" spans="1:6" ht="54">
-      <c r="A28" s="198"/>
-      <c r="B28" s="187" t="s">
+    <row r="28" spans="1:6" ht="18">
+      <c r="A28" s="170"/>
+      <c r="B28" s="214" t="s">
         <v>148</v>
       </c>
       <c r="C28" s="36" t="s">
@@ -5593,9 +5641,9 @@
         <v>174</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="72">
-      <c r="A29" s="198"/>
-      <c r="B29" s="188"/>
+    <row r="29" spans="1:6" ht="18">
+      <c r="A29" s="170"/>
+      <c r="B29" s="215"/>
       <c r="C29" s="36" t="s">
         <v>205</v>
       </c>
@@ -5607,9 +5655,9 @@
         <v>174</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="108">
-      <c r="A30" s="198"/>
-      <c r="B30" s="188"/>
+    <row r="30" spans="1:6" ht="18">
+      <c r="A30" s="170"/>
+      <c r="B30" s="215"/>
       <c r="C30" s="36" t="s">
         <v>206</v>
       </c>
@@ -5621,9 +5669,9 @@
         <v>174</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="54">
-      <c r="A31" s="198"/>
-      <c r="B31" s="189"/>
+    <row r="31" spans="1:6" ht="18">
+      <c r="A31" s="170"/>
+      <c r="B31" s="216"/>
       <c r="C31" s="59" t="s">
         <v>207</v>
       </c>
@@ -5636,11 +5684,11 @@
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="198"/>
+      <c r="A32" s="170"/>
       <c r="B32" s="162" t="s">
         <v>88</v>
       </c>
-      <c r="C32" s="177" t="s">
+      <c r="C32" s="204" t="s">
         <v>155</v>
       </c>
       <c r="D32" s="79" t="s">
@@ -5654,9 +5702,9 @@
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="198"/>
+      <c r="A33" s="170"/>
       <c r="B33" s="163"/>
-      <c r="C33" s="178"/>
+      <c r="C33" s="205"/>
       <c r="D33" s="79" t="s">
         <v>209</v>
       </c>
@@ -5668,9 +5716,9 @@
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="198"/>
+      <c r="A34" s="170"/>
       <c r="B34" s="164"/>
-      <c r="C34" s="179"/>
+      <c r="C34" s="206"/>
       <c r="D34" s="79" t="s">
         <v>208</v>
       </c>
@@ -5682,11 +5730,11 @@
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="198"/>
-      <c r="B35" s="168" t="s">
+      <c r="A35" s="170"/>
+      <c r="B35" s="195" t="s">
         <v>149</v>
       </c>
-      <c r="C35" s="171" t="s">
+      <c r="C35" s="198" t="s">
         <v>213</v>
       </c>
       <c r="D35" s="60" t="s">
@@ -5700,9 +5748,9 @@
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="198"/>
-      <c r="B36" s="169"/>
-      <c r="C36" s="172"/>
+      <c r="A36" s="170"/>
+      <c r="B36" s="196"/>
+      <c r="C36" s="199"/>
       <c r="D36" s="60" t="s">
         <v>215</v>
       </c>
@@ -5714,9 +5762,9 @@
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="198"/>
-      <c r="B37" s="169"/>
-      <c r="C37" s="172"/>
+      <c r="A37" s="170"/>
+      <c r="B37" s="196"/>
+      <c r="C37" s="199"/>
       <c r="D37" s="60" t="s">
         <v>212</v>
       </c>
@@ -5728,9 +5776,9 @@
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="198"/>
-      <c r="B38" s="169"/>
-      <c r="C38" s="172"/>
+      <c r="A38" s="170"/>
+      <c r="B38" s="196"/>
+      <c r="C38" s="199"/>
       <c r="D38" s="60" t="s">
         <v>214</v>
       </c>
@@ -5742,9 +5790,9 @@
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="198"/>
-      <c r="B39" s="169"/>
-      <c r="C39" s="173"/>
+      <c r="A39" s="170"/>
+      <c r="B39" s="196"/>
+      <c r="C39" s="200"/>
       <c r="D39" s="60"/>
       <c r="E39" s="96"/>
       <c r="F39" s="3" t="s">
@@ -5752,11 +5800,11 @@
       </c>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="198"/>
-      <c r="B40" s="170" t="s">
+      <c r="A40" s="170"/>
+      <c r="B40" s="197" t="s">
         <v>150</v>
       </c>
-      <c r="C40" s="174"/>
+      <c r="C40" s="201"/>
       <c r="D40" s="123" t="s">
         <v>216</v>
       </c>
@@ -5768,9 +5816,9 @@
       </c>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="198"/>
-      <c r="B41" s="170"/>
-      <c r="C41" s="175"/>
+      <c r="A41" s="170"/>
+      <c r="B41" s="197"/>
+      <c r="C41" s="202"/>
       <c r="D41" s="123" t="s">
         <v>217</v>
       </c>
@@ -5782,9 +5830,9 @@
       </c>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="198"/>
-      <c r="B42" s="170"/>
-      <c r="C42" s="175"/>
+      <c r="A42" s="170"/>
+      <c r="B42" s="197"/>
+      <c r="C42" s="202"/>
       <c r="D42" s="123" t="s">
         <v>218</v>
       </c>
@@ -5796,9 +5844,9 @@
       </c>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="198"/>
-      <c r="B43" s="170"/>
-      <c r="C43" s="175"/>
+      <c r="A43" s="170"/>
+      <c r="B43" s="197"/>
+      <c r="C43" s="202"/>
       <c r="D43" s="123" t="s">
         <v>215</v>
       </c>
@@ -5810,9 +5858,9 @@
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="198"/>
-      <c r="B44" s="170"/>
-      <c r="C44" s="175"/>
+      <c r="A44" s="170"/>
+      <c r="B44" s="197"/>
+      <c r="C44" s="202"/>
       <c r="D44" s="123" t="s">
         <v>200</v>
       </c>
@@ -5824,9 +5872,9 @@
       </c>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="198"/>
-      <c r="B45" s="170"/>
-      <c r="C45" s="176"/>
+      <c r="A45" s="170"/>
+      <c r="B45" s="197"/>
+      <c r="C45" s="203"/>
       <c r="D45" s="123" t="s">
         <v>219</v>
       </c>
@@ -5838,7 +5886,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="17">
-      <c r="A46" s="198"/>
+      <c r="A46" s="170"/>
       <c r="B46" s="124" t="s">
         <v>162</v>
       </c>
@@ -5854,7 +5902,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="17">
-      <c r="A47" s="199"/>
+      <c r="A47" s="171"/>
       <c r="B47" s="124" t="s">
         <v>164</v>
       </c>
@@ -5877,11 +5925,11 @@
       <c r="E48" s="80"/>
       <c r="F48" s="2"/>
     </row>
-    <row r="49" spans="1:6" ht="126">
-      <c r="A49" s="211" t="s">
+    <row r="49" spans="1:6" ht="36">
+      <c r="A49" s="183" t="s">
         <v>136</v>
       </c>
-      <c r="B49" s="218" t="s">
+      <c r="B49" s="190" t="s">
         <v>147</v>
       </c>
       <c r="C49" s="39" t="s">
@@ -5897,9 +5945,9 @@
         <v>174</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="72">
-      <c r="A50" s="211"/>
-      <c r="B50" s="219"/>
+    <row r="50" spans="1:6" ht="18">
+      <c r="A50" s="183"/>
+      <c r="B50" s="191"/>
       <c r="C50" s="41" t="s">
         <v>91</v>
       </c>
@@ -5913,9 +5961,9 @@
         <v>174</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="72">
-      <c r="A51" s="211"/>
-      <c r="B51" s="219"/>
+    <row r="51" spans="1:6" ht="18">
+      <c r="A51" s="183"/>
+      <c r="B51" s="191"/>
       <c r="C51" s="41" t="s">
         <v>121</v>
       </c>
@@ -5929,9 +5977,9 @@
         <v>174</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="54">
-      <c r="A52" s="211"/>
-      <c r="B52" s="219"/>
+    <row r="52" spans="1:6" ht="18">
+      <c r="A52" s="183"/>
+      <c r="B52" s="191"/>
       <c r="C52" s="41" t="s">
         <v>119</v>
       </c>
@@ -5946,8 +5994,8 @@
       </c>
     </row>
     <row r="53" spans="1:6" ht="18">
-      <c r="A53" s="211"/>
-      <c r="B53" s="220"/>
+      <c r="A53" s="183"/>
+      <c r="B53" s="192"/>
       <c r="C53" s="41" t="s">
         <v>236</v>
       </c>
@@ -5960,8 +6008,8 @@
       </c>
     </row>
     <row r="54" spans="1:6" ht="17">
-      <c r="A54" s="211"/>
-      <c r="B54" s="221" t="s">
+      <c r="A54" s="183"/>
+      <c r="B54" s="193" t="s">
         <v>123</v>
       </c>
       <c r="C54" s="42"/>
@@ -5969,9 +6017,9 @@
       <c r="E54" s="98"/>
       <c r="F54" s="43"/>
     </row>
-    <row r="55" spans="1:6" ht="54">
-      <c r="A55" s="211"/>
-      <c r="B55" s="222"/>
+    <row r="55" spans="1:6" ht="18">
+      <c r="A55" s="183"/>
+      <c r="B55" s="194"/>
       <c r="C55" s="42" t="s">
         <v>227</v>
       </c>
@@ -5985,9 +6033,9 @@
         <v>174</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="36">
-      <c r="A56" s="211"/>
-      <c r="B56" s="222"/>
+    <row r="56" spans="1:6" ht="18">
+      <c r="A56" s="183"/>
+      <c r="B56" s="194"/>
       <c r="C56" s="42" t="s">
         <v>228</v>
       </c>
@@ -6001,9 +6049,9 @@
         <v>174</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="36">
-      <c r="A57" s="211"/>
-      <c r="B57" s="222"/>
+    <row r="57" spans="1:6" ht="18">
+      <c r="A57" s="183"/>
+      <c r="B57" s="194"/>
       <c r="C57" s="42" t="s">
         <v>229</v>
       </c>
@@ -6018,8 +6066,8 @@
       </c>
     </row>
     <row r="58" spans="1:6" ht="18">
-      <c r="A58" s="211"/>
-      <c r="B58" s="222"/>
+      <c r="A58" s="183"/>
+      <c r="B58" s="194"/>
       <c r="C58" s="42" t="s">
         <v>236</v>
       </c>
@@ -6032,8 +6080,8 @@
       </c>
     </row>
     <row r="59" spans="1:6" ht="18">
-      <c r="A59" s="211"/>
-      <c r="B59" s="203" t="s">
+      <c r="A59" s="183"/>
+      <c r="B59" s="175" t="s">
         <v>244</v>
       </c>
       <c r="C59" s="110" t="s">
@@ -6047,9 +6095,9 @@
         <v>174</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="54">
-      <c r="A60" s="211"/>
-      <c r="B60" s="204"/>
+    <row r="60" spans="1:6" ht="18">
+      <c r="A60" s="183"/>
+      <c r="B60" s="176"/>
       <c r="C60" s="110" t="s">
         <v>230</v>
       </c>
@@ -6061,9 +6109,9 @@
         <v>174</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="36">
-      <c r="A61" s="211"/>
-      <c r="B61" s="204"/>
+    <row r="61" spans="1:6" ht="18">
+      <c r="A61" s="183"/>
+      <c r="B61" s="176"/>
       <c r="C61" s="110" t="s">
         <v>163</v>
       </c>
@@ -6076,8 +6124,8 @@
       </c>
     </row>
     <row r="62" spans="1:6" ht="18">
-      <c r="A62" s="211"/>
-      <c r="B62" s="205"/>
+      <c r="A62" s="183"/>
+      <c r="B62" s="177"/>
       <c r="C62" s="110" t="s">
         <v>236</v>
       </c>
@@ -6090,8 +6138,8 @@
       </c>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="211"/>
-      <c r="B63" s="206" t="s">
+      <c r="A63" s="183"/>
+      <c r="B63" s="178" t="s">
         <v>151</v>
       </c>
       <c r="C63" s="38"/>
@@ -6099,9 +6147,9 @@
       <c r="E63" s="100"/>
       <c r="F63" s="38"/>
     </row>
-    <row r="64" spans="1:6" ht="72">
-      <c r="A64" s="211"/>
-      <c r="B64" s="207"/>
+    <row r="64" spans="1:6" ht="18">
+      <c r="A64" s="183"/>
+      <c r="B64" s="179"/>
       <c r="C64" s="44" t="s">
         <v>231</v>
       </c>
@@ -6115,9 +6163,9 @@
         <v>174</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="36">
-      <c r="A65" s="211"/>
-      <c r="B65" s="207"/>
+    <row r="65" spans="1:6" ht="18">
+      <c r="A65" s="183"/>
+      <c r="B65" s="179"/>
       <c r="C65" s="44" t="s">
         <v>232</v>
       </c>
@@ -6132,8 +6180,8 @@
       </c>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="211"/>
-      <c r="B66" s="208"/>
+      <c r="A66" s="183"/>
+      <c r="B66" s="180"/>
       <c r="C66" s="45" t="s">
         <v>233</v>
       </c>
@@ -6144,8 +6192,8 @@
       </c>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="211"/>
-      <c r="B67" s="209" t="s">
+      <c r="A67" s="183"/>
+      <c r="B67" s="181" t="s">
         <v>152</v>
       </c>
       <c r="C67" s="107" t="s">
@@ -6160,8 +6208,8 @@
       </c>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="211"/>
-      <c r="B68" s="210"/>
+      <c r="A68" s="183"/>
+      <c r="B68" s="182"/>
       <c r="C68" s="107" t="s">
         <v>233</v>
       </c>
@@ -6173,9 +6221,9 @@
         <v>174</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="54">
-      <c r="A69" s="211"/>
-      <c r="B69" s="215" t="s">
+    <row r="69" spans="1:6" ht="18">
+      <c r="A69" s="183"/>
+      <c r="B69" s="187" t="s">
         <v>153</v>
       </c>
       <c r="C69" s="33" t="s">
@@ -6189,9 +6237,9 @@
         <v>174</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="72">
-      <c r="A70" s="211"/>
-      <c r="B70" s="216"/>
+    <row r="70" spans="1:6" ht="18">
+      <c r="A70" s="183"/>
+      <c r="B70" s="188"/>
       <c r="C70" s="33" t="s">
         <v>235</v>
       </c>
@@ -6203,9 +6251,9 @@
         <v>174</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="36">
-      <c r="A71" s="211"/>
-      <c r="B71" s="217"/>
+    <row r="71" spans="1:6" ht="18">
+      <c r="A71" s="183"/>
+      <c r="B71" s="189"/>
       <c r="C71" s="33" t="s">
         <v>233</v>
       </c>
@@ -6217,9 +6265,9 @@
         <v>174</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="72">
-      <c r="A72" s="211"/>
-      <c r="B72" s="212" t="s">
+    <row r="72" spans="1:6" ht="18">
+      <c r="A72" s="183"/>
+      <c r="B72" s="184" t="s">
         <v>154</v>
       </c>
       <c r="C72" s="35" t="s">
@@ -6236,8 +6284,8 @@
       </c>
     </row>
     <row r="73" spans="1:6" ht="17">
-      <c r="A73" s="211"/>
-      <c r="B73" s="213"/>
+      <c r="A73" s="183"/>
+      <c r="B73" s="185"/>
       <c r="C73" s="6" t="s">
         <v>116</v>
       </c>
@@ -6250,8 +6298,8 @@
       </c>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" s="211"/>
-      <c r="B74" s="214"/>
+      <c r="A74" s="183"/>
+      <c r="B74" s="186"/>
       <c r="C74" s="6" t="s">
         <v>233</v>
       </c>
@@ -6264,7 +6312,7 @@
       </c>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" s="200" t="s">
+      <c r="A75" s="172" t="s">
         <v>159</v>
       </c>
       <c r="B75" s="37" t="s">
@@ -6282,7 +6330,7 @@
       </c>
     </row>
     <row r="76" spans="1:6">
-      <c r="A76" s="201"/>
+      <c r="A76" s="173"/>
       <c r="B76" s="37" t="s">
         <v>161</v>
       </c>
@@ -6298,7 +6346,7 @@
       </c>
     </row>
     <row r="77" spans="1:6">
-      <c r="A77" s="202"/>
+      <c r="A77" s="174"/>
       <c r="B77" s="37"/>
       <c r="C77" s="37" t="s">
         <v>233</v>
@@ -6312,7 +6360,7 @@
       </c>
     </row>
     <row r="78" spans="1:6">
-      <c r="A78" s="196" t="s">
+      <c r="A78" s="168" t="s">
         <v>222</v>
       </c>
       <c r="B78" s="5"/>
@@ -6326,7 +6374,7 @@
       <c r="F78" s="5"/>
     </row>
     <row r="79" spans="1:6">
-      <c r="A79" s="196"/>
+      <c r="A79" s="168"/>
       <c r="B79" s="5" t="s">
         <v>223</v>
       </c>
@@ -6340,7 +6388,7 @@
       <c r="F79" s="5"/>
     </row>
     <row r="80" spans="1:6">
-      <c r="A80" s="196"/>
+      <c r="A80" s="168"/>
       <c r="B80" s="5" t="s">
         <v>224</v>
       </c>
@@ -6354,7 +6402,7 @@
       <c r="F80" s="5"/>
     </row>
     <row r="81" spans="1:6">
-      <c r="A81" s="196"/>
+      <c r="A81" s="168"/>
       <c r="B81" s="115" t="s">
         <v>225</v>
       </c>
@@ -6366,7 +6414,7 @@
       <c r="F81" s="5"/>
     </row>
     <row r="82" spans="1:6">
-      <c r="A82" s="196"/>
+      <c r="A82" s="168"/>
       <c r="B82" s="5"/>
       <c r="C82" s="122"/>
       <c r="D82" s="113"/>
@@ -6432,21 +6480,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="B69:B71"/>
-    <mergeCell ref="B72:B74"/>
-    <mergeCell ref="A75:A77"/>
-    <mergeCell ref="A78:A82"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="B35:B39"/>
-    <mergeCell ref="C35:C39"/>
-    <mergeCell ref="B40:B45"/>
-    <mergeCell ref="C40:C45"/>
-    <mergeCell ref="A49:A74"/>
-    <mergeCell ref="B49:B53"/>
-    <mergeCell ref="B54:B58"/>
-    <mergeCell ref="B59:B62"/>
-    <mergeCell ref="B63:B66"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A3:A8"/>
     <mergeCell ref="B3:B5"/>
@@ -6457,6 +6490,21 @@
     <mergeCell ref="B23:B27"/>
     <mergeCell ref="B28:B31"/>
     <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="B35:B39"/>
+    <mergeCell ref="C35:C39"/>
+    <mergeCell ref="B40:B45"/>
+    <mergeCell ref="C40:C45"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="B72:B74"/>
+    <mergeCell ref="A75:A77"/>
+    <mergeCell ref="A78:A82"/>
+    <mergeCell ref="A49:A74"/>
+    <mergeCell ref="B49:B53"/>
+    <mergeCell ref="B54:B58"/>
+    <mergeCell ref="B59:B62"/>
+    <mergeCell ref="B63:B66"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/结算数据监控平台开发计划.xlsx
+++ b/结算数据监控平台开发计划.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicker/sandbox/settlementMonitoring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FA0E7AA-2DD1-314E-89A8-4364F74AD300}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C2CE152-41B2-4240-A14C-93FC13C488CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="620" windowWidth="33600" windowHeight="18940" activeTab="4" xr2:uid="{AD2C15C8-2DE4-104B-A764-E65CC8F0AEA6}"/>
+    <workbookView xWindow="18620" yWindow="1600" windowWidth="33600" windowHeight="18920" activeTab="4" xr2:uid="{AD2C15C8-2DE4-104B-A764-E65CC8F0AEA6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="269">
   <si>
     <t>ETX联网结算平台</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1160,10 +1160,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1、省外累计交易金额、交易笔数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>redis中获取数据【实时】+kafka传递的数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1205,6 +1201,61 @@
   </si>
   <si>
     <t>2、新增省外结算趋势记录，包含 统计时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>、省外累计交易金额、交易笔数</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计清分数据一天一次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一天一次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>异常表，逾期状态一天一次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快照；小时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每2个小时段的数量的查询【小时快照】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多少时间刷新一遍？配置【小时快照】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询逾期数据的数量前10的停车场名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建表映射；分钟快照；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分钟快照，数据库表字段映射、多表查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分钟快照</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2079,6 +2130,90 @@
     <xf numFmtId="0" fontId="9" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2159,90 +2294,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3871,10 +3922,10 @@
       <c r="H3" s="117"/>
     </row>
     <row r="4" spans="2:8">
-      <c r="B4" s="217" t="s">
+      <c r="B4" s="190" t="s">
         <v>171</v>
       </c>
-      <c r="C4" s="220" t="s">
+      <c r="C4" s="193" t="s">
         <v>172</v>
       </c>
       <c r="D4" s="70" t="s">
@@ -3892,8 +3943,8 @@
       <c r="H4" s="117"/>
     </row>
     <row r="5" spans="2:8">
-      <c r="B5" s="218"/>
-      <c r="C5" s="221"/>
+      <c r="B5" s="191"/>
+      <c r="C5" s="194"/>
       <c r="D5" s="70" t="s">
         <v>166</v>
       </c>
@@ -3909,8 +3960,8 @@
       <c r="H5" s="117"/>
     </row>
     <row r="6" spans="2:8">
-      <c r="B6" s="218"/>
-      <c r="C6" s="222"/>
+      <c r="B6" s="191"/>
+      <c r="C6" s="195"/>
       <c r="D6" s="70" t="s">
         <v>167</v>
       </c>
@@ -3926,7 +3977,7 @@
       <c r="H6" s="117"/>
     </row>
     <row r="7" spans="2:8">
-      <c r="B7" s="218"/>
+      <c r="B7" s="191"/>
       <c r="C7" s="72" t="s">
         <v>168</v>
       </c>
@@ -3945,8 +3996,8 @@
       <c r="H7" s="117"/>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="218"/>
-      <c r="C8" s="204" t="s">
+      <c r="B8" s="191"/>
+      <c r="C8" s="177" t="s">
         <v>173</v>
       </c>
       <c r="D8" s="75" t="s">
@@ -3962,8 +4013,8 @@
       <c r="H8" s="117"/>
     </row>
     <row r="9" spans="2:8">
-      <c r="B9" s="219"/>
-      <c r="C9" s="206"/>
+      <c r="B9" s="192"/>
+      <c r="C9" s="179"/>
       <c r="D9" s="75" t="s">
         <v>170</v>
       </c>
@@ -3986,10 +4037,10 @@
       <c r="H10" s="117"/>
     </row>
     <row r="11" spans="2:8" ht="36" customHeight="1">
-      <c r="B11" s="169" t="s">
+      <c r="B11" s="197" t="s">
         <v>99</v>
       </c>
-      <c r="C11" s="207" t="s">
+      <c r="C11" s="180" t="s">
         <v>144</v>
       </c>
       <c r="D11" s="27" t="s">
@@ -4009,8 +4060,8 @@
       </c>
     </row>
     <row r="12" spans="2:8" ht="18">
-      <c r="B12" s="170"/>
-      <c r="C12" s="208"/>
+      <c r="B12" s="198"/>
+      <c r="C12" s="181"/>
       <c r="D12" s="27" t="s">
         <v>187</v>
       </c>
@@ -4026,8 +4077,8 @@
       </c>
     </row>
     <row r="13" spans="2:8" ht="18">
-      <c r="B13" s="170"/>
-      <c r="C13" s="208"/>
+      <c r="B13" s="198"/>
+      <c r="C13" s="181"/>
       <c r="D13" s="28" t="s">
         <v>188</v>
       </c>
@@ -4045,8 +4096,8 @@
       </c>
     </row>
     <row r="14" spans="2:8" ht="18">
-      <c r="B14" s="170"/>
-      <c r="C14" s="208"/>
+      <c r="B14" s="198"/>
+      <c r="C14" s="181"/>
       <c r="D14" s="28" t="s">
         <v>189</v>
       </c>
@@ -4064,8 +4115,8 @@
       </c>
     </row>
     <row r="15" spans="2:8" ht="36">
-      <c r="B15" s="170"/>
-      <c r="C15" s="208"/>
+      <c r="B15" s="198"/>
+      <c r="C15" s="181"/>
       <c r="D15" s="28" t="s">
         <v>190</v>
       </c>
@@ -4083,8 +4134,8 @@
       </c>
     </row>
     <row r="16" spans="2:8" ht="17" customHeight="1">
-      <c r="B16" s="170"/>
-      <c r="C16" s="209"/>
+      <c r="B16" s="198"/>
+      <c r="C16" s="182"/>
       <c r="D16" s="29" t="s">
         <v>184</v>
       </c>
@@ -4098,7 +4149,7 @@
       <c r="H16" s="117"/>
     </row>
     <row r="17" spans="2:8" ht="18">
-      <c r="B17" s="170"/>
+      <c r="B17" s="198"/>
       <c r="C17" s="155" t="s">
         <v>114</v>
       </c>
@@ -4117,8 +4168,8 @@
       <c r="H17" s="117"/>
     </row>
     <row r="18" spans="2:8" ht="18">
-      <c r="B18" s="170"/>
-      <c r="C18" s="210"/>
+      <c r="B18" s="198"/>
+      <c r="C18" s="183"/>
       <c r="D18" s="31" t="s">
         <v>191</v>
       </c>
@@ -4132,8 +4183,8 @@
       <c r="H18" s="117"/>
     </row>
     <row r="19" spans="2:8" ht="18">
-      <c r="B19" s="170"/>
-      <c r="C19" s="210"/>
+      <c r="B19" s="198"/>
+      <c r="C19" s="183"/>
       <c r="D19" s="31" t="s">
         <v>192</v>
       </c>
@@ -4147,8 +4198,8 @@
       <c r="H19" s="117"/>
     </row>
     <row r="20" spans="2:8" ht="18">
-      <c r="B20" s="170"/>
-      <c r="C20" s="210"/>
+      <c r="B20" s="198"/>
+      <c r="C20" s="183"/>
       <c r="D20" s="31" t="s">
         <v>193</v>
       </c>
@@ -4162,8 +4213,8 @@
       <c r="H20" s="117"/>
     </row>
     <row r="21" spans="2:8" ht="18">
-      <c r="B21" s="170"/>
-      <c r="C21" s="210"/>
+      <c r="B21" s="198"/>
+      <c r="C21" s="183"/>
       <c r="D21" s="31" t="s">
         <v>194</v>
       </c>
@@ -4177,8 +4228,8 @@
       <c r="H21" s="117"/>
     </row>
     <row r="22" spans="2:8" ht="18">
-      <c r="B22" s="170"/>
-      <c r="C22" s="210"/>
+      <c r="B22" s="198"/>
+      <c r="C22" s="183"/>
       <c r="D22" s="31" t="s">
         <v>197</v>
       </c>
@@ -4192,7 +4243,7 @@
       <c r="H22" s="117"/>
     </row>
     <row r="23" spans="2:8" ht="18">
-      <c r="B23" s="170"/>
+      <c r="B23" s="198"/>
       <c r="C23" s="156"/>
       <c r="D23" s="31" t="s">
         <v>196</v>
@@ -4207,8 +4258,8 @@
       <c r="H23" s="117"/>
     </row>
     <row r="24" spans="2:8" ht="18">
-      <c r="B24" s="170"/>
-      <c r="C24" s="211" t="s">
+      <c r="B24" s="198"/>
+      <c r="C24" s="184" t="s">
         <v>145</v>
       </c>
       <c r="D24" s="32" t="s">
@@ -4226,8 +4277,8 @@
       <c r="H24" s="117"/>
     </row>
     <row r="25" spans="2:8" ht="18">
-      <c r="B25" s="170"/>
-      <c r="C25" s="212"/>
+      <c r="B25" s="198"/>
+      <c r="C25" s="185"/>
       <c r="D25" s="19" t="s">
         <v>198</v>
       </c>
@@ -4241,8 +4292,8 @@
       <c r="H25" s="117"/>
     </row>
     <row r="26" spans="2:8" ht="18">
-      <c r="B26" s="170"/>
-      <c r="C26" s="212"/>
+      <c r="B26" s="198"/>
+      <c r="C26" s="185"/>
       <c r="D26" s="19" t="s">
         <v>202</v>
       </c>
@@ -4256,8 +4307,8 @@
       <c r="H26" s="117"/>
     </row>
     <row r="27" spans="2:8" ht="18">
-      <c r="B27" s="170"/>
-      <c r="C27" s="212"/>
+      <c r="B27" s="198"/>
+      <c r="C27" s="185"/>
       <c r="D27" s="19" t="s">
         <v>203</v>
       </c>
@@ -4271,8 +4322,8 @@
       <c r="H27" s="117"/>
     </row>
     <row r="28" spans="2:8" ht="17">
-      <c r="B28" s="170"/>
-      <c r="C28" s="213"/>
+      <c r="B28" s="198"/>
+      <c r="C28" s="186"/>
       <c r="D28" s="19"/>
       <c r="E28" s="58"/>
       <c r="F28" s="93"/>
@@ -4280,8 +4331,8 @@
       <c r="H28" s="117"/>
     </row>
     <row r="29" spans="2:8" ht="18">
-      <c r="B29" s="170"/>
-      <c r="C29" s="214" t="s">
+      <c r="B29" s="198"/>
+      <c r="C29" s="187" t="s">
         <v>148</v>
       </c>
       <c r="D29" s="36" t="s">
@@ -4299,8 +4350,8 @@
       <c r="H29" s="117"/>
     </row>
     <row r="30" spans="2:8" ht="18">
-      <c r="B30" s="170"/>
-      <c r="C30" s="215"/>
+      <c r="B30" s="198"/>
+      <c r="C30" s="188"/>
       <c r="D30" s="36" t="s">
         <v>205</v>
       </c>
@@ -4314,8 +4365,8 @@
       <c r="H30" s="117"/>
     </row>
     <row r="31" spans="2:8" ht="36" customHeight="1">
-      <c r="B31" s="170"/>
-      <c r="C31" s="215"/>
+      <c r="B31" s="198"/>
+      <c r="C31" s="188"/>
       <c r="D31" s="36" t="s">
         <v>206</v>
       </c>
@@ -4329,8 +4380,8 @@
       <c r="H31" s="117"/>
     </row>
     <row r="32" spans="2:8" ht="54" customHeight="1">
-      <c r="B32" s="170"/>
-      <c r="C32" s="216"/>
+      <c r="B32" s="198"/>
+      <c r="C32" s="189"/>
       <c r="D32" s="59" t="s">
         <v>207</v>
       </c>
@@ -4344,11 +4395,11 @@
       <c r="H32" s="117"/>
     </row>
     <row r="33" spans="2:8" ht="16" customHeight="1">
-      <c r="B33" s="170"/>
+      <c r="B33" s="198"/>
       <c r="C33" s="162" t="s">
         <v>88</v>
       </c>
-      <c r="D33" s="204" t="s">
+      <c r="D33" s="177" t="s">
         <v>155</v>
       </c>
       <c r="E33" s="79" t="s">
@@ -4363,9 +4414,9 @@
       <c r="H33" s="117"/>
     </row>
     <row r="34" spans="2:8" ht="16" customHeight="1">
-      <c r="B34" s="170"/>
+      <c r="B34" s="198"/>
       <c r="C34" s="163"/>
-      <c r="D34" s="205"/>
+      <c r="D34" s="178"/>
       <c r="E34" s="79" t="s">
         <v>209</v>
       </c>
@@ -4378,9 +4429,9 @@
       <c r="H34" s="117"/>
     </row>
     <row r="35" spans="2:8" ht="17" customHeight="1">
-      <c r="B35" s="170"/>
+      <c r="B35" s="198"/>
       <c r="C35" s="164"/>
-      <c r="D35" s="206"/>
+      <c r="D35" s="179"/>
       <c r="E35" s="79" t="s">
         <v>208</v>
       </c>
@@ -4393,11 +4444,11 @@
       <c r="H35" s="117"/>
     </row>
     <row r="36" spans="2:8" ht="16" customHeight="1">
-      <c r="B36" s="170"/>
-      <c r="C36" s="195" t="s">
+      <c r="B36" s="198"/>
+      <c r="C36" s="168" t="s">
         <v>149</v>
       </c>
-      <c r="D36" s="198" t="s">
+      <c r="D36" s="171" t="s">
         <v>213</v>
       </c>
       <c r="E36" s="60" t="s">
@@ -4412,9 +4463,9 @@
       <c r="H36" s="117"/>
     </row>
     <row r="37" spans="2:8" ht="16" customHeight="1">
-      <c r="B37" s="170"/>
-      <c r="C37" s="196"/>
-      <c r="D37" s="199"/>
+      <c r="B37" s="198"/>
+      <c r="C37" s="169"/>
+      <c r="D37" s="172"/>
       <c r="E37" s="60" t="s">
         <v>215</v>
       </c>
@@ -4427,9 +4478,9 @@
       <c r="H37" s="117"/>
     </row>
     <row r="38" spans="2:8" ht="16" customHeight="1">
-      <c r="B38" s="170"/>
-      <c r="C38" s="196"/>
-      <c r="D38" s="199"/>
+      <c r="B38" s="198"/>
+      <c r="C38" s="169"/>
+      <c r="D38" s="172"/>
       <c r="E38" s="60" t="s">
         <v>212</v>
       </c>
@@ -4442,9 +4493,9 @@
       <c r="H38" s="117"/>
     </row>
     <row r="39" spans="2:8" ht="16" customHeight="1">
-      <c r="B39" s="170"/>
-      <c r="C39" s="196"/>
-      <c r="D39" s="199"/>
+      <c r="B39" s="198"/>
+      <c r="C39" s="169"/>
+      <c r="D39" s="172"/>
       <c r="E39" s="60" t="s">
         <v>214</v>
       </c>
@@ -4457,9 +4508,9 @@
       <c r="H39" s="117"/>
     </row>
     <row r="40" spans="2:8" ht="16" customHeight="1">
-      <c r="B40" s="170"/>
-      <c r="C40" s="196"/>
-      <c r="D40" s="200"/>
+      <c r="B40" s="198"/>
+      <c r="C40" s="169"/>
+      <c r="D40" s="173"/>
       <c r="E40" s="60"/>
       <c r="F40" s="96"/>
       <c r="G40" s="3" t="s">
@@ -4468,11 +4519,11 @@
       <c r="H40" s="117"/>
     </row>
     <row r="41" spans="2:8" ht="16" customHeight="1">
-      <c r="B41" s="170"/>
-      <c r="C41" s="197" t="s">
+      <c r="B41" s="198"/>
+      <c r="C41" s="170" t="s">
         <v>150</v>
       </c>
-      <c r="D41" s="201"/>
+      <c r="D41" s="174"/>
       <c r="E41" s="61" t="s">
         <v>216</v>
       </c>
@@ -4485,9 +4536,9 @@
       <c r="H41" s="117"/>
     </row>
     <row r="42" spans="2:8" ht="16" customHeight="1">
-      <c r="B42" s="170"/>
-      <c r="C42" s="197"/>
-      <c r="D42" s="202"/>
+      <c r="B42" s="198"/>
+      <c r="C42" s="170"/>
+      <c r="D42" s="175"/>
       <c r="E42" s="61" t="s">
         <v>217</v>
       </c>
@@ -4500,9 +4551,9 @@
       <c r="H42" s="117"/>
     </row>
     <row r="43" spans="2:8" ht="16" customHeight="1">
-      <c r="B43" s="170"/>
-      <c r="C43" s="197"/>
-      <c r="D43" s="202"/>
+      <c r="B43" s="198"/>
+      <c r="C43" s="170"/>
+      <c r="D43" s="175"/>
       <c r="E43" s="61" t="s">
         <v>218</v>
       </c>
@@ -4515,9 +4566,9 @@
       <c r="H43" s="117"/>
     </row>
     <row r="44" spans="2:8" ht="16" customHeight="1">
-      <c r="B44" s="170"/>
-      <c r="C44" s="197"/>
-      <c r="D44" s="202"/>
+      <c r="B44" s="198"/>
+      <c r="C44" s="170"/>
+      <c r="D44" s="175"/>
       <c r="E44" s="61" t="s">
         <v>215</v>
       </c>
@@ -4530,9 +4581,9 @@
       <c r="H44" s="117"/>
     </row>
     <row r="45" spans="2:8" ht="16" customHeight="1">
-      <c r="B45" s="170"/>
-      <c r="C45" s="197"/>
-      <c r="D45" s="202"/>
+      <c r="B45" s="198"/>
+      <c r="C45" s="170"/>
+      <c r="D45" s="175"/>
       <c r="E45" s="61" t="s">
         <v>200</v>
       </c>
@@ -4545,9 +4596,9 @@
       <c r="H45" s="117"/>
     </row>
     <row r="46" spans="2:8" ht="16" customHeight="1">
-      <c r="B46" s="170"/>
-      <c r="C46" s="197"/>
-      <c r="D46" s="203"/>
+      <c r="B46" s="198"/>
+      <c r="C46" s="170"/>
+      <c r="D46" s="176"/>
       <c r="E46" s="61" t="s">
         <v>219</v>
       </c>
@@ -4560,7 +4611,7 @@
       <c r="H46" s="117"/>
     </row>
     <row r="47" spans="2:8" ht="16" customHeight="1">
-      <c r="B47" s="170"/>
+      <c r="B47" s="198"/>
       <c r="C47" s="46" t="s">
         <v>162</v>
       </c>
@@ -4577,7 +4628,7 @@
       <c r="H47" s="117"/>
     </row>
     <row r="48" spans="2:8" ht="16" customHeight="1">
-      <c r="B48" s="171"/>
+      <c r="B48" s="199"/>
       <c r="C48" s="46" t="s">
         <v>164</v>
       </c>
@@ -4605,10 +4656,10 @@
       <c r="H49" s="117"/>
     </row>
     <row r="50" spans="2:8" ht="18">
-      <c r="B50" s="183" t="s">
+      <c r="B50" s="211" t="s">
         <v>136</v>
       </c>
-      <c r="C50" s="190" t="s">
+      <c r="C50" s="218" t="s">
         <v>147</v>
       </c>
       <c r="D50" s="39" t="s">
@@ -4626,8 +4677,8 @@
       <c r="H50" s="117"/>
     </row>
     <row r="51" spans="2:8" ht="18">
-      <c r="B51" s="183"/>
-      <c r="C51" s="191"/>
+      <c r="B51" s="211"/>
+      <c r="C51" s="219"/>
       <c r="D51" s="41" t="s">
         <v>91</v>
       </c>
@@ -4642,8 +4693,8 @@
       </c>
     </row>
     <row r="52" spans="2:8" ht="18">
-      <c r="B52" s="183"/>
-      <c r="C52" s="191"/>
+      <c r="B52" s="211"/>
+      <c r="C52" s="219"/>
       <c r="D52" s="41" t="s">
         <v>121</v>
       </c>
@@ -4658,8 +4709,8 @@
       </c>
     </row>
     <row r="53" spans="2:8" ht="18">
-      <c r="B53" s="183"/>
-      <c r="C53" s="191"/>
+      <c r="B53" s="211"/>
+      <c r="C53" s="219"/>
       <c r="D53" s="41" t="s">
         <v>119</v>
       </c>
@@ -4674,8 +4725,8 @@
       </c>
     </row>
     <row r="54" spans="2:8" ht="18">
-      <c r="B54" s="183"/>
-      <c r="C54" s="192"/>
+      <c r="B54" s="211"/>
+      <c r="C54" s="220"/>
       <c r="D54" s="41" t="s">
         <v>236</v>
       </c>
@@ -4688,8 +4739,8 @@
       </c>
     </row>
     <row r="55" spans="2:8" ht="17">
-      <c r="B55" s="183"/>
-      <c r="C55" s="193" t="s">
+      <c r="B55" s="211"/>
+      <c r="C55" s="221" t="s">
         <v>123</v>
       </c>
       <c r="D55" s="42"/>
@@ -4698,8 +4749,8 @@
       <c r="G55" s="43"/>
     </row>
     <row r="56" spans="2:8" ht="18">
-      <c r="B56" s="183"/>
-      <c r="C56" s="194"/>
+      <c r="B56" s="211"/>
+      <c r="C56" s="222"/>
       <c r="D56" s="42" t="s">
         <v>227</v>
       </c>
@@ -4714,8 +4765,8 @@
       </c>
     </row>
     <row r="57" spans="2:8" ht="18">
-      <c r="B57" s="183"/>
-      <c r="C57" s="194"/>
+      <c r="B57" s="211"/>
+      <c r="C57" s="222"/>
       <c r="D57" s="42" t="s">
         <v>228</v>
       </c>
@@ -4730,8 +4781,8 @@
       </c>
     </row>
     <row r="58" spans="2:8" ht="18">
-      <c r="B58" s="183"/>
-      <c r="C58" s="194"/>
+      <c r="B58" s="211"/>
+      <c r="C58" s="222"/>
       <c r="D58" s="42" t="s">
         <v>229</v>
       </c>
@@ -4746,8 +4797,8 @@
       </c>
     </row>
     <row r="59" spans="2:8" ht="18">
-      <c r="B59" s="183"/>
-      <c r="C59" s="194"/>
+      <c r="B59" s="211"/>
+      <c r="C59" s="222"/>
       <c r="D59" s="42" t="s">
         <v>236</v>
       </c>
@@ -4760,8 +4811,8 @@
       </c>
     </row>
     <row r="60" spans="2:8" ht="18">
-      <c r="B60" s="183"/>
-      <c r="C60" s="175" t="s">
+      <c r="B60" s="211"/>
+      <c r="C60" s="203" t="s">
         <v>244</v>
       </c>
       <c r="D60" s="110" t="s">
@@ -4776,8 +4827,8 @@
       </c>
     </row>
     <row r="61" spans="2:8" ht="18">
-      <c r="B61" s="183"/>
-      <c r="C61" s="176"/>
+      <c r="B61" s="211"/>
+      <c r="C61" s="204"/>
       <c r="D61" s="110" t="s">
         <v>230</v>
       </c>
@@ -4790,8 +4841,8 @@
       </c>
     </row>
     <row r="62" spans="2:8" ht="18">
-      <c r="B62" s="183"/>
-      <c r="C62" s="176"/>
+      <c r="B62" s="211"/>
+      <c r="C62" s="204"/>
       <c r="D62" s="110" t="s">
         <v>163</v>
       </c>
@@ -4804,8 +4855,8 @@
       </c>
     </row>
     <row r="63" spans="2:8" ht="18">
-      <c r="B63" s="183"/>
-      <c r="C63" s="177"/>
+      <c r="B63" s="211"/>
+      <c r="C63" s="205"/>
       <c r="D63" s="110" t="s">
         <v>236</v>
       </c>
@@ -4818,8 +4869,8 @@
       </c>
     </row>
     <row r="64" spans="2:8" ht="16" customHeight="1">
-      <c r="B64" s="183"/>
-      <c r="C64" s="178" t="s">
+      <c r="B64" s="211"/>
+      <c r="C64" s="206" t="s">
         <v>151</v>
       </c>
       <c r="D64" s="38"/>
@@ -4828,8 +4879,8 @@
       <c r="G64" s="38"/>
     </row>
     <row r="65" spans="2:8" ht="18">
-      <c r="B65" s="183"/>
-      <c r="C65" s="179"/>
+      <c r="B65" s="211"/>
+      <c r="C65" s="207"/>
       <c r="D65" s="44" t="s">
         <v>231</v>
       </c>
@@ -4844,8 +4895,8 @@
       </c>
     </row>
     <row r="66" spans="2:8" ht="18">
-      <c r="B66" s="183"/>
-      <c r="C66" s="179"/>
+      <c r="B66" s="211"/>
+      <c r="C66" s="207"/>
       <c r="D66" s="44" t="s">
         <v>232</v>
       </c>
@@ -4860,8 +4911,8 @@
       </c>
     </row>
     <row r="67" spans="2:8" ht="17" customHeight="1">
-      <c r="B67" s="183"/>
-      <c r="C67" s="180"/>
+      <c r="B67" s="211"/>
+      <c r="C67" s="208"/>
       <c r="D67" s="45" t="s">
         <v>233</v>
       </c>
@@ -4872,8 +4923,8 @@
       </c>
     </row>
     <row r="68" spans="2:8" ht="16" customHeight="1">
-      <c r="B68" s="183"/>
-      <c r="C68" s="181" t="s">
+      <c r="B68" s="211"/>
+      <c r="C68" s="209" t="s">
         <v>152</v>
       </c>
       <c r="D68" s="107" t="s">
@@ -4888,8 +4939,8 @@
       </c>
     </row>
     <row r="69" spans="2:8" ht="16" customHeight="1">
-      <c r="B69" s="183"/>
-      <c r="C69" s="182"/>
+      <c r="B69" s="211"/>
+      <c r="C69" s="210"/>
       <c r="D69" s="107" t="s">
         <v>233</v>
       </c>
@@ -4902,8 +4953,8 @@
       </c>
     </row>
     <row r="70" spans="2:8" ht="18">
-      <c r="B70" s="183"/>
-      <c r="C70" s="187" t="s">
+      <c r="B70" s="211"/>
+      <c r="C70" s="215" t="s">
         <v>153</v>
       </c>
       <c r="D70" s="33" t="s">
@@ -4918,8 +4969,8 @@
       </c>
     </row>
     <row r="71" spans="2:8" ht="18">
-      <c r="B71" s="183"/>
-      <c r="C71" s="188"/>
+      <c r="B71" s="211"/>
+      <c r="C71" s="216"/>
       <c r="D71" s="33" t="s">
         <v>235</v>
       </c>
@@ -4932,8 +4983,8 @@
       </c>
     </row>
     <row r="72" spans="2:8" ht="18">
-      <c r="B72" s="183"/>
-      <c r="C72" s="189"/>
+      <c r="B72" s="211"/>
+      <c r="C72" s="217"/>
       <c r="D72" s="33" t="s">
         <v>233</v>
       </c>
@@ -4946,8 +4997,8 @@
       </c>
     </row>
     <row r="73" spans="2:8" ht="18">
-      <c r="B73" s="183"/>
-      <c r="C73" s="184" t="s">
+      <c r="B73" s="211"/>
+      <c r="C73" s="212" t="s">
         <v>154</v>
       </c>
       <c r="D73" s="35" t="s">
@@ -4967,8 +5018,8 @@
       </c>
     </row>
     <row r="74" spans="2:8" ht="17">
-      <c r="B74" s="183"/>
-      <c r="C74" s="185"/>
+      <c r="B74" s="211"/>
+      <c r="C74" s="213"/>
       <c r="D74" s="6" t="s">
         <v>116</v>
       </c>
@@ -4982,8 +5033,8 @@
       <c r="H74" s="120"/>
     </row>
     <row r="75" spans="2:8">
-      <c r="B75" s="183"/>
-      <c r="C75" s="186"/>
+      <c r="B75" s="211"/>
+      <c r="C75" s="214"/>
       <c r="D75" s="6" t="s">
         <v>233</v>
       </c>
@@ -4997,7 +5048,7 @@
       <c r="H75" s="120"/>
     </row>
     <row r="76" spans="2:8">
-      <c r="B76" s="172" t="s">
+      <c r="B76" s="200" t="s">
         <v>159</v>
       </c>
       <c r="C76" s="37" t="s">
@@ -5015,7 +5066,7 @@
       </c>
     </row>
     <row r="77" spans="2:8">
-      <c r="B77" s="173"/>
+      <c r="B77" s="201"/>
       <c r="C77" s="37" t="s">
         <v>161</v>
       </c>
@@ -5031,7 +5082,7 @@
       </c>
     </row>
     <row r="78" spans="2:8">
-      <c r="B78" s="174"/>
+      <c r="B78" s="202"/>
       <c r="C78" s="37"/>
       <c r="D78" s="37" t="s">
         <v>233</v>
@@ -5045,7 +5096,7 @@
       </c>
     </row>
     <row r="79" spans="2:8">
-      <c r="B79" s="168" t="s">
+      <c r="B79" s="196" t="s">
         <v>222</v>
       </c>
       <c r="C79" s="5"/>
@@ -5059,7 +5110,7 @@
       <c r="G79" s="5"/>
     </row>
     <row r="80" spans="2:8">
-      <c r="B80" s="168"/>
+      <c r="B80" s="196"/>
       <c r="C80" s="5" t="s">
         <v>223</v>
       </c>
@@ -5073,7 +5124,7 @@
       <c r="G80" s="5"/>
     </row>
     <row r="81" spans="2:8">
-      <c r="B81" s="168"/>
+      <c r="B81" s="196"/>
       <c r="C81" s="5" t="s">
         <v>224</v>
       </c>
@@ -5087,7 +5138,7 @@
       <c r="G81" s="5"/>
     </row>
     <row r="82" spans="2:8">
-      <c r="B82" s="168"/>
+      <c r="B82" s="196"/>
       <c r="C82" s="115" t="s">
         <v>225</v>
       </c>
@@ -5099,7 +5150,7 @@
       <c r="G82" s="5"/>
     </row>
     <row r="83" spans="2:8">
-      <c r="B83" s="168"/>
+      <c r="B83" s="196"/>
       <c r="C83" s="5"/>
       <c r="D83" s="68"/>
       <c r="E83" s="113"/>
@@ -5170,6 +5221,17 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B79:B83"/>
+    <mergeCell ref="B11:B48"/>
+    <mergeCell ref="B76:B78"/>
+    <mergeCell ref="C60:C63"/>
+    <mergeCell ref="C64:C67"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="B50:B75"/>
+    <mergeCell ref="C73:C75"/>
+    <mergeCell ref="C70:C72"/>
+    <mergeCell ref="C50:C54"/>
+    <mergeCell ref="C55:C59"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="C36:C40"/>
     <mergeCell ref="C41:C46"/>
@@ -5184,17 +5246,6 @@
     <mergeCell ref="B4:B9"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="C8:C9"/>
-    <mergeCell ref="B79:B83"/>
-    <mergeCell ref="B11:B48"/>
-    <mergeCell ref="B76:B78"/>
-    <mergeCell ref="C60:C63"/>
-    <mergeCell ref="C64:C67"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="B50:B75"/>
-    <mergeCell ref="C73:C75"/>
-    <mergeCell ref="C70:C72"/>
-    <mergeCell ref="C50:C54"/>
-    <mergeCell ref="C55:C59"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5205,8 +5256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BD846FD-50A1-DA45-8751-BA61D2456D0B}">
   <dimension ref="A1:F87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="92" workbookViewId="0">
-      <selection sqref="A1:F47"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="92" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5250,10 +5301,10 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="217" t="s">
+      <c r="A3" s="190" t="s">
         <v>171</v>
       </c>
-      <c r="B3" s="220" t="s">
+      <c r="B3" s="193" t="s">
         <v>172</v>
       </c>
       <c r="C3" s="70" t="s">
@@ -5270,8 +5321,8 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="218"/>
-      <c r="B4" s="221"/>
+      <c r="A4" s="191"/>
+      <c r="B4" s="194"/>
       <c r="C4" s="70" t="s">
         <v>166</v>
       </c>
@@ -5286,8 +5337,8 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="218"/>
-      <c r="B5" s="222"/>
+      <c r="A5" s="191"/>
+      <c r="B5" s="195"/>
       <c r="C5" s="70" t="s">
         <v>167</v>
       </c>
@@ -5302,7 +5353,7 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="218"/>
+      <c r="A6" s="191"/>
       <c r="B6" s="72" t="s">
         <v>168</v>
       </c>
@@ -5320,8 +5371,8 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="218"/>
-      <c r="B7" s="204" t="s">
+      <c r="A7" s="191"/>
+      <c r="B7" s="177" t="s">
         <v>173</v>
       </c>
       <c r="C7" s="75" t="s">
@@ -5336,8 +5387,8 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="219"/>
-      <c r="B8" s="206"/>
+      <c r="A8" s="192"/>
+      <c r="B8" s="179"/>
       <c r="C8" s="75" t="s">
         <v>170</v>
       </c>
@@ -5358,17 +5409,17 @@
       <c r="F9" s="37"/>
     </row>
     <row r="10" spans="1:6" ht="18">
-      <c r="A10" s="169" t="s">
+      <c r="A10" s="197" t="s">
         <v>99</v>
       </c>
-      <c r="B10" s="207" t="s">
+      <c r="B10" s="180" t="s">
         <v>144</v>
       </c>
       <c r="C10" s="27" t="s">
+        <v>258</v>
+      </c>
+      <c r="D10" s="54" t="s">
         <v>247</v>
-      </c>
-      <c r="D10" s="54" t="s">
-        <v>248</v>
       </c>
       <c r="E10" s="87" t="s">
         <v>156</v>
@@ -5378,10 +5429,10 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="170"/>
-      <c r="B11" s="208"/>
+      <c r="A11" s="198"/>
+      <c r="B11" s="181"/>
       <c r="C11" s="27" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D11" s="48" t="s">
         <v>126</v>
@@ -5394,10 +5445,10 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="18">
-      <c r="A12" s="170"/>
-      <c r="B12" s="208"/>
+      <c r="A12" s="198"/>
+      <c r="B12" s="181"/>
       <c r="C12" s="28" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D12" s="48" t="s">
         <v>126</v>
@@ -5410,13 +5461,13 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="18">
-      <c r="A13" s="170"/>
-      <c r="B13" s="208"/>
+      <c r="A13" s="198"/>
+      <c r="B13" s="181"/>
       <c r="C13" s="28" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D13" s="54" t="s">
-        <v>183</v>
+        <v>262</v>
       </c>
       <c r="E13" s="89">
         <v>44025</v>
@@ -5426,10 +5477,10 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="18">
-      <c r="A14" s="170"/>
-      <c r="B14" s="208"/>
+      <c r="A14" s="198"/>
+      <c r="B14" s="181"/>
       <c r="C14" s="28" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D14" s="54"/>
       <c r="E14" s="89">
@@ -5440,8 +5491,8 @@
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="170"/>
-      <c r="B15" s="209"/>
+      <c r="A15" s="198"/>
+      <c r="B15" s="182"/>
       <c r="C15" s="29" t="s">
         <v>184</v>
       </c>
@@ -5454,7 +5505,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="18">
-      <c r="A16" s="170"/>
+      <c r="A16" s="198"/>
       <c r="B16" s="155" t="s">
         <v>114</v>
       </c>
@@ -5462,7 +5513,7 @@
         <v>195</v>
       </c>
       <c r="D16" s="56" t="s">
-        <v>186</v>
+        <v>266</v>
       </c>
       <c r="E16" s="90">
         <v>44027</v>
@@ -5472,10 +5523,10 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="18">
-      <c r="A17" s="170"/>
-      <c r="B17" s="210"/>
+      <c r="A17" s="198"/>
+      <c r="B17" s="183"/>
       <c r="C17" s="31" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D17" s="56"/>
       <c r="E17" s="90">
@@ -5486,10 +5537,10 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="18">
-      <c r="A18" s="170"/>
-      <c r="B18" s="210"/>
+      <c r="A18" s="198"/>
+      <c r="B18" s="183"/>
       <c r="C18" s="31" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D18" s="56"/>
       <c r="E18" s="90">
@@ -5500,10 +5551,10 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="18">
-      <c r="A19" s="170"/>
-      <c r="B19" s="210"/>
+      <c r="A19" s="198"/>
+      <c r="B19" s="183"/>
       <c r="C19" s="31" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D19" s="56"/>
       <c r="E19" s="90">
@@ -5514,10 +5565,10 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="18">
-      <c r="A20" s="170"/>
-      <c r="B20" s="210"/>
+      <c r="A20" s="198"/>
+      <c r="B20" s="183"/>
       <c r="C20" s="31" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D20" s="56"/>
       <c r="E20" s="90">
@@ -5528,8 +5579,8 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="18">
-      <c r="A21" s="170"/>
-      <c r="B21" s="210"/>
+      <c r="A21" s="198"/>
+      <c r="B21" s="183"/>
       <c r="C21" s="31" t="s">
         <v>197</v>
       </c>
@@ -5542,7 +5593,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="18">
-      <c r="A22" s="170"/>
+      <c r="A22" s="198"/>
       <c r="B22" s="156"/>
       <c r="C22" s="31" t="s">
         <v>196</v>
@@ -5556,12 +5607,12 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="18">
-      <c r="A23" s="170"/>
-      <c r="B23" s="211" t="s">
+      <c r="A23" s="198"/>
+      <c r="B23" s="184" t="s">
         <v>145</v>
       </c>
       <c r="C23" s="32" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D23" s="58" t="s">
         <v>201</v>
@@ -5574,10 +5625,10 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="18">
-      <c r="A24" s="170"/>
-      <c r="B24" s="212"/>
+      <c r="A24" s="198"/>
+      <c r="B24" s="185"/>
       <c r="C24" s="19" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D24" s="58"/>
       <c r="E24" s="91">
@@ -5588,8 +5639,8 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="18">
-      <c r="A25" s="170"/>
-      <c r="B25" s="212"/>
+      <c r="A25" s="198"/>
+      <c r="B25" s="185"/>
       <c r="C25" s="19" t="s">
         <v>202</v>
       </c>
@@ -5602,8 +5653,8 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="18">
-      <c r="A26" s="170"/>
-      <c r="B26" s="212"/>
+      <c r="A26" s="198"/>
+      <c r="B26" s="185"/>
       <c r="C26" s="19" t="s">
         <v>203</v>
       </c>
@@ -5616,20 +5667,20 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="17">
-      <c r="A27" s="170"/>
-      <c r="B27" s="213"/>
+      <c r="A27" s="198"/>
+      <c r="B27" s="186"/>
       <c r="C27" s="19"/>
       <c r="D27" s="58"/>
       <c r="E27" s="93"/>
       <c r="F27" s="5"/>
     </row>
     <row r="28" spans="1:6" ht="18">
-      <c r="A28" s="170"/>
-      <c r="B28" s="214" t="s">
+      <c r="A28" s="198"/>
+      <c r="B28" s="187" t="s">
         <v>148</v>
       </c>
       <c r="C28" s="36" t="s">
-        <v>146</v>
+        <v>263</v>
       </c>
       <c r="D28" s="59" t="s">
         <v>204</v>
@@ -5642,8 +5693,8 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="18">
-      <c r="A29" s="170"/>
-      <c r="B29" s="215"/>
+      <c r="A29" s="198"/>
+      <c r="B29" s="188"/>
       <c r="C29" s="36" t="s">
         <v>205</v>
       </c>
@@ -5656,8 +5707,8 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="18">
-      <c r="A30" s="170"/>
-      <c r="B30" s="215"/>
+      <c r="A30" s="198"/>
+      <c r="B30" s="188"/>
       <c r="C30" s="36" t="s">
         <v>206</v>
       </c>
@@ -5670,8 +5721,8 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="18">
-      <c r="A31" s="170"/>
-      <c r="B31" s="216"/>
+      <c r="A31" s="198"/>
+      <c r="B31" s="189"/>
       <c r="C31" s="59" t="s">
         <v>207</v>
       </c>
@@ -5684,11 +5735,11 @@
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="170"/>
+      <c r="A32" s="198"/>
       <c r="B32" s="162" t="s">
         <v>88</v>
       </c>
-      <c r="C32" s="204" t="s">
+      <c r="C32" s="177" t="s">
         <v>155</v>
       </c>
       <c r="D32" s="79" t="s">
@@ -5702,9 +5753,9 @@
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="170"/>
+      <c r="A33" s="198"/>
       <c r="B33" s="163"/>
-      <c r="C33" s="205"/>
+      <c r="C33" s="178"/>
       <c r="D33" s="79" t="s">
         <v>209</v>
       </c>
@@ -5716,9 +5767,9 @@
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="170"/>
+      <c r="A34" s="198"/>
       <c r="B34" s="164"/>
-      <c r="C34" s="206"/>
+      <c r="C34" s="179"/>
       <c r="D34" s="79" t="s">
         <v>208</v>
       </c>
@@ -5730,15 +5781,15 @@
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="170"/>
-      <c r="B35" s="195" t="s">
+      <c r="A35" s="198"/>
+      <c r="B35" s="168" t="s">
         <v>149</v>
       </c>
-      <c r="C35" s="198" t="s">
+      <c r="C35" s="171" t="s">
         <v>213</v>
       </c>
       <c r="D35" s="60" t="s">
-        <v>211</v>
+        <v>267</v>
       </c>
       <c r="E35" s="95">
         <v>44036</v>
@@ -5748,9 +5799,9 @@
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="170"/>
-      <c r="B36" s="196"/>
-      <c r="C36" s="199"/>
+      <c r="A36" s="198"/>
+      <c r="B36" s="169"/>
+      <c r="C36" s="172"/>
       <c r="D36" s="60" t="s">
         <v>215</v>
       </c>
@@ -5762,9 +5813,9 @@
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="170"/>
-      <c r="B37" s="196"/>
-      <c r="C37" s="199"/>
+      <c r="A37" s="198"/>
+      <c r="B37" s="169"/>
+      <c r="C37" s="172"/>
       <c r="D37" s="60" t="s">
         <v>212</v>
       </c>
@@ -5776,9 +5827,9 @@
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="170"/>
-      <c r="B38" s="196"/>
-      <c r="C38" s="199"/>
+      <c r="A38" s="198"/>
+      <c r="B38" s="169"/>
+      <c r="C38" s="172"/>
       <c r="D38" s="60" t="s">
         <v>214</v>
       </c>
@@ -5790,9 +5841,9 @@
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="170"/>
-      <c r="B39" s="196"/>
-      <c r="C39" s="200"/>
+      <c r="A39" s="198"/>
+      <c r="B39" s="169"/>
+      <c r="C39" s="173"/>
       <c r="D39" s="60"/>
       <c r="E39" s="96"/>
       <c r="F39" s="3" t="s">
@@ -5800,11 +5851,11 @@
       </c>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="170"/>
-      <c r="B40" s="197" t="s">
+      <c r="A40" s="198"/>
+      <c r="B40" s="170" t="s">
         <v>150</v>
       </c>
-      <c r="C40" s="201"/>
+      <c r="C40" s="174"/>
       <c r="D40" s="123" t="s">
         <v>216</v>
       </c>
@@ -5816,9 +5867,9 @@
       </c>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="170"/>
-      <c r="B41" s="197"/>
-      <c r="C41" s="202"/>
+      <c r="A41" s="198"/>
+      <c r="B41" s="170"/>
+      <c r="C41" s="175"/>
       <c r="D41" s="123" t="s">
         <v>217</v>
       </c>
@@ -5830,9 +5881,9 @@
       </c>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="170"/>
-      <c r="B42" s="197"/>
-      <c r="C42" s="202"/>
+      <c r="A42" s="198"/>
+      <c r="B42" s="170"/>
+      <c r="C42" s="175"/>
       <c r="D42" s="123" t="s">
         <v>218</v>
       </c>
@@ -5844,9 +5895,9 @@
       </c>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="170"/>
-      <c r="B43" s="197"/>
-      <c r="C43" s="202"/>
+      <c r="A43" s="198"/>
+      <c r="B43" s="170"/>
+      <c r="C43" s="175"/>
       <c r="D43" s="123" t="s">
         <v>215</v>
       </c>
@@ -5858,9 +5909,9 @@
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="170"/>
-      <c r="B44" s="197"/>
-      <c r="C44" s="202"/>
+      <c r="A44" s="198"/>
+      <c r="B44" s="170"/>
+      <c r="C44" s="175"/>
       <c r="D44" s="123" t="s">
         <v>200</v>
       </c>
@@ -5872,9 +5923,9 @@
       </c>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="170"/>
-      <c r="B45" s="197"/>
-      <c r="C45" s="203"/>
+      <c r="A45" s="198"/>
+      <c r="B45" s="170"/>
+      <c r="C45" s="176"/>
       <c r="D45" s="123" t="s">
         <v>219</v>
       </c>
@@ -5886,13 +5937,13 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="17">
-      <c r="A46" s="170"/>
+      <c r="A46" s="198"/>
       <c r="B46" s="124" t="s">
         <v>162</v>
       </c>
       <c r="C46" s="125"/>
       <c r="D46" s="123" t="s">
-        <v>220</v>
+        <v>259</v>
       </c>
       <c r="E46" s="97">
         <v>44040</v>
@@ -5902,7 +5953,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="17">
-      <c r="A47" s="171"/>
+      <c r="A47" s="199"/>
       <c r="B47" s="124" t="s">
         <v>164</v>
       </c>
@@ -5926,10 +5977,10 @@
       <c r="F48" s="2"/>
     </row>
     <row r="49" spans="1:6" ht="36">
-      <c r="A49" s="183" t="s">
+      <c r="A49" s="211" t="s">
         <v>136</v>
       </c>
-      <c r="B49" s="190" t="s">
+      <c r="B49" s="218" t="s">
         <v>147</v>
       </c>
       <c r="C49" s="39" t="s">
@@ -5946,8 +5997,8 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="18">
-      <c r="A50" s="183"/>
-      <c r="B50" s="191"/>
+      <c r="A50" s="211"/>
+      <c r="B50" s="219"/>
       <c r="C50" s="41" t="s">
         <v>91</v>
       </c>
@@ -5962,8 +6013,8 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="18">
-      <c r="A51" s="183"/>
-      <c r="B51" s="191"/>
+      <c r="A51" s="211"/>
+      <c r="B51" s="219"/>
       <c r="C51" s="41" t="s">
         <v>121</v>
       </c>
@@ -5978,8 +6029,8 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="18">
-      <c r="A52" s="183"/>
-      <c r="B52" s="191"/>
+      <c r="A52" s="211"/>
+      <c r="B52" s="219"/>
       <c r="C52" s="41" t="s">
         <v>119</v>
       </c>
@@ -5994,8 +6045,8 @@
       </c>
     </row>
     <row r="53" spans="1:6" ht="18">
-      <c r="A53" s="183"/>
-      <c r="B53" s="192"/>
+      <c r="A53" s="211"/>
+      <c r="B53" s="220"/>
       <c r="C53" s="41" t="s">
         <v>236</v>
       </c>
@@ -6007,19 +6058,21 @@
         <v>174</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="17">
-      <c r="A54" s="183"/>
-      <c r="B54" s="193" t="s">
+    <row r="54" spans="1:6" ht="18">
+      <c r="A54" s="211"/>
+      <c r="B54" s="221" t="s">
         <v>123</v>
       </c>
-      <c r="C54" s="42"/>
+      <c r="C54" s="42" t="s">
+        <v>268</v>
+      </c>
       <c r="D54" s="62"/>
       <c r="E54" s="98"/>
       <c r="F54" s="43"/>
     </row>
     <row r="55" spans="1:6" ht="18">
-      <c r="A55" s="183"/>
-      <c r="B55" s="194"/>
+      <c r="A55" s="211"/>
+      <c r="B55" s="222"/>
       <c r="C55" s="42" t="s">
         <v>227</v>
       </c>
@@ -6034,8 +6087,8 @@
       </c>
     </row>
     <row r="56" spans="1:6" ht="18">
-      <c r="A56" s="183"/>
-      <c r="B56" s="194"/>
+      <c r="A56" s="211"/>
+      <c r="B56" s="222"/>
       <c r="C56" s="42" t="s">
         <v>228</v>
       </c>
@@ -6050,8 +6103,8 @@
       </c>
     </row>
     <row r="57" spans="1:6" ht="18">
-      <c r="A57" s="183"/>
-      <c r="B57" s="194"/>
+      <c r="A57" s="211"/>
+      <c r="B57" s="222"/>
       <c r="C57" s="42" t="s">
         <v>229</v>
       </c>
@@ -6066,8 +6119,8 @@
       </c>
     </row>
     <row r="58" spans="1:6" ht="18">
-      <c r="A58" s="183"/>
-      <c r="B58" s="194"/>
+      <c r="A58" s="211"/>
+      <c r="B58" s="222"/>
       <c r="C58" s="42" t="s">
         <v>236</v>
       </c>
@@ -6080,14 +6133,16 @@
       </c>
     </row>
     <row r="59" spans="1:6" ht="18">
-      <c r="A59" s="183"/>
-      <c r="B59" s="175" t="s">
+      <c r="A59" s="211"/>
+      <c r="B59" s="203" t="s">
         <v>244</v>
       </c>
       <c r="C59" s="110" t="s">
         <v>112</v>
       </c>
-      <c r="D59" s="111"/>
+      <c r="D59" s="111" t="s">
+        <v>260</v>
+      </c>
       <c r="E59" s="112">
         <v>44041</v>
       </c>
@@ -6096,8 +6151,8 @@
       </c>
     </row>
     <row r="60" spans="1:6" ht="18">
-      <c r="A60" s="183"/>
-      <c r="B60" s="176"/>
+      <c r="A60" s="211"/>
+      <c r="B60" s="204"/>
       <c r="C60" s="110" t="s">
         <v>230</v>
       </c>
@@ -6110,8 +6165,8 @@
       </c>
     </row>
     <row r="61" spans="1:6" ht="18">
-      <c r="A61" s="183"/>
-      <c r="B61" s="176"/>
+      <c r="A61" s="211"/>
+      <c r="B61" s="204"/>
       <c r="C61" s="110" t="s">
         <v>163</v>
       </c>
@@ -6124,8 +6179,8 @@
       </c>
     </row>
     <row r="62" spans="1:6" ht="18">
-      <c r="A62" s="183"/>
-      <c r="B62" s="177"/>
+      <c r="A62" s="211"/>
+      <c r="B62" s="205"/>
       <c r="C62" s="110" t="s">
         <v>236</v>
       </c>
@@ -6138,8 +6193,8 @@
       </c>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="183"/>
-      <c r="B63" s="178" t="s">
+      <c r="A63" s="211"/>
+      <c r="B63" s="206" t="s">
         <v>151</v>
       </c>
       <c r="C63" s="38"/>
@@ -6148,8 +6203,8 @@
       <c r="F63" s="38"/>
     </row>
     <row r="64" spans="1:6" ht="18">
-      <c r="A64" s="183"/>
-      <c r="B64" s="179"/>
+      <c r="A64" s="211"/>
+      <c r="B64" s="207"/>
       <c r="C64" s="44" t="s">
         <v>231</v>
       </c>
@@ -6164,8 +6219,8 @@
       </c>
     </row>
     <row r="65" spans="1:6" ht="18">
-      <c r="A65" s="183"/>
-      <c r="B65" s="179"/>
+      <c r="A65" s="211"/>
+      <c r="B65" s="207"/>
       <c r="C65" s="44" t="s">
         <v>232</v>
       </c>
@@ -6180,8 +6235,8 @@
       </c>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="183"/>
-      <c r="B66" s="180"/>
+      <c r="A66" s="211"/>
+      <c r="B66" s="208"/>
       <c r="C66" s="45" t="s">
         <v>233</v>
       </c>
@@ -6192,14 +6247,16 @@
       </c>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="183"/>
-      <c r="B67" s="181" t="s">
+      <c r="A67" s="211"/>
+      <c r="B67" s="209" t="s">
         <v>152</v>
       </c>
       <c r="C67" s="107" t="s">
         <v>234</v>
       </c>
-      <c r="D67" s="108"/>
+      <c r="D67" s="108" t="s">
+        <v>260</v>
+      </c>
       <c r="E67" s="109">
         <v>44043</v>
       </c>
@@ -6208,8 +6265,8 @@
       </c>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="183"/>
-      <c r="B68" s="182"/>
+      <c r="A68" s="211"/>
+      <c r="B68" s="210"/>
       <c r="C68" s="107" t="s">
         <v>233</v>
       </c>
@@ -6222,12 +6279,12 @@
       </c>
     </row>
     <row r="69" spans="1:6" ht="18">
-      <c r="A69" s="183"/>
-      <c r="B69" s="187" t="s">
+      <c r="A69" s="211"/>
+      <c r="B69" s="215" t="s">
         <v>153</v>
       </c>
       <c r="C69" s="33" t="s">
-        <v>115</v>
+        <v>264</v>
       </c>
       <c r="D69" s="50"/>
       <c r="E69" s="102">
@@ -6238,8 +6295,8 @@
       </c>
     </row>
     <row r="70" spans="1:6" ht="18">
-      <c r="A70" s="183"/>
-      <c r="B70" s="188"/>
+      <c r="A70" s="211"/>
+      <c r="B70" s="216"/>
       <c r="C70" s="33" t="s">
         <v>235</v>
       </c>
@@ -6252,8 +6309,8 @@
       </c>
     </row>
     <row r="71" spans="1:6" ht="18">
-      <c r="A71" s="183"/>
-      <c r="B71" s="189"/>
+      <c r="A71" s="211"/>
+      <c r="B71" s="217"/>
       <c r="C71" s="33" t="s">
         <v>233</v>
       </c>
@@ -6266,15 +6323,15 @@
       </c>
     </row>
     <row r="72" spans="1:6" ht="18">
-      <c r="A72" s="183"/>
-      <c r="B72" s="184" t="s">
+      <c r="A72" s="211"/>
+      <c r="B72" s="212" t="s">
         <v>154</v>
       </c>
       <c r="C72" s="35" t="s">
-        <v>81</v>
+        <v>265</v>
       </c>
       <c r="D72" s="65" t="s">
-        <v>82</v>
+        <v>261</v>
       </c>
       <c r="E72" s="116">
         <v>44047</v>
@@ -6284,8 +6341,8 @@
       </c>
     </row>
     <row r="73" spans="1:6" ht="17">
-      <c r="A73" s="183"/>
-      <c r="B73" s="185"/>
+      <c r="A73" s="211"/>
+      <c r="B73" s="213"/>
       <c r="C73" s="6" t="s">
         <v>116</v>
       </c>
@@ -6298,8 +6355,8 @@
       </c>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" s="183"/>
-      <c r="B74" s="186"/>
+      <c r="A74" s="211"/>
+      <c r="B74" s="214"/>
       <c r="C74" s="6" t="s">
         <v>233</v>
       </c>
@@ -6312,7 +6369,7 @@
       </c>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" s="172" t="s">
+      <c r="A75" s="200" t="s">
         <v>159</v>
       </c>
       <c r="B75" s="37" t="s">
@@ -6330,7 +6387,7 @@
       </c>
     </row>
     <row r="76" spans="1:6">
-      <c r="A76" s="173"/>
+      <c r="A76" s="201"/>
       <c r="B76" s="37" t="s">
         <v>161</v>
       </c>
@@ -6346,7 +6403,7 @@
       </c>
     </row>
     <row r="77" spans="1:6">
-      <c r="A77" s="174"/>
+      <c r="A77" s="202"/>
       <c r="B77" s="37"/>
       <c r="C77" s="37" t="s">
         <v>233</v>
@@ -6360,7 +6417,7 @@
       </c>
     </row>
     <row r="78" spans="1:6">
-      <c r="A78" s="168" t="s">
+      <c r="A78" s="196" t="s">
         <v>222</v>
       </c>
       <c r="B78" s="5"/>
@@ -6374,7 +6431,7 @@
       <c r="F78" s="5"/>
     </row>
     <row r="79" spans="1:6">
-      <c r="A79" s="168"/>
+      <c r="A79" s="196"/>
       <c r="B79" s="5" t="s">
         <v>223</v>
       </c>
@@ -6388,7 +6445,7 @@
       <c r="F79" s="5"/>
     </row>
     <row r="80" spans="1:6">
-      <c r="A80" s="168"/>
+      <c r="A80" s="196"/>
       <c r="B80" s="5" t="s">
         <v>224</v>
       </c>
@@ -6402,7 +6459,7 @@
       <c r="F80" s="5"/>
     </row>
     <row r="81" spans="1:6">
-      <c r="A81" s="168"/>
+      <c r="A81" s="196"/>
       <c r="B81" s="115" t="s">
         <v>225</v>
       </c>
@@ -6414,7 +6471,7 @@
       <c r="F81" s="5"/>
     </row>
     <row r="82" spans="1:6">
-      <c r="A82" s="168"/>
+      <c r="A82" s="196"/>
       <c r="B82" s="5"/>
       <c r="C82" s="122"/>
       <c r="D82" s="113"/>
@@ -6480,6 +6537,16 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="B72:B74"/>
+    <mergeCell ref="A75:A77"/>
+    <mergeCell ref="A78:A82"/>
+    <mergeCell ref="A49:A74"/>
+    <mergeCell ref="B49:B53"/>
+    <mergeCell ref="B54:B58"/>
+    <mergeCell ref="B59:B62"/>
+    <mergeCell ref="B63:B66"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A3:A8"/>
     <mergeCell ref="B3:B5"/>
@@ -6495,16 +6562,6 @@
     <mergeCell ref="C35:C39"/>
     <mergeCell ref="B40:B45"/>
     <mergeCell ref="C40:C45"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="B69:B71"/>
-    <mergeCell ref="B72:B74"/>
-    <mergeCell ref="A75:A77"/>
-    <mergeCell ref="A78:A82"/>
-    <mergeCell ref="A49:A74"/>
-    <mergeCell ref="B49:B53"/>
-    <mergeCell ref="B54:B58"/>
-    <mergeCell ref="B59:B62"/>
-    <mergeCell ref="B63:B66"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/结算数据监控平台开发计划.xlsx
+++ b/结算数据监控平台开发计划.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicker/sandbox/settlementMonitoring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C2CE152-41B2-4240-A14C-93FC13C488CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D88692F4-BDAB-6A43-AD2A-DF1AC43045AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18620" yWindow="1600" windowWidth="33600" windowHeight="18920" activeTab="4" xr2:uid="{AD2C15C8-2DE4-104B-A764-E65CC8F0AEA6}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18920" activeTab="4" xr2:uid="{AD2C15C8-2DE4-104B-A764-E65CC8F0AEA6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1625,7 +1625,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="223">
+  <cellXfs count="224">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2130,6 +2130,87 @@
     <xf numFmtId="0" fontId="9" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2214,86 +2295,8 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3922,10 +3925,10 @@
       <c r="H3" s="117"/>
     </row>
     <row r="4" spans="2:8">
-      <c r="B4" s="190" t="s">
+      <c r="B4" s="217" t="s">
         <v>171</v>
       </c>
-      <c r="C4" s="193" t="s">
+      <c r="C4" s="220" t="s">
         <v>172</v>
       </c>
       <c r="D4" s="70" t="s">
@@ -3943,8 +3946,8 @@
       <c r="H4" s="117"/>
     </row>
     <row r="5" spans="2:8">
-      <c r="B5" s="191"/>
-      <c r="C5" s="194"/>
+      <c r="B5" s="218"/>
+      <c r="C5" s="221"/>
       <c r="D5" s="70" t="s">
         <v>166</v>
       </c>
@@ -3960,8 +3963,8 @@
       <c r="H5" s="117"/>
     </row>
     <row r="6" spans="2:8">
-      <c r="B6" s="191"/>
-      <c r="C6" s="195"/>
+      <c r="B6" s="218"/>
+      <c r="C6" s="222"/>
       <c r="D6" s="70" t="s">
         <v>167</v>
       </c>
@@ -3977,7 +3980,7 @@
       <c r="H6" s="117"/>
     </row>
     <row r="7" spans="2:8">
-      <c r="B7" s="191"/>
+      <c r="B7" s="218"/>
       <c r="C7" s="72" t="s">
         <v>168</v>
       </c>
@@ -3996,8 +3999,8 @@
       <c r="H7" s="117"/>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="191"/>
-      <c r="C8" s="177" t="s">
+      <c r="B8" s="218"/>
+      <c r="C8" s="204" t="s">
         <v>173</v>
       </c>
       <c r="D8" s="75" t="s">
@@ -4013,8 +4016,8 @@
       <c r="H8" s="117"/>
     </row>
     <row r="9" spans="2:8">
-      <c r="B9" s="192"/>
-      <c r="C9" s="179"/>
+      <c r="B9" s="219"/>
+      <c r="C9" s="206"/>
       <c r="D9" s="75" t="s">
         <v>170</v>
       </c>
@@ -4037,10 +4040,10 @@
       <c r="H10" s="117"/>
     </row>
     <row r="11" spans="2:8" ht="36" customHeight="1">
-      <c r="B11" s="197" t="s">
+      <c r="B11" s="169" t="s">
         <v>99</v>
       </c>
-      <c r="C11" s="180" t="s">
+      <c r="C11" s="207" t="s">
         <v>144</v>
       </c>
       <c r="D11" s="27" t="s">
@@ -4060,8 +4063,8 @@
       </c>
     </row>
     <row r="12" spans="2:8" ht="18">
-      <c r="B12" s="198"/>
-      <c r="C12" s="181"/>
+      <c r="B12" s="170"/>
+      <c r="C12" s="208"/>
       <c r="D12" s="27" t="s">
         <v>187</v>
       </c>
@@ -4077,8 +4080,8 @@
       </c>
     </row>
     <row r="13" spans="2:8" ht="18">
-      <c r="B13" s="198"/>
-      <c r="C13" s="181"/>
+      <c r="B13" s="170"/>
+      <c r="C13" s="208"/>
       <c r="D13" s="28" t="s">
         <v>188</v>
       </c>
@@ -4096,8 +4099,8 @@
       </c>
     </row>
     <row r="14" spans="2:8" ht="18">
-      <c r="B14" s="198"/>
-      <c r="C14" s="181"/>
+      <c r="B14" s="170"/>
+      <c r="C14" s="208"/>
       <c r="D14" s="28" t="s">
         <v>189</v>
       </c>
@@ -4115,8 +4118,8 @@
       </c>
     </row>
     <row r="15" spans="2:8" ht="36">
-      <c r="B15" s="198"/>
-      <c r="C15" s="181"/>
+      <c r="B15" s="170"/>
+      <c r="C15" s="208"/>
       <c r="D15" s="28" t="s">
         <v>190</v>
       </c>
@@ -4134,8 +4137,8 @@
       </c>
     </row>
     <row r="16" spans="2:8" ht="17" customHeight="1">
-      <c r="B16" s="198"/>
-      <c r="C16" s="182"/>
+      <c r="B16" s="170"/>
+      <c r="C16" s="209"/>
       <c r="D16" s="29" t="s">
         <v>184</v>
       </c>
@@ -4149,7 +4152,7 @@
       <c r="H16" s="117"/>
     </row>
     <row r="17" spans="2:8" ht="18">
-      <c r="B17" s="198"/>
+      <c r="B17" s="170"/>
       <c r="C17" s="155" t="s">
         <v>114</v>
       </c>
@@ -4168,8 +4171,8 @@
       <c r="H17" s="117"/>
     </row>
     <row r="18" spans="2:8" ht="18">
-      <c r="B18" s="198"/>
-      <c r="C18" s="183"/>
+      <c r="B18" s="170"/>
+      <c r="C18" s="210"/>
       <c r="D18" s="31" t="s">
         <v>191</v>
       </c>
@@ -4183,8 +4186,8 @@
       <c r="H18" s="117"/>
     </row>
     <row r="19" spans="2:8" ht="18">
-      <c r="B19" s="198"/>
-      <c r="C19" s="183"/>
+      <c r="B19" s="170"/>
+      <c r="C19" s="210"/>
       <c r="D19" s="31" t="s">
         <v>192</v>
       </c>
@@ -4198,8 +4201,8 @@
       <c r="H19" s="117"/>
     </row>
     <row r="20" spans="2:8" ht="18">
-      <c r="B20" s="198"/>
-      <c r="C20" s="183"/>
+      <c r="B20" s="170"/>
+      <c r="C20" s="210"/>
       <c r="D20" s="31" t="s">
         <v>193</v>
       </c>
@@ -4213,8 +4216,8 @@
       <c r="H20" s="117"/>
     </row>
     <row r="21" spans="2:8" ht="18">
-      <c r="B21" s="198"/>
-      <c r="C21" s="183"/>
+      <c r="B21" s="170"/>
+      <c r="C21" s="210"/>
       <c r="D21" s="31" t="s">
         <v>194</v>
       </c>
@@ -4228,8 +4231,8 @@
       <c r="H21" s="117"/>
     </row>
     <row r="22" spans="2:8" ht="18">
-      <c r="B22" s="198"/>
-      <c r="C22" s="183"/>
+      <c r="B22" s="170"/>
+      <c r="C22" s="210"/>
       <c r="D22" s="31" t="s">
         <v>197</v>
       </c>
@@ -4243,7 +4246,7 @@
       <c r="H22" s="117"/>
     </row>
     <row r="23" spans="2:8" ht="18">
-      <c r="B23" s="198"/>
+      <c r="B23" s="170"/>
       <c r="C23" s="156"/>
       <c r="D23" s="31" t="s">
         <v>196</v>
@@ -4258,8 +4261,8 @@
       <c r="H23" s="117"/>
     </row>
     <row r="24" spans="2:8" ht="18">
-      <c r="B24" s="198"/>
-      <c r="C24" s="184" t="s">
+      <c r="B24" s="170"/>
+      <c r="C24" s="211" t="s">
         <v>145</v>
       </c>
       <c r="D24" s="32" t="s">
@@ -4277,8 +4280,8 @@
       <c r="H24" s="117"/>
     </row>
     <row r="25" spans="2:8" ht="18">
-      <c r="B25" s="198"/>
-      <c r="C25" s="185"/>
+      <c r="B25" s="170"/>
+      <c r="C25" s="212"/>
       <c r="D25" s="19" t="s">
         <v>198</v>
       </c>
@@ -4292,8 +4295,8 @@
       <c r="H25" s="117"/>
     </row>
     <row r="26" spans="2:8" ht="18">
-      <c r="B26" s="198"/>
-      <c r="C26" s="185"/>
+      <c r="B26" s="170"/>
+      <c r="C26" s="212"/>
       <c r="D26" s="19" t="s">
         <v>202</v>
       </c>
@@ -4307,8 +4310,8 @@
       <c r="H26" s="117"/>
     </row>
     <row r="27" spans="2:8" ht="18">
-      <c r="B27" s="198"/>
-      <c r="C27" s="185"/>
+      <c r="B27" s="170"/>
+      <c r="C27" s="212"/>
       <c r="D27" s="19" t="s">
         <v>203</v>
       </c>
@@ -4322,8 +4325,8 @@
       <c r="H27" s="117"/>
     </row>
     <row r="28" spans="2:8" ht="17">
-      <c r="B28" s="198"/>
-      <c r="C28" s="186"/>
+      <c r="B28" s="170"/>
+      <c r="C28" s="213"/>
       <c r="D28" s="19"/>
       <c r="E28" s="58"/>
       <c r="F28" s="93"/>
@@ -4331,8 +4334,8 @@
       <c r="H28" s="117"/>
     </row>
     <row r="29" spans="2:8" ht="18">
-      <c r="B29" s="198"/>
-      <c r="C29" s="187" t="s">
+      <c r="B29" s="170"/>
+      <c r="C29" s="214" t="s">
         <v>148</v>
       </c>
       <c r="D29" s="36" t="s">
@@ -4350,8 +4353,8 @@
       <c r="H29" s="117"/>
     </row>
     <row r="30" spans="2:8" ht="18">
-      <c r="B30" s="198"/>
-      <c r="C30" s="188"/>
+      <c r="B30" s="170"/>
+      <c r="C30" s="215"/>
       <c r="D30" s="36" t="s">
         <v>205</v>
       </c>
@@ -4365,8 +4368,8 @@
       <c r="H30" s="117"/>
     </row>
     <row r="31" spans="2:8" ht="36" customHeight="1">
-      <c r="B31" s="198"/>
-      <c r="C31" s="188"/>
+      <c r="B31" s="170"/>
+      <c r="C31" s="215"/>
       <c r="D31" s="36" t="s">
         <v>206</v>
       </c>
@@ -4380,8 +4383,8 @@
       <c r="H31" s="117"/>
     </row>
     <row r="32" spans="2:8" ht="54" customHeight="1">
-      <c r="B32" s="198"/>
-      <c r="C32" s="189"/>
+      <c r="B32" s="170"/>
+      <c r="C32" s="216"/>
       <c r="D32" s="59" t="s">
         <v>207</v>
       </c>
@@ -4395,11 +4398,11 @@
       <c r="H32" s="117"/>
     </row>
     <row r="33" spans="2:8" ht="16" customHeight="1">
-      <c r="B33" s="198"/>
+      <c r="B33" s="170"/>
       <c r="C33" s="162" t="s">
         <v>88</v>
       </c>
-      <c r="D33" s="177" t="s">
+      <c r="D33" s="204" t="s">
         <v>155</v>
       </c>
       <c r="E33" s="79" t="s">
@@ -4414,9 +4417,9 @@
       <c r="H33" s="117"/>
     </row>
     <row r="34" spans="2:8" ht="16" customHeight="1">
-      <c r="B34" s="198"/>
+      <c r="B34" s="170"/>
       <c r="C34" s="163"/>
-      <c r="D34" s="178"/>
+      <c r="D34" s="205"/>
       <c r="E34" s="79" t="s">
         <v>209</v>
       </c>
@@ -4429,9 +4432,9 @@
       <c r="H34" s="117"/>
     </row>
     <row r="35" spans="2:8" ht="17" customHeight="1">
-      <c r="B35" s="198"/>
+      <c r="B35" s="170"/>
       <c r="C35" s="164"/>
-      <c r="D35" s="179"/>
+      <c r="D35" s="206"/>
       <c r="E35" s="79" t="s">
         <v>208</v>
       </c>
@@ -4444,11 +4447,11 @@
       <c r="H35" s="117"/>
     </row>
     <row r="36" spans="2:8" ht="16" customHeight="1">
-      <c r="B36" s="198"/>
-      <c r="C36" s="168" t="s">
+      <c r="B36" s="170"/>
+      <c r="C36" s="195" t="s">
         <v>149</v>
       </c>
-      <c r="D36" s="171" t="s">
+      <c r="D36" s="198" t="s">
         <v>213</v>
       </c>
       <c r="E36" s="60" t="s">
@@ -4463,9 +4466,9 @@
       <c r="H36" s="117"/>
     </row>
     <row r="37" spans="2:8" ht="16" customHeight="1">
-      <c r="B37" s="198"/>
-      <c r="C37" s="169"/>
-      <c r="D37" s="172"/>
+      <c r="B37" s="170"/>
+      <c r="C37" s="196"/>
+      <c r="D37" s="199"/>
       <c r="E37" s="60" t="s">
         <v>215</v>
       </c>
@@ -4478,9 +4481,9 @@
       <c r="H37" s="117"/>
     </row>
     <row r="38" spans="2:8" ht="16" customHeight="1">
-      <c r="B38" s="198"/>
-      <c r="C38" s="169"/>
-      <c r="D38" s="172"/>
+      <c r="B38" s="170"/>
+      <c r="C38" s="196"/>
+      <c r="D38" s="199"/>
       <c r="E38" s="60" t="s">
         <v>212</v>
       </c>
@@ -4493,9 +4496,9 @@
       <c r="H38" s="117"/>
     </row>
     <row r="39" spans="2:8" ht="16" customHeight="1">
-      <c r="B39" s="198"/>
-      <c r="C39" s="169"/>
-      <c r="D39" s="172"/>
+      <c r="B39" s="170"/>
+      <c r="C39" s="196"/>
+      <c r="D39" s="199"/>
       <c r="E39" s="60" t="s">
         <v>214</v>
       </c>
@@ -4508,9 +4511,9 @@
       <c r="H39" s="117"/>
     </row>
     <row r="40" spans="2:8" ht="16" customHeight="1">
-      <c r="B40" s="198"/>
-      <c r="C40" s="169"/>
-      <c r="D40" s="173"/>
+      <c r="B40" s="170"/>
+      <c r="C40" s="196"/>
+      <c r="D40" s="200"/>
       <c r="E40" s="60"/>
       <c r="F40" s="96"/>
       <c r="G40" s="3" t="s">
@@ -4519,11 +4522,11 @@
       <c r="H40" s="117"/>
     </row>
     <row r="41" spans="2:8" ht="16" customHeight="1">
-      <c r="B41" s="198"/>
-      <c r="C41" s="170" t="s">
+      <c r="B41" s="170"/>
+      <c r="C41" s="197" t="s">
         <v>150</v>
       </c>
-      <c r="D41" s="174"/>
+      <c r="D41" s="201"/>
       <c r="E41" s="61" t="s">
         <v>216</v>
       </c>
@@ -4536,9 +4539,9 @@
       <c r="H41" s="117"/>
     </row>
     <row r="42" spans="2:8" ht="16" customHeight="1">
-      <c r="B42" s="198"/>
-      <c r="C42" s="170"/>
-      <c r="D42" s="175"/>
+      <c r="B42" s="170"/>
+      <c r="C42" s="197"/>
+      <c r="D42" s="202"/>
       <c r="E42" s="61" t="s">
         <v>217</v>
       </c>
@@ -4551,9 +4554,9 @@
       <c r="H42" s="117"/>
     </row>
     <row r="43" spans="2:8" ht="16" customHeight="1">
-      <c r="B43" s="198"/>
-      <c r="C43" s="170"/>
-      <c r="D43" s="175"/>
+      <c r="B43" s="170"/>
+      <c r="C43" s="197"/>
+      <c r="D43" s="202"/>
       <c r="E43" s="61" t="s">
         <v>218</v>
       </c>
@@ -4566,9 +4569,9 @@
       <c r="H43" s="117"/>
     </row>
     <row r="44" spans="2:8" ht="16" customHeight="1">
-      <c r="B44" s="198"/>
-      <c r="C44" s="170"/>
-      <c r="D44" s="175"/>
+      <c r="B44" s="170"/>
+      <c r="C44" s="197"/>
+      <c r="D44" s="202"/>
       <c r="E44" s="61" t="s">
         <v>215</v>
       </c>
@@ -4581,9 +4584,9 @@
       <c r="H44" s="117"/>
     </row>
     <row r="45" spans="2:8" ht="16" customHeight="1">
-      <c r="B45" s="198"/>
-      <c r="C45" s="170"/>
-      <c r="D45" s="175"/>
+      <c r="B45" s="170"/>
+      <c r="C45" s="197"/>
+      <c r="D45" s="202"/>
       <c r="E45" s="61" t="s">
         <v>200</v>
       </c>
@@ -4596,9 +4599,9 @@
       <c r="H45" s="117"/>
     </row>
     <row r="46" spans="2:8" ht="16" customHeight="1">
-      <c r="B46" s="198"/>
-      <c r="C46" s="170"/>
-      <c r="D46" s="176"/>
+      <c r="B46" s="170"/>
+      <c r="C46" s="197"/>
+      <c r="D46" s="203"/>
       <c r="E46" s="61" t="s">
         <v>219</v>
       </c>
@@ -4611,7 +4614,7 @@
       <c r="H46" s="117"/>
     </row>
     <row r="47" spans="2:8" ht="16" customHeight="1">
-      <c r="B47" s="198"/>
+      <c r="B47" s="170"/>
       <c r="C47" s="46" t="s">
         <v>162</v>
       </c>
@@ -4628,7 +4631,7 @@
       <c r="H47" s="117"/>
     </row>
     <row r="48" spans="2:8" ht="16" customHeight="1">
-      <c r="B48" s="199"/>
+      <c r="B48" s="171"/>
       <c r="C48" s="46" t="s">
         <v>164</v>
       </c>
@@ -4656,10 +4659,10 @@
       <c r="H49" s="117"/>
     </row>
     <row r="50" spans="2:8" ht="18">
-      <c r="B50" s="211" t="s">
+      <c r="B50" s="183" t="s">
         <v>136</v>
       </c>
-      <c r="C50" s="218" t="s">
+      <c r="C50" s="190" t="s">
         <v>147</v>
       </c>
       <c r="D50" s="39" t="s">
@@ -4677,8 +4680,8 @@
       <c r="H50" s="117"/>
     </row>
     <row r="51" spans="2:8" ht="18">
-      <c r="B51" s="211"/>
-      <c r="C51" s="219"/>
+      <c r="B51" s="183"/>
+      <c r="C51" s="191"/>
       <c r="D51" s="41" t="s">
         <v>91</v>
       </c>
@@ -4693,8 +4696,8 @@
       </c>
     </row>
     <row r="52" spans="2:8" ht="18">
-      <c r="B52" s="211"/>
-      <c r="C52" s="219"/>
+      <c r="B52" s="183"/>
+      <c r="C52" s="191"/>
       <c r="D52" s="41" t="s">
         <v>121</v>
       </c>
@@ -4709,8 +4712,8 @@
       </c>
     </row>
     <row r="53" spans="2:8" ht="18">
-      <c r="B53" s="211"/>
-      <c r="C53" s="219"/>
+      <c r="B53" s="183"/>
+      <c r="C53" s="191"/>
       <c r="D53" s="41" t="s">
         <v>119</v>
       </c>
@@ -4725,8 +4728,8 @@
       </c>
     </row>
     <row r="54" spans="2:8" ht="18">
-      <c r="B54" s="211"/>
-      <c r="C54" s="220"/>
+      <c r="B54" s="183"/>
+      <c r="C54" s="192"/>
       <c r="D54" s="41" t="s">
         <v>236</v>
       </c>
@@ -4739,8 +4742,8 @@
       </c>
     </row>
     <row r="55" spans="2:8" ht="17">
-      <c r="B55" s="211"/>
-      <c r="C55" s="221" t="s">
+      <c r="B55" s="183"/>
+      <c r="C55" s="193" t="s">
         <v>123</v>
       </c>
       <c r="D55" s="42"/>
@@ -4749,8 +4752,8 @@
       <c r="G55" s="43"/>
     </row>
     <row r="56" spans="2:8" ht="18">
-      <c r="B56" s="211"/>
-      <c r="C56" s="222"/>
+      <c r="B56" s="183"/>
+      <c r="C56" s="194"/>
       <c r="D56" s="42" t="s">
         <v>227</v>
       </c>
@@ -4765,8 +4768,8 @@
       </c>
     </row>
     <row r="57" spans="2:8" ht="18">
-      <c r="B57" s="211"/>
-      <c r="C57" s="222"/>
+      <c r="B57" s="183"/>
+      <c r="C57" s="194"/>
       <c r="D57" s="42" t="s">
         <v>228</v>
       </c>
@@ -4781,8 +4784,8 @@
       </c>
     </row>
     <row r="58" spans="2:8" ht="18">
-      <c r="B58" s="211"/>
-      <c r="C58" s="222"/>
+      <c r="B58" s="183"/>
+      <c r="C58" s="194"/>
       <c r="D58" s="42" t="s">
         <v>229</v>
       </c>
@@ -4797,8 +4800,8 @@
       </c>
     </row>
     <row r="59" spans="2:8" ht="18">
-      <c r="B59" s="211"/>
-      <c r="C59" s="222"/>
+      <c r="B59" s="183"/>
+      <c r="C59" s="194"/>
       <c r="D59" s="42" t="s">
         <v>236</v>
       </c>
@@ -4811,8 +4814,8 @@
       </c>
     </row>
     <row r="60" spans="2:8" ht="18">
-      <c r="B60" s="211"/>
-      <c r="C60" s="203" t="s">
+      <c r="B60" s="183"/>
+      <c r="C60" s="175" t="s">
         <v>244</v>
       </c>
       <c r="D60" s="110" t="s">
@@ -4827,8 +4830,8 @@
       </c>
     </row>
     <row r="61" spans="2:8" ht="18">
-      <c r="B61" s="211"/>
-      <c r="C61" s="204"/>
+      <c r="B61" s="183"/>
+      <c r="C61" s="176"/>
       <c r="D61" s="110" t="s">
         <v>230</v>
       </c>
@@ -4841,8 +4844,8 @@
       </c>
     </row>
     <row r="62" spans="2:8" ht="18">
-      <c r="B62" s="211"/>
-      <c r="C62" s="204"/>
+      <c r="B62" s="183"/>
+      <c r="C62" s="176"/>
       <c r="D62" s="110" t="s">
         <v>163</v>
       </c>
@@ -4855,8 +4858,8 @@
       </c>
     </row>
     <row r="63" spans="2:8" ht="18">
-      <c r="B63" s="211"/>
-      <c r="C63" s="205"/>
+      <c r="B63" s="183"/>
+      <c r="C63" s="177"/>
       <c r="D63" s="110" t="s">
         <v>236</v>
       </c>
@@ -4869,8 +4872,8 @@
       </c>
     </row>
     <row r="64" spans="2:8" ht="16" customHeight="1">
-      <c r="B64" s="211"/>
-      <c r="C64" s="206" t="s">
+      <c r="B64" s="183"/>
+      <c r="C64" s="178" t="s">
         <v>151</v>
       </c>
       <c r="D64" s="38"/>
@@ -4879,8 +4882,8 @@
       <c r="G64" s="38"/>
     </row>
     <row r="65" spans="2:8" ht="18">
-      <c r="B65" s="211"/>
-      <c r="C65" s="207"/>
+      <c r="B65" s="183"/>
+      <c r="C65" s="179"/>
       <c r="D65" s="44" t="s">
         <v>231</v>
       </c>
@@ -4895,8 +4898,8 @@
       </c>
     </row>
     <row r="66" spans="2:8" ht="18">
-      <c r="B66" s="211"/>
-      <c r="C66" s="207"/>
+      <c r="B66" s="183"/>
+      <c r="C66" s="179"/>
       <c r="D66" s="44" t="s">
         <v>232</v>
       </c>
@@ -4911,8 +4914,8 @@
       </c>
     </row>
     <row r="67" spans="2:8" ht="17" customHeight="1">
-      <c r="B67" s="211"/>
-      <c r="C67" s="208"/>
+      <c r="B67" s="183"/>
+      <c r="C67" s="180"/>
       <c r="D67" s="45" t="s">
         <v>233</v>
       </c>
@@ -4923,8 +4926,8 @@
       </c>
     </row>
     <row r="68" spans="2:8" ht="16" customHeight="1">
-      <c r="B68" s="211"/>
-      <c r="C68" s="209" t="s">
+      <c r="B68" s="183"/>
+      <c r="C68" s="181" t="s">
         <v>152</v>
       </c>
       <c r="D68" s="107" t="s">
@@ -4939,8 +4942,8 @@
       </c>
     </row>
     <row r="69" spans="2:8" ht="16" customHeight="1">
-      <c r="B69" s="211"/>
-      <c r="C69" s="210"/>
+      <c r="B69" s="183"/>
+      <c r="C69" s="182"/>
       <c r="D69" s="107" t="s">
         <v>233</v>
       </c>
@@ -4953,8 +4956,8 @@
       </c>
     </row>
     <row r="70" spans="2:8" ht="18">
-      <c r="B70" s="211"/>
-      <c r="C70" s="215" t="s">
+      <c r="B70" s="183"/>
+      <c r="C70" s="187" t="s">
         <v>153</v>
       </c>
       <c r="D70" s="33" t="s">
@@ -4969,8 +4972,8 @@
       </c>
     </row>
     <row r="71" spans="2:8" ht="18">
-      <c r="B71" s="211"/>
-      <c r="C71" s="216"/>
+      <c r="B71" s="183"/>
+      <c r="C71" s="188"/>
       <c r="D71" s="33" t="s">
         <v>235</v>
       </c>
@@ -4983,8 +4986,8 @@
       </c>
     </row>
     <row r="72" spans="2:8" ht="18">
-      <c r="B72" s="211"/>
-      <c r="C72" s="217"/>
+      <c r="B72" s="183"/>
+      <c r="C72" s="189"/>
       <c r="D72" s="33" t="s">
         <v>233</v>
       </c>
@@ -4997,8 +5000,8 @@
       </c>
     </row>
     <row r="73" spans="2:8" ht="18">
-      <c r="B73" s="211"/>
-      <c r="C73" s="212" t="s">
+      <c r="B73" s="183"/>
+      <c r="C73" s="184" t="s">
         <v>154</v>
       </c>
       <c r="D73" s="35" t="s">
@@ -5018,8 +5021,8 @@
       </c>
     </row>
     <row r="74" spans="2:8" ht="17">
-      <c r="B74" s="211"/>
-      <c r="C74" s="213"/>
+      <c r="B74" s="183"/>
+      <c r="C74" s="185"/>
       <c r="D74" s="6" t="s">
         <v>116</v>
       </c>
@@ -5033,8 +5036,8 @@
       <c r="H74" s="120"/>
     </row>
     <row r="75" spans="2:8">
-      <c r="B75" s="211"/>
-      <c r="C75" s="214"/>
+      <c r="B75" s="183"/>
+      <c r="C75" s="186"/>
       <c r="D75" s="6" t="s">
         <v>233</v>
       </c>
@@ -5048,7 +5051,7 @@
       <c r="H75" s="120"/>
     </row>
     <row r="76" spans="2:8">
-      <c r="B76" s="200" t="s">
+      <c r="B76" s="172" t="s">
         <v>159</v>
       </c>
       <c r="C76" s="37" t="s">
@@ -5066,7 +5069,7 @@
       </c>
     </row>
     <row r="77" spans="2:8">
-      <c r="B77" s="201"/>
+      <c r="B77" s="173"/>
       <c r="C77" s="37" t="s">
         <v>161</v>
       </c>
@@ -5082,7 +5085,7 @@
       </c>
     </row>
     <row r="78" spans="2:8">
-      <c r="B78" s="202"/>
+      <c r="B78" s="174"/>
       <c r="C78" s="37"/>
       <c r="D78" s="37" t="s">
         <v>233</v>
@@ -5096,7 +5099,7 @@
       </c>
     </row>
     <row r="79" spans="2:8">
-      <c r="B79" s="196" t="s">
+      <c r="B79" s="168" t="s">
         <v>222</v>
       </c>
       <c r="C79" s="5"/>
@@ -5110,7 +5113,7 @@
       <c r="G79" s="5"/>
     </row>
     <row r="80" spans="2:8">
-      <c r="B80" s="196"/>
+      <c r="B80" s="168"/>
       <c r="C80" s="5" t="s">
         <v>223</v>
       </c>
@@ -5124,7 +5127,7 @@
       <c r="G80" s="5"/>
     </row>
     <row r="81" spans="2:8">
-      <c r="B81" s="196"/>
+      <c r="B81" s="168"/>
       <c r="C81" s="5" t="s">
         <v>224</v>
       </c>
@@ -5138,7 +5141,7 @@
       <c r="G81" s="5"/>
     </row>
     <row r="82" spans="2:8">
-      <c r="B82" s="196"/>
+      <c r="B82" s="168"/>
       <c r="C82" s="115" t="s">
         <v>225</v>
       </c>
@@ -5150,7 +5153,7 @@
       <c r="G82" s="5"/>
     </row>
     <row r="83" spans="2:8">
-      <c r="B83" s="196"/>
+      <c r="B83" s="168"/>
       <c r="C83" s="5"/>
       <c r="D83" s="68"/>
       <c r="E83" s="113"/>
@@ -5221,17 +5224,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B79:B83"/>
-    <mergeCell ref="B11:B48"/>
-    <mergeCell ref="B76:B78"/>
-    <mergeCell ref="C60:C63"/>
-    <mergeCell ref="C64:C67"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="B50:B75"/>
-    <mergeCell ref="C73:C75"/>
-    <mergeCell ref="C70:C72"/>
-    <mergeCell ref="C50:C54"/>
-    <mergeCell ref="C55:C59"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="C36:C40"/>
     <mergeCell ref="C41:C46"/>
@@ -5246,6 +5238,17 @@
     <mergeCell ref="B4:B9"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="C8:C9"/>
+    <mergeCell ref="B79:B83"/>
+    <mergeCell ref="B11:B48"/>
+    <mergeCell ref="B76:B78"/>
+    <mergeCell ref="C60:C63"/>
+    <mergeCell ref="C64:C67"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="B50:B75"/>
+    <mergeCell ref="C73:C75"/>
+    <mergeCell ref="C70:C72"/>
+    <mergeCell ref="C50:C54"/>
+    <mergeCell ref="C55:C59"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5256,8 +5259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BD846FD-50A1-DA45-8751-BA61D2456D0B}">
   <dimension ref="A1:F87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="92" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5271,14 +5274,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30">
-      <c r="A1" s="138" t="s">
+      <c r="A1" s="223" t="s">
         <v>246</v>
       </c>
-      <c r="B1" s="139"/>
-      <c r="C1" s="139"/>
-      <c r="D1" s="139"/>
-      <c r="E1" s="139"/>
-      <c r="F1" s="140"/>
+      <c r="B1" s="223"/>
+      <c r="C1" s="223"/>
+      <c r="D1" s="223"/>
+      <c r="E1" s="223"/>
+      <c r="F1" s="223"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="25" t="s">
@@ -5301,10 +5304,10 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="190" t="s">
+      <c r="A3" s="217" t="s">
         <v>171</v>
       </c>
-      <c r="B3" s="193" t="s">
+      <c r="B3" s="220" t="s">
         <v>172</v>
       </c>
       <c r="C3" s="70" t="s">
@@ -5321,8 +5324,8 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="191"/>
-      <c r="B4" s="194"/>
+      <c r="A4" s="218"/>
+      <c r="B4" s="221"/>
       <c r="C4" s="70" t="s">
         <v>166</v>
       </c>
@@ -5337,8 +5340,8 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="191"/>
-      <c r="B5" s="195"/>
+      <c r="A5" s="218"/>
+      <c r="B5" s="222"/>
       <c r="C5" s="70" t="s">
         <v>167</v>
       </c>
@@ -5353,7 +5356,7 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="191"/>
+      <c r="A6" s="218"/>
       <c r="B6" s="72" t="s">
         <v>168</v>
       </c>
@@ -5371,8 +5374,8 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="191"/>
-      <c r="B7" s="177" t="s">
+      <c r="A7" s="218"/>
+      <c r="B7" s="204" t="s">
         <v>173</v>
       </c>
       <c r="C7" s="75" t="s">
@@ -5387,8 +5390,8 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="192"/>
-      <c r="B8" s="179"/>
+      <c r="A8" s="219"/>
+      <c r="B8" s="206"/>
       <c r="C8" s="75" t="s">
         <v>170</v>
       </c>
@@ -5409,10 +5412,10 @@
       <c r="F9" s="37"/>
     </row>
     <row r="10" spans="1:6" ht="18">
-      <c r="A10" s="197" t="s">
+      <c r="A10" s="169" t="s">
         <v>99</v>
       </c>
-      <c r="B10" s="180" t="s">
+      <c r="B10" s="207" t="s">
         <v>144</v>
       </c>
       <c r="C10" s="27" t="s">
@@ -5429,8 +5432,8 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="198"/>
-      <c r="B11" s="181"/>
+      <c r="A11" s="170"/>
+      <c r="B11" s="208"/>
       <c r="C11" s="27" t="s">
         <v>248</v>
       </c>
@@ -5445,8 +5448,8 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="18">
-      <c r="A12" s="198"/>
-      <c r="B12" s="181"/>
+      <c r="A12" s="170"/>
+      <c r="B12" s="208"/>
       <c r="C12" s="28" t="s">
         <v>249</v>
       </c>
@@ -5461,8 +5464,8 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="18">
-      <c r="A13" s="198"/>
-      <c r="B13" s="181"/>
+      <c r="A13" s="170"/>
+      <c r="B13" s="208"/>
       <c r="C13" s="28" t="s">
         <v>250</v>
       </c>
@@ -5477,8 +5480,8 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="18">
-      <c r="A14" s="198"/>
-      <c r="B14" s="181"/>
+      <c r="A14" s="170"/>
+      <c r="B14" s="208"/>
       <c r="C14" s="28" t="s">
         <v>251</v>
       </c>
@@ -5491,8 +5494,8 @@
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="198"/>
-      <c r="B15" s="182"/>
+      <c r="A15" s="170"/>
+      <c r="B15" s="209"/>
       <c r="C15" s="29" t="s">
         <v>184</v>
       </c>
@@ -5505,7 +5508,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="18">
-      <c r="A16" s="198"/>
+      <c r="A16" s="170"/>
       <c r="B16" s="155" t="s">
         <v>114</v>
       </c>
@@ -5523,8 +5526,8 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="18">
-      <c r="A17" s="198"/>
-      <c r="B17" s="183"/>
+      <c r="A17" s="170"/>
+      <c r="B17" s="210"/>
       <c r="C17" s="31" t="s">
         <v>252</v>
       </c>
@@ -5537,8 +5540,8 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="18">
-      <c r="A18" s="198"/>
-      <c r="B18" s="183"/>
+      <c r="A18" s="170"/>
+      <c r="B18" s="210"/>
       <c r="C18" s="31" t="s">
         <v>253</v>
       </c>
@@ -5551,8 +5554,8 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="18">
-      <c r="A19" s="198"/>
-      <c r="B19" s="183"/>
+      <c r="A19" s="170"/>
+      <c r="B19" s="210"/>
       <c r="C19" s="31" t="s">
         <v>254</v>
       </c>
@@ -5565,8 +5568,8 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="18">
-      <c r="A20" s="198"/>
-      <c r="B20" s="183"/>
+      <c r="A20" s="170"/>
+      <c r="B20" s="210"/>
       <c r="C20" s="31" t="s">
         <v>255</v>
       </c>
@@ -5579,8 +5582,8 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="18">
-      <c r="A21" s="198"/>
-      <c r="B21" s="183"/>
+      <c r="A21" s="170"/>
+      <c r="B21" s="210"/>
       <c r="C21" s="31" t="s">
         <v>197</v>
       </c>
@@ -5593,7 +5596,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="18">
-      <c r="A22" s="198"/>
+      <c r="A22" s="170"/>
       <c r="B22" s="156"/>
       <c r="C22" s="31" t="s">
         <v>196</v>
@@ -5607,8 +5610,8 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="18">
-      <c r="A23" s="198"/>
-      <c r="B23" s="184" t="s">
+      <c r="A23" s="170"/>
+      <c r="B23" s="211" t="s">
         <v>145</v>
       </c>
       <c r="C23" s="32" t="s">
@@ -5625,8 +5628,8 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="18">
-      <c r="A24" s="198"/>
-      <c r="B24" s="185"/>
+      <c r="A24" s="170"/>
+      <c r="B24" s="212"/>
       <c r="C24" s="19" t="s">
         <v>257</v>
       </c>
@@ -5639,8 +5642,8 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="18">
-      <c r="A25" s="198"/>
-      <c r="B25" s="185"/>
+      <c r="A25" s="170"/>
+      <c r="B25" s="212"/>
       <c r="C25" s="19" t="s">
         <v>202</v>
       </c>
@@ -5653,8 +5656,8 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="18">
-      <c r="A26" s="198"/>
-      <c r="B26" s="185"/>
+      <c r="A26" s="170"/>
+      <c r="B26" s="212"/>
       <c r="C26" s="19" t="s">
         <v>203</v>
       </c>
@@ -5667,16 +5670,16 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="17">
-      <c r="A27" s="198"/>
-      <c r="B27" s="186"/>
+      <c r="A27" s="170"/>
+      <c r="B27" s="213"/>
       <c r="C27" s="19"/>
       <c r="D27" s="58"/>
       <c r="E27" s="93"/>
       <c r="F27" s="5"/>
     </row>
     <row r="28" spans="1:6" ht="18">
-      <c r="A28" s="198"/>
-      <c r="B28" s="187" t="s">
+      <c r="A28" s="170"/>
+      <c r="B28" s="214" t="s">
         <v>148</v>
       </c>
       <c r="C28" s="36" t="s">
@@ -5693,8 +5696,8 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="18">
-      <c r="A29" s="198"/>
-      <c r="B29" s="188"/>
+      <c r="A29" s="170"/>
+      <c r="B29" s="215"/>
       <c r="C29" s="36" t="s">
         <v>205</v>
       </c>
@@ -5707,8 +5710,8 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="18">
-      <c r="A30" s="198"/>
-      <c r="B30" s="188"/>
+      <c r="A30" s="170"/>
+      <c r="B30" s="215"/>
       <c r="C30" s="36" t="s">
         <v>206</v>
       </c>
@@ -5721,8 +5724,8 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="18">
-      <c r="A31" s="198"/>
-      <c r="B31" s="189"/>
+      <c r="A31" s="170"/>
+      <c r="B31" s="216"/>
       <c r="C31" s="59" t="s">
         <v>207</v>
       </c>
@@ -5735,11 +5738,11 @@
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="198"/>
+      <c r="A32" s="170"/>
       <c r="B32" s="162" t="s">
         <v>88</v>
       </c>
-      <c r="C32" s="177" t="s">
+      <c r="C32" s="204" t="s">
         <v>155</v>
       </c>
       <c r="D32" s="79" t="s">
@@ -5753,9 +5756,9 @@
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="198"/>
+      <c r="A33" s="170"/>
       <c r="B33" s="163"/>
-      <c r="C33" s="178"/>
+      <c r="C33" s="205"/>
       <c r="D33" s="79" t="s">
         <v>209</v>
       </c>
@@ -5767,9 +5770,9 @@
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="198"/>
+      <c r="A34" s="170"/>
       <c r="B34" s="164"/>
-      <c r="C34" s="179"/>
+      <c r="C34" s="206"/>
       <c r="D34" s="79" t="s">
         <v>208</v>
       </c>
@@ -5781,11 +5784,11 @@
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="198"/>
-      <c r="B35" s="168" t="s">
+      <c r="A35" s="170"/>
+      <c r="B35" s="195" t="s">
         <v>149</v>
       </c>
-      <c r="C35" s="171" t="s">
+      <c r="C35" s="198" t="s">
         <v>213</v>
       </c>
       <c r="D35" s="60" t="s">
@@ -5799,9 +5802,9 @@
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="198"/>
-      <c r="B36" s="169"/>
-      <c r="C36" s="172"/>
+      <c r="A36" s="170"/>
+      <c r="B36" s="196"/>
+      <c r="C36" s="199"/>
       <c r="D36" s="60" t="s">
         <v>215</v>
       </c>
@@ -5813,9 +5816,9 @@
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="198"/>
-      <c r="B37" s="169"/>
-      <c r="C37" s="172"/>
+      <c r="A37" s="170"/>
+      <c r="B37" s="196"/>
+      <c r="C37" s="199"/>
       <c r="D37" s="60" t="s">
         <v>212</v>
       </c>
@@ -5827,9 +5830,9 @@
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="198"/>
-      <c r="B38" s="169"/>
-      <c r="C38" s="172"/>
+      <c r="A38" s="170"/>
+      <c r="B38" s="196"/>
+      <c r="C38" s="199"/>
       <c r="D38" s="60" t="s">
         <v>214</v>
       </c>
@@ -5841,9 +5844,9 @@
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="198"/>
-      <c r="B39" s="169"/>
-      <c r="C39" s="173"/>
+      <c r="A39" s="170"/>
+      <c r="B39" s="196"/>
+      <c r="C39" s="200"/>
       <c r="D39" s="60"/>
       <c r="E39" s="96"/>
       <c r="F39" s="3" t="s">
@@ -5851,11 +5854,11 @@
       </c>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="198"/>
-      <c r="B40" s="170" t="s">
+      <c r="A40" s="170"/>
+      <c r="B40" s="197" t="s">
         <v>150</v>
       </c>
-      <c r="C40" s="174"/>
+      <c r="C40" s="201"/>
       <c r="D40" s="123" t="s">
         <v>216</v>
       </c>
@@ -5867,9 +5870,9 @@
       </c>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="198"/>
-      <c r="B41" s="170"/>
-      <c r="C41" s="175"/>
+      <c r="A41" s="170"/>
+      <c r="B41" s="197"/>
+      <c r="C41" s="202"/>
       <c r="D41" s="123" t="s">
         <v>217</v>
       </c>
@@ -5881,9 +5884,9 @@
       </c>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="198"/>
-      <c r="B42" s="170"/>
-      <c r="C42" s="175"/>
+      <c r="A42" s="170"/>
+      <c r="B42" s="197"/>
+      <c r="C42" s="202"/>
       <c r="D42" s="123" t="s">
         <v>218</v>
       </c>
@@ -5895,9 +5898,9 @@
       </c>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="198"/>
-      <c r="B43" s="170"/>
-      <c r="C43" s="175"/>
+      <c r="A43" s="170"/>
+      <c r="B43" s="197"/>
+      <c r="C43" s="202"/>
       <c r="D43" s="123" t="s">
         <v>215</v>
       </c>
@@ -5909,9 +5912,9 @@
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="198"/>
-      <c r="B44" s="170"/>
-      <c r="C44" s="175"/>
+      <c r="A44" s="170"/>
+      <c r="B44" s="197"/>
+      <c r="C44" s="202"/>
       <c r="D44" s="123" t="s">
         <v>200</v>
       </c>
@@ -5923,9 +5926,9 @@
       </c>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="198"/>
-      <c r="B45" s="170"/>
-      <c r="C45" s="176"/>
+      <c r="A45" s="170"/>
+      <c r="B45" s="197"/>
+      <c r="C45" s="203"/>
       <c r="D45" s="123" t="s">
         <v>219</v>
       </c>
@@ -5937,7 +5940,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="17">
-      <c r="A46" s="198"/>
+      <c r="A46" s="170"/>
       <c r="B46" s="124" t="s">
         <v>162</v>
       </c>
@@ -5953,7 +5956,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="17">
-      <c r="A47" s="199"/>
+      <c r="A47" s="171"/>
       <c r="B47" s="124" t="s">
         <v>164</v>
       </c>
@@ -5977,10 +5980,10 @@
       <c r="F48" s="2"/>
     </row>
     <row r="49" spans="1:6" ht="36">
-      <c r="A49" s="211" t="s">
+      <c r="A49" s="183" t="s">
         <v>136</v>
       </c>
-      <c r="B49" s="218" t="s">
+      <c r="B49" s="190" t="s">
         <v>147</v>
       </c>
       <c r="C49" s="39" t="s">
@@ -5997,8 +6000,8 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="18">
-      <c r="A50" s="211"/>
-      <c r="B50" s="219"/>
+      <c r="A50" s="183"/>
+      <c r="B50" s="191"/>
       <c r="C50" s="41" t="s">
         <v>91</v>
       </c>
@@ -6013,8 +6016,8 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="18">
-      <c r="A51" s="211"/>
-      <c r="B51" s="219"/>
+      <c r="A51" s="183"/>
+      <c r="B51" s="191"/>
       <c r="C51" s="41" t="s">
         <v>121</v>
       </c>
@@ -6029,8 +6032,8 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="18">
-      <c r="A52" s="211"/>
-      <c r="B52" s="219"/>
+      <c r="A52" s="183"/>
+      <c r="B52" s="191"/>
       <c r="C52" s="41" t="s">
         <v>119</v>
       </c>
@@ -6045,8 +6048,8 @@
       </c>
     </row>
     <row r="53" spans="1:6" ht="18">
-      <c r="A53" s="211"/>
-      <c r="B53" s="220"/>
+      <c r="A53" s="183"/>
+      <c r="B53" s="192"/>
       <c r="C53" s="41" t="s">
         <v>236</v>
       </c>
@@ -6059,8 +6062,8 @@
       </c>
     </row>
     <row r="54" spans="1:6" ht="18">
-      <c r="A54" s="211"/>
-      <c r="B54" s="221" t="s">
+      <c r="A54" s="183"/>
+      <c r="B54" s="193" t="s">
         <v>123</v>
       </c>
       <c r="C54" s="42" t="s">
@@ -6071,8 +6074,8 @@
       <c r="F54" s="43"/>
     </row>
     <row r="55" spans="1:6" ht="18">
-      <c r="A55" s="211"/>
-      <c r="B55" s="222"/>
+      <c r="A55" s="183"/>
+      <c r="B55" s="194"/>
       <c r="C55" s="42" t="s">
         <v>227</v>
       </c>
@@ -6087,8 +6090,8 @@
       </c>
     </row>
     <row r="56" spans="1:6" ht="18">
-      <c r="A56" s="211"/>
-      <c r="B56" s="222"/>
+      <c r="A56" s="183"/>
+      <c r="B56" s="194"/>
       <c r="C56" s="42" t="s">
         <v>228</v>
       </c>
@@ -6103,8 +6106,8 @@
       </c>
     </row>
     <row r="57" spans="1:6" ht="18">
-      <c r="A57" s="211"/>
-      <c r="B57" s="222"/>
+      <c r="A57" s="183"/>
+      <c r="B57" s="194"/>
       <c r="C57" s="42" t="s">
         <v>229</v>
       </c>
@@ -6119,8 +6122,8 @@
       </c>
     </row>
     <row r="58" spans="1:6" ht="18">
-      <c r="A58" s="211"/>
-      <c r="B58" s="222"/>
+      <c r="A58" s="183"/>
+      <c r="B58" s="194"/>
       <c r="C58" s="42" t="s">
         <v>236</v>
       </c>
@@ -6133,8 +6136,8 @@
       </c>
     </row>
     <row r="59" spans="1:6" ht="18">
-      <c r="A59" s="211"/>
-      <c r="B59" s="203" t="s">
+      <c r="A59" s="183"/>
+      <c r="B59" s="175" t="s">
         <v>244</v>
       </c>
       <c r="C59" s="110" t="s">
@@ -6151,8 +6154,8 @@
       </c>
     </row>
     <row r="60" spans="1:6" ht="18">
-      <c r="A60" s="211"/>
-      <c r="B60" s="204"/>
+      <c r="A60" s="183"/>
+      <c r="B60" s="176"/>
       <c r="C60" s="110" t="s">
         <v>230</v>
       </c>
@@ -6165,8 +6168,8 @@
       </c>
     </row>
     <row r="61" spans="1:6" ht="18">
-      <c r="A61" s="211"/>
-      <c r="B61" s="204"/>
+      <c r="A61" s="183"/>
+      <c r="B61" s="176"/>
       <c r="C61" s="110" t="s">
         <v>163</v>
       </c>
@@ -6179,8 +6182,8 @@
       </c>
     </row>
     <row r="62" spans="1:6" ht="18">
-      <c r="A62" s="211"/>
-      <c r="B62" s="205"/>
+      <c r="A62" s="183"/>
+      <c r="B62" s="177"/>
       <c r="C62" s="110" t="s">
         <v>236</v>
       </c>
@@ -6193,8 +6196,8 @@
       </c>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="211"/>
-      <c r="B63" s="206" t="s">
+      <c r="A63" s="183"/>
+      <c r="B63" s="178" t="s">
         <v>151</v>
       </c>
       <c r="C63" s="38"/>
@@ -6203,8 +6206,8 @@
       <c r="F63" s="38"/>
     </row>
     <row r="64" spans="1:6" ht="18">
-      <c r="A64" s="211"/>
-      <c r="B64" s="207"/>
+      <c r="A64" s="183"/>
+      <c r="B64" s="179"/>
       <c r="C64" s="44" t="s">
         <v>231</v>
       </c>
@@ -6219,8 +6222,8 @@
       </c>
     </row>
     <row r="65" spans="1:6" ht="18">
-      <c r="A65" s="211"/>
-      <c r="B65" s="207"/>
+      <c r="A65" s="183"/>
+      <c r="B65" s="179"/>
       <c r="C65" s="44" t="s">
         <v>232</v>
       </c>
@@ -6235,8 +6238,8 @@
       </c>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="211"/>
-      <c r="B66" s="208"/>
+      <c r="A66" s="183"/>
+      <c r="B66" s="180"/>
       <c r="C66" s="45" t="s">
         <v>233</v>
       </c>
@@ -6247,8 +6250,8 @@
       </c>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="211"/>
-      <c r="B67" s="209" t="s">
+      <c r="A67" s="183"/>
+      <c r="B67" s="181" t="s">
         <v>152</v>
       </c>
       <c r="C67" s="107" t="s">
@@ -6265,8 +6268,8 @@
       </c>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="211"/>
-      <c r="B68" s="210"/>
+      <c r="A68" s="183"/>
+      <c r="B68" s="182"/>
       <c r="C68" s="107" t="s">
         <v>233</v>
       </c>
@@ -6279,8 +6282,8 @@
       </c>
     </row>
     <row r="69" spans="1:6" ht="18">
-      <c r="A69" s="211"/>
-      <c r="B69" s="215" t="s">
+      <c r="A69" s="183"/>
+      <c r="B69" s="187" t="s">
         <v>153</v>
       </c>
       <c r="C69" s="33" t="s">
@@ -6295,8 +6298,8 @@
       </c>
     </row>
     <row r="70" spans="1:6" ht="18">
-      <c r="A70" s="211"/>
-      <c r="B70" s="216"/>
+      <c r="A70" s="183"/>
+      <c r="B70" s="188"/>
       <c r="C70" s="33" t="s">
         <v>235</v>
       </c>
@@ -6309,8 +6312,8 @@
       </c>
     </row>
     <row r="71" spans="1:6" ht="18">
-      <c r="A71" s="211"/>
-      <c r="B71" s="217"/>
+      <c r="A71" s="183"/>
+      <c r="B71" s="189"/>
       <c r="C71" s="33" t="s">
         <v>233</v>
       </c>
@@ -6323,8 +6326,8 @@
       </c>
     </row>
     <row r="72" spans="1:6" ht="18">
-      <c r="A72" s="211"/>
-      <c r="B72" s="212" t="s">
+      <c r="A72" s="183"/>
+      <c r="B72" s="184" t="s">
         <v>154</v>
       </c>
       <c r="C72" s="35" t="s">
@@ -6341,8 +6344,8 @@
       </c>
     </row>
     <row r="73" spans="1:6" ht="17">
-      <c r="A73" s="211"/>
-      <c r="B73" s="213"/>
+      <c r="A73" s="183"/>
+      <c r="B73" s="185"/>
       <c r="C73" s="6" t="s">
         <v>116</v>
       </c>
@@ -6355,8 +6358,8 @@
       </c>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" s="211"/>
-      <c r="B74" s="214"/>
+      <c r="A74" s="183"/>
+      <c r="B74" s="186"/>
       <c r="C74" s="6" t="s">
         <v>233</v>
       </c>
@@ -6369,7 +6372,7 @@
       </c>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" s="200" t="s">
+      <c r="A75" s="172" t="s">
         <v>159</v>
       </c>
       <c r="B75" s="37" t="s">
@@ -6387,7 +6390,7 @@
       </c>
     </row>
     <row r="76" spans="1:6">
-      <c r="A76" s="201"/>
+      <c r="A76" s="173"/>
       <c r="B76" s="37" t="s">
         <v>161</v>
       </c>
@@ -6403,7 +6406,7 @@
       </c>
     </row>
     <row r="77" spans="1:6">
-      <c r="A77" s="202"/>
+      <c r="A77" s="174"/>
       <c r="B77" s="37"/>
       <c r="C77" s="37" t="s">
         <v>233</v>
@@ -6417,7 +6420,7 @@
       </c>
     </row>
     <row r="78" spans="1:6">
-      <c r="A78" s="196" t="s">
+      <c r="A78" s="168" t="s">
         <v>222</v>
       </c>
       <c r="B78" s="5"/>
@@ -6431,7 +6434,7 @@
       <c r="F78" s="5"/>
     </row>
     <row r="79" spans="1:6">
-      <c r="A79" s="196"/>
+      <c r="A79" s="168"/>
       <c r="B79" s="5" t="s">
         <v>223</v>
       </c>
@@ -6445,7 +6448,7 @@
       <c r="F79" s="5"/>
     </row>
     <row r="80" spans="1:6">
-      <c r="A80" s="196"/>
+      <c r="A80" s="168"/>
       <c r="B80" s="5" t="s">
         <v>224</v>
       </c>
@@ -6459,7 +6462,7 @@
       <c r="F80" s="5"/>
     </row>
     <row r="81" spans="1:6">
-      <c r="A81" s="196"/>
+      <c r="A81" s="168"/>
       <c r="B81" s="115" t="s">
         <v>225</v>
       </c>
@@ -6471,7 +6474,7 @@
       <c r="F81" s="5"/>
     </row>
     <row r="82" spans="1:6">
-      <c r="A82" s="196"/>
+      <c r="A82" s="168"/>
       <c r="B82" s="5"/>
       <c r="C82" s="122"/>
       <c r="D82" s="113"/>
@@ -6537,16 +6540,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="B69:B71"/>
-    <mergeCell ref="B72:B74"/>
-    <mergeCell ref="A75:A77"/>
-    <mergeCell ref="A78:A82"/>
-    <mergeCell ref="A49:A74"/>
-    <mergeCell ref="B49:B53"/>
-    <mergeCell ref="B54:B58"/>
-    <mergeCell ref="B59:B62"/>
-    <mergeCell ref="B63:B66"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A3:A8"/>
     <mergeCell ref="B3:B5"/>
@@ -6562,6 +6555,16 @@
     <mergeCell ref="C35:C39"/>
     <mergeCell ref="B40:B45"/>
     <mergeCell ref="C40:C45"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="B72:B74"/>
+    <mergeCell ref="A75:A77"/>
+    <mergeCell ref="A78:A82"/>
+    <mergeCell ref="A49:A74"/>
+    <mergeCell ref="B49:B53"/>
+    <mergeCell ref="B54:B58"/>
+    <mergeCell ref="B59:B62"/>
+    <mergeCell ref="B63:B66"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/结算数据监控平台开发计划.xlsx
+++ b/结算数据监控平台开发计划.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicker/sandbox/settlementMonitoring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D88692F4-BDAB-6A43-AD2A-DF1AC43045AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E74C956C-92F2-5A49-BEDF-E2F7DCE34944}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18920" activeTab="4" xr2:uid="{AD2C15C8-2DE4-104B-A764-E65CC8F0AEA6}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18820" activeTab="4" xr2:uid="{AD2C15C8-2DE4-104B-A764-E65CC8F0AEA6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <definedName name="_Toc43818052" localSheetId="0">Sheet1!$B$5</definedName>
     <definedName name="_Toc43818053" localSheetId="0">Sheet1!$B$17</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="272">
   <si>
     <t>ETX联网结算平台</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1256,6 +1256,18 @@
   </si>
   <si>
     <t>分钟快照</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询数据库中省内请款的交易 总条数、总金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7、结算数据分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3、查询前30天省外结算趋势</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2130,6 +2142,90 @@
     <xf numFmtId="0" fontId="9" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2210,90 +2306,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3925,10 +3937,10 @@
       <c r="H3" s="117"/>
     </row>
     <row r="4" spans="2:8">
-      <c r="B4" s="217" t="s">
+      <c r="B4" s="190" t="s">
         <v>171</v>
       </c>
-      <c r="C4" s="220" t="s">
+      <c r="C4" s="193" t="s">
         <v>172</v>
       </c>
       <c r="D4" s="70" t="s">
@@ -3946,8 +3958,8 @@
       <c r="H4" s="117"/>
     </row>
     <row r="5" spans="2:8">
-      <c r="B5" s="218"/>
-      <c r="C5" s="221"/>
+      <c r="B5" s="191"/>
+      <c r="C5" s="194"/>
       <c r="D5" s="70" t="s">
         <v>166</v>
       </c>
@@ -3963,8 +3975,8 @@
       <c r="H5" s="117"/>
     </row>
     <row r="6" spans="2:8">
-      <c r="B6" s="218"/>
-      <c r="C6" s="222"/>
+      <c r="B6" s="191"/>
+      <c r="C6" s="195"/>
       <c r="D6" s="70" t="s">
         <v>167</v>
       </c>
@@ -3980,7 +3992,7 @@
       <c r="H6" s="117"/>
     </row>
     <row r="7" spans="2:8">
-      <c r="B7" s="218"/>
+      <c r="B7" s="191"/>
       <c r="C7" s="72" t="s">
         <v>168</v>
       </c>
@@ -3999,8 +4011,8 @@
       <c r="H7" s="117"/>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="218"/>
-      <c r="C8" s="204" t="s">
+      <c r="B8" s="191"/>
+      <c r="C8" s="177" t="s">
         <v>173</v>
       </c>
       <c r="D8" s="75" t="s">
@@ -4016,8 +4028,8 @@
       <c r="H8" s="117"/>
     </row>
     <row r="9" spans="2:8">
-      <c r="B9" s="219"/>
-      <c r="C9" s="206"/>
+      <c r="B9" s="192"/>
+      <c r="C9" s="179"/>
       <c r="D9" s="75" t="s">
         <v>170</v>
       </c>
@@ -4040,10 +4052,10 @@
       <c r="H10" s="117"/>
     </row>
     <row r="11" spans="2:8" ht="36" customHeight="1">
-      <c r="B11" s="169" t="s">
+      <c r="B11" s="197" t="s">
         <v>99</v>
       </c>
-      <c r="C11" s="207" t="s">
+      <c r="C11" s="180" t="s">
         <v>144</v>
       </c>
       <c r="D11" s="27" t="s">
@@ -4063,8 +4075,8 @@
       </c>
     </row>
     <row r="12" spans="2:8" ht="18">
-      <c r="B12" s="170"/>
-      <c r="C12" s="208"/>
+      <c r="B12" s="198"/>
+      <c r="C12" s="181"/>
       <c r="D12" s="27" t="s">
         <v>187</v>
       </c>
@@ -4080,8 +4092,8 @@
       </c>
     </row>
     <row r="13" spans="2:8" ht="18">
-      <c r="B13" s="170"/>
-      <c r="C13" s="208"/>
+      <c r="B13" s="198"/>
+      <c r="C13" s="181"/>
       <c r="D13" s="28" t="s">
         <v>188</v>
       </c>
@@ -4099,8 +4111,8 @@
       </c>
     </row>
     <row r="14" spans="2:8" ht="18">
-      <c r="B14" s="170"/>
-      <c r="C14" s="208"/>
+      <c r="B14" s="198"/>
+      <c r="C14" s="181"/>
       <c r="D14" s="28" t="s">
         <v>189</v>
       </c>
@@ -4118,8 +4130,8 @@
       </c>
     </row>
     <row r="15" spans="2:8" ht="36">
-      <c r="B15" s="170"/>
-      <c r="C15" s="208"/>
+      <c r="B15" s="198"/>
+      <c r="C15" s="181"/>
       <c r="D15" s="28" t="s">
         <v>190</v>
       </c>
@@ -4137,8 +4149,8 @@
       </c>
     </row>
     <row r="16" spans="2:8" ht="17" customHeight="1">
-      <c r="B16" s="170"/>
-      <c r="C16" s="209"/>
+      <c r="B16" s="198"/>
+      <c r="C16" s="182"/>
       <c r="D16" s="29" t="s">
         <v>184</v>
       </c>
@@ -4152,7 +4164,7 @@
       <c r="H16" s="117"/>
     </row>
     <row r="17" spans="2:8" ht="18">
-      <c r="B17" s="170"/>
+      <c r="B17" s="198"/>
       <c r="C17" s="155" t="s">
         <v>114</v>
       </c>
@@ -4171,8 +4183,8 @@
       <c r="H17" s="117"/>
     </row>
     <row r="18" spans="2:8" ht="18">
-      <c r="B18" s="170"/>
-      <c r="C18" s="210"/>
+      <c r="B18" s="198"/>
+      <c r="C18" s="183"/>
       <c r="D18" s="31" t="s">
         <v>191</v>
       </c>
@@ -4186,8 +4198,8 @@
       <c r="H18" s="117"/>
     </row>
     <row r="19" spans="2:8" ht="18">
-      <c r="B19" s="170"/>
-      <c r="C19" s="210"/>
+      <c r="B19" s="198"/>
+      <c r="C19" s="183"/>
       <c r="D19" s="31" t="s">
         <v>192</v>
       </c>
@@ -4201,8 +4213,8 @@
       <c r="H19" s="117"/>
     </row>
     <row r="20" spans="2:8" ht="18">
-      <c r="B20" s="170"/>
-      <c r="C20" s="210"/>
+      <c r="B20" s="198"/>
+      <c r="C20" s="183"/>
       <c r="D20" s="31" t="s">
         <v>193</v>
       </c>
@@ -4216,8 +4228,8 @@
       <c r="H20" s="117"/>
     </row>
     <row r="21" spans="2:8" ht="18">
-      <c r="B21" s="170"/>
-      <c r="C21" s="210"/>
+      <c r="B21" s="198"/>
+      <c r="C21" s="183"/>
       <c r="D21" s="31" t="s">
         <v>194</v>
       </c>
@@ -4231,8 +4243,8 @@
       <c r="H21" s="117"/>
     </row>
     <row r="22" spans="2:8" ht="18">
-      <c r="B22" s="170"/>
-      <c r="C22" s="210"/>
+      <c r="B22" s="198"/>
+      <c r="C22" s="183"/>
       <c r="D22" s="31" t="s">
         <v>197</v>
       </c>
@@ -4246,7 +4258,7 @@
       <c r="H22" s="117"/>
     </row>
     <row r="23" spans="2:8" ht="18">
-      <c r="B23" s="170"/>
+      <c r="B23" s="198"/>
       <c r="C23" s="156"/>
       <c r="D23" s="31" t="s">
         <v>196</v>
@@ -4261,8 +4273,8 @@
       <c r="H23" s="117"/>
     </row>
     <row r="24" spans="2:8" ht="18">
-      <c r="B24" s="170"/>
-      <c r="C24" s="211" t="s">
+      <c r="B24" s="198"/>
+      <c r="C24" s="184" t="s">
         <v>145</v>
       </c>
       <c r="D24" s="32" t="s">
@@ -4280,8 +4292,8 @@
       <c r="H24" s="117"/>
     </row>
     <row r="25" spans="2:8" ht="18">
-      <c r="B25" s="170"/>
-      <c r="C25" s="212"/>
+      <c r="B25" s="198"/>
+      <c r="C25" s="185"/>
       <c r="D25" s="19" t="s">
         <v>198</v>
       </c>
@@ -4295,8 +4307,8 @@
       <c r="H25" s="117"/>
     </row>
     <row r="26" spans="2:8" ht="18">
-      <c r="B26" s="170"/>
-      <c r="C26" s="212"/>
+      <c r="B26" s="198"/>
+      <c r="C26" s="185"/>
       <c r="D26" s="19" t="s">
         <v>202</v>
       </c>
@@ -4310,8 +4322,8 @@
       <c r="H26" s="117"/>
     </row>
     <row r="27" spans="2:8" ht="18">
-      <c r="B27" s="170"/>
-      <c r="C27" s="212"/>
+      <c r="B27" s="198"/>
+      <c r="C27" s="185"/>
       <c r="D27" s="19" t="s">
         <v>203</v>
       </c>
@@ -4325,8 +4337,8 @@
       <c r="H27" s="117"/>
     </row>
     <row r="28" spans="2:8" ht="17">
-      <c r="B28" s="170"/>
-      <c r="C28" s="213"/>
+      <c r="B28" s="198"/>
+      <c r="C28" s="186"/>
       <c r="D28" s="19"/>
       <c r="E28" s="58"/>
       <c r="F28" s="93"/>
@@ -4334,8 +4346,8 @@
       <c r="H28" s="117"/>
     </row>
     <row r="29" spans="2:8" ht="18">
-      <c r="B29" s="170"/>
-      <c r="C29" s="214" t="s">
+      <c r="B29" s="198"/>
+      <c r="C29" s="187" t="s">
         <v>148</v>
       </c>
       <c r="D29" s="36" t="s">
@@ -4353,8 +4365,8 @@
       <c r="H29" s="117"/>
     </row>
     <row r="30" spans="2:8" ht="18">
-      <c r="B30" s="170"/>
-      <c r="C30" s="215"/>
+      <c r="B30" s="198"/>
+      <c r="C30" s="188"/>
       <c r="D30" s="36" t="s">
         <v>205</v>
       </c>
@@ -4368,8 +4380,8 @@
       <c r="H30" s="117"/>
     </row>
     <row r="31" spans="2:8" ht="36" customHeight="1">
-      <c r="B31" s="170"/>
-      <c r="C31" s="215"/>
+      <c r="B31" s="198"/>
+      <c r="C31" s="188"/>
       <c r="D31" s="36" t="s">
         <v>206</v>
       </c>
@@ -4383,8 +4395,8 @@
       <c r="H31" s="117"/>
     </row>
     <row r="32" spans="2:8" ht="54" customHeight="1">
-      <c r="B32" s="170"/>
-      <c r="C32" s="216"/>
+      <c r="B32" s="198"/>
+      <c r="C32" s="189"/>
       <c r="D32" s="59" t="s">
         <v>207</v>
       </c>
@@ -4398,11 +4410,11 @@
       <c r="H32" s="117"/>
     </row>
     <row r="33" spans="2:8" ht="16" customHeight="1">
-      <c r="B33" s="170"/>
+      <c r="B33" s="198"/>
       <c r="C33" s="162" t="s">
         <v>88</v>
       </c>
-      <c r="D33" s="204" t="s">
+      <c r="D33" s="177" t="s">
         <v>155</v>
       </c>
       <c r="E33" s="79" t="s">
@@ -4417,9 +4429,9 @@
       <c r="H33" s="117"/>
     </row>
     <row r="34" spans="2:8" ht="16" customHeight="1">
-      <c r="B34" s="170"/>
+      <c r="B34" s="198"/>
       <c r="C34" s="163"/>
-      <c r="D34" s="205"/>
+      <c r="D34" s="178"/>
       <c r="E34" s="79" t="s">
         <v>209</v>
       </c>
@@ -4432,9 +4444,9 @@
       <c r="H34" s="117"/>
     </row>
     <row r="35" spans="2:8" ht="17" customHeight="1">
-      <c r="B35" s="170"/>
+      <c r="B35" s="198"/>
       <c r="C35" s="164"/>
-      <c r="D35" s="206"/>
+      <c r="D35" s="179"/>
       <c r="E35" s="79" t="s">
         <v>208</v>
       </c>
@@ -4447,11 +4459,11 @@
       <c r="H35" s="117"/>
     </row>
     <row r="36" spans="2:8" ht="16" customHeight="1">
-      <c r="B36" s="170"/>
-      <c r="C36" s="195" t="s">
+      <c r="B36" s="198"/>
+      <c r="C36" s="168" t="s">
         <v>149</v>
       </c>
-      <c r="D36" s="198" t="s">
+      <c r="D36" s="171" t="s">
         <v>213</v>
       </c>
       <c r="E36" s="60" t="s">
@@ -4466,9 +4478,9 @@
       <c r="H36" s="117"/>
     </row>
     <row r="37" spans="2:8" ht="16" customHeight="1">
-      <c r="B37" s="170"/>
-      <c r="C37" s="196"/>
-      <c r="D37" s="199"/>
+      <c r="B37" s="198"/>
+      <c r="C37" s="169"/>
+      <c r="D37" s="172"/>
       <c r="E37" s="60" t="s">
         <v>215</v>
       </c>
@@ -4481,9 +4493,9 @@
       <c r="H37" s="117"/>
     </row>
     <row r="38" spans="2:8" ht="16" customHeight="1">
-      <c r="B38" s="170"/>
-      <c r="C38" s="196"/>
-      <c r="D38" s="199"/>
+      <c r="B38" s="198"/>
+      <c r="C38" s="169"/>
+      <c r="D38" s="172"/>
       <c r="E38" s="60" t="s">
         <v>212</v>
       </c>
@@ -4496,9 +4508,9 @@
       <c r="H38" s="117"/>
     </row>
     <row r="39" spans="2:8" ht="16" customHeight="1">
-      <c r="B39" s="170"/>
-      <c r="C39" s="196"/>
-      <c r="D39" s="199"/>
+      <c r="B39" s="198"/>
+      <c r="C39" s="169"/>
+      <c r="D39" s="172"/>
       <c r="E39" s="60" t="s">
         <v>214</v>
       </c>
@@ -4511,9 +4523,9 @@
       <c r="H39" s="117"/>
     </row>
     <row r="40" spans="2:8" ht="16" customHeight="1">
-      <c r="B40" s="170"/>
-      <c r="C40" s="196"/>
-      <c r="D40" s="200"/>
+      <c r="B40" s="198"/>
+      <c r="C40" s="169"/>
+      <c r="D40" s="173"/>
       <c r="E40" s="60"/>
       <c r="F40" s="96"/>
       <c r="G40" s="3" t="s">
@@ -4522,11 +4534,11 @@
       <c r="H40" s="117"/>
     </row>
     <row r="41" spans="2:8" ht="16" customHeight="1">
-      <c r="B41" s="170"/>
-      <c r="C41" s="197" t="s">
+      <c r="B41" s="198"/>
+      <c r="C41" s="170" t="s">
         <v>150</v>
       </c>
-      <c r="D41" s="201"/>
+      <c r="D41" s="174"/>
       <c r="E41" s="61" t="s">
         <v>216</v>
       </c>
@@ -4539,9 +4551,9 @@
       <c r="H41" s="117"/>
     </row>
     <row r="42" spans="2:8" ht="16" customHeight="1">
-      <c r="B42" s="170"/>
-      <c r="C42" s="197"/>
-      <c r="D42" s="202"/>
+      <c r="B42" s="198"/>
+      <c r="C42" s="170"/>
+      <c r="D42" s="175"/>
       <c r="E42" s="61" t="s">
         <v>217</v>
       </c>
@@ -4554,9 +4566,9 @@
       <c r="H42" s="117"/>
     </row>
     <row r="43" spans="2:8" ht="16" customHeight="1">
-      <c r="B43" s="170"/>
-      <c r="C43" s="197"/>
-      <c r="D43" s="202"/>
+      <c r="B43" s="198"/>
+      <c r="C43" s="170"/>
+      <c r="D43" s="175"/>
       <c r="E43" s="61" t="s">
         <v>218</v>
       </c>
@@ -4569,9 +4581,9 @@
       <c r="H43" s="117"/>
     </row>
     <row r="44" spans="2:8" ht="16" customHeight="1">
-      <c r="B44" s="170"/>
-      <c r="C44" s="197"/>
-      <c r="D44" s="202"/>
+      <c r="B44" s="198"/>
+      <c r="C44" s="170"/>
+      <c r="D44" s="175"/>
       <c r="E44" s="61" t="s">
         <v>215</v>
       </c>
@@ -4584,9 +4596,9 @@
       <c r="H44" s="117"/>
     </row>
     <row r="45" spans="2:8" ht="16" customHeight="1">
-      <c r="B45" s="170"/>
-      <c r="C45" s="197"/>
-      <c r="D45" s="202"/>
+      <c r="B45" s="198"/>
+      <c r="C45" s="170"/>
+      <c r="D45" s="175"/>
       <c r="E45" s="61" t="s">
         <v>200</v>
       </c>
@@ -4599,9 +4611,9 @@
       <c r="H45" s="117"/>
     </row>
     <row r="46" spans="2:8" ht="16" customHeight="1">
-      <c r="B46" s="170"/>
-      <c r="C46" s="197"/>
-      <c r="D46" s="203"/>
+      <c r="B46" s="198"/>
+      <c r="C46" s="170"/>
+      <c r="D46" s="176"/>
       <c r="E46" s="61" t="s">
         <v>219</v>
       </c>
@@ -4614,7 +4626,7 @@
       <c r="H46" s="117"/>
     </row>
     <row r="47" spans="2:8" ht="16" customHeight="1">
-      <c r="B47" s="170"/>
+      <c r="B47" s="198"/>
       <c r="C47" s="46" t="s">
         <v>162</v>
       </c>
@@ -4631,7 +4643,7 @@
       <c r="H47" s="117"/>
     </row>
     <row r="48" spans="2:8" ht="16" customHeight="1">
-      <c r="B48" s="171"/>
+      <c r="B48" s="199"/>
       <c r="C48" s="46" t="s">
         <v>164</v>
       </c>
@@ -4659,10 +4671,10 @@
       <c r="H49" s="117"/>
     </row>
     <row r="50" spans="2:8" ht="18">
-      <c r="B50" s="183" t="s">
+      <c r="B50" s="211" t="s">
         <v>136</v>
       </c>
-      <c r="C50" s="190" t="s">
+      <c r="C50" s="218" t="s">
         <v>147</v>
       </c>
       <c r="D50" s="39" t="s">
@@ -4680,8 +4692,8 @@
       <c r="H50" s="117"/>
     </row>
     <row r="51" spans="2:8" ht="18">
-      <c r="B51" s="183"/>
-      <c r="C51" s="191"/>
+      <c r="B51" s="211"/>
+      <c r="C51" s="219"/>
       <c r="D51" s="41" t="s">
         <v>91</v>
       </c>
@@ -4696,8 +4708,8 @@
       </c>
     </row>
     <row r="52" spans="2:8" ht="18">
-      <c r="B52" s="183"/>
-      <c r="C52" s="191"/>
+      <c r="B52" s="211"/>
+      <c r="C52" s="219"/>
       <c r="D52" s="41" t="s">
         <v>121</v>
       </c>
@@ -4712,8 +4724,8 @@
       </c>
     </row>
     <row r="53" spans="2:8" ht="18">
-      <c r="B53" s="183"/>
-      <c r="C53" s="191"/>
+      <c r="B53" s="211"/>
+      <c r="C53" s="219"/>
       <c r="D53" s="41" t="s">
         <v>119</v>
       </c>
@@ -4728,8 +4740,8 @@
       </c>
     </row>
     <row r="54" spans="2:8" ht="18">
-      <c r="B54" s="183"/>
-      <c r="C54" s="192"/>
+      <c r="B54" s="211"/>
+      <c r="C54" s="220"/>
       <c r="D54" s="41" t="s">
         <v>236</v>
       </c>
@@ -4742,8 +4754,8 @@
       </c>
     </row>
     <row r="55" spans="2:8" ht="17">
-      <c r="B55" s="183"/>
-      <c r="C55" s="193" t="s">
+      <c r="B55" s="211"/>
+      <c r="C55" s="221" t="s">
         <v>123</v>
       </c>
       <c r="D55" s="42"/>
@@ -4752,8 +4764,8 @@
       <c r="G55" s="43"/>
     </row>
     <row r="56" spans="2:8" ht="18">
-      <c r="B56" s="183"/>
-      <c r="C56" s="194"/>
+      <c r="B56" s="211"/>
+      <c r="C56" s="222"/>
       <c r="D56" s="42" t="s">
         <v>227</v>
       </c>
@@ -4768,8 +4780,8 @@
       </c>
     </row>
     <row r="57" spans="2:8" ht="18">
-      <c r="B57" s="183"/>
-      <c r="C57" s="194"/>
+      <c r="B57" s="211"/>
+      <c r="C57" s="222"/>
       <c r="D57" s="42" t="s">
         <v>228</v>
       </c>
@@ -4784,8 +4796,8 @@
       </c>
     </row>
     <row r="58" spans="2:8" ht="18">
-      <c r="B58" s="183"/>
-      <c r="C58" s="194"/>
+      <c r="B58" s="211"/>
+      <c r="C58" s="222"/>
       <c r="D58" s="42" t="s">
         <v>229</v>
       </c>
@@ -4800,8 +4812,8 @@
       </c>
     </row>
     <row r="59" spans="2:8" ht="18">
-      <c r="B59" s="183"/>
-      <c r="C59" s="194"/>
+      <c r="B59" s="211"/>
+      <c r="C59" s="222"/>
       <c r="D59" s="42" t="s">
         <v>236</v>
       </c>
@@ -4814,8 +4826,8 @@
       </c>
     </row>
     <row r="60" spans="2:8" ht="18">
-      <c r="B60" s="183"/>
-      <c r="C60" s="175" t="s">
+      <c r="B60" s="211"/>
+      <c r="C60" s="203" t="s">
         <v>244</v>
       </c>
       <c r="D60" s="110" t="s">
@@ -4830,8 +4842,8 @@
       </c>
     </row>
     <row r="61" spans="2:8" ht="18">
-      <c r="B61" s="183"/>
-      <c r="C61" s="176"/>
+      <c r="B61" s="211"/>
+      <c r="C61" s="204"/>
       <c r="D61" s="110" t="s">
         <v>230</v>
       </c>
@@ -4844,8 +4856,8 @@
       </c>
     </row>
     <row r="62" spans="2:8" ht="18">
-      <c r="B62" s="183"/>
-      <c r="C62" s="176"/>
+      <c r="B62" s="211"/>
+      <c r="C62" s="204"/>
       <c r="D62" s="110" t="s">
         <v>163</v>
       </c>
@@ -4858,8 +4870,8 @@
       </c>
     </row>
     <row r="63" spans="2:8" ht="18">
-      <c r="B63" s="183"/>
-      <c r="C63" s="177"/>
+      <c r="B63" s="211"/>
+      <c r="C63" s="205"/>
       <c r="D63" s="110" t="s">
         <v>236</v>
       </c>
@@ -4872,8 +4884,8 @@
       </c>
     </row>
     <row r="64" spans="2:8" ht="16" customHeight="1">
-      <c r="B64" s="183"/>
-      <c r="C64" s="178" t="s">
+      <c r="B64" s="211"/>
+      <c r="C64" s="206" t="s">
         <v>151</v>
       </c>
       <c r="D64" s="38"/>
@@ -4882,8 +4894,8 @@
       <c r="G64" s="38"/>
     </row>
     <row r="65" spans="2:8" ht="18">
-      <c r="B65" s="183"/>
-      <c r="C65" s="179"/>
+      <c r="B65" s="211"/>
+      <c r="C65" s="207"/>
       <c r="D65" s="44" t="s">
         <v>231</v>
       </c>
@@ -4898,8 +4910,8 @@
       </c>
     </row>
     <row r="66" spans="2:8" ht="18">
-      <c r="B66" s="183"/>
-      <c r="C66" s="179"/>
+      <c r="B66" s="211"/>
+      <c r="C66" s="207"/>
       <c r="D66" s="44" t="s">
         <v>232</v>
       </c>
@@ -4914,8 +4926,8 @@
       </c>
     </row>
     <row r="67" spans="2:8" ht="17" customHeight="1">
-      <c r="B67" s="183"/>
-      <c r="C67" s="180"/>
+      <c r="B67" s="211"/>
+      <c r="C67" s="208"/>
       <c r="D67" s="45" t="s">
         <v>233</v>
       </c>
@@ -4926,8 +4938,8 @@
       </c>
     </row>
     <row r="68" spans="2:8" ht="16" customHeight="1">
-      <c r="B68" s="183"/>
-      <c r="C68" s="181" t="s">
+      <c r="B68" s="211"/>
+      <c r="C68" s="209" t="s">
         <v>152</v>
       </c>
       <c r="D68" s="107" t="s">
@@ -4942,8 +4954,8 @@
       </c>
     </row>
     <row r="69" spans="2:8" ht="16" customHeight="1">
-      <c r="B69" s="183"/>
-      <c r="C69" s="182"/>
+      <c r="B69" s="211"/>
+      <c r="C69" s="210"/>
       <c r="D69" s="107" t="s">
         <v>233</v>
       </c>
@@ -4956,8 +4968,8 @@
       </c>
     </row>
     <row r="70" spans="2:8" ht="18">
-      <c r="B70" s="183"/>
-      <c r="C70" s="187" t="s">
+      <c r="B70" s="211"/>
+      <c r="C70" s="215" t="s">
         <v>153</v>
       </c>
       <c r="D70" s="33" t="s">
@@ -4972,8 +4984,8 @@
       </c>
     </row>
     <row r="71" spans="2:8" ht="18">
-      <c r="B71" s="183"/>
-      <c r="C71" s="188"/>
+      <c r="B71" s="211"/>
+      <c r="C71" s="216"/>
       <c r="D71" s="33" t="s">
         <v>235</v>
       </c>
@@ -4986,8 +4998,8 @@
       </c>
     </row>
     <row r="72" spans="2:8" ht="18">
-      <c r="B72" s="183"/>
-      <c r="C72" s="189"/>
+      <c r="B72" s="211"/>
+      <c r="C72" s="217"/>
       <c r="D72" s="33" t="s">
         <v>233</v>
       </c>
@@ -5000,8 +5012,8 @@
       </c>
     </row>
     <row r="73" spans="2:8" ht="18">
-      <c r="B73" s="183"/>
-      <c r="C73" s="184" t="s">
+      <c r="B73" s="211"/>
+      <c r="C73" s="212" t="s">
         <v>154</v>
       </c>
       <c r="D73" s="35" t="s">
@@ -5021,8 +5033,8 @@
       </c>
     </row>
     <row r="74" spans="2:8" ht="17">
-      <c r="B74" s="183"/>
-      <c r="C74" s="185"/>
+      <c r="B74" s="211"/>
+      <c r="C74" s="213"/>
       <c r="D74" s="6" t="s">
         <v>116</v>
       </c>
@@ -5036,8 +5048,8 @@
       <c r="H74" s="120"/>
     </row>
     <row r="75" spans="2:8">
-      <c r="B75" s="183"/>
-      <c r="C75" s="186"/>
+      <c r="B75" s="211"/>
+      <c r="C75" s="214"/>
       <c r="D75" s="6" t="s">
         <v>233</v>
       </c>
@@ -5051,7 +5063,7 @@
       <c r="H75" s="120"/>
     </row>
     <row r="76" spans="2:8">
-      <c r="B76" s="172" t="s">
+      <c r="B76" s="200" t="s">
         <v>159</v>
       </c>
       <c r="C76" s="37" t="s">
@@ -5069,7 +5081,7 @@
       </c>
     </row>
     <row r="77" spans="2:8">
-      <c r="B77" s="173"/>
+      <c r="B77" s="201"/>
       <c r="C77" s="37" t="s">
         <v>161</v>
       </c>
@@ -5085,7 +5097,7 @@
       </c>
     </row>
     <row r="78" spans="2:8">
-      <c r="B78" s="174"/>
+      <c r="B78" s="202"/>
       <c r="C78" s="37"/>
       <c r="D78" s="37" t="s">
         <v>233</v>
@@ -5099,7 +5111,7 @@
       </c>
     </row>
     <row r="79" spans="2:8">
-      <c r="B79" s="168" t="s">
+      <c r="B79" s="196" t="s">
         <v>222</v>
       </c>
       <c r="C79" s="5"/>
@@ -5113,7 +5125,7 @@
       <c r="G79" s="5"/>
     </row>
     <row r="80" spans="2:8">
-      <c r="B80" s="168"/>
+      <c r="B80" s="196"/>
       <c r="C80" s="5" t="s">
         <v>223</v>
       </c>
@@ -5127,7 +5139,7 @@
       <c r="G80" s="5"/>
     </row>
     <row r="81" spans="2:8">
-      <c r="B81" s="168"/>
+      <c r="B81" s="196"/>
       <c r="C81" s="5" t="s">
         <v>224</v>
       </c>
@@ -5141,7 +5153,7 @@
       <c r="G81" s="5"/>
     </row>
     <row r="82" spans="2:8">
-      <c r="B82" s="168"/>
+      <c r="B82" s="196"/>
       <c r="C82" s="115" t="s">
         <v>225</v>
       </c>
@@ -5153,7 +5165,7 @@
       <c r="G82" s="5"/>
     </row>
     <row r="83" spans="2:8">
-      <c r="B83" s="168"/>
+      <c r="B83" s="196"/>
       <c r="C83" s="5"/>
       <c r="D83" s="68"/>
       <c r="E83" s="113"/>
@@ -5224,6 +5236,17 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B79:B83"/>
+    <mergeCell ref="B11:B48"/>
+    <mergeCell ref="B76:B78"/>
+    <mergeCell ref="C60:C63"/>
+    <mergeCell ref="C64:C67"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="B50:B75"/>
+    <mergeCell ref="C73:C75"/>
+    <mergeCell ref="C70:C72"/>
+    <mergeCell ref="C50:C54"/>
+    <mergeCell ref="C55:C59"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="C36:C40"/>
     <mergeCell ref="C41:C46"/>
@@ -5238,17 +5261,6 @@
     <mergeCell ref="B4:B9"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="C8:C9"/>
-    <mergeCell ref="B79:B83"/>
-    <mergeCell ref="B11:B48"/>
-    <mergeCell ref="B76:B78"/>
-    <mergeCell ref="C60:C63"/>
-    <mergeCell ref="C64:C67"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="B50:B75"/>
-    <mergeCell ref="C73:C75"/>
-    <mergeCell ref="C70:C72"/>
-    <mergeCell ref="C50:C54"/>
-    <mergeCell ref="C55:C59"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5259,8 +5271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BD846FD-50A1-DA45-8751-BA61D2456D0B}">
   <dimension ref="A1:F87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="92" workbookViewId="0">
+      <selection activeCell="B72" sqref="B72:B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5304,10 +5316,10 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="217" t="s">
+      <c r="A3" s="190" t="s">
         <v>171</v>
       </c>
-      <c r="B3" s="220" t="s">
+      <c r="B3" s="193" t="s">
         <v>172</v>
       </c>
       <c r="C3" s="70" t="s">
@@ -5324,8 +5336,8 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="218"/>
-      <c r="B4" s="221"/>
+      <c r="A4" s="191"/>
+      <c r="B4" s="194"/>
       <c r="C4" s="70" t="s">
         <v>166</v>
       </c>
@@ -5340,8 +5352,8 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="218"/>
-      <c r="B5" s="222"/>
+      <c r="A5" s="191"/>
+      <c r="B5" s="195"/>
       <c r="C5" s="70" t="s">
         <v>167</v>
       </c>
@@ -5356,7 +5368,7 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="218"/>
+      <c r="A6" s="191"/>
       <c r="B6" s="72" t="s">
         <v>168</v>
       </c>
@@ -5374,8 +5386,8 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="218"/>
-      <c r="B7" s="204" t="s">
+      <c r="A7" s="191"/>
+      <c r="B7" s="177" t="s">
         <v>173</v>
       </c>
       <c r="C7" s="75" t="s">
@@ -5390,8 +5402,8 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="219"/>
-      <c r="B8" s="206"/>
+      <c r="A8" s="192"/>
+      <c r="B8" s="179"/>
       <c r="C8" s="75" t="s">
         <v>170</v>
       </c>
@@ -5412,10 +5424,10 @@
       <c r="F9" s="37"/>
     </row>
     <row r="10" spans="1:6" ht="18">
-      <c r="A10" s="169" t="s">
+      <c r="A10" s="197" t="s">
         <v>99</v>
       </c>
-      <c r="B10" s="207" t="s">
+      <c r="B10" s="180" t="s">
         <v>144</v>
       </c>
       <c r="C10" s="27" t="s">
@@ -5432,8 +5444,8 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="170"/>
-      <c r="B11" s="208"/>
+      <c r="A11" s="198"/>
+      <c r="B11" s="181"/>
       <c r="C11" s="27" t="s">
         <v>248</v>
       </c>
@@ -5448,8 +5460,8 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="18">
-      <c r="A12" s="170"/>
-      <c r="B12" s="208"/>
+      <c r="A12" s="198"/>
+      <c r="B12" s="181"/>
       <c r="C12" s="28" t="s">
         <v>249</v>
       </c>
@@ -5464,8 +5476,8 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="18">
-      <c r="A13" s="170"/>
-      <c r="B13" s="208"/>
+      <c r="A13" s="198"/>
+      <c r="B13" s="181"/>
       <c r="C13" s="28" t="s">
         <v>250</v>
       </c>
@@ -5480,8 +5492,8 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="18">
-      <c r="A14" s="170"/>
-      <c r="B14" s="208"/>
+      <c r="A14" s="198"/>
+      <c r="B14" s="181"/>
       <c r="C14" s="28" t="s">
         <v>251</v>
       </c>
@@ -5494,8 +5506,8 @@
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="170"/>
-      <c r="B15" s="209"/>
+      <c r="A15" s="198"/>
+      <c r="B15" s="182"/>
       <c r="C15" s="29" t="s">
         <v>184</v>
       </c>
@@ -5508,7 +5520,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="18">
-      <c r="A16" s="170"/>
+      <c r="A16" s="198"/>
       <c r="B16" s="155" t="s">
         <v>114</v>
       </c>
@@ -5526,8 +5538,8 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="18">
-      <c r="A17" s="170"/>
-      <c r="B17" s="210"/>
+      <c r="A17" s="198"/>
+      <c r="B17" s="183"/>
       <c r="C17" s="31" t="s">
         <v>252</v>
       </c>
@@ -5540,8 +5552,8 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="18">
-      <c r="A18" s="170"/>
-      <c r="B18" s="210"/>
+      <c r="A18" s="198"/>
+      <c r="B18" s="183"/>
       <c r="C18" s="31" t="s">
         <v>253</v>
       </c>
@@ -5554,8 +5566,8 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="18">
-      <c r="A19" s="170"/>
-      <c r="B19" s="210"/>
+      <c r="A19" s="198"/>
+      <c r="B19" s="183"/>
       <c r="C19" s="31" t="s">
         <v>254</v>
       </c>
@@ -5568,8 +5580,8 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="18">
-      <c r="A20" s="170"/>
-      <c r="B20" s="210"/>
+      <c r="A20" s="198"/>
+      <c r="B20" s="183"/>
       <c r="C20" s="31" t="s">
         <v>255</v>
       </c>
@@ -5582,8 +5594,8 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="18">
-      <c r="A21" s="170"/>
-      <c r="B21" s="210"/>
+      <c r="A21" s="198"/>
+      <c r="B21" s="183"/>
       <c r="C21" s="31" t="s">
         <v>197</v>
       </c>
@@ -5596,7 +5608,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="18">
-      <c r="A22" s="170"/>
+      <c r="A22" s="198"/>
       <c r="B22" s="156"/>
       <c r="C22" s="31" t="s">
         <v>196</v>
@@ -5610,9 +5622,9 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="18">
-      <c r="A23" s="170"/>
-      <c r="B23" s="211" t="s">
-        <v>145</v>
+      <c r="A23" s="198"/>
+      <c r="B23" s="184" t="s">
+        <v>271</v>
       </c>
       <c r="C23" s="32" t="s">
         <v>256</v>
@@ -5628,8 +5640,8 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="18">
-      <c r="A24" s="170"/>
-      <c r="B24" s="212"/>
+      <c r="A24" s="198"/>
+      <c r="B24" s="185"/>
       <c r="C24" s="19" t="s">
         <v>257</v>
       </c>
@@ -5642,8 +5654,8 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="18">
-      <c r="A25" s="170"/>
-      <c r="B25" s="212"/>
+      <c r="A25" s="198"/>
+      <c r="B25" s="185"/>
       <c r="C25" s="19" t="s">
         <v>202</v>
       </c>
@@ -5656,8 +5668,8 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="18">
-      <c r="A26" s="170"/>
-      <c r="B26" s="212"/>
+      <c r="A26" s="198"/>
+      <c r="B26" s="185"/>
       <c r="C26" s="19" t="s">
         <v>203</v>
       </c>
@@ -5670,16 +5682,16 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="17">
-      <c r="A27" s="170"/>
-      <c r="B27" s="213"/>
+      <c r="A27" s="198"/>
+      <c r="B27" s="186"/>
       <c r="C27" s="19"/>
       <c r="D27" s="58"/>
       <c r="E27" s="93"/>
       <c r="F27" s="5"/>
     </row>
     <row r="28" spans="1:6" ht="18">
-      <c r="A28" s="170"/>
-      <c r="B28" s="214" t="s">
+      <c r="A28" s="198"/>
+      <c r="B28" s="187" t="s">
         <v>148</v>
       </c>
       <c r="C28" s="36" t="s">
@@ -5696,8 +5708,8 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="18">
-      <c r="A29" s="170"/>
-      <c r="B29" s="215"/>
+      <c r="A29" s="198"/>
+      <c r="B29" s="188"/>
       <c r="C29" s="36" t="s">
         <v>205</v>
       </c>
@@ -5710,8 +5722,8 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="18">
-      <c r="A30" s="170"/>
-      <c r="B30" s="215"/>
+      <c r="A30" s="198"/>
+      <c r="B30" s="188"/>
       <c r="C30" s="36" t="s">
         <v>206</v>
       </c>
@@ -5724,8 +5736,8 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="18">
-      <c r="A31" s="170"/>
-      <c r="B31" s="216"/>
+      <c r="A31" s="198"/>
+      <c r="B31" s="189"/>
       <c r="C31" s="59" t="s">
         <v>207</v>
       </c>
@@ -5738,11 +5750,11 @@
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="170"/>
+      <c r="A32" s="198"/>
       <c r="B32" s="162" t="s">
-        <v>88</v>
-      </c>
-      <c r="C32" s="204" t="s">
+        <v>270</v>
+      </c>
+      <c r="C32" s="177" t="s">
         <v>155</v>
       </c>
       <c r="D32" s="79" t="s">
@@ -5756,9 +5768,9 @@
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="170"/>
+      <c r="A33" s="198"/>
       <c r="B33" s="163"/>
-      <c r="C33" s="205"/>
+      <c r="C33" s="178"/>
       <c r="D33" s="79" t="s">
         <v>209</v>
       </c>
@@ -5770,9 +5782,9 @@
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="170"/>
+      <c r="A34" s="198"/>
       <c r="B34" s="164"/>
-      <c r="C34" s="206"/>
+      <c r="C34" s="179"/>
       <c r="D34" s="79" t="s">
         <v>208</v>
       </c>
@@ -5784,11 +5796,11 @@
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="170"/>
-      <c r="B35" s="195" t="s">
+      <c r="A35" s="198"/>
+      <c r="B35" s="168" t="s">
         <v>149</v>
       </c>
-      <c r="C35" s="198" t="s">
+      <c r="C35" s="171" t="s">
         <v>213</v>
       </c>
       <c r="D35" s="60" t="s">
@@ -5802,9 +5814,9 @@
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="170"/>
-      <c r="B36" s="196"/>
-      <c r="C36" s="199"/>
+      <c r="A36" s="198"/>
+      <c r="B36" s="169"/>
+      <c r="C36" s="172"/>
       <c r="D36" s="60" t="s">
         <v>215</v>
       </c>
@@ -5816,9 +5828,9 @@
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="170"/>
-      <c r="B37" s="196"/>
-      <c r="C37" s="199"/>
+      <c r="A37" s="198"/>
+      <c r="B37" s="169"/>
+      <c r="C37" s="172"/>
       <c r="D37" s="60" t="s">
         <v>212</v>
       </c>
@@ -5830,9 +5842,9 @@
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="170"/>
-      <c r="B38" s="196"/>
-      <c r="C38" s="199"/>
+      <c r="A38" s="198"/>
+      <c r="B38" s="169"/>
+      <c r="C38" s="172"/>
       <c r="D38" s="60" t="s">
         <v>214</v>
       </c>
@@ -5844,9 +5856,9 @@
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="170"/>
-      <c r="B39" s="196"/>
-      <c r="C39" s="200"/>
+      <c r="A39" s="198"/>
+      <c r="B39" s="169"/>
+      <c r="C39" s="173"/>
       <c r="D39" s="60"/>
       <c r="E39" s="96"/>
       <c r="F39" s="3" t="s">
@@ -5854,11 +5866,11 @@
       </c>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="170"/>
-      <c r="B40" s="197" t="s">
+      <c r="A40" s="198"/>
+      <c r="B40" s="170" t="s">
         <v>150</v>
       </c>
-      <c r="C40" s="201"/>
+      <c r="C40" s="174"/>
       <c r="D40" s="123" t="s">
         <v>216</v>
       </c>
@@ -5870,9 +5882,9 @@
       </c>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="170"/>
-      <c r="B41" s="197"/>
-      <c r="C41" s="202"/>
+      <c r="A41" s="198"/>
+      <c r="B41" s="170"/>
+      <c r="C41" s="175"/>
       <c r="D41" s="123" t="s">
         <v>217</v>
       </c>
@@ -5884,9 +5896,9 @@
       </c>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="170"/>
-      <c r="B42" s="197"/>
-      <c r="C42" s="202"/>
+      <c r="A42" s="198"/>
+      <c r="B42" s="170"/>
+      <c r="C42" s="175"/>
       <c r="D42" s="123" t="s">
         <v>218</v>
       </c>
@@ -5898,9 +5910,9 @@
       </c>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="170"/>
-      <c r="B43" s="197"/>
-      <c r="C43" s="202"/>
+      <c r="A43" s="198"/>
+      <c r="B43" s="170"/>
+      <c r="C43" s="175"/>
       <c r="D43" s="123" t="s">
         <v>215</v>
       </c>
@@ -5912,9 +5924,9 @@
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="170"/>
-      <c r="B44" s="197"/>
-      <c r="C44" s="202"/>
+      <c r="A44" s="198"/>
+      <c r="B44" s="170"/>
+      <c r="C44" s="175"/>
       <c r="D44" s="123" t="s">
         <v>200</v>
       </c>
@@ -5926,9 +5938,9 @@
       </c>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="170"/>
-      <c r="B45" s="197"/>
-      <c r="C45" s="203"/>
+      <c r="A45" s="198"/>
+      <c r="B45" s="170"/>
+      <c r="C45" s="176"/>
       <c r="D45" s="123" t="s">
         <v>219</v>
       </c>
@@ -5940,7 +5952,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="17">
-      <c r="A46" s="170"/>
+      <c r="A46" s="198"/>
       <c r="B46" s="124" t="s">
         <v>162</v>
       </c>
@@ -5956,7 +5968,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="17">
-      <c r="A47" s="171"/>
+      <c r="A47" s="199"/>
       <c r="B47" s="124" t="s">
         <v>164</v>
       </c>
@@ -5980,10 +5992,10 @@
       <c r="F48" s="2"/>
     </row>
     <row r="49" spans="1:6" ht="36">
-      <c r="A49" s="183" t="s">
+      <c r="A49" s="211" t="s">
         <v>136</v>
       </c>
-      <c r="B49" s="190" t="s">
+      <c r="B49" s="218" t="s">
         <v>147</v>
       </c>
       <c r="C49" s="39" t="s">
@@ -6000,10 +6012,10 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="18">
-      <c r="A50" s="183"/>
-      <c r="B50" s="191"/>
+      <c r="A50" s="211"/>
+      <c r="B50" s="219"/>
       <c r="C50" s="41" t="s">
-        <v>91</v>
+        <v>269</v>
       </c>
       <c r="D50" s="123" t="s">
         <v>122</v>
@@ -6016,8 +6028,8 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="18">
-      <c r="A51" s="183"/>
-      <c r="B51" s="191"/>
+      <c r="A51" s="211"/>
+      <c r="B51" s="219"/>
       <c r="C51" s="41" t="s">
         <v>121</v>
       </c>
@@ -6032,8 +6044,8 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="18">
-      <c r="A52" s="183"/>
-      <c r="B52" s="191"/>
+      <c r="A52" s="211"/>
+      <c r="B52" s="219"/>
       <c r="C52" s="41" t="s">
         <v>119</v>
       </c>
@@ -6048,8 +6060,8 @@
       </c>
     </row>
     <row r="53" spans="1:6" ht="18">
-      <c r="A53" s="183"/>
-      <c r="B53" s="192"/>
+      <c r="A53" s="211"/>
+      <c r="B53" s="220"/>
       <c r="C53" s="41" t="s">
         <v>236</v>
       </c>
@@ -6062,8 +6074,8 @@
       </c>
     </row>
     <row r="54" spans="1:6" ht="18">
-      <c r="A54" s="183"/>
-      <c r="B54" s="193" t="s">
+      <c r="A54" s="211"/>
+      <c r="B54" s="221" t="s">
         <v>123</v>
       </c>
       <c r="C54" s="42" t="s">
@@ -6074,8 +6086,8 @@
       <c r="F54" s="43"/>
     </row>
     <row r="55" spans="1:6" ht="18">
-      <c r="A55" s="183"/>
-      <c r="B55" s="194"/>
+      <c r="A55" s="211"/>
+      <c r="B55" s="222"/>
       <c r="C55" s="42" t="s">
         <v>227</v>
       </c>
@@ -6090,8 +6102,8 @@
       </c>
     </row>
     <row r="56" spans="1:6" ht="18">
-      <c r="A56" s="183"/>
-      <c r="B56" s="194"/>
+      <c r="A56" s="211"/>
+      <c r="B56" s="222"/>
       <c r="C56" s="42" t="s">
         <v>228</v>
       </c>
@@ -6106,8 +6118,8 @@
       </c>
     </row>
     <row r="57" spans="1:6" ht="18">
-      <c r="A57" s="183"/>
-      <c r="B57" s="194"/>
+      <c r="A57" s="211"/>
+      <c r="B57" s="222"/>
       <c r="C57" s="42" t="s">
         <v>229</v>
       </c>
@@ -6122,8 +6134,8 @@
       </c>
     </row>
     <row r="58" spans="1:6" ht="18">
-      <c r="A58" s="183"/>
-      <c r="B58" s="194"/>
+      <c r="A58" s="211"/>
+      <c r="B58" s="222"/>
       <c r="C58" s="42" t="s">
         <v>236</v>
       </c>
@@ -6136,8 +6148,8 @@
       </c>
     </row>
     <row r="59" spans="1:6" ht="18">
-      <c r="A59" s="183"/>
-      <c r="B59" s="175" t="s">
+      <c r="A59" s="211"/>
+      <c r="B59" s="203" t="s">
         <v>244</v>
       </c>
       <c r="C59" s="110" t="s">
@@ -6154,8 +6166,8 @@
       </c>
     </row>
     <row r="60" spans="1:6" ht="18">
-      <c r="A60" s="183"/>
-      <c r="B60" s="176"/>
+      <c r="A60" s="211"/>
+      <c r="B60" s="204"/>
       <c r="C60" s="110" t="s">
         <v>230</v>
       </c>
@@ -6168,8 +6180,8 @@
       </c>
     </row>
     <row r="61" spans="1:6" ht="18">
-      <c r="A61" s="183"/>
-      <c r="B61" s="176"/>
+      <c r="A61" s="211"/>
+      <c r="B61" s="204"/>
       <c r="C61" s="110" t="s">
         <v>163</v>
       </c>
@@ -6182,8 +6194,8 @@
       </c>
     </row>
     <row r="62" spans="1:6" ht="18">
-      <c r="A62" s="183"/>
-      <c r="B62" s="177"/>
+      <c r="A62" s="211"/>
+      <c r="B62" s="205"/>
       <c r="C62" s="110" t="s">
         <v>236</v>
       </c>
@@ -6196,8 +6208,8 @@
       </c>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="183"/>
-      <c r="B63" s="178" t="s">
+      <c r="A63" s="211"/>
+      <c r="B63" s="206" t="s">
         <v>151</v>
       </c>
       <c r="C63" s="38"/>
@@ -6206,8 +6218,8 @@
       <c r="F63" s="38"/>
     </row>
     <row r="64" spans="1:6" ht="18">
-      <c r="A64" s="183"/>
-      <c r="B64" s="179"/>
+      <c r="A64" s="211"/>
+      <c r="B64" s="207"/>
       <c r="C64" s="44" t="s">
         <v>231</v>
       </c>
@@ -6222,8 +6234,8 @@
       </c>
     </row>
     <row r="65" spans="1:6" ht="18">
-      <c r="A65" s="183"/>
-      <c r="B65" s="179"/>
+      <c r="A65" s="211"/>
+      <c r="B65" s="207"/>
       <c r="C65" s="44" t="s">
         <v>232</v>
       </c>
@@ -6238,8 +6250,8 @@
       </c>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="183"/>
-      <c r="B66" s="180"/>
+      <c r="A66" s="211"/>
+      <c r="B66" s="208"/>
       <c r="C66" s="45" t="s">
         <v>233</v>
       </c>
@@ -6250,8 +6262,8 @@
       </c>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="183"/>
-      <c r="B67" s="181" t="s">
+      <c r="A67" s="211"/>
+      <c r="B67" s="209" t="s">
         <v>152</v>
       </c>
       <c r="C67" s="107" t="s">
@@ -6268,8 +6280,8 @@
       </c>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="183"/>
-      <c r="B68" s="182"/>
+      <c r="A68" s="211"/>
+      <c r="B68" s="210"/>
       <c r="C68" s="107" t="s">
         <v>233</v>
       </c>
@@ -6282,8 +6294,8 @@
       </c>
     </row>
     <row r="69" spans="1:6" ht="18">
-      <c r="A69" s="183"/>
-      <c r="B69" s="187" t="s">
+      <c r="A69" s="211"/>
+      <c r="B69" s="215" t="s">
         <v>153</v>
       </c>
       <c r="C69" s="33" t="s">
@@ -6298,8 +6310,8 @@
       </c>
     </row>
     <row r="70" spans="1:6" ht="18">
-      <c r="A70" s="183"/>
-      <c r="B70" s="188"/>
+      <c r="A70" s="211"/>
+      <c r="B70" s="216"/>
       <c r="C70" s="33" t="s">
         <v>235</v>
       </c>
@@ -6312,8 +6324,8 @@
       </c>
     </row>
     <row r="71" spans="1:6" ht="18">
-      <c r="A71" s="183"/>
-      <c r="B71" s="189"/>
+      <c r="A71" s="211"/>
+      <c r="B71" s="217"/>
       <c r="C71" s="33" t="s">
         <v>233</v>
       </c>
@@ -6326,8 +6338,8 @@
       </c>
     </row>
     <row r="72" spans="1:6" ht="18">
-      <c r="A72" s="183"/>
-      <c r="B72" s="184" t="s">
+      <c r="A72" s="211"/>
+      <c r="B72" s="212" t="s">
         <v>154</v>
       </c>
       <c r="C72" s="35" t="s">
@@ -6344,8 +6356,8 @@
       </c>
     </row>
     <row r="73" spans="1:6" ht="17">
-      <c r="A73" s="183"/>
-      <c r="B73" s="185"/>
+      <c r="A73" s="211"/>
+      <c r="B73" s="213"/>
       <c r="C73" s="6" t="s">
         <v>116</v>
       </c>
@@ -6358,8 +6370,8 @@
       </c>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" s="183"/>
-      <c r="B74" s="186"/>
+      <c r="A74" s="211"/>
+      <c r="B74" s="214"/>
       <c r="C74" s="6" t="s">
         <v>233</v>
       </c>
@@ -6372,7 +6384,7 @@
       </c>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" s="172" t="s">
+      <c r="A75" s="200" t="s">
         <v>159</v>
       </c>
       <c r="B75" s="37" t="s">
@@ -6390,7 +6402,7 @@
       </c>
     </row>
     <row r="76" spans="1:6">
-      <c r="A76" s="173"/>
+      <c r="A76" s="201"/>
       <c r="B76" s="37" t="s">
         <v>161</v>
       </c>
@@ -6406,7 +6418,7 @@
       </c>
     </row>
     <row r="77" spans="1:6">
-      <c r="A77" s="174"/>
+      <c r="A77" s="202"/>
       <c r="B77" s="37"/>
       <c r="C77" s="37" t="s">
         <v>233</v>
@@ -6420,7 +6432,7 @@
       </c>
     </row>
     <row r="78" spans="1:6">
-      <c r="A78" s="168" t="s">
+      <c r="A78" s="196" t="s">
         <v>222</v>
       </c>
       <c r="B78" s="5"/>
@@ -6434,7 +6446,7 @@
       <c r="F78" s="5"/>
     </row>
     <row r="79" spans="1:6">
-      <c r="A79" s="168"/>
+      <c r="A79" s="196"/>
       <c r="B79" s="5" t="s">
         <v>223</v>
       </c>
@@ -6448,7 +6460,7 @@
       <c r="F79" s="5"/>
     </row>
     <row r="80" spans="1:6">
-      <c r="A80" s="168"/>
+      <c r="A80" s="196"/>
       <c r="B80" s="5" t="s">
         <v>224</v>
       </c>
@@ -6462,7 +6474,7 @@
       <c r="F80" s="5"/>
     </row>
     <row r="81" spans="1:6">
-      <c r="A81" s="168"/>
+      <c r="A81" s="196"/>
       <c r="B81" s="115" t="s">
         <v>225</v>
       </c>
@@ -6474,7 +6486,7 @@
       <c r="F81" s="5"/>
     </row>
     <row r="82" spans="1:6">
-      <c r="A82" s="168"/>
+      <c r="A82" s="196"/>
       <c r="B82" s="5"/>
       <c r="C82" s="122"/>
       <c r="D82" s="113"/>
@@ -6540,6 +6552,16 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="B72:B74"/>
+    <mergeCell ref="A75:A77"/>
+    <mergeCell ref="A78:A82"/>
+    <mergeCell ref="A49:A74"/>
+    <mergeCell ref="B49:B53"/>
+    <mergeCell ref="B54:B58"/>
+    <mergeCell ref="B59:B62"/>
+    <mergeCell ref="B63:B66"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A3:A8"/>
     <mergeCell ref="B3:B5"/>
@@ -6555,16 +6577,6 @@
     <mergeCell ref="C35:C39"/>
     <mergeCell ref="B40:B45"/>
     <mergeCell ref="C40:C45"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="B69:B71"/>
-    <mergeCell ref="B72:B74"/>
-    <mergeCell ref="A75:A77"/>
-    <mergeCell ref="A78:A82"/>
-    <mergeCell ref="A49:A74"/>
-    <mergeCell ref="B49:B53"/>
-    <mergeCell ref="B54:B58"/>
-    <mergeCell ref="B59:B62"/>
-    <mergeCell ref="B63:B66"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
